--- a/static/PilotTest.xlsx
+++ b/static/PilotTest.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaychenkoroman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB199E1-20B9-ED48-AD01-0C3247E875D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CB0BBA-F93E-5944-8AEB-0D5C749DCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16360" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PilotTest" sheetId="1" r:id="rId1"/>
@@ -198,30 +198,18 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Тема вопрса выбирается из выпадающего списка - ПОЛЕ ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ</t>
-  </si>
-  <si>
     <t>Вопрос</t>
   </si>
   <si>
     <t>Варинт #1</t>
   </si>
   <si>
-    <t xml:space="preserve">Первый вариант ответа на вопрос - ПОЛЕ ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ							</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сам вопрос в произвольной формулировке - ПОЛЕ ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ					</t>
-  </si>
-  <si>
     <t>Во вкладке PilotTest представлена форма для заполнения полей вопроса.  Один вопрос занимает одну строку. Кадый вопрос содержит несколько обязательных полей для заполнения. Для примера заполнено несколько вопросов.</t>
   </si>
   <si>
     <t>Варинт #2</t>
   </si>
   <si>
-    <t xml:space="preserve">Второй вариант ответа на вопрос - ПОЛЕ ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ							</t>
-  </si>
-  <si>
     <t>Варинт #3</t>
   </si>
   <si>
@@ -231,19 +219,53 @@
     <t>Варинт #5</t>
   </si>
   <si>
+    <t>"Вес вопроса"</t>
+  </si>
+  <si>
+    <t>Ответ</t>
+  </si>
+  <si>
+    <t>Вид Вопроса</t>
+  </si>
+  <si>
+    <t>Ответы</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Третий вариант ответа на вопрос - ПОЛЕ </t>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Тема вопроса</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Тема вопрса выбирается из выпадающего списка - ПОЛЕ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
       </rPr>
-      <t>НЕ</t>
+      <t>ОБЯЗАТЕЛЬНО</t>
     </r>
     <r>
       <rPr>
@@ -254,23 +276,22 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ							</t>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Четвёртый вариант ответа на вопрос - ПОЛЕ </t>
+      <t xml:space="preserve">Сам вопрос в произвольной формулировке - ПОЛЕ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
       </rPr>
-      <t>НЕ</t>
+      <t>ОБЯЗАТЕЛЬНО</t>
     </r>
     <r>
       <rPr>
@@ -281,23 +302,22 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ							</t>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ					</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Пятый вариант ответа на вопрос - ПОЛЕ </t>
+      <t xml:space="preserve">Первый вариант ответа на вопрос - ПОЛЕ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
       </rPr>
-      <t>НЕ</t>
+      <t>ОБЯЗАТЕЛЬНО</t>
     </r>
     <r>
       <rPr>
@@ -308,7 +328,111 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ							</t>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ							</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Второй вариант ответа на вопрос - ПОЛЕ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ОБЯЗАТЕЛЬНО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ							</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Третий вариант ответа на вопрос - ПОЛЕ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>НЕ ОБЯЗАТЕЛЬНО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ							</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Четвёртый вариант ответа на вопрос - ПОЛЕ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>НЕ ОБЯЗАТЕЛЬНО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ							</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Пятый вариант ответа на вопрос - ПОЛЕ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>НЕ ОБЯЗАТЕЛЬНО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ							</t>
     </r>
   </si>
   <si>
@@ -335,7 +459,7 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - Вид вопроса с одним правльиным вариатом ответа. </t>
+      <t xml:space="preserve"> - Вид вопроса с одним правильным вариатом ответа. </t>
     </r>
     <r>
       <rPr>
@@ -357,26 +481,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>- Вид вопроса с возможностью выбора нескольких правильных вариантов ответа - ПОЛЕ ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ</t>
-    </r>
-  </si>
-  <si>
-    <t>"Вес вопроса"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Поле для заполнения Инструкторским составом. ПОЛЕ </t>
+      <t xml:space="preserve">- Вид вопроса с возможностью выбора нескольких правильных вариантов ответа - ПОЛЕ </t>
     </r>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
       </rPr>
-      <t>НЕ</t>
+      <t>ОБЯЗАТЕЛЬНО</t>
     </r>
     <r>
       <rPr>
@@ -387,21 +502,59 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> ОБЯЗАТЕЛЬНО ДЛЯ ЗАПОЛНЕНИЯ	</t>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ</t>
     </r>
   </si>
   <si>
-    <t>Ответ</t>
-  </si>
-  <si>
-    <t>Вид Вопроса</t>
-  </si>
-  <si>
-    <t>Ответы</t>
-  </si>
-  <si>
     <r>
-      <t>Поле содержит отдну цифру с номером правильного ответа на вопрос. Поле Обязательно к заполнению, если в поле "</t>
+      <t xml:space="preserve">Поле для заполнения Инструкторским составом. ПОЛЕ </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>НЕ ОБЯЗАТЕЛЬНО</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ДЛЯ ЗАПОЛНЕНИЯ	</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поле содержит одну цифру с номером правильного ответа на вопрос. Поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обязательно к заполнению</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, если в поле "</t>
     </r>
     <r>
       <rPr>
@@ -423,12 +576,43 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" был выбран вариант "Один Ответ". Если был выбран вариант "Несколько ответов", то поле не заполняется</t>
+      <t xml:space="preserve">" был выбран вариант "Один Ответ". Если был выбран вариант "Несколько ответов", то поле </t>
     </r>
-  </si>
-  <si>
     <r>
-      <t>Поле содержит цифры через запятую, без пробелов с номерами правильных ответов на вопрос. Поле Обязательно к заполнению, если в поле "</t>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>не заполняется</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поле содержит цифры через запятую, без пробелов с номерами правильных ответов на вопрос. Поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обязательно к заполнению</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="20"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, если в поле "</t>
     </r>
     <r>
       <rPr>
@@ -450,30 +634,17 @@
         <charset val="204"/>
         <scheme val="minor"/>
       </rPr>
-      <t>" был выбран вариант "Несколько ответов". Если был выбран вариант "Один Ответ", то поле не заполняется</t>
+      <t xml:space="preserve">" был выбран вариант "Несколько ответов". Если был выбран вариант "Один Ответ", то </t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
         <sz val="20"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <color theme="5"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
       </rPr>
-      <t>Тема вопроса</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color theme="5" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
+      <t>поле не заполняется</t>
     </r>
   </si>
 </sst>
@@ -481,7 +652,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -568,6 +739,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="5"/>
+      <name val="Calibri (Основной текст)"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -821,17 +1006,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -842,10 +1045,19 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -860,47 +1072,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1235,7 +1420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F236E5-94C4-4CE9-B439-5C26C09E2983}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
@@ -1253,41 +1438,41 @@
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="30" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="29"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5573,8 +5758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91409B47-9852-A143-B2A1-C654B176FF6D}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5589,371 +5774,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="29"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="29"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+    </row>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="19"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="27"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="14"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="14"/>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="8"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="14"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="14"/>
+    </row>
+    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="14"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="14"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="25"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="14"/>
+    </row>
+    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="14"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="14"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="14"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="14"/>
+    </row>
+    <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="12"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="8"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="8"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="8"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="17"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="17"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="18"/>
-      <c r="C29" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="10"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+    </row>
+    <row r="30" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:H28"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A6:H7"/>
     <mergeCell ref="C13:H14"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="A15:B16"/>
@@ -5964,9 +6138,20 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:H12"/>
     <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A6:H7"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:H28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/PilotTest.xlsx
+++ b/static/PilotTest.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaychenkoroman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CB0BBA-F93E-5944-8AEB-0D5C749DCF39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C30D7D2-A530-6047-ADBB-CC72A8C736B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16360" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16360" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PilotTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Списки ввода" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Списки ввода" sheetId="2" r:id="rId2"/>
     <sheet name="Инструкция" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>Вид вопроса (один вариант правильного ответа или несколько)</t>
   </si>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>Сколько топливных баков у семейства сомолётов Boeing 737NG?</t>
-  </si>
-  <si>
-    <t>Что из перечисленного питает Sys B</t>
   </si>
   <si>
     <t>Brakes</t>
@@ -647,6 +644,57 @@
       <t>поле не заполняется</t>
     </r>
   </si>
+  <si>
+    <t>Тип ВС</t>
+  </si>
+  <si>
+    <t>Типы ВС</t>
+  </si>
+  <si>
+    <t>Тиа ВС</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Поле содержит тиа Вохдушного Судна, к которому отночится вопрос. Поле </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri (Основной текст)"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Обязательно к заполнению.</t>
+    </r>
+  </si>
+  <si>
+    <t>От какой гидравлической системы работают Flight Spoilers?</t>
+  </si>
+  <si>
+    <t>B737</t>
+  </si>
+  <si>
+    <t>B777</t>
+  </si>
+  <si>
+    <t>A32X</t>
+  </si>
+  <si>
+    <t>A33X</t>
+  </si>
+  <si>
+    <t>System B</t>
+  </si>
+  <si>
+    <t>System A</t>
+  </si>
+  <si>
+    <t>StandBy  System</t>
+  </si>
+  <si>
+    <t>Что из перечисленного питает Sys B?</t>
+  </si>
 </sst>
 </file>
 
@@ -997,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1018,17 +1066,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1039,12 +1084,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1053,6 +1092,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1078,13 +1123,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,13 +1163,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}" name="Таблица1" displayName="Таблица1" ref="A1:D18" totalsRowShown="0">
-  <autoFilter ref="A1:D18" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}"/>
-  <tableColumns count="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}" name="Таблица1" displayName="Таблица1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{659D079B-4217-40F9-A886-E0EA6624287D}" name="Темы Вопросов"/>
     <tableColumn id="2" xr3:uid="{A7BB0D08-CCFD-4E28-BAF6-65E4D257C31B}" name="Столбец1"/>
     <tableColumn id="3" xr3:uid="{5E5BCF4F-C7C2-4FE5-B8C4-4DE2483E3242}" name="Столбец2" dataDxfId="0"/>
     <tableColumn id="4" xr3:uid="{20C170F3-C8E1-46CF-9814-62797B314BD1}" name="Столбец3"/>
+    <tableColumn id="5" xr3:uid="{6504C586-FE67-8440-82EF-B0B1FF558A00}" name="Типы ВС"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1420,9 +1475,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F236E5-94C4-4CE9-B439-5C26C09E2983}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1436,35 +1491,36 @@
     <col min="8" max="8" width="25.1640625" customWidth="1"/>
     <col min="9" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="D1" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="E1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>1</v>
@@ -1472,7 +1528,9 @@
       <c r="K1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -1500,6 +1558,9 @@
         <v>1</v>
       </c>
       <c r="K2" s="2"/>
+      <c r="L2" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1531,28 +1592,31 @@
         <v>3</v>
       </c>
       <c r="K3" s="2"/>
+      <c r="L3" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>23</v>
@@ -1562,2523 +1626,6510 @@
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="L4" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="32" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="L6" s="32"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
+      <c r="B7" s="31"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="L7" s="32"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
+      <c r="B8" s="31"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="L8" s="32"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
+      <c r="B9" s="31"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="L9" s="32"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="L10" s="32"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="32"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="32"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="L13" s="32"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="L14" s="32"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="L15" s="32"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="2"/>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="2"/>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="2"/>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="2"/>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="2"/>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="2"/>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="2"/>
+      <c r="L22" s="32"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="2"/>
+      <c r="L23" s="32"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="2"/>
+      <c r="L24" s="32"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
+      <c r="B25" s="31"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="2"/>
+      <c r="L25" s="32"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
+      <c r="B26" s="31"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="2"/>
+      <c r="L26" s="32"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
+      <c r="B27" s="31"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="2"/>
+      <c r="L27" s="32"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="2"/>
+      <c r="L28" s="32"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="2"/>
+      <c r="L29" s="32"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="2"/>
+      <c r="L30" s="32"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="2"/>
+      <c r="L31" s="32"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="2"/>
+      <c r="L32" s="32"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="2"/>
+      <c r="L33" s="32"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="2"/>
+      <c r="L34" s="32"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="2"/>
+      <c r="L35" s="32"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="2"/>
+      <c r="L36" s="32"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="2"/>
+      <c r="L37" s="32"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="2"/>
+      <c r="L38" s="32"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="2"/>
+      <c r="L39" s="32"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="2"/>
+      <c r="L40" s="32"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J41" s="2"/>
+      <c r="L41" s="32"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
+      <c r="B42" s="31"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J42" s="2"/>
+      <c r="L42" s="32"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
+      <c r="B43" s="31"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J43" s="2"/>
+      <c r="L43" s="32"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
+      <c r="B44" s="31"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J44" s="2"/>
+      <c r="L44" s="32"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J45" s="2"/>
+      <c r="L45" s="32"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J46" s="2"/>
+      <c r="L46" s="32"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J47" s="2"/>
+      <c r="L47" s="32"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J48" s="2"/>
+      <c r="L48" s="32"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J49" s="2"/>
+      <c r="L49" s="32"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J50" s="2"/>
+      <c r="L50" s="32"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J51" s="2"/>
+      <c r="L51" s="32"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
+      <c r="B52" s="31"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J52" s="2"/>
+      <c r="L52" s="32"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J53" s="2"/>
+      <c r="L53" s="32"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
+      <c r="B54" s="31"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J54" s="2"/>
+      <c r="L54" s="32"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J55" s="2"/>
+      <c r="L55" s="32"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J56" s="2"/>
+      <c r="L56" s="32"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J57" s="2"/>
+      <c r="L57" s="32"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J58" s="2"/>
+      <c r="L58" s="32"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J59" s="2"/>
+      <c r="L59" s="32"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
+      <c r="B60" s="31"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J60" s="2"/>
+      <c r="L60" s="32"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J61" s="2"/>
+      <c r="L61" s="32"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J62" s="2"/>
+      <c r="L62" s="32"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J63" s="2"/>
+      <c r="L63" s="32"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J64" s="2"/>
+      <c r="L64" s="32"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J65" s="2"/>
+      <c r="L65" s="32"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
+      <c r="B66" s="31"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J66" s="2"/>
+      <c r="L66" s="32"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
+      <c r="B67" s="31"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J67" s="2"/>
+      <c r="L67" s="32"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
+      <c r="B68" s="31"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J68" s="2"/>
+      <c r="L68" s="32"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
+      <c r="B69" s="31"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J69" s="2"/>
+      <c r="L69" s="32"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
+      <c r="B70" s="31"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J70" s="2"/>
+      <c r="L70" s="32"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
+      <c r="B71" s="31"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J71" s="2"/>
+      <c r="L71" s="32"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J72" s="2"/>
+      <c r="L72" s="32"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J73" s="2"/>
+      <c r="L73" s="32"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
+      <c r="B74" s="31"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J74" s="2"/>
+      <c r="L74" s="32"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J75" s="2"/>
+      <c r="L75" s="32"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
+      <c r="B76" s="31"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J76" s="2"/>
+      <c r="L76" s="32"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
+      <c r="B77" s="31"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J77" s="2"/>
+      <c r="L77" s="32"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
+      <c r="B78" s="31"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J78" s="2"/>
+      <c r="L78" s="32"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
+      <c r="B79" s="31"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J79" s="2"/>
+      <c r="L79" s="32"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
+      <c r="B80" s="31"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="2"/>
+      <c r="L80" s="32"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
+      <c r="B81" s="31"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J81" s="2"/>
+      <c r="L81" s="32"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
+      <c r="B82" s="31"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J82" s="2"/>
+      <c r="L82" s="32"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
+      <c r="B83" s="31"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J83" s="2"/>
+      <c r="L83" s="32"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
+      <c r="B84" s="31"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J84" s="2"/>
+      <c r="L84" s="32"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
+      <c r="B85" s="31"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J85" s="2"/>
+      <c r="L85" s="32"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J86" s="2"/>
+      <c r="L86" s="32"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J87" s="2"/>
+      <c r="L87" s="32"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
+      <c r="B88" s="31"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J88" s="2"/>
+      <c r="L88" s="32"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
+      <c r="B89" s="31"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J89" s="2"/>
+      <c r="L89" s="32"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
+      <c r="B90" s="31"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J90" s="2"/>
+      <c r="L90" s="32"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J91" s="2"/>
+      <c r="L91" s="32"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J92" s="2"/>
+      <c r="L92" s="32"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
+      <c r="B93" s="31"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J93" s="2"/>
+      <c r="L93" s="32"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
+      <c r="B94" s="31"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J94" s="2"/>
+      <c r="L94" s="32"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
+      <c r="B95" s="31"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J95" s="2"/>
+      <c r="L95" s="32"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
+      <c r="B96" s="31"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J96" s="2"/>
+      <c r="L96" s="32"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
+      <c r="B97" s="31"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J97" s="2"/>
+      <c r="L97" s="32"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
+      <c r="B98" s="31"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J98" s="2"/>
+      <c r="L98" s="32"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
+      <c r="B99" s="31"/>
+      <c r="C99" s="2"/>
+      <c r="D99" s="2"/>
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J99" s="2"/>
+      <c r="L99" s="32"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
+      <c r="B100" s="31"/>
+      <c r="C100" s="2"/>
+      <c r="D100" s="2"/>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J100" s="2"/>
+      <c r="L100" s="32"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
+      <c r="B101" s="31"/>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J101" s="2"/>
+      <c r="L101" s="32"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
+      <c r="B102" s="31"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J102" s="2"/>
+      <c r="L102" s="32"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
+      <c r="B103" s="31"/>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J103" s="2"/>
+      <c r="L103" s="32"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
+      <c r="B104" s="31"/>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J104" s="2"/>
+      <c r="L104" s="32"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
+      <c r="B105" s="31"/>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J105" s="2"/>
+      <c r="L105" s="32"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
+      <c r="B106" s="31"/>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J106" s="2"/>
+      <c r="L106" s="32"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
+      <c r="B107" s="31"/>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J107" s="2"/>
+      <c r="L107" s="32"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
+      <c r="B108" s="31"/>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J108" s="2"/>
+      <c r="L108" s="32"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
+      <c r="B109" s="31"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J109" s="2"/>
+      <c r="L109" s="32"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
+      <c r="B110" s="31"/>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+      <c r="G110" s="2"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J110" s="2"/>
+      <c r="L110" s="32"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
+      <c r="B111" s="31"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J111" s="2"/>
+      <c r="L111" s="32"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J112" s="2"/>
+      <c r="L112" s="32"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+      <c r="G113" s="2"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J113" s="2"/>
+      <c r="L113" s="32"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
+      <c r="B114" s="31"/>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J114" s="2"/>
+      <c r="L114" s="32"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
+      <c r="B115" s="31"/>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J115" s="2"/>
+      <c r="L115" s="32"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
+      <c r="B116" s="31"/>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J116" s="2"/>
+      <c r="L116" s="32"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J117" s="2"/>
+      <c r="L117" s="32"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J118" s="2"/>
+      <c r="L118" s="32"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J119" s="2"/>
+      <c r="L119" s="32"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
+      <c r="B120" s="31"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J120" s="2"/>
+      <c r="L120" s="32"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
+      <c r="B121" s="31"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J121" s="2"/>
+      <c r="L121" s="32"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
+      <c r="B122" s="31"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J122" s="2"/>
+      <c r="L122" s="32"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J123" s="2"/>
+      <c r="L123" s="32"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J124" s="2"/>
+      <c r="L124" s="32"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
+      <c r="B125" s="31"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J125" s="2"/>
+      <c r="L125" s="32"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
+      <c r="B126" s="31"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J126" s="2"/>
+      <c r="L126" s="32"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
+      <c r="B127" s="31"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J127" s="2"/>
+      <c r="L127" s="32"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
+      <c r="B128" s="31"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J128" s="2"/>
+      <c r="L128" s="32"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
+      <c r="B129" s="31"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J129" s="2"/>
+      <c r="L129" s="32"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
+      <c r="B130" s="31"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J130" s="2"/>
+      <c r="L130" s="32"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
+      <c r="B131" s="31"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J131" s="2"/>
+      <c r="L131" s="32"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
+      <c r="B132" s="31"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J132" s="2"/>
+      <c r="L132" s="32"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
+      <c r="B133" s="31"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J133" s="2"/>
+      <c r="L133" s="32"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
+      <c r="B134" s="31"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J134" s="2"/>
+      <c r="L134" s="32"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
+      <c r="B135" s="31"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J135" s="2"/>
+      <c r="L135" s="32"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
+      <c r="B136" s="31"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J136" s="2"/>
+      <c r="L136" s="32"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
+      <c r="B137" s="31"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J137" s="2"/>
+      <c r="L137" s="32"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
+      <c r="B138" s="31"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J138" s="2"/>
+      <c r="L138" s="32"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
+      <c r="B139" s="31"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J139" s="2"/>
+      <c r="L139" s="32"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
+      <c r="B140" s="31"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J140" s="2"/>
+      <c r="L140" s="32"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
+      <c r="B141" s="31"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J141" s="2"/>
+      <c r="L141" s="32"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
+      <c r="B142" s="31"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J142" s="2"/>
+      <c r="L142" s="32"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
+      <c r="B143" s="31"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J143" s="2"/>
+      <c r="L143" s="32"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
+      <c r="B144" s="31"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J144" s="2"/>
+      <c r="L144" s="32"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
+      <c r="B145" s="31"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J145" s="2"/>
+      <c r="L145" s="32"/>
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
+      <c r="B146" s="31"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J146" s="2"/>
+      <c r="L146" s="32"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
+      <c r="B147" s="31"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J147" s="2"/>
+      <c r="L147" s="32"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
+      <c r="B148" s="31"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J148" s="2"/>
+      <c r="L148" s="32"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
+      <c r="B149" s="31"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="E149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J149" s="2"/>
+      <c r="L149" s="32"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
+      <c r="B150" s="31"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="E150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J150" s="2"/>
+      <c r="L150" s="32"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
+      <c r="B151" s="31"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="E151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J151" s="2"/>
+      <c r="L151" s="32"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
+      <c r="B152" s="31"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="2"/>
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J152" s="2"/>
+      <c r="L152" s="32"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
+      <c r="B153" s="31"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2"/>
+      <c r="G153" s="2"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J153" s="2"/>
+      <c r="L153" s="32"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
+      <c r="B154" s="31"/>
+      <c r="C154" s="2"/>
+      <c r="D154" s="2"/>
+      <c r="E154" s="2"/>
+      <c r="F154" s="2"/>
+      <c r="G154" s="2"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J154" s="2"/>
+      <c r="L154" s="32"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
+      <c r="B155" s="31"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+      <c r="E155" s="2"/>
+      <c r="F155" s="2"/>
+      <c r="G155" s="2"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J155" s="2"/>
+      <c r="L155" s="32"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
+      <c r="B156" s="31"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J156" s="2"/>
+      <c r="L156" s="32"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
+      <c r="B157" s="31"/>
+      <c r="C157" s="2"/>
+      <c r="D157" s="2"/>
+      <c r="E157" s="2"/>
+      <c r="F157" s="2"/>
+      <c r="G157" s="2"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J157" s="2"/>
+      <c r="L157" s="32"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
+      <c r="B158" s="31"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+      <c r="E158" s="2"/>
+      <c r="F158" s="2"/>
+      <c r="G158" s="2"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J158" s="2"/>
+      <c r="L158" s="32"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
+      <c r="B159" s="31"/>
+      <c r="C159" s="2"/>
+      <c r="D159" s="2"/>
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J159" s="2"/>
+      <c r="L159" s="32"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
+      <c r="B160" s="31"/>
+      <c r="C160" s="2"/>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2"/>
+      <c r="F160" s="2"/>
+      <c r="G160" s="2"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J160" s="2"/>
+      <c r="L160" s="32"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
+      <c r="B161" s="31"/>
+      <c r="C161" s="2"/>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2"/>
+      <c r="F161" s="2"/>
+      <c r="G161" s="2"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J161" s="2"/>
+      <c r="L161" s="32"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
+      <c r="B162" s="31"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J162" s="2"/>
+      <c r="L162" s="32"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
+      <c r="B163" s="31"/>
+      <c r="C163" s="2"/>
+      <c r="D163" s="2"/>
+      <c r="E163" s="2"/>
+      <c r="F163" s="2"/>
+      <c r="G163" s="2"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J163" s="2"/>
+      <c r="L163" s="32"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
+      <c r="B164" s="31"/>
+      <c r="C164" s="2"/>
+      <c r="D164" s="2"/>
+      <c r="E164" s="2"/>
+      <c r="F164" s="2"/>
+      <c r="G164" s="2"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J164" s="2"/>
+      <c r="L164" s="32"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
+      <c r="B165" s="31"/>
+      <c r="C165" s="2"/>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J165" s="2"/>
+      <c r="L165" s="32"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="2"/>
+      <c r="D166" s="2"/>
+      <c r="E166" s="2"/>
+      <c r="F166" s="2"/>
+      <c r="G166" s="2"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J166" s="2"/>
+      <c r="L166" s="32"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="2"/>
+      <c r="D167" s="2"/>
+      <c r="E167" s="2"/>
+      <c r="F167" s="2"/>
+      <c r="G167" s="2"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J167" s="2"/>
+      <c r="L167" s="32"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="2"/>
+      <c r="D168" s="2"/>
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J168" s="2"/>
+      <c r="L168" s="32"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
+      <c r="B169" s="31"/>
+      <c r="C169" s="2"/>
+      <c r="D169" s="2"/>
+      <c r="E169" s="2"/>
+      <c r="F169" s="2"/>
+      <c r="G169" s="2"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J169" s="2"/>
+      <c r="L169" s="32"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
+      <c r="B170" s="31"/>
+      <c r="C170" s="2"/>
+      <c r="D170" s="2"/>
+      <c r="E170" s="2"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J170" s="2"/>
+      <c r="L170" s="32"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
+      <c r="B171" s="31"/>
+      <c r="C171" s="2"/>
+      <c r="D171" s="2"/>
+      <c r="E171" s="2"/>
+      <c r="F171" s="2"/>
+      <c r="G171" s="2"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J171" s="2"/>
+      <c r="L171" s="32"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="2"/>
+      <c r="D172" s="2"/>
+      <c r="E172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J172" s="2"/>
+      <c r="L172" s="32"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="2"/>
+      <c r="D173" s="2"/>
+      <c r="E173" s="2"/>
+      <c r="F173" s="2"/>
+      <c r="G173" s="2"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J173" s="2"/>
+      <c r="L173" s="32"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
+      <c r="B174" s="31"/>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J174" s="2"/>
+      <c r="L174" s="32"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
+      <c r="B175" s="31"/>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J175" s="2"/>
+      <c r="L175" s="32"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
+      <c r="B176" s="31"/>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J176" s="2"/>
+      <c r="L176" s="32"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
+      <c r="B177" s="31"/>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J177" s="2"/>
+      <c r="L177" s="32"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
+      <c r="B178" s="31"/>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J178" s="2"/>
+      <c r="L178" s="32"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
+      <c r="B179" s="31"/>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J179" s="2"/>
+      <c r="L179" s="32"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
+      <c r="B180" s="31"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J180" s="2"/>
+      <c r="L180" s="32"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
+      <c r="B181" s="31"/>
+      <c r="C181" s="2"/>
+      <c r="D181" s="2"/>
+      <c r="E181" s="2"/>
+      <c r="F181" s="2"/>
+      <c r="G181" s="2"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J181" s="2"/>
+      <c r="L181" s="32"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
+      <c r="B182" s="31"/>
+      <c r="C182" s="2"/>
+      <c r="D182" s="2"/>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J182" s="2"/>
+      <c r="L182" s="32"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
+      <c r="B183" s="31"/>
+      <c r="C183" s="2"/>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
+      <c r="F183" s="2"/>
+      <c r="G183" s="2"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J183" s="2"/>
+      <c r="L183" s="32"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
+      <c r="B184" s="31"/>
+      <c r="C184" s="2"/>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2"/>
+      <c r="F184" s="2"/>
+      <c r="G184" s="2"/>
       <c r="H184" s="2"/>
       <c r="I184" s="2"/>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J184" s="2"/>
+      <c r="L184" s="32"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
+      <c r="B185" s="31"/>
+      <c r="C185" s="2"/>
+      <c r="D185" s="2"/>
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
       <c r="H185" s="2"/>
       <c r="I185" s="2"/>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J185" s="2"/>
+      <c r="L185" s="32"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
+      <c r="B186" s="31"/>
+      <c r="C186" s="2"/>
+      <c r="D186" s="2"/>
+      <c r="E186" s="2"/>
+      <c r="F186" s="2"/>
+      <c r="G186" s="2"/>
       <c r="H186" s="2"/>
       <c r="I186" s="2"/>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J186" s="2"/>
+      <c r="L186" s="32"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
+      <c r="B187" s="31"/>
+      <c r="C187" s="2"/>
+      <c r="D187" s="2"/>
+      <c r="E187" s="2"/>
+      <c r="F187" s="2"/>
+      <c r="G187" s="2"/>
       <c r="H187" s="2"/>
       <c r="I187" s="2"/>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J187" s="2"/>
+      <c r="L187" s="32"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
+      <c r="B188" s="31"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J188" s="2"/>
+      <c r="L188" s="32"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
+      <c r="B189" s="31"/>
+      <c r="C189" s="2"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J189" s="2"/>
+      <c r="L189" s="32"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
+      <c r="B190" s="31"/>
+      <c r="C190" s="2"/>
+      <c r="D190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2"/>
+      <c r="G190" s="2"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J190" s="2"/>
+      <c r="L190" s="32"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
+      <c r="B191" s="31"/>
+      <c r="C191" s="2"/>
+      <c r="D191" s="2"/>
+      <c r="E191" s="2"/>
+      <c r="F191" s="2"/>
+      <c r="G191" s="2"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J191" s="2"/>
+      <c r="L191" s="32"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
+      <c r="B192" s="31"/>
+      <c r="C192" s="2"/>
+      <c r="D192" s="2"/>
+      <c r="E192" s="2"/>
+      <c r="F192" s="2"/>
+      <c r="G192" s="2"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J192" s="2"/>
+      <c r="L192" s="32"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
+      <c r="B193" s="31"/>
+      <c r="C193" s="2"/>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2"/>
+      <c r="F193" s="2"/>
+      <c r="G193" s="2"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J193" s="2"/>
+      <c r="L193" s="32"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
+      <c r="B194" s="31"/>
+      <c r="C194" s="2"/>
+      <c r="D194" s="2"/>
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J194" s="2"/>
+      <c r="L194" s="32"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
+      <c r="B195" s="31"/>
+      <c r="C195" s="2"/>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
+      <c r="F195" s="2"/>
+      <c r="G195" s="2"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J195" s="2"/>
+      <c r="L195" s="32"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
+      <c r="B196" s="31"/>
+      <c r="C196" s="2"/>
+      <c r="D196" s="2"/>
+      <c r="E196" s="2"/>
+      <c r="F196" s="2"/>
+      <c r="G196" s="2"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J196" s="2"/>
+      <c r="L196" s="32"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
+      <c r="B197" s="31"/>
+      <c r="C197" s="2"/>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J197" s="2"/>
+      <c r="L197" s="32"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
+      <c r="B198" s="31"/>
+      <c r="C198" s="2"/>
+      <c r="D198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="2"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J198" s="2"/>
+      <c r="L198" s="32"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
+      <c r="B199" s="31"/>
+      <c r="C199" s="2"/>
+      <c r="D199" s="2"/>
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J199" s="2"/>
+      <c r="L199" s="32"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
+      <c r="B200" s="31"/>
+      <c r="C200" s="2"/>
+      <c r="D200" s="2"/>
+      <c r="E200" s="2"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="2"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J200" s="2"/>
+      <c r="L200" s="32"/>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
+      <c r="B201" s="31"/>
+      <c r="C201" s="2"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J201" s="2"/>
+      <c r="L201" s="32"/>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
+      <c r="B202" s="31"/>
+      <c r="C202" s="2"/>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
       <c r="H202" s="2"/>
       <c r="I202" s="2"/>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J202" s="2"/>
+      <c r="L202" s="32"/>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
+      <c r="B203" s="31"/>
+      <c r="C203" s="2"/>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
       <c r="H203" s="2"/>
       <c r="I203" s="2"/>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J203" s="2"/>
+      <c r="L203" s="32"/>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
+      <c r="B204" s="31"/>
+      <c r="C204" s="2"/>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2"/>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J204" s="2"/>
+      <c r="L204" s="32"/>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
+      <c r="B205" s="31"/>
+      <c r="C205" s="2"/>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J205" s="2"/>
+      <c r="L205" s="32"/>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
+      <c r="B206" s="31"/>
+      <c r="C206" s="2"/>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2"/>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
       <c r="H206" s="2"/>
       <c r="I206" s="2"/>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J206" s="2"/>
+      <c r="L206" s="32"/>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
+      <c r="B207" s="31"/>
+      <c r="C207" s="2"/>
+      <c r="D207" s="2"/>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
       <c r="H207" s="2"/>
       <c r="I207" s="2"/>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J207" s="2"/>
+      <c r="L207" s="32"/>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
+      <c r="B208" s="31"/>
+      <c r="C208" s="2"/>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
       <c r="H208" s="2"/>
       <c r="I208" s="2"/>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J208" s="2"/>
+      <c r="L208" s="32"/>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
+      <c r="B209" s="31"/>
+      <c r="C209" s="2"/>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
       <c r="H209" s="2"/>
       <c r="I209" s="2"/>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J209" s="2"/>
+      <c r="L209" s="32"/>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
+      <c r="B210" s="31"/>
+      <c r="C210" s="2"/>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2"/>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
       <c r="H210" s="2"/>
       <c r="I210" s="2"/>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J210" s="2"/>
+      <c r="L210" s="32"/>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
+      <c r="B211" s="31"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2"/>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
       <c r="H211" s="2"/>
       <c r="I211" s="2"/>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J211" s="2"/>
+      <c r="L211" s="32"/>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
+      <c r="B212" s="31"/>
+      <c r="C212" s="2"/>
+      <c r="D212" s="2"/>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
       <c r="H212" s="2"/>
       <c r="I212" s="2"/>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J212" s="2"/>
+      <c r="L212" s="32"/>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
+      <c r="B213" s="31"/>
+      <c r="C213" s="2"/>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
       <c r="H213" s="2"/>
       <c r="I213" s="2"/>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J213" s="2"/>
+      <c r="L213" s="32"/>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
+      <c r="B214" s="31"/>
+      <c r="C214" s="2"/>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
       <c r="H214" s="2"/>
       <c r="I214" s="2"/>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J214" s="2"/>
+      <c r="L214" s="32"/>
+    </row>
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
+      <c r="B215" s="31"/>
+      <c r="C215" s="2"/>
+      <c r="D215" s="2"/>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
       <c r="H215" s="2"/>
       <c r="I215" s="2"/>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J215" s="2"/>
+      <c r="L215" s="32"/>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
+      <c r="B216" s="31"/>
+      <c r="C216" s="2"/>
+      <c r="D216" s="2"/>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
       <c r="H216" s="2"/>
       <c r="I216" s="2"/>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J216" s="2"/>
+      <c r="L216" s="32"/>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
+      <c r="B217" s="31"/>
+      <c r="C217" s="2"/>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
       <c r="H217" s="2"/>
       <c r="I217" s="2"/>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J217" s="2"/>
+      <c r="L217" s="32"/>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
+      <c r="B218" s="31"/>
+      <c r="C218" s="2"/>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
       <c r="H218" s="2"/>
       <c r="I218" s="2"/>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J218" s="2"/>
+      <c r="L218" s="32"/>
+    </row>
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
+      <c r="B219" s="31"/>
+      <c r="C219" s="2"/>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
       <c r="H219" s="2"/>
       <c r="I219" s="2"/>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J219" s="2"/>
+      <c r="L219" s="32"/>
+    </row>
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
+      <c r="B220" s="31"/>
+      <c r="C220" s="2"/>
+      <c r="D220" s="2"/>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
       <c r="H220" s="2"/>
       <c r="I220" s="2"/>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J220" s="2"/>
+      <c r="L220" s="32"/>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
+      <c r="B221" s="31"/>
+      <c r="C221" s="2"/>
+      <c r="D221" s="2"/>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
       <c r="H221" s="2"/>
       <c r="I221" s="2"/>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J221" s="2"/>
+      <c r="L221" s="32"/>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
+      <c r="B222" s="31"/>
+      <c r="C222" s="2"/>
+      <c r="D222" s="2"/>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
       <c r="H222" s="2"/>
       <c r="I222" s="2"/>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J222" s="2"/>
+      <c r="L222" s="32"/>
+    </row>
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
+      <c r="B223" s="31"/>
+      <c r="C223" s="2"/>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
       <c r="H223" s="2"/>
       <c r="I223" s="2"/>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J223" s="2"/>
+      <c r="L223" s="32"/>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
+      <c r="B224" s="31"/>
+      <c r="C224" s="2"/>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
       <c r="H224" s="2"/>
       <c r="I224" s="2"/>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J224" s="2"/>
+      <c r="L224" s="32"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
+      <c r="B225" s="31"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
       <c r="H225" s="2"/>
       <c r="I225" s="2"/>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J225" s="2"/>
+      <c r="L225" s="32"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
+      <c r="B226" s="31"/>
+      <c r="C226" s="2"/>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2"/>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
       <c r="H226" s="2"/>
       <c r="I226" s="2"/>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J226" s="2"/>
+      <c r="L226" s="32"/>
+    </row>
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
+      <c r="B227" s="31"/>
+      <c r="C227" s="2"/>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2"/>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
       <c r="H227" s="2"/>
       <c r="I227" s="2"/>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J227" s="2"/>
+      <c r="L227" s="32"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
+      <c r="B228" s="31"/>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
       <c r="H228" s="2"/>
       <c r="I228" s="2"/>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J228" s="2"/>
+      <c r="L228" s="32"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
+      <c r="B229" s="31"/>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
       <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J229" s="2"/>
+      <c r="L229" s="32"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
+      <c r="B230" s="31"/>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
       <c r="H230" s="2"/>
       <c r="I230" s="2"/>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J230" s="2"/>
+      <c r="L230" s="32"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
+      <c r="B231" s="31"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
       <c r="H231" s="2"/>
       <c r="I231" s="2"/>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J231" s="2"/>
+      <c r="L231" s="32"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
+      <c r="B232" s="31"/>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
       <c r="H232" s="2"/>
       <c r="I232" s="2"/>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J232" s="2"/>
+      <c r="L232" s="32"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
+      <c r="B233" s="31"/>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
       <c r="H233" s="2"/>
       <c r="I233" s="2"/>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J233" s="2"/>
+      <c r="L233" s="32"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
+      <c r="B234" s="31"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
       <c r="H234" s="2"/>
       <c r="I234" s="2"/>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J234" s="2"/>
+      <c r="L234" s="32"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
+      <c r="B235" s="31"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2"/>
+      <c r="G235" s="2"/>
       <c r="H235" s="2"/>
       <c r="I235" s="2"/>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J235" s="2"/>
+      <c r="L235" s="32"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
+      <c r="B236" s="31"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2"/>
+      <c r="G236" s="2"/>
       <c r="H236" s="2"/>
       <c r="I236" s="2"/>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J236" s="2"/>
+      <c r="L236" s="32"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
+      <c r="B237" s="31"/>
+      <c r="C237" s="2"/>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
       <c r="H237" s="2"/>
       <c r="I237" s="2"/>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J237" s="2"/>
+      <c r="L237" s="32"/>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
+      <c r="B238" s="31"/>
+      <c r="C238" s="2"/>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2"/>
       <c r="H238" s="2"/>
       <c r="I238" s="2"/>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J238" s="2"/>
+      <c r="L238" s="32"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
+      <c r="B239" s="31"/>
+      <c r="C239" s="2"/>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2"/>
       <c r="H239" s="2"/>
       <c r="I239" s="2"/>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J239" s="2"/>
+      <c r="L239" s="32"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
+      <c r="B240" s="31"/>
+      <c r="C240" s="2"/>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2"/>
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J240" s="2"/>
+      <c r="L240" s="32"/>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
+      <c r="B241" s="31"/>
+      <c r="C241" s="2"/>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
       <c r="H241" s="2"/>
       <c r="I241" s="2"/>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J241" s="2"/>
+      <c r="L241" s="32"/>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
+      <c r="B242" s="31"/>
+      <c r="C242" s="2"/>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
       <c r="H242" s="2"/>
       <c r="I242" s="2"/>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J242" s="2"/>
+      <c r="L242" s="32"/>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
+      <c r="B243" s="31"/>
+      <c r="C243" s="2"/>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2"/>
+      <c r="G243" s="2"/>
       <c r="H243" s="2"/>
       <c r="I243" s="2"/>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J243" s="2"/>
+      <c r="L243" s="32"/>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
+      <c r="B244" s="31"/>
+      <c r="C244" s="2"/>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2"/>
       <c r="H244" s="2"/>
       <c r="I244" s="2"/>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J244" s="2"/>
+      <c r="L244" s="32"/>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
+      <c r="B245" s="31"/>
+      <c r="C245" s="2"/>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2"/>
       <c r="H245" s="2"/>
       <c r="I245" s="2"/>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J245" s="2"/>
+      <c r="L245" s="32"/>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
+      <c r="B246" s="31"/>
+      <c r="C246" s="2"/>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2"/>
       <c r="H246" s="2"/>
       <c r="I246" s="2"/>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J246" s="2"/>
+      <c r="L246" s="32"/>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
+      <c r="B247" s="31"/>
+      <c r="C247" s="2"/>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2"/>
       <c r="H247" s="2"/>
       <c r="I247" s="2"/>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J247" s="2"/>
+      <c r="L247" s="32"/>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
+      <c r="B248" s="31"/>
+      <c r="C248" s="2"/>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
       <c r="H248" s="2"/>
       <c r="I248" s="2"/>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J248" s="2"/>
+      <c r="L248" s="32"/>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
+      <c r="B249" s="31"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
       <c r="H249" s="2"/>
       <c r="I249" s="2"/>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J249" s="2"/>
+      <c r="L249" s="32"/>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
+      <c r="B250" s="31"/>
+      <c r="C250" s="2"/>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="2"/>
       <c r="H250" s="2"/>
       <c r="I250" s="2"/>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J250" s="2"/>
+      <c r="L250" s="32"/>
+    </row>
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
+      <c r="B251" s="31"/>
+      <c r="C251" s="2"/>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2"/>
       <c r="H251" s="2"/>
       <c r="I251" s="2"/>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J251" s="2"/>
+      <c r="L251" s="32"/>
+    </row>
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
+      <c r="B252" s="31"/>
+      <c r="C252" s="2"/>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2"/>
       <c r="H252" s="2"/>
       <c r="I252" s="2"/>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J252" s="2"/>
+      <c r="L252" s="32"/>
+    </row>
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
+      <c r="B253" s="31"/>
+      <c r="C253" s="2"/>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2"/>
       <c r="H253" s="2"/>
       <c r="I253" s="2"/>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J253" s="2"/>
+      <c r="L253" s="32"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
+      <c r="B254" s="31"/>
+      <c r="C254" s="2"/>
+      <c r="D254" s="2"/>
+      <c r="E254" s="2"/>
+      <c r="F254" s="2"/>
+      <c r="G254" s="2"/>
       <c r="H254" s="2"/>
       <c r="I254" s="2"/>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J254" s="2"/>
+      <c r="L254" s="32"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
+      <c r="B255" s="31"/>
+      <c r="C255" s="2"/>
+      <c r="D255" s="2"/>
+      <c r="E255" s="2"/>
+      <c r="F255" s="2"/>
+      <c r="G255" s="2"/>
       <c r="H255" s="2"/>
       <c r="I255" s="2"/>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J255" s="2"/>
+      <c r="L255" s="32"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
+      <c r="B256" s="31"/>
+      <c r="C256" s="2"/>
+      <c r="D256" s="2"/>
+      <c r="E256" s="2"/>
+      <c r="F256" s="2"/>
+      <c r="G256" s="2"/>
       <c r="H256" s="2"/>
       <c r="I256" s="2"/>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J256" s="2"/>
+      <c r="L256" s="32"/>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
+      <c r="B257" s="31"/>
+      <c r="C257" s="2"/>
+      <c r="D257" s="2"/>
+      <c r="E257" s="2"/>
+      <c r="F257" s="2"/>
+      <c r="G257" s="2"/>
       <c r="H257" s="2"/>
       <c r="I257" s="2"/>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J257" s="2"/>
+      <c r="L257" s="32"/>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
+      <c r="B258" s="31"/>
+      <c r="C258" s="2"/>
+      <c r="D258" s="2"/>
+      <c r="E258" s="2"/>
+      <c r="F258" s="2"/>
+      <c r="G258" s="2"/>
       <c r="H258" s="2"/>
       <c r="I258" s="2"/>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J258" s="2"/>
+      <c r="L258" s="32"/>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
+      <c r="B259" s="31"/>
+      <c r="C259" s="2"/>
+      <c r="D259" s="2"/>
+      <c r="E259" s="2"/>
+      <c r="F259" s="2"/>
+      <c r="G259" s="2"/>
       <c r="H259" s="2"/>
       <c r="I259" s="2"/>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J259" s="2"/>
+      <c r="L259" s="32"/>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
+      <c r="B260" s="31"/>
+      <c r="C260" s="2"/>
+      <c r="D260" s="2"/>
+      <c r="E260" s="2"/>
+      <c r="F260" s="2"/>
+      <c r="G260" s="2"/>
       <c r="H260" s="2"/>
       <c r="I260" s="2"/>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J260" s="2"/>
+      <c r="L260" s="32"/>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
+      <c r="B261" s="31"/>
+      <c r="C261" s="2"/>
+      <c r="D261" s="2"/>
+      <c r="E261" s="2"/>
+      <c r="F261" s="2"/>
+      <c r="G261" s="2"/>
       <c r="H261" s="2"/>
       <c r="I261" s="2"/>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J261" s="2"/>
+      <c r="L261" s="32"/>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
+      <c r="B262" s="31"/>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
+      <c r="E262" s="2"/>
+      <c r="F262" s="2"/>
+      <c r="G262" s="2"/>
       <c r="H262" s="2"/>
       <c r="I262" s="2"/>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J262" s="2"/>
+      <c r="L262" s="32"/>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
+      <c r="B263" s="31"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+      <c r="E263" s="2"/>
+      <c r="F263" s="2"/>
+      <c r="G263" s="2"/>
       <c r="H263" s="2"/>
       <c r="I263" s="2"/>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J263" s="2"/>
+      <c r="L263" s="32"/>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
+      <c r="B264" s="31"/>
+      <c r="C264" s="2"/>
+      <c r="D264" s="2"/>
+      <c r="E264" s="2"/>
+      <c r="F264" s="2"/>
+      <c r="G264" s="2"/>
       <c r="H264" s="2"/>
       <c r="I264" s="2"/>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J264" s="2"/>
+      <c r="L264" s="32"/>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
+      <c r="B265" s="31"/>
+      <c r="C265" s="2"/>
+      <c r="D265" s="2"/>
+      <c r="E265" s="2"/>
+      <c r="F265" s="2"/>
+      <c r="G265" s="2"/>
       <c r="H265" s="2"/>
       <c r="I265" s="2"/>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J265" s="2"/>
+      <c r="L265" s="32"/>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
+      <c r="B266" s="31"/>
+      <c r="C266" s="2"/>
+      <c r="D266" s="2"/>
+      <c r="E266" s="2"/>
+      <c r="F266" s="2"/>
+      <c r="G266" s="2"/>
       <c r="H266" s="2"/>
       <c r="I266" s="2"/>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J266" s="2"/>
+      <c r="L266" s="32"/>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
+      <c r="B267" s="31"/>
+      <c r="C267" s="2"/>
+      <c r="D267" s="2"/>
+      <c r="E267" s="2"/>
+      <c r="F267" s="2"/>
+      <c r="G267" s="2"/>
       <c r="H267" s="2"/>
       <c r="I267" s="2"/>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J267" s="2"/>
+      <c r="L267" s="32"/>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
+      <c r="B268" s="31"/>
+      <c r="C268" s="2"/>
+      <c r="D268" s="2"/>
+      <c r="E268" s="2"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="2"/>
       <c r="H268" s="2"/>
       <c r="I268" s="2"/>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J268" s="2"/>
+      <c r="L268" s="32"/>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
+      <c r="B269" s="31"/>
+      <c r="C269" s="2"/>
+      <c r="D269" s="2"/>
+      <c r="E269" s="2"/>
+      <c r="F269" s="2"/>
+      <c r="G269" s="2"/>
       <c r="H269" s="2"/>
       <c r="I269" s="2"/>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J269" s="2"/>
+      <c r="L269" s="32"/>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
+      <c r="B270" s="31"/>
+      <c r="C270" s="2"/>
+      <c r="D270" s="2"/>
+      <c r="E270" s="2"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="2"/>
       <c r="H270" s="2"/>
       <c r="I270" s="2"/>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J270" s="2"/>
+      <c r="L270" s="32"/>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
+      <c r="B271" s="31"/>
+      <c r="C271" s="2"/>
+      <c r="D271" s="2"/>
+      <c r="E271" s="2"/>
+      <c r="F271" s="2"/>
+      <c r="G271" s="2"/>
       <c r="H271" s="2"/>
       <c r="I271" s="2"/>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J271" s="2"/>
+      <c r="L271" s="32"/>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
+      <c r="B272" s="31"/>
+      <c r="C272" s="2"/>
+      <c r="D272" s="2"/>
+      <c r="E272" s="2"/>
+      <c r="F272" s="2"/>
+      <c r="G272" s="2"/>
       <c r="H272" s="2"/>
       <c r="I272" s="2"/>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J272" s="2"/>
+      <c r="L272" s="32"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
+      <c r="B273" s="31"/>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
       <c r="H273" s="2"/>
       <c r="I273" s="2"/>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J273" s="2"/>
+      <c r="L273" s="32"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
+      <c r="B274" s="31"/>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
       <c r="H274" s="2"/>
       <c r="I274" s="2"/>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J274" s="2"/>
+      <c r="L274" s="32"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
+      <c r="B275" s="31"/>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
       <c r="H275" s="2"/>
       <c r="I275" s="2"/>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J275" s="2"/>
+      <c r="L275" s="32"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
+      <c r="B276" s="31"/>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
       <c r="H276" s="2"/>
       <c r="I276" s="2"/>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J276" s="2"/>
+      <c r="L276" s="32"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
+      <c r="B277" s="31"/>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
       <c r="H277" s="2"/>
       <c r="I277" s="2"/>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J277" s="2"/>
+      <c r="L277" s="32"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
+      <c r="B278" s="31"/>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
       <c r="H278" s="2"/>
       <c r="I278" s="2"/>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J278" s="2"/>
+      <c r="L278" s="32"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
+      <c r="B279" s="31"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
       <c r="H279" s="2"/>
       <c r="I279" s="2"/>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J279" s="2"/>
+      <c r="L279" s="32"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
+      <c r="B280" s="31"/>
+      <c r="C280" s="2"/>
+      <c r="D280" s="2"/>
+      <c r="E280" s="2"/>
+      <c r="F280" s="2"/>
+      <c r="G280" s="2"/>
       <c r="H280" s="2"/>
       <c r="I280" s="2"/>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J280" s="2"/>
+      <c r="L280" s="32"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
+      <c r="B281" s="31"/>
+      <c r="C281" s="2"/>
+      <c r="D281" s="2"/>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2"/>
+      <c r="G281" s="2"/>
       <c r="H281" s="2"/>
       <c r="I281" s="2"/>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J281" s="2"/>
+      <c r="L281" s="32"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
+      <c r="B282" s="31"/>
+      <c r="C282" s="2"/>
+      <c r="D282" s="2"/>
+      <c r="E282" s="2"/>
+      <c r="F282" s="2"/>
+      <c r="G282" s="2"/>
       <c r="H282" s="2"/>
       <c r="I282" s="2"/>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J282" s="2"/>
+      <c r="L282" s="32"/>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
+      <c r="B283" s="31"/>
+      <c r="C283" s="2"/>
+      <c r="D283" s="2"/>
+      <c r="E283" s="2"/>
+      <c r="F283" s="2"/>
+      <c r="G283" s="2"/>
       <c r="H283" s="2"/>
       <c r="I283" s="2"/>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J283" s="2"/>
+      <c r="L283" s="32"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
+      <c r="B284" s="31"/>
+      <c r="C284" s="2"/>
+      <c r="D284" s="2"/>
+      <c r="E284" s="2"/>
+      <c r="F284" s="2"/>
+      <c r="G284" s="2"/>
       <c r="H284" s="2"/>
       <c r="I284" s="2"/>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J284" s="2"/>
+      <c r="L284" s="32"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
+      <c r="B285" s="31"/>
+      <c r="C285" s="2"/>
+      <c r="D285" s="2"/>
+      <c r="E285" s="2"/>
+      <c r="F285" s="2"/>
+      <c r="G285" s="2"/>
       <c r="H285" s="2"/>
       <c r="I285" s="2"/>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J285" s="2"/>
+      <c r="L285" s="32"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
+      <c r="B286" s="31"/>
+      <c r="C286" s="2"/>
+      <c r="D286" s="2"/>
+      <c r="E286" s="2"/>
+      <c r="F286" s="2"/>
+      <c r="G286" s="2"/>
       <c r="H286" s="2"/>
       <c r="I286" s="2"/>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J286" s="2"/>
+      <c r="L286" s="32"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
+      <c r="B287" s="31"/>
+      <c r="C287" s="2"/>
+      <c r="D287" s="2"/>
+      <c r="E287" s="2"/>
+      <c r="F287" s="2"/>
+      <c r="G287" s="2"/>
       <c r="H287" s="2"/>
       <c r="I287" s="2"/>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J287" s="2"/>
+      <c r="L287" s="32"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
+      <c r="B288" s="31"/>
+      <c r="C288" s="2"/>
+      <c r="D288" s="2"/>
+      <c r="E288" s="2"/>
+      <c r="F288" s="2"/>
+      <c r="G288" s="2"/>
       <c r="H288" s="2"/>
       <c r="I288" s="2"/>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J288" s="2"/>
+      <c r="L288" s="32"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
+      <c r="B289" s="31"/>
+      <c r="C289" s="2"/>
+      <c r="D289" s="2"/>
+      <c r="E289" s="2"/>
+      <c r="F289" s="2"/>
+      <c r="G289" s="2"/>
       <c r="H289" s="2"/>
       <c r="I289" s="2"/>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J289" s="2"/>
+      <c r="L289" s="32"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
+      <c r="B290" s="31"/>
+      <c r="C290" s="2"/>
+      <c r="D290" s="2"/>
+      <c r="E290" s="2"/>
+      <c r="F290" s="2"/>
+      <c r="G290" s="2"/>
       <c r="H290" s="2"/>
       <c r="I290" s="2"/>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J290" s="2"/>
+      <c r="L290" s="32"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
+      <c r="B291" s="31"/>
+      <c r="C291" s="2"/>
+      <c r="D291" s="2"/>
+      <c r="E291" s="2"/>
+      <c r="F291" s="2"/>
+      <c r="G291" s="2"/>
       <c r="H291" s="2"/>
       <c r="I291" s="2"/>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J291" s="2"/>
+      <c r="L291" s="32"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
+      <c r="B292" s="31"/>
+      <c r="C292" s="2"/>
+      <c r="D292" s="2"/>
+      <c r="E292" s="2"/>
+      <c r="F292" s="2"/>
+      <c r="G292" s="2"/>
       <c r="H292" s="2"/>
       <c r="I292" s="2"/>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J292" s="2"/>
+      <c r="L292" s="32"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
+      <c r="B293" s="31"/>
+      <c r="C293" s="2"/>
+      <c r="D293" s="2"/>
+      <c r="E293" s="2"/>
+      <c r="F293" s="2"/>
+      <c r="G293" s="2"/>
       <c r="H293" s="2"/>
       <c r="I293" s="2"/>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J293" s="2"/>
+      <c r="L293" s="32"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
+      <c r="B294" s="31"/>
+      <c r="C294" s="2"/>
+      <c r="D294" s="2"/>
+      <c r="E294" s="2"/>
+      <c r="F294" s="2"/>
+      <c r="G294" s="2"/>
       <c r="H294" s="2"/>
       <c r="I294" s="2"/>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J294" s="2"/>
+      <c r="L294" s="32"/>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
+      <c r="B295" s="31"/>
+      <c r="C295" s="2"/>
+      <c r="D295" s="2"/>
+      <c r="E295" s="2"/>
+      <c r="F295" s="2"/>
+      <c r="G295" s="2"/>
       <c r="H295" s="2"/>
       <c r="I295" s="2"/>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J295" s="2"/>
+      <c r="L295" s="32"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
+      <c r="B296" s="31"/>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
       <c r="H296" s="2"/>
       <c r="I296" s="2"/>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J296" s="2"/>
+      <c r="L296" s="32"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
+      <c r="B297" s="31"/>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
       <c r="H297" s="2"/>
       <c r="I297" s="2"/>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J297" s="2"/>
+      <c r="L297" s="32"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
+      <c r="B298" s="31"/>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
       <c r="H298" s="2"/>
       <c r="I298" s="2"/>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J298" s="2"/>
+      <c r="L298" s="32"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
+      <c r="B299" s="31"/>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
       <c r="H299" s="2"/>
       <c r="I299" s="2"/>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J299" s="2"/>
+      <c r="L299" s="32"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
+      <c r="B300" s="31"/>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
       <c r="H300" s="2"/>
       <c r="I300" s="2"/>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J300" s="2"/>
+      <c r="L300" s="32"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
+      <c r="B301" s="31"/>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
       <c r="H301" s="2"/>
       <c r="I301" s="2"/>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J301" s="2"/>
+      <c r="L301" s="32"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
+      <c r="B302" s="31"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
       <c r="H302" s="2"/>
       <c r="I302" s="2"/>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J302" s="2"/>
+      <c r="L302" s="32"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
+      <c r="B303" s="31"/>
+      <c r="C303" s="2"/>
+      <c r="D303" s="2"/>
+      <c r="E303" s="2"/>
+      <c r="F303" s="2"/>
+      <c r="G303" s="2"/>
       <c r="H303" s="2"/>
       <c r="I303" s="2"/>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J303" s="2"/>
+      <c r="L303" s="32"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
+      <c r="B304" s="31"/>
+      <c r="C304" s="2"/>
+      <c r="D304" s="2"/>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2"/>
+      <c r="G304" s="2"/>
       <c r="H304" s="2"/>
       <c r="I304" s="2"/>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J304" s="2"/>
+      <c r="L304" s="32"/>
+    </row>
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
+      <c r="B305" s="31"/>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
+      <c r="E305" s="2"/>
+      <c r="F305" s="2"/>
+      <c r="G305" s="2"/>
       <c r="H305" s="2"/>
       <c r="I305" s="2"/>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J305" s="2"/>
+      <c r="L305" s="32"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
+      <c r="B306" s="31"/>
+      <c r="C306" s="2"/>
+      <c r="D306" s="2"/>
+      <c r="E306" s="2"/>
+      <c r="F306" s="2"/>
+      <c r="G306" s="2"/>
       <c r="H306" s="2"/>
       <c r="I306" s="2"/>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J306" s="2"/>
+      <c r="L306" s="32"/>
+    </row>
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
+      <c r="B307" s="31"/>
+      <c r="C307" s="2"/>
+      <c r="D307" s="2"/>
+      <c r="E307" s="2"/>
+      <c r="F307" s="2"/>
+      <c r="G307" s="2"/>
       <c r="H307" s="2"/>
       <c r="I307" s="2"/>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J307" s="2"/>
+      <c r="L307" s="32"/>
+    </row>
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
+      <c r="B308" s="31"/>
+      <c r="C308" s="2"/>
+      <c r="D308" s="2"/>
+      <c r="E308" s="2"/>
+      <c r="F308" s="2"/>
+      <c r="G308" s="2"/>
       <c r="H308" s="2"/>
       <c r="I308" s="2"/>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J308" s="2"/>
+      <c r="L308" s="32"/>
+    </row>
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
+      <c r="B309" s="31"/>
+      <c r="C309" s="2"/>
+      <c r="D309" s="2"/>
+      <c r="E309" s="2"/>
+      <c r="F309" s="2"/>
+      <c r="G309" s="2"/>
       <c r="H309" s="2"/>
       <c r="I309" s="2"/>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J309" s="2"/>
+      <c r="L309" s="32"/>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
+      <c r="B310" s="31"/>
+      <c r="C310" s="2"/>
+      <c r="D310" s="2"/>
+      <c r="E310" s="2"/>
+      <c r="F310" s="2"/>
+      <c r="G310" s="2"/>
       <c r="H310" s="2"/>
       <c r="I310" s="2"/>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J310" s="2"/>
+      <c r="L310" s="32"/>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
+      <c r="B311" s="31"/>
+      <c r="C311" s="2"/>
+      <c r="D311" s="2"/>
+      <c r="E311" s="2"/>
+      <c r="F311" s="2"/>
+      <c r="G311" s="2"/>
       <c r="H311" s="2"/>
       <c r="I311" s="2"/>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J311" s="2"/>
+      <c r="L311" s="32"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
+      <c r="B312" s="31"/>
+      <c r="C312" s="2"/>
+      <c r="D312" s="2"/>
+      <c r="E312" s="2"/>
+      <c r="F312" s="2"/>
+      <c r="G312" s="2"/>
       <c r="H312" s="2"/>
       <c r="I312" s="2"/>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J312" s="2"/>
+      <c r="L312" s="32"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
+      <c r="B313" s="31"/>
+      <c r="C313" s="2"/>
+      <c r="D313" s="2"/>
+      <c r="E313" s="2"/>
+      <c r="F313" s="2"/>
+      <c r="G313" s="2"/>
       <c r="H313" s="2"/>
       <c r="I313" s="2"/>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J313" s="2"/>
+      <c r="L313" s="32"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
+      <c r="B314" s="31"/>
+      <c r="C314" s="2"/>
+      <c r="D314" s="2"/>
+      <c r="E314" s="2"/>
+      <c r="F314" s="2"/>
+      <c r="G314" s="2"/>
       <c r="H314" s="2"/>
       <c r="I314" s="2"/>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J314" s="2"/>
+      <c r="L314" s="32"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
+      <c r="B315" s="31"/>
+      <c r="C315" s="2"/>
+      <c r="D315" s="2"/>
+      <c r="E315" s="2"/>
+      <c r="F315" s="2"/>
+      <c r="G315" s="2"/>
       <c r="H315" s="2"/>
       <c r="I315" s="2"/>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J315" s="2"/>
+      <c r="L315" s="32"/>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
+      <c r="B316" s="31"/>
+      <c r="C316" s="2"/>
+      <c r="D316" s="2"/>
+      <c r="E316" s="2"/>
+      <c r="F316" s="2"/>
+      <c r="G316" s="2"/>
       <c r="H316" s="2"/>
       <c r="I316" s="2"/>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J316" s="2"/>
+      <c r="L316" s="32"/>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
+      <c r="B317" s="31"/>
+      <c r="C317" s="2"/>
+      <c r="D317" s="2"/>
+      <c r="E317" s="2"/>
+      <c r="F317" s="2"/>
+      <c r="G317" s="2"/>
       <c r="H317" s="2"/>
       <c r="I317" s="2"/>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J317" s="2"/>
+      <c r="L317" s="32"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
+      <c r="B318" s="31"/>
+      <c r="C318" s="2"/>
+      <c r="D318" s="2"/>
+      <c r="E318" s="2"/>
+      <c r="F318" s="2"/>
+      <c r="G318" s="2"/>
       <c r="H318" s="2"/>
       <c r="I318" s="2"/>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J318" s="2"/>
+      <c r="L318" s="32"/>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
+      <c r="B319" s="31"/>
+      <c r="C319" s="2"/>
+      <c r="D319" s="2"/>
+      <c r="E319" s="2"/>
+      <c r="F319" s="2"/>
+      <c r="G319" s="2"/>
       <c r="H319" s="2"/>
       <c r="I319" s="2"/>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J319" s="2"/>
+      <c r="L319" s="32"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
+      <c r="B320" s="31"/>
+      <c r="C320" s="2"/>
+      <c r="D320" s="2"/>
+      <c r="E320" s="2"/>
+      <c r="F320" s="2"/>
+      <c r="G320" s="2"/>
       <c r="H320" s="2"/>
       <c r="I320" s="2"/>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J320" s="2"/>
+      <c r="L320" s="32"/>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
+      <c r="B321" s="31"/>
+      <c r="C321" s="2"/>
+      <c r="D321" s="2"/>
+      <c r="E321" s="2"/>
+      <c r="F321" s="2"/>
+      <c r="G321" s="2"/>
       <c r="H321" s="2"/>
       <c r="I321" s="2"/>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J321" s="2"/>
+      <c r="L321" s="32"/>
+    </row>
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
+      <c r="B322" s="31"/>
+      <c r="C322" s="2"/>
+      <c r="D322" s="2"/>
+      <c r="E322" s="2"/>
+      <c r="F322" s="2"/>
+      <c r="G322" s="2"/>
       <c r="H322" s="2"/>
       <c r="I322" s="2"/>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J322" s="2"/>
+      <c r="L322" s="32"/>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
+      <c r="B323" s="31"/>
+      <c r="C323" s="2"/>
+      <c r="D323" s="2"/>
+      <c r="E323" s="2"/>
+      <c r="F323" s="2"/>
+      <c r="G323" s="2"/>
       <c r="H323" s="2"/>
       <c r="I323" s="2"/>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J323" s="2"/>
+      <c r="L323" s="32"/>
+    </row>
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
+      <c r="B324" s="31"/>
+      <c r="C324" s="2"/>
+      <c r="D324" s="2"/>
+      <c r="E324" s="2"/>
+      <c r="F324" s="2"/>
+      <c r="G324" s="2"/>
       <c r="H324" s="2"/>
       <c r="I324" s="2"/>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J324" s="2"/>
+      <c r="L324" s="32"/>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
+      <c r="B325" s="31"/>
+      <c r="C325" s="2"/>
+      <c r="D325" s="2"/>
+      <c r="E325" s="2"/>
+      <c r="F325" s="2"/>
+      <c r="G325" s="2"/>
       <c r="H325" s="2"/>
       <c r="I325" s="2"/>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J325" s="2"/>
+      <c r="L325" s="32"/>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
+      <c r="B326" s="31"/>
+      <c r="C326" s="2"/>
+      <c r="D326" s="2"/>
+      <c r="E326" s="2"/>
+      <c r="F326" s="2"/>
+      <c r="G326" s="2"/>
       <c r="H326" s="2"/>
       <c r="I326" s="2"/>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J326" s="2"/>
+      <c r="L326" s="32"/>
+    </row>
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
+      <c r="B327" s="31"/>
+      <c r="C327" s="2"/>
+      <c r="D327" s="2"/>
+      <c r="E327" s="2"/>
+      <c r="F327" s="2"/>
+      <c r="G327" s="2"/>
       <c r="H327" s="2"/>
       <c r="I327" s="2"/>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J327" s="2"/>
+      <c r="L327" s="32"/>
+    </row>
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
+      <c r="B328" s="31"/>
+      <c r="C328" s="2"/>
+      <c r="D328" s="2"/>
+      <c r="E328" s="2"/>
+      <c r="F328" s="2"/>
+      <c r="G328" s="2"/>
       <c r="H328" s="2"/>
       <c r="I328" s="2"/>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J328" s="2"/>
+      <c r="L328" s="32"/>
+    </row>
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
+      <c r="B329" s="31"/>
+      <c r="C329" s="2"/>
+      <c r="D329" s="2"/>
+      <c r="E329" s="2"/>
+      <c r="F329" s="2"/>
+      <c r="G329" s="2"/>
       <c r="H329" s="2"/>
       <c r="I329" s="2"/>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J329" s="2"/>
+      <c r="L329" s="32"/>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
+      <c r="B330" s="31"/>
+      <c r="C330" s="2"/>
+      <c r="D330" s="2"/>
+      <c r="E330" s="2"/>
+      <c r="F330" s="2"/>
+      <c r="G330" s="2"/>
       <c r="H330" s="2"/>
       <c r="I330" s="2"/>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J330" s="2"/>
+      <c r="L330" s="32"/>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
+      <c r="B331" s="31"/>
+      <c r="C331" s="2"/>
+      <c r="D331" s="2"/>
+      <c r="E331" s="2"/>
+      <c r="F331" s="2"/>
+      <c r="G331" s="2"/>
       <c r="H331" s="2"/>
       <c r="I331" s="2"/>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J331" s="2"/>
+      <c r="L331" s="32"/>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
+      <c r="B332" s="31"/>
+      <c r="C332" s="2"/>
+      <c r="D332" s="2"/>
+      <c r="E332" s="2"/>
+      <c r="F332" s="2"/>
+      <c r="G332" s="2"/>
       <c r="H332" s="2"/>
       <c r="I332" s="2"/>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J332" s="2"/>
+      <c r="L332" s="32"/>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
+      <c r="B333" s="31"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="2"/>
+      <c r="G333" s="2"/>
       <c r="H333" s="2"/>
       <c r="I333" s="2"/>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J333" s="2"/>
+      <c r="L333" s="32"/>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
+      <c r="B334" s="31"/>
+      <c r="C334" s="2"/>
+      <c r="D334" s="2"/>
+      <c r="E334" s="2"/>
+      <c r="F334" s="2"/>
+      <c r="G334" s="2"/>
       <c r="H334" s="2"/>
       <c r="I334" s="2"/>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J334" s="2"/>
+      <c r="L334" s="32"/>
+    </row>
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
+      <c r="B335" s="31"/>
+      <c r="C335" s="2"/>
+      <c r="D335" s="2"/>
+      <c r="E335" s="2"/>
+      <c r="F335" s="2"/>
+      <c r="G335" s="2"/>
       <c r="H335" s="2"/>
       <c r="I335" s="2"/>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J335" s="2"/>
+      <c r="L335" s="32"/>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
+      <c r="B336" s="31"/>
+      <c r="C336" s="2"/>
+      <c r="D336" s="2"/>
+      <c r="E336" s="2"/>
+      <c r="F336" s="2"/>
+      <c r="G336" s="2"/>
       <c r="H336" s="2"/>
       <c r="I336" s="2"/>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J336" s="2"/>
+      <c r="L336" s="32"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
+      <c r="B337" s="31"/>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
       <c r="H337" s="2"/>
       <c r="I337" s="2"/>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J337" s="2"/>
+      <c r="L337" s="32"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
+      <c r="B338" s="31"/>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
       <c r="H338" s="2"/>
       <c r="I338" s="2"/>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J338" s="2"/>
+      <c r="L338" s="32"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
+      <c r="B339" s="31"/>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
       <c r="H339" s="2"/>
       <c r="I339" s="2"/>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J339" s="2"/>
+      <c r="L339" s="32"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
+      <c r="B340" s="31"/>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
       <c r="H340" s="2"/>
       <c r="I340" s="2"/>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J340" s="2"/>
+      <c r="L340" s="32"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
+      <c r="B341" s="31"/>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
       <c r="H341" s="2"/>
       <c r="I341" s="2"/>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J341" s="2"/>
+      <c r="L341" s="32"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
+      <c r="B342" s="31"/>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
       <c r="H342" s="2"/>
       <c r="I342" s="2"/>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J342" s="2"/>
+      <c r="L342" s="32"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
+      <c r="B343" s="31"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
       <c r="H343" s="2"/>
       <c r="I343" s="2"/>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J343" s="2"/>
+      <c r="L343" s="32"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
+      <c r="B344" s="31"/>
+      <c r="C344" s="2"/>
+      <c r="D344" s="2"/>
+      <c r="E344" s="2"/>
+      <c r="F344" s="2"/>
+      <c r="G344" s="2"/>
       <c r="H344" s="2"/>
       <c r="I344" s="2"/>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J344" s="2"/>
+      <c r="L344" s="32"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
+      <c r="B345" s="31"/>
+      <c r="C345" s="2"/>
+      <c r="D345" s="2"/>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2"/>
+      <c r="G345" s="2"/>
       <c r="H345" s="2"/>
       <c r="I345" s="2"/>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J345" s="2"/>
+      <c r="L345" s="32"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
+      <c r="B346" s="31"/>
+      <c r="C346" s="2"/>
+      <c r="D346" s="2"/>
+      <c r="E346" s="2"/>
+      <c r="F346" s="2"/>
+      <c r="G346" s="2"/>
       <c r="H346" s="2"/>
       <c r="I346" s="2"/>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J346" s="2"/>
+      <c r="L346" s="32"/>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
+      <c r="B347" s="31"/>
+      <c r="C347" s="2"/>
+      <c r="D347" s="2"/>
+      <c r="E347" s="2"/>
+      <c r="F347" s="2"/>
+      <c r="G347" s="2"/>
       <c r="H347" s="2"/>
       <c r="I347" s="2"/>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J347" s="2"/>
+      <c r="L347" s="32"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
+      <c r="B348" s="31"/>
+      <c r="C348" s="2"/>
+      <c r="D348" s="2"/>
+      <c r="E348" s="2"/>
+      <c r="F348" s="2"/>
+      <c r="G348" s="2"/>
       <c r="H348" s="2"/>
       <c r="I348" s="2"/>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J348" s="2"/>
+      <c r="L348" s="32"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
+      <c r="B349" s="31"/>
+      <c r="C349" s="2"/>
+      <c r="D349" s="2"/>
+      <c r="E349" s="2"/>
+      <c r="F349" s="2"/>
+      <c r="G349" s="2"/>
       <c r="H349" s="2"/>
       <c r="I349" s="2"/>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J349" s="2"/>
+      <c r="L349" s="32"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
+      <c r="B350" s="31"/>
+      <c r="C350" s="2"/>
+      <c r="D350" s="2"/>
+      <c r="E350" s="2"/>
+      <c r="F350" s="2"/>
+      <c r="G350" s="2"/>
       <c r="H350" s="2"/>
       <c r="I350" s="2"/>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J350" s="2"/>
+      <c r="L350" s="32"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
+      <c r="B351" s="31"/>
+      <c r="C351" s="2"/>
+      <c r="D351" s="2"/>
+      <c r="E351" s="2"/>
+      <c r="F351" s="2"/>
+      <c r="G351" s="2"/>
       <c r="H351" s="2"/>
       <c r="I351" s="2"/>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J351" s="2"/>
+      <c r="L351" s="32"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
+      <c r="B352" s="31"/>
+      <c r="C352" s="2"/>
+      <c r="D352" s="2"/>
+      <c r="E352" s="2"/>
+      <c r="F352" s="2"/>
+      <c r="G352" s="2"/>
       <c r="H352" s="2"/>
       <c r="I352" s="2"/>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J352" s="2"/>
+      <c r="L352" s="32"/>
+    </row>
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
+      <c r="B353" s="31"/>
+      <c r="C353" s="2"/>
+      <c r="D353" s="2"/>
+      <c r="E353" s="2"/>
+      <c r="F353" s="2"/>
+      <c r="G353" s="2"/>
       <c r="H353" s="2"/>
       <c r="I353" s="2"/>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J353" s="2"/>
+      <c r="L353" s="32"/>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
+      <c r="B354" s="31"/>
+      <c r="C354" s="2"/>
+      <c r="D354" s="2"/>
+      <c r="E354" s="2"/>
+      <c r="F354" s="2"/>
+      <c r="G354" s="2"/>
       <c r="H354" s="2"/>
       <c r="I354" s="2"/>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J354" s="2"/>
+      <c r="L354" s="32"/>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
+      <c r="B355" s="31"/>
+      <c r="C355" s="2"/>
+      <c r="D355" s="2"/>
+      <c r="E355" s="2"/>
+      <c r="F355" s="2"/>
+      <c r="G355" s="2"/>
       <c r="H355" s="2"/>
       <c r="I355" s="2"/>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J355" s="2"/>
+      <c r="L355" s="32"/>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
+      <c r="B356" s="31"/>
+      <c r="C356" s="2"/>
+      <c r="D356" s="2"/>
+      <c r="E356" s="2"/>
+      <c r="F356" s="2"/>
+      <c r="G356" s="2"/>
       <c r="H356" s="2"/>
       <c r="I356" s="2"/>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J356" s="2"/>
+      <c r="L356" s="32"/>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
+      <c r="B357" s="31"/>
+      <c r="C357" s="2"/>
+      <c r="D357" s="2"/>
+      <c r="E357" s="2"/>
+      <c r="F357" s="2"/>
+      <c r="G357" s="2"/>
       <c r="H357" s="2"/>
       <c r="I357" s="2"/>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J357" s="2"/>
+      <c r="L357" s="32"/>
+    </row>
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
+      <c r="B358" s="31"/>
+      <c r="C358" s="2"/>
+      <c r="D358" s="2"/>
+      <c r="E358" s="2"/>
+      <c r="F358" s="2"/>
+      <c r="G358" s="2"/>
       <c r="H358" s="2"/>
       <c r="I358" s="2"/>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J358" s="2"/>
+      <c r="L358" s="32"/>
+    </row>
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
+      <c r="B359" s="31"/>
+      <c r="C359" s="2"/>
+      <c r="D359" s="2"/>
+      <c r="E359" s="2"/>
+      <c r="F359" s="2"/>
+      <c r="G359" s="2"/>
       <c r="H359" s="2"/>
       <c r="I359" s="2"/>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J359" s="2"/>
+      <c r="L359" s="32"/>
+    </row>
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
+      <c r="B360" s="31"/>
+      <c r="C360" s="2"/>
+      <c r="D360" s="2"/>
+      <c r="E360" s="2"/>
+      <c r="F360" s="2"/>
+      <c r="G360" s="2"/>
       <c r="H360" s="2"/>
       <c r="I360" s="2"/>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J360" s="2"/>
+      <c r="L360" s="32"/>
+    </row>
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
+      <c r="B361" s="31"/>
+      <c r="C361" s="2"/>
+      <c r="D361" s="2"/>
+      <c r="E361" s="2"/>
+      <c r="F361" s="2"/>
+      <c r="G361" s="2"/>
       <c r="H361" s="2"/>
       <c r="I361" s="2"/>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J361" s="2"/>
+      <c r="L361" s="32"/>
+    </row>
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
+      <c r="B362" s="31"/>
+      <c r="C362" s="2"/>
+      <c r="D362" s="2"/>
+      <c r="E362" s="2"/>
+      <c r="F362" s="2"/>
+      <c r="G362" s="2"/>
       <c r="H362" s="2"/>
       <c r="I362" s="2"/>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J362" s="2"/>
+      <c r="L362" s="32"/>
+    </row>
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
+      <c r="B363" s="31"/>
+      <c r="C363" s="2"/>
+      <c r="D363" s="2"/>
+      <c r="E363" s="2"/>
+      <c r="F363" s="2"/>
+      <c r="G363" s="2"/>
       <c r="H363" s="2"/>
       <c r="I363" s="2"/>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J363" s="2"/>
+      <c r="L363" s="32"/>
+    </row>
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
+      <c r="B364" s="31"/>
+      <c r="C364" s="2"/>
+      <c r="D364" s="2"/>
+      <c r="E364" s="2"/>
+      <c r="F364" s="2"/>
+      <c r="G364" s="2"/>
       <c r="H364" s="2"/>
       <c r="I364" s="2"/>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J364" s="2"/>
+      <c r="L364" s="32"/>
+    </row>
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
+      <c r="B365" s="31"/>
+      <c r="C365" s="2"/>
+      <c r="D365" s="2"/>
+      <c r="E365" s="2"/>
+      <c r="F365" s="2"/>
+      <c r="G365" s="2"/>
       <c r="H365" s="2"/>
       <c r="I365" s="2"/>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J365" s="2"/>
+      <c r="L365" s="32"/>
+    </row>
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
+      <c r="B366" s="31"/>
+      <c r="C366" s="2"/>
+      <c r="D366" s="2"/>
+      <c r="E366" s="2"/>
+      <c r="F366" s="2"/>
+      <c r="G366" s="2"/>
       <c r="H366" s="2"/>
       <c r="I366" s="2"/>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J366" s="2"/>
+      <c r="L366" s="32"/>
+    </row>
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
+      <c r="B367" s="31"/>
+      <c r="C367" s="2"/>
+      <c r="D367" s="2"/>
+      <c r="E367" s="2"/>
+      <c r="F367" s="2"/>
+      <c r="G367" s="2"/>
       <c r="H367" s="2"/>
       <c r="I367" s="2"/>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J367" s="2"/>
+      <c r="L367" s="32"/>
+    </row>
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
+      <c r="B368" s="31"/>
+      <c r="C368" s="2"/>
+      <c r="D368" s="2"/>
+      <c r="E368" s="2"/>
+      <c r="F368" s="2"/>
+      <c r="G368" s="2"/>
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J368" s="2"/>
+      <c r="L368" s="32"/>
+    </row>
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
+      <c r="B369" s="31"/>
+      <c r="C369" s="2"/>
+      <c r="D369" s="2"/>
+      <c r="E369" s="2"/>
+      <c r="F369" s="2"/>
+      <c r="G369" s="2"/>
       <c r="H369" s="2"/>
       <c r="I369" s="2"/>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J369" s="2"/>
+      <c r="L369" s="32"/>
+    </row>
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
+      <c r="B370" s="31"/>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
+      <c r="E370" s="2"/>
+      <c r="F370" s="2"/>
+      <c r="G370" s="2"/>
       <c r="H370" s="2"/>
       <c r="I370" s="2"/>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J370" s="2"/>
+      <c r="L370" s="32"/>
+    </row>
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
+      <c r="B371" s="31"/>
+      <c r="C371" s="2"/>
+      <c r="D371" s="2"/>
+      <c r="E371" s="2"/>
+      <c r="F371" s="2"/>
+      <c r="G371" s="2"/>
       <c r="H371" s="2"/>
       <c r="I371" s="2"/>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J371" s="2"/>
+      <c r="L371" s="32"/>
+    </row>
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
+      <c r="B372" s="31"/>
+      <c r="C372" s="2"/>
+      <c r="D372" s="2"/>
+      <c r="E372" s="2"/>
+      <c r="F372" s="2"/>
+      <c r="G372" s="2"/>
       <c r="H372" s="2"/>
       <c r="I372" s="2"/>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J372" s="2"/>
+      <c r="L372" s="32"/>
+    </row>
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
+      <c r="B373" s="31"/>
+      <c r="C373" s="2"/>
+      <c r="D373" s="2"/>
+      <c r="E373" s="2"/>
+      <c r="F373" s="2"/>
+      <c r="G373" s="2"/>
       <c r="H373" s="2"/>
       <c r="I373" s="2"/>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J373" s="2"/>
+      <c r="L373" s="32"/>
+    </row>
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
+      <c r="B374" s="31"/>
+      <c r="C374" s="2"/>
+      <c r="D374" s="2"/>
+      <c r="E374" s="2"/>
+      <c r="F374" s="2"/>
+      <c r="G374" s="2"/>
       <c r="H374" s="2"/>
       <c r="I374" s="2"/>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J374" s="2"/>
+      <c r="L374" s="32"/>
+    </row>
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
+      <c r="B375" s="31"/>
+      <c r="C375" s="2"/>
+      <c r="D375" s="2"/>
+      <c r="E375" s="2"/>
+      <c r="F375" s="2"/>
+      <c r="G375" s="2"/>
       <c r="H375" s="2"/>
       <c r="I375" s="2"/>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J375" s="2"/>
+      <c r="L375" s="32"/>
+    </row>
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
+      <c r="B376" s="31"/>
+      <c r="C376" s="2"/>
+      <c r="D376" s="2"/>
+      <c r="E376" s="2"/>
+      <c r="F376" s="2"/>
+      <c r="G376" s="2"/>
       <c r="H376" s="2"/>
       <c r="I376" s="2"/>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J376" s="2"/>
+      <c r="L376" s="32"/>
+    </row>
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
+      <c r="B377" s="31"/>
+      <c r="C377" s="2"/>
+      <c r="D377" s="2"/>
+      <c r="E377" s="2"/>
+      <c r="F377" s="2"/>
+      <c r="G377" s="2"/>
       <c r="H377" s="2"/>
       <c r="I377" s="2"/>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J377" s="2"/>
+      <c r="L377" s="32"/>
+    </row>
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
+      <c r="B378" s="31"/>
+      <c r="C378" s="2"/>
+      <c r="D378" s="2"/>
+      <c r="E378" s="2"/>
+      <c r="F378" s="2"/>
+      <c r="G378" s="2"/>
       <c r="H378" s="2"/>
       <c r="I378" s="2"/>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J378" s="2"/>
+      <c r="L378" s="32"/>
+    </row>
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
+      <c r="B379" s="31"/>
+      <c r="C379" s="2"/>
+      <c r="D379" s="2"/>
+      <c r="E379" s="2"/>
+      <c r="F379" s="2"/>
+      <c r="G379" s="2"/>
       <c r="H379" s="2"/>
       <c r="I379" s="2"/>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J379" s="2"/>
+      <c r="L379" s="32"/>
+    </row>
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
+      <c r="B380" s="31"/>
+      <c r="C380" s="2"/>
+      <c r="D380" s="2"/>
+      <c r="E380" s="2"/>
+      <c r="F380" s="2"/>
+      <c r="G380" s="2"/>
       <c r="H380" s="2"/>
       <c r="I380" s="2"/>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J380" s="2"/>
+      <c r="L380" s="32"/>
+    </row>
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
+      <c r="B381" s="31"/>
+      <c r="C381" s="2"/>
+      <c r="D381" s="2"/>
+      <c r="E381" s="2"/>
+      <c r="F381" s="2"/>
+      <c r="G381" s="2"/>
       <c r="H381" s="2"/>
       <c r="I381" s="2"/>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J381" s="2"/>
+      <c r="L381" s="32"/>
+    </row>
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
+      <c r="B382" s="31"/>
+      <c r="C382" s="2"/>
+      <c r="D382" s="2"/>
+      <c r="E382" s="2"/>
+      <c r="F382" s="2"/>
+      <c r="G382" s="2"/>
       <c r="H382" s="2"/>
       <c r="I382" s="2"/>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J382" s="2"/>
+      <c r="L382" s="32"/>
+    </row>
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
+      <c r="B383" s="31"/>
+      <c r="C383" s="2"/>
+      <c r="D383" s="2"/>
+      <c r="E383" s="2"/>
+      <c r="F383" s="2"/>
+      <c r="G383" s="2"/>
       <c r="H383" s="2"/>
       <c r="I383" s="2"/>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J383" s="2"/>
+      <c r="L383" s="32"/>
+    </row>
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
+      <c r="B384" s="31"/>
+      <c r="C384" s="2"/>
+      <c r="D384" s="2"/>
+      <c r="E384" s="2"/>
+      <c r="F384" s="2"/>
+      <c r="G384" s="2"/>
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J384" s="2"/>
+      <c r="L384" s="32"/>
+    </row>
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
+      <c r="B385" s="31"/>
+      <c r="C385" s="2"/>
+      <c r="D385" s="2"/>
+      <c r="E385" s="2"/>
+      <c r="F385" s="2"/>
+      <c r="G385" s="2"/>
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J385" s="2"/>
+      <c r="L385" s="32"/>
+    </row>
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
+      <c r="B386" s="31"/>
+      <c r="C386" s="2"/>
+      <c r="D386" s="2"/>
+      <c r="E386" s="2"/>
+      <c r="F386" s="2"/>
+      <c r="G386" s="2"/>
       <c r="H386" s="2"/>
       <c r="I386" s="2"/>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J386" s="2"/>
+      <c r="L386" s="32"/>
+    </row>
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
+      <c r="B387" s="31"/>
+      <c r="C387" s="2"/>
+      <c r="D387" s="2"/>
+      <c r="E387" s="2"/>
+      <c r="F387" s="2"/>
+      <c r="G387" s="2"/>
       <c r="H387" s="2"/>
       <c r="I387" s="2"/>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J387" s="2"/>
+      <c r="L387" s="32"/>
+    </row>
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
+      <c r="B388" s="31"/>
+      <c r="C388" s="2"/>
+      <c r="D388" s="2"/>
+      <c r="E388" s="2"/>
+      <c r="F388" s="2"/>
+      <c r="G388" s="2"/>
       <c r="H388" s="2"/>
       <c r="I388" s="2"/>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J388" s="2"/>
+      <c r="L388" s="32"/>
+    </row>
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
+      <c r="B389" s="31"/>
+      <c r="C389" s="2"/>
+      <c r="D389" s="2"/>
+      <c r="E389" s="2"/>
+      <c r="F389" s="2"/>
+      <c r="G389" s="2"/>
       <c r="H389" s="2"/>
       <c r="I389" s="2"/>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J389" s="2"/>
+      <c r="L389" s="32"/>
+    </row>
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
+      <c r="B390" s="31"/>
+      <c r="C390" s="2"/>
+      <c r="D390" s="2"/>
+      <c r="E390" s="2"/>
+      <c r="F390" s="2"/>
+      <c r="G390" s="2"/>
       <c r="H390" s="2"/>
       <c r="I390" s="2"/>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J390" s="2"/>
+      <c r="L390" s="32"/>
+    </row>
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
+      <c r="B391" s="31"/>
+      <c r="C391" s="2"/>
+      <c r="D391" s="2"/>
+      <c r="E391" s="2"/>
+      <c r="F391" s="2"/>
+      <c r="G391" s="2"/>
       <c r="H391" s="2"/>
       <c r="I391" s="2"/>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J391" s="2"/>
+      <c r="L391" s="32"/>
+    </row>
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
+      <c r="B392" s="31"/>
+      <c r="C392" s="2"/>
+      <c r="D392" s="2"/>
+      <c r="E392" s="2"/>
+      <c r="F392" s="2"/>
+      <c r="G392" s="2"/>
       <c r="H392" s="2"/>
       <c r="I392" s="2"/>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J392" s="2"/>
+      <c r="L392" s="32"/>
+    </row>
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
+      <c r="B393" s="31"/>
+      <c r="C393" s="2"/>
+      <c r="D393" s="2"/>
+      <c r="E393" s="2"/>
+      <c r="F393" s="2"/>
+      <c r="G393" s="2"/>
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J393" s="2"/>
+      <c r="L393" s="32"/>
+    </row>
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
+      <c r="B394" s="31"/>
+      <c r="C394" s="2"/>
+      <c r="D394" s="2"/>
+      <c r="E394" s="2"/>
+      <c r="F394" s="2"/>
+      <c r="G394" s="2"/>
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J394" s="2"/>
+      <c r="L394" s="32"/>
+    </row>
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
+      <c r="B395" s="31"/>
+      <c r="C395" s="2"/>
+      <c r="D395" s="2"/>
+      <c r="E395" s="2"/>
+      <c r="F395" s="2"/>
+      <c r="G395" s="2"/>
       <c r="H395" s="2"/>
       <c r="I395" s="2"/>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J395" s="2"/>
+      <c r="L395" s="32"/>
+    </row>
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
+      <c r="B396" s="31"/>
+      <c r="C396" s="2"/>
+      <c r="D396" s="2"/>
+      <c r="E396" s="2"/>
+      <c r="F396" s="2"/>
+      <c r="G396" s="2"/>
       <c r="H396" s="2"/>
       <c r="I396" s="2"/>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J396" s="2"/>
+      <c r="L396" s="32"/>
+    </row>
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
+      <c r="B397" s="31"/>
+      <c r="C397" s="2"/>
+      <c r="D397" s="2"/>
+      <c r="E397" s="2"/>
+      <c r="F397" s="2"/>
+      <c r="G397" s="2"/>
       <c r="H397" s="2"/>
       <c r="I397" s="2"/>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J397" s="2"/>
+      <c r="L397" s="32"/>
+    </row>
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
+      <c r="B398" s="31"/>
+      <c r="C398" s="2"/>
+      <c r="D398" s="2"/>
+      <c r="E398" s="2"/>
+      <c r="F398" s="2"/>
+      <c r="G398" s="2"/>
       <c r="H398" s="2"/>
       <c r="I398" s="2"/>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J398" s="2"/>
+      <c r="L398" s="32"/>
+    </row>
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
+      <c r="B399" s="31"/>
+      <c r="C399" s="2"/>
+      <c r="D399" s="2"/>
+      <c r="E399" s="2"/>
+      <c r="F399" s="2"/>
+      <c r="G399" s="2"/>
       <c r="H399" s="2"/>
       <c r="I399" s="2"/>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J399" s="2"/>
+      <c r="L399" s="32"/>
+    </row>
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
+      <c r="B400" s="31"/>
+      <c r="C400" s="2"/>
+      <c r="D400" s="2"/>
+      <c r="E400" s="2"/>
+      <c r="F400" s="2"/>
+      <c r="G400" s="2"/>
       <c r="H400" s="2"/>
       <c r="I400" s="2"/>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J400" s="2"/>
+      <c r="L400" s="32"/>
+    </row>
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
+      <c r="B401" s="31"/>
+      <c r="C401" s="2"/>
+      <c r="D401" s="2"/>
+      <c r="E401" s="2"/>
+      <c r="F401" s="2"/>
+      <c r="G401" s="2"/>
       <c r="H401" s="2"/>
       <c r="I401" s="2"/>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J401" s="2"/>
+      <c r="L401" s="32"/>
+    </row>
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
+      <c r="B402" s="31"/>
+      <c r="C402" s="2"/>
+      <c r="D402" s="2"/>
+      <c r="E402" s="2"/>
+      <c r="F402" s="2"/>
+      <c r="G402" s="2"/>
       <c r="H402" s="2"/>
       <c r="I402" s="2"/>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J402" s="2"/>
+      <c r="L402" s="32"/>
+    </row>
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
+      <c r="B403" s="31"/>
+      <c r="C403" s="2"/>
+      <c r="D403" s="2"/>
+      <c r="E403" s="2"/>
+      <c r="F403" s="2"/>
+      <c r="G403" s="2"/>
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J403" s="2"/>
+      <c r="L403" s="32"/>
+    </row>
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
+      <c r="B404" s="31"/>
+      <c r="C404" s="2"/>
+      <c r="D404" s="2"/>
+      <c r="E404" s="2"/>
+      <c r="F404" s="2"/>
+      <c r="G404" s="2"/>
       <c r="H404" s="2"/>
       <c r="I404" s="2"/>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J404" s="2"/>
+      <c r="L404" s="32"/>
+    </row>
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
+      <c r="B405" s="31"/>
+      <c r="C405" s="2"/>
+      <c r="D405" s="2"/>
+      <c r="E405" s="2"/>
+      <c r="F405" s="2"/>
+      <c r="G405" s="2"/>
       <c r="H405" s="2"/>
       <c r="I405" s="2"/>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J405" s="2"/>
+      <c r="L405" s="32"/>
+    </row>
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
+      <c r="B406" s="31"/>
+      <c r="C406" s="2"/>
+      <c r="D406" s="2"/>
+      <c r="E406" s="2"/>
+      <c r="F406" s="2"/>
+      <c r="G406" s="2"/>
       <c r="H406" s="2"/>
       <c r="I406" s="2"/>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J406" s="2"/>
+      <c r="L406" s="32"/>
+    </row>
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
+      <c r="B407" s="31"/>
+      <c r="C407" s="2"/>
+      <c r="D407" s="2"/>
+      <c r="E407" s="2"/>
+      <c r="F407" s="2"/>
+      <c r="G407" s="2"/>
       <c r="H407" s="2"/>
       <c r="I407" s="2"/>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J407" s="2"/>
+      <c r="L407" s="32"/>
+    </row>
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
+      <c r="B408" s="31"/>
+      <c r="C408" s="2"/>
+      <c r="D408" s="2"/>
+      <c r="E408" s="2"/>
+      <c r="F408" s="2"/>
+      <c r="G408" s="2"/>
       <c r="H408" s="2"/>
       <c r="I408" s="2"/>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J408" s="2"/>
+      <c r="L408" s="32"/>
+    </row>
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
+      <c r="B409" s="31"/>
+      <c r="C409" s="2"/>
+      <c r="D409" s="2"/>
+      <c r="E409" s="2"/>
+      <c r="F409" s="2"/>
+      <c r="G409" s="2"/>
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J409" s="2"/>
+      <c r="L409" s="32"/>
+    </row>
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
+      <c r="B410" s="31"/>
+      <c r="C410" s="2"/>
+      <c r="D410" s="2"/>
+      <c r="E410" s="2"/>
+      <c r="F410" s="2"/>
+      <c r="G410" s="2"/>
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J410" s="2"/>
+      <c r="L410" s="32"/>
+    </row>
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
+      <c r="B411" s="31"/>
+      <c r="C411" s="2"/>
+      <c r="D411" s="2"/>
+      <c r="E411" s="2"/>
+      <c r="F411" s="2"/>
+      <c r="G411" s="2"/>
       <c r="H411" s="2"/>
       <c r="I411" s="2"/>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J411" s="2"/>
+      <c r="L411" s="32"/>
+    </row>
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
+      <c r="B412" s="31"/>
+      <c r="C412" s="2"/>
+      <c r="D412" s="2"/>
+      <c r="E412" s="2"/>
+      <c r="F412" s="2"/>
+      <c r="G412" s="2"/>
       <c r="H412" s="2"/>
       <c r="I412" s="2"/>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J412" s="2"/>
+      <c r="L412" s="32"/>
+    </row>
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
+      <c r="B413" s="31"/>
+      <c r="C413" s="2"/>
+      <c r="D413" s="2"/>
+      <c r="E413" s="2"/>
+      <c r="F413" s="2"/>
+      <c r="G413" s="2"/>
       <c r="H413" s="2"/>
       <c r="I413" s="2"/>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J413" s="2"/>
+      <c r="L413" s="32"/>
+    </row>
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
+      <c r="B414" s="31"/>
+      <c r="C414" s="2"/>
+      <c r="D414" s="2"/>
+      <c r="E414" s="2"/>
+      <c r="F414" s="2"/>
+      <c r="G414" s="2"/>
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J414" s="2"/>
+      <c r="L414" s="32"/>
+    </row>
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
+      <c r="B415" s="31"/>
+      <c r="C415" s="2"/>
+      <c r="D415" s="2"/>
+      <c r="E415" s="2"/>
+      <c r="F415" s="2"/>
+      <c r="G415" s="2"/>
       <c r="H415" s="2"/>
       <c r="I415" s="2"/>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J415" s="2"/>
+      <c r="L415" s="32"/>
+    </row>
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
+      <c r="B416" s="31"/>
+      <c r="C416" s="2"/>
+      <c r="D416" s="2"/>
+      <c r="E416" s="2"/>
+      <c r="F416" s="2"/>
+      <c r="G416" s="2"/>
       <c r="H416" s="2"/>
       <c r="I416" s="2"/>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J416" s="2"/>
+      <c r="L416" s="32"/>
+    </row>
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
+      <c r="B417" s="31"/>
+      <c r="C417" s="2"/>
+      <c r="D417" s="2"/>
+      <c r="E417" s="2"/>
+      <c r="F417" s="2"/>
+      <c r="G417" s="2"/>
       <c r="H417" s="2"/>
       <c r="I417" s="2"/>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J417" s="2"/>
+      <c r="L417" s="32"/>
+    </row>
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
+      <c r="B418" s="31"/>
+      <c r="C418" s="2"/>
+      <c r="D418" s="2"/>
+      <c r="E418" s="2"/>
+      <c r="F418" s="2"/>
+      <c r="G418" s="2"/>
       <c r="H418" s="2"/>
       <c r="I418" s="2"/>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J418" s="2"/>
+      <c r="L418" s="32"/>
+    </row>
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
+      <c r="B419" s="31"/>
+      <c r="C419" s="2"/>
+      <c r="D419" s="2"/>
+      <c r="E419" s="2"/>
+      <c r="F419" s="2"/>
+      <c r="G419" s="2"/>
       <c r="H419" s="2"/>
       <c r="I419" s="2"/>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J419" s="2"/>
+      <c r="L419" s="32"/>
+    </row>
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
+      <c r="B420" s="31"/>
+      <c r="C420" s="2"/>
+      <c r="D420" s="2"/>
+      <c r="E420" s="2"/>
+      <c r="F420" s="2"/>
+      <c r="G420" s="2"/>
       <c r="H420" s="2"/>
       <c r="I420" s="2"/>
-    </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J420" s="2"/>
+      <c r="L420" s="32"/>
+    </row>
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
+      <c r="B421" s="31"/>
+      <c r="C421" s="2"/>
+      <c r="D421" s="2"/>
+      <c r="E421" s="2"/>
+      <c r="F421" s="2"/>
+      <c r="G421" s="2"/>
       <c r="H421" s="2"/>
       <c r="I421" s="2"/>
-    </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J421" s="2"/>
+      <c r="L421" s="32"/>
+    </row>
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
+      <c r="B422" s="31"/>
+      <c r="C422" s="2"/>
+      <c r="D422" s="2"/>
+      <c r="E422" s="2"/>
+      <c r="F422" s="2"/>
+      <c r="G422" s="2"/>
       <c r="H422" s="2"/>
       <c r="I422" s="2"/>
-    </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J422" s="2"/>
+      <c r="L422" s="32"/>
+    </row>
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
+      <c r="B423" s="31"/>
+      <c r="C423" s="2"/>
+      <c r="D423" s="2"/>
+      <c r="E423" s="2"/>
+      <c r="F423" s="2"/>
+      <c r="G423" s="2"/>
       <c r="H423" s="2"/>
       <c r="I423" s="2"/>
-    </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J423" s="2"/>
+      <c r="L423" s="32"/>
+    </row>
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
+      <c r="B424" s="31"/>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
+      <c r="E424" s="2"/>
+      <c r="F424" s="2"/>
+      <c r="G424" s="2"/>
       <c r="H424" s="2"/>
       <c r="I424" s="2"/>
-    </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J424" s="2"/>
+      <c r="L424" s="32"/>
+    </row>
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
+      <c r="B425" s="31"/>
+      <c r="C425" s="2"/>
+      <c r="D425" s="2"/>
+      <c r="E425" s="2"/>
+      <c r="F425" s="2"/>
+      <c r="G425" s="2"/>
       <c r="H425" s="2"/>
       <c r="I425" s="2"/>
-    </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J425" s="2"/>
+      <c r="L425" s="32"/>
+    </row>
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
+      <c r="B426" s="31"/>
+      <c r="C426" s="2"/>
+      <c r="D426" s="2"/>
+      <c r="E426" s="2"/>
+      <c r="F426" s="2"/>
+      <c r="G426" s="2"/>
       <c r="H426" s="2"/>
       <c r="I426" s="2"/>
-    </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J426" s="2"/>
+      <c r="L426" s="32"/>
+    </row>
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
+      <c r="B427" s="31"/>
+      <c r="C427" s="2"/>
+      <c r="D427" s="2"/>
+      <c r="E427" s="2"/>
+      <c r="F427" s="2"/>
+      <c r="G427" s="2"/>
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
-    </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J427" s="2"/>
+      <c r="L427" s="32"/>
+    </row>
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
+      <c r="B428" s="31"/>
+      <c r="C428" s="2"/>
+      <c r="D428" s="2"/>
+      <c r="E428" s="2"/>
+      <c r="F428" s="2"/>
+      <c r="G428" s="2"/>
       <c r="H428" s="2"/>
       <c r="I428" s="2"/>
-    </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J428" s="2"/>
+      <c r="L428" s="32"/>
+    </row>
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
+      <c r="B429" s="31"/>
+      <c r="C429" s="2"/>
+      <c r="D429" s="2"/>
+      <c r="E429" s="2"/>
+      <c r="F429" s="2"/>
+      <c r="G429" s="2"/>
       <c r="H429" s="2"/>
       <c r="I429" s="2"/>
-    </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J429" s="2"/>
+      <c r="L429" s="32"/>
+    </row>
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
+      <c r="B430" s="31"/>
+      <c r="C430" s="2"/>
+      <c r="D430" s="2"/>
+      <c r="E430" s="2"/>
+      <c r="F430" s="2"/>
+      <c r="G430" s="2"/>
       <c r="H430" s="2"/>
       <c r="I430" s="2"/>
-    </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J430" s="2"/>
+      <c r="L430" s="32"/>
+    </row>
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
+      <c r="B431" s="31"/>
+      <c r="C431" s="2"/>
+      <c r="D431" s="2"/>
+      <c r="E431" s="2"/>
+      <c r="F431" s="2"/>
+      <c r="G431" s="2"/>
       <c r="H431" s="2"/>
       <c r="I431" s="2"/>
-    </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J431" s="2"/>
+      <c r="L431" s="32"/>
+    </row>
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
+      <c r="B432" s="31"/>
+      <c r="C432" s="2"/>
+      <c r="D432" s="2"/>
+      <c r="E432" s="2"/>
+      <c r="F432" s="2"/>
+      <c r="G432" s="2"/>
       <c r="H432" s="2"/>
       <c r="I432" s="2"/>
-    </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J432" s="2"/>
+      <c r="L432" s="32"/>
+    </row>
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
+      <c r="B433" s="31"/>
+      <c r="C433" s="2"/>
+      <c r="D433" s="2"/>
+      <c r="E433" s="2"/>
+      <c r="F433" s="2"/>
+      <c r="G433" s="2"/>
       <c r="H433" s="2"/>
       <c r="I433" s="2"/>
-    </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J433" s="2"/>
+      <c r="L433" s="32"/>
+    </row>
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
+      <c r="B434" s="31"/>
+      <c r="C434" s="2"/>
+      <c r="D434" s="2"/>
+      <c r="E434" s="2"/>
+      <c r="F434" s="2"/>
+      <c r="G434" s="2"/>
       <c r="H434" s="2"/>
       <c r="I434" s="2"/>
-    </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J434" s="2"/>
+      <c r="L434" s="32"/>
+    </row>
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
+      <c r="B435" s="31"/>
+      <c r="C435" s="2"/>
+      <c r="D435" s="2"/>
+      <c r="E435" s="2"/>
+      <c r="F435" s="2"/>
+      <c r="G435" s="2"/>
       <c r="H435" s="2"/>
       <c r="I435" s="2"/>
-    </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J435" s="2"/>
+      <c r="L435" s="32"/>
+    </row>
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
+      <c r="B436" s="31"/>
+      <c r="C436" s="2"/>
+      <c r="D436" s="2"/>
+      <c r="E436" s="2"/>
+      <c r="F436" s="2"/>
+      <c r="G436" s="2"/>
       <c r="H436" s="2"/>
       <c r="I436" s="2"/>
-    </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J436" s="2"/>
+      <c r="L436" s="32"/>
+    </row>
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
+      <c r="B437" s="31"/>
+      <c r="C437" s="2"/>
+      <c r="D437" s="2"/>
+      <c r="E437" s="2"/>
+      <c r="F437" s="2"/>
+      <c r="G437" s="2"/>
       <c r="H437" s="2"/>
       <c r="I437" s="2"/>
-    </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J437" s="2"/>
+      <c r="L437" s="32"/>
+    </row>
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
+      <c r="B438" s="31"/>
+      <c r="C438" s="2"/>
+      <c r="D438" s="2"/>
+      <c r="E438" s="2"/>
+      <c r="F438" s="2"/>
+      <c r="G438" s="2"/>
       <c r="H438" s="2"/>
       <c r="I438" s="2"/>
-    </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J438" s="2"/>
+      <c r="L438" s="32"/>
+    </row>
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
+      <c r="B439" s="31"/>
+      <c r="C439" s="2"/>
+      <c r="D439" s="2"/>
+      <c r="E439" s="2"/>
+      <c r="F439" s="2"/>
+      <c r="G439" s="2"/>
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
-    </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J439" s="2"/>
+      <c r="L439" s="32"/>
+    </row>
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
+      <c r="B440" s="31"/>
+      <c r="C440" s="2"/>
+      <c r="D440" s="2"/>
+      <c r="E440" s="2"/>
+      <c r="F440" s="2"/>
+      <c r="G440" s="2"/>
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
-    </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J440" s="2"/>
+      <c r="L440" s="32"/>
+    </row>
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
+      <c r="B441" s="31"/>
+      <c r="C441" s="2"/>
+      <c r="D441" s="2"/>
+      <c r="E441" s="2"/>
+      <c r="F441" s="2"/>
+      <c r="G441" s="2"/>
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
-    </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J441" s="2"/>
+      <c r="L441" s="32"/>
+    </row>
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
+      <c r="B442" s="31"/>
+      <c r="C442" s="2"/>
+      <c r="D442" s="2"/>
+      <c r="E442" s="2"/>
+      <c r="F442" s="2"/>
+      <c r="G442" s="2"/>
       <c r="H442" s="2"/>
       <c r="I442" s="2"/>
-    </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J442" s="2"/>
+      <c r="L442" s="32"/>
+    </row>
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
+      <c r="B443" s="31"/>
+      <c r="C443" s="2"/>
+      <c r="D443" s="2"/>
+      <c r="E443" s="2"/>
+      <c r="F443" s="2"/>
+      <c r="G443" s="2"/>
       <c r="H443" s="2"/>
       <c r="I443" s="2"/>
-    </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J443" s="2"/>
+      <c r="L443" s="32"/>
+    </row>
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
+      <c r="B444" s="31"/>
+      <c r="C444" s="2"/>
+      <c r="D444" s="2"/>
+      <c r="E444" s="2"/>
+      <c r="F444" s="2"/>
+      <c r="G444" s="2"/>
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
-    </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J444" s="2"/>
+      <c r="L444" s="32"/>
+    </row>
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
+      <c r="B445" s="31"/>
+      <c r="C445" s="2"/>
+      <c r="D445" s="2"/>
+      <c r="E445" s="2"/>
+      <c r="F445" s="2"/>
+      <c r="G445" s="2"/>
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
-    </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J445" s="2"/>
+      <c r="L445" s="32"/>
+    </row>
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
+      <c r="B446" s="31"/>
+      <c r="C446" s="2"/>
+      <c r="D446" s="2"/>
+      <c r="E446" s="2"/>
+      <c r="F446" s="2"/>
+      <c r="G446" s="2"/>
       <c r="H446" s="2"/>
       <c r="I446" s="2"/>
-    </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J446" s="2"/>
+      <c r="L446" s="32"/>
+    </row>
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
+      <c r="B447" s="31"/>
+      <c r="C447" s="2"/>
+      <c r="D447" s="2"/>
+      <c r="E447" s="2"/>
+      <c r="F447" s="2"/>
+      <c r="G447" s="2"/>
       <c r="H447" s="2"/>
       <c r="I447" s="2"/>
-    </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J447" s="2"/>
+      <c r="L447" s="32"/>
+    </row>
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
+      <c r="B448" s="31"/>
+      <c r="C448" s="2"/>
+      <c r="D448" s="2"/>
+      <c r="E448" s="2"/>
+      <c r="F448" s="2"/>
+      <c r="G448" s="2"/>
       <c r="H448" s="2"/>
       <c r="I448" s="2"/>
-    </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J448" s="2"/>
+      <c r="L448" s="32"/>
+    </row>
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
+      <c r="B449" s="31"/>
+      <c r="C449" s="2"/>
+      <c r="D449" s="2"/>
+      <c r="E449" s="2"/>
+      <c r="F449" s="2"/>
+      <c r="G449" s="2"/>
       <c r="H449" s="2"/>
       <c r="I449" s="2"/>
-    </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J449" s="2"/>
+      <c r="L449" s="32"/>
+    </row>
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
+      <c r="B450" s="31"/>
+      <c r="C450" s="2"/>
+      <c r="D450" s="2"/>
+      <c r="E450" s="2"/>
+      <c r="F450" s="2"/>
+      <c r="G450" s="2"/>
       <c r="H450" s="2"/>
       <c r="I450" s="2"/>
-    </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J450" s="2"/>
+      <c r="L450" s="32"/>
+    </row>
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
+      <c r="B451" s="31"/>
+      <c r="C451" s="2"/>
+      <c r="D451" s="2"/>
+      <c r="E451" s="2"/>
+      <c r="F451" s="2"/>
+      <c r="G451" s="2"/>
       <c r="H451" s="2"/>
       <c r="I451" s="2"/>
-    </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J451" s="2"/>
+      <c r="L451" s="32"/>
+    </row>
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
+      <c r="B452" s="31"/>
+      <c r="C452" s="2"/>
+      <c r="D452" s="2"/>
+      <c r="E452" s="2"/>
+      <c r="F452" s="2"/>
+      <c r="G452" s="2"/>
       <c r="H452" s="2"/>
       <c r="I452" s="2"/>
-    </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J452" s="2"/>
+      <c r="L452" s="32"/>
+    </row>
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
+      <c r="B453" s="31"/>
+      <c r="C453" s="2"/>
+      <c r="D453" s="2"/>
+      <c r="E453" s="2"/>
+      <c r="F453" s="2"/>
+      <c r="G453" s="2"/>
       <c r="H453" s="2"/>
       <c r="I453" s="2"/>
-    </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J453" s="2"/>
+      <c r="L453" s="32"/>
+    </row>
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
+      <c r="B454" s="31"/>
+      <c r="C454" s="2"/>
+      <c r="D454" s="2"/>
+      <c r="E454" s="2"/>
+      <c r="F454" s="2"/>
+      <c r="G454" s="2"/>
       <c r="H454" s="2"/>
       <c r="I454" s="2"/>
-    </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J454" s="2"/>
+      <c r="L454" s="32"/>
+    </row>
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
+      <c r="B455" s="31"/>
+      <c r="C455" s="2"/>
+      <c r="D455" s="2"/>
+      <c r="E455" s="2"/>
+      <c r="F455" s="2"/>
+      <c r="G455" s="2"/>
       <c r="H455" s="2"/>
       <c r="I455" s="2"/>
-    </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J455" s="2"/>
+      <c r="L455" s="32"/>
+    </row>
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
+      <c r="B456" s="31"/>
+      <c r="C456" s="2"/>
+      <c r="D456" s="2"/>
+      <c r="E456" s="2"/>
+      <c r="F456" s="2"/>
+      <c r="G456" s="2"/>
       <c r="H456" s="2"/>
       <c r="I456" s="2"/>
-    </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J456" s="2"/>
+      <c r="L456" s="32"/>
+    </row>
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
+      <c r="B457" s="31"/>
+      <c r="C457" s="2"/>
+      <c r="D457" s="2"/>
+      <c r="E457" s="2"/>
+      <c r="F457" s="2"/>
+      <c r="G457" s="2"/>
       <c r="H457" s="2"/>
       <c r="I457" s="2"/>
-    </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J457" s="2"/>
+      <c r="L457" s="32"/>
+    </row>
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
+      <c r="B458" s="31"/>
+      <c r="C458" s="2"/>
+      <c r="D458" s="2"/>
+      <c r="E458" s="2"/>
+      <c r="F458" s="2"/>
+      <c r="G458" s="2"/>
       <c r="H458" s="2"/>
       <c r="I458" s="2"/>
-    </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J458" s="2"/>
+      <c r="L458" s="32"/>
+    </row>
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
+      <c r="B459" s="31"/>
+      <c r="C459" s="2"/>
+      <c r="D459" s="2"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
       <c r="H459" s="2"/>
       <c r="I459" s="2"/>
-    </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J459" s="2"/>
+      <c r="L459" s="32"/>
+    </row>
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
+      <c r="B460" s="31"/>
+      <c r="C460" s="2"/>
+      <c r="D460" s="2"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
       <c r="H460" s="2"/>
       <c r="I460" s="2"/>
-    </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J460" s="2"/>
+      <c r="L460" s="32"/>
+    </row>
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
+      <c r="B461" s="31"/>
+      <c r="C461" s="2"/>
+      <c r="D461" s="2"/>
+      <c r="E461" s="2"/>
+      <c r="F461" s="2"/>
+      <c r="G461" s="2"/>
       <c r="H461" s="2"/>
       <c r="I461" s="2"/>
-    </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J461" s="2"/>
+      <c r="L461" s="32"/>
+    </row>
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
+      <c r="B462" s="31"/>
+      <c r="C462" s="2"/>
+      <c r="D462" s="2"/>
+      <c r="E462" s="2"/>
+      <c r="F462" s="2"/>
+      <c r="G462" s="2"/>
       <c r="H462" s="2"/>
       <c r="I462" s="2"/>
-    </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J462" s="2"/>
+      <c r="L462" s="32"/>
+    </row>
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
+      <c r="B463" s="31"/>
+      <c r="C463" s="2"/>
+      <c r="D463" s="2"/>
+      <c r="E463" s="2"/>
+      <c r="F463" s="2"/>
+      <c r="G463" s="2"/>
       <c r="H463" s="2"/>
       <c r="I463" s="2"/>
-    </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J463" s="2"/>
+      <c r="L463" s="32"/>
+    </row>
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
+      <c r="B464" s="31"/>
+      <c r="C464" s="2"/>
+      <c r="D464" s="2"/>
+      <c r="E464" s="2"/>
+      <c r="F464" s="2"/>
+      <c r="G464" s="2"/>
       <c r="H464" s="2"/>
       <c r="I464" s="2"/>
-    </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J464" s="2"/>
+      <c r="L464" s="32"/>
+    </row>
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
+      <c r="B465" s="31"/>
+      <c r="C465" s="2"/>
+      <c r="D465" s="2"/>
+      <c r="E465" s="2"/>
+      <c r="F465" s="2"/>
+      <c r="G465" s="2"/>
       <c r="H465" s="2"/>
       <c r="I465" s="2"/>
-    </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J465" s="2"/>
+      <c r="L465" s="32"/>
+    </row>
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
+      <c r="B466" s="31"/>
+      <c r="C466" s="2"/>
+      <c r="D466" s="2"/>
+      <c r="E466" s="2"/>
+      <c r="F466" s="2"/>
+      <c r="G466" s="2"/>
       <c r="H466" s="2"/>
       <c r="I466" s="2"/>
-    </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J466" s="2"/>
+      <c r="L466" s="32"/>
+    </row>
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
+      <c r="B467" s="31"/>
+      <c r="C467" s="2"/>
+      <c r="D467" s="2"/>
+      <c r="E467" s="2"/>
+      <c r="F467" s="2"/>
+      <c r="G467" s="2"/>
       <c r="H467" s="2"/>
       <c r="I467" s="2"/>
-    </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J467" s="2"/>
+      <c r="L467" s="32"/>
+    </row>
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
+      <c r="B468" s="31"/>
+      <c r="C468" s="2"/>
+      <c r="D468" s="2"/>
+      <c r="E468" s="2"/>
+      <c r="F468" s="2"/>
+      <c r="G468" s="2"/>
       <c r="H468" s="2"/>
       <c r="I468" s="2"/>
-    </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J468" s="2"/>
+      <c r="L468" s="32"/>
+    </row>
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
+      <c r="B469" s="31"/>
+      <c r="C469" s="2"/>
+      <c r="D469" s="2"/>
+      <c r="E469" s="2"/>
+      <c r="F469" s="2"/>
+      <c r="G469" s="2"/>
       <c r="H469" s="2"/>
       <c r="I469" s="2"/>
-    </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J469" s="2"/>
+      <c r="L469" s="32"/>
+    </row>
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
+      <c r="B470" s="31"/>
+      <c r="C470" s="2"/>
+      <c r="D470" s="2"/>
+      <c r="E470" s="2"/>
+      <c r="F470" s="2"/>
+      <c r="G470" s="2"/>
       <c r="H470" s="2"/>
       <c r="I470" s="2"/>
-    </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J470" s="2"/>
+      <c r="L470" s="32"/>
+    </row>
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
+      <c r="B471" s="31"/>
+      <c r="C471" s="2"/>
+      <c r="D471" s="2"/>
+      <c r="E471" s="2"/>
+      <c r="F471" s="2"/>
+      <c r="G471" s="2"/>
       <c r="H471" s="2"/>
       <c r="I471" s="2"/>
-    </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J471" s="2"/>
+      <c r="L471" s="32"/>
+    </row>
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
+      <c r="B472" s="31"/>
+      <c r="C472" s="2"/>
+      <c r="D472" s="2"/>
+      <c r="E472" s="2"/>
+      <c r="F472" s="2"/>
+      <c r="G472" s="2"/>
       <c r="H472" s="2"/>
       <c r="I472" s="2"/>
-    </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J472" s="2"/>
+      <c r="L472" s="32"/>
+    </row>
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
+      <c r="B473" s="31"/>
+      <c r="C473" s="2"/>
+      <c r="D473" s="2"/>
+      <c r="E473" s="2"/>
+      <c r="F473" s="2"/>
+      <c r="G473" s="2"/>
       <c r="H473" s="2"/>
       <c r="I473" s="2"/>
-    </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J473" s="2"/>
+      <c r="L473" s="32"/>
+    </row>
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
+      <c r="B474" s="31"/>
+      <c r="C474" s="2"/>
+      <c r="D474" s="2"/>
+      <c r="E474" s="2"/>
+      <c r="F474" s="2"/>
+      <c r="G474" s="2"/>
       <c r="H474" s="2"/>
       <c r="I474" s="2"/>
-    </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J474" s="2"/>
+      <c r="L474" s="32"/>
+    </row>
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
+      <c r="B475" s="31"/>
+      <c r="C475" s="2"/>
+      <c r="D475" s="2"/>
+      <c r="E475" s="2"/>
+      <c r="F475" s="2"/>
+      <c r="G475" s="2"/>
       <c r="H475" s="2"/>
       <c r="I475" s="2"/>
-    </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J475" s="2"/>
+      <c r="L475" s="32"/>
+    </row>
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
+      <c r="B476" s="31"/>
+      <c r="C476" s="2"/>
+      <c r="D476" s="2"/>
+      <c r="E476" s="2"/>
+      <c r="F476" s="2"/>
+      <c r="G476" s="2"/>
       <c r="H476" s="2"/>
       <c r="I476" s="2"/>
-    </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J476" s="2"/>
+      <c r="L476" s="32"/>
+    </row>
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
+      <c r="B477" s="31"/>
+      <c r="C477" s="2"/>
+      <c r="D477" s="2"/>
+      <c r="E477" s="2"/>
+      <c r="F477" s="2"/>
+      <c r="G477" s="2"/>
       <c r="H477" s="2"/>
       <c r="I477" s="2"/>
-    </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J477" s="2"/>
+      <c r="L477" s="32"/>
+    </row>
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
+      <c r="B478" s="31"/>
+      <c r="C478" s="2"/>
+      <c r="D478" s="2"/>
+      <c r="E478" s="2"/>
+      <c r="F478" s="2"/>
+      <c r="G478" s="2"/>
       <c r="H478" s="2"/>
       <c r="I478" s="2"/>
-    </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J478" s="2"/>
+      <c r="L478" s="32"/>
+    </row>
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
+      <c r="B479" s="31"/>
+      <c r="C479" s="2"/>
+      <c r="D479" s="2"/>
+      <c r="E479" s="2"/>
+      <c r="F479" s="2"/>
+      <c r="G479" s="2"/>
       <c r="H479" s="2"/>
       <c r="I479" s="2"/>
-    </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J479" s="2"/>
+      <c r="L479" s="32"/>
+    </row>
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
+      <c r="B480" s="31"/>
+      <c r="C480" s="2"/>
+      <c r="D480" s="2"/>
+      <c r="E480" s="2"/>
+      <c r="F480" s="2"/>
+      <c r="G480" s="2"/>
       <c r="H480" s="2"/>
       <c r="I480" s="2"/>
-    </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J480" s="2"/>
+      <c r="L480" s="32"/>
+    </row>
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
+      <c r="B481" s="31"/>
+      <c r="C481" s="2"/>
+      <c r="D481" s="2"/>
+      <c r="E481" s="2"/>
+      <c r="F481" s="2"/>
+      <c r="G481" s="2"/>
       <c r="H481" s="2"/>
       <c r="I481" s="2"/>
-    </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J481" s="2"/>
+      <c r="L481" s="32"/>
+    </row>
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
+      <c r="B482" s="31"/>
+      <c r="C482" s="2"/>
+      <c r="D482" s="2"/>
+      <c r="E482" s="2"/>
+      <c r="F482" s="2"/>
+      <c r="G482" s="2"/>
       <c r="H482" s="2"/>
       <c r="I482" s="2"/>
-    </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J482" s="2"/>
+      <c r="L482" s="32"/>
+    </row>
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
+      <c r="B483" s="31"/>
+      <c r="C483" s="2"/>
+      <c r="D483" s="2"/>
+      <c r="E483" s="2"/>
+      <c r="F483" s="2"/>
+      <c r="G483" s="2"/>
       <c r="H483" s="2"/>
       <c r="I483" s="2"/>
-    </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J483" s="2"/>
+      <c r="L483" s="32"/>
+    </row>
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
+      <c r="B484" s="31"/>
+      <c r="C484" s="2"/>
+      <c r="D484" s="2"/>
+      <c r="E484" s="2"/>
+      <c r="F484" s="2"/>
+      <c r="G484" s="2"/>
       <c r="H484" s="2"/>
       <c r="I484" s="2"/>
-    </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J484" s="2"/>
+      <c r="L484" s="32"/>
+    </row>
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
+      <c r="B485" s="31"/>
+      <c r="C485" s="2"/>
+      <c r="D485" s="2"/>
+      <c r="E485" s="2"/>
+      <c r="F485" s="2"/>
+      <c r="G485" s="2"/>
       <c r="H485" s="2"/>
       <c r="I485" s="2"/>
-    </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J485" s="2"/>
+      <c r="L485" s="32"/>
+    </row>
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
+      <c r="B486" s="31"/>
+      <c r="C486" s="2"/>
+      <c r="D486" s="2"/>
+      <c r="E486" s="2"/>
+      <c r="F486" s="2"/>
+      <c r="G486" s="2"/>
       <c r="H486" s="2"/>
       <c r="I486" s="2"/>
-    </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J486" s="2"/>
+      <c r="L486" s="32"/>
+    </row>
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
+      <c r="B487" s="31"/>
+      <c r="C487" s="2"/>
+      <c r="D487" s="2"/>
+      <c r="E487" s="2"/>
+      <c r="F487" s="2"/>
+      <c r="G487" s="2"/>
       <c r="H487" s="2"/>
       <c r="I487" s="2"/>
-    </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J487" s="2"/>
+      <c r="L487" s="32"/>
+    </row>
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
+      <c r="B488" s="31"/>
+      <c r="C488" s="2"/>
+      <c r="D488" s="2"/>
+      <c r="E488" s="2"/>
+      <c r="F488" s="2"/>
+      <c r="G488" s="2"/>
       <c r="H488" s="2"/>
       <c r="I488" s="2"/>
-    </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J488" s="2"/>
+      <c r="L488" s="32"/>
+    </row>
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
+      <c r="B489" s="31"/>
+      <c r="C489" s="2"/>
+      <c r="D489" s="2"/>
+      <c r="E489" s="2"/>
+      <c r="F489" s="2"/>
+      <c r="G489" s="2"/>
       <c r="H489" s="2"/>
       <c r="I489" s="2"/>
-    </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J489" s="2"/>
+      <c r="L489" s="32"/>
+    </row>
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
+      <c r="B490" s="31"/>
+      <c r="C490" s="2"/>
+      <c r="D490" s="2"/>
+      <c r="E490" s="2"/>
+      <c r="F490" s="2"/>
+      <c r="G490" s="2"/>
       <c r="H490" s="2"/>
       <c r="I490" s="2"/>
-    </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J490" s="2"/>
+      <c r="L490" s="32"/>
+    </row>
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
+      <c r="B491" s="31"/>
+      <c r="C491" s="2"/>
+      <c r="D491" s="2"/>
+      <c r="E491" s="2"/>
+      <c r="F491" s="2"/>
+      <c r="G491" s="2"/>
       <c r="H491" s="2"/>
       <c r="I491" s="2"/>
-    </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J491" s="2"/>
+      <c r="L491" s="32"/>
+    </row>
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
+      <c r="B492" s="31"/>
+      <c r="C492" s="2"/>
+      <c r="D492" s="2"/>
+      <c r="E492" s="2"/>
+      <c r="F492" s="2"/>
+      <c r="G492" s="2"/>
       <c r="H492" s="2"/>
       <c r="I492" s="2"/>
-    </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J492" s="2"/>
+      <c r="L492" s="32"/>
+    </row>
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
+      <c r="B493" s="31"/>
+      <c r="C493" s="2"/>
+      <c r="D493" s="2"/>
+      <c r="E493" s="2"/>
+      <c r="F493" s="2"/>
+      <c r="G493" s="2"/>
       <c r="H493" s="2"/>
       <c r="I493" s="2"/>
-    </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J493" s="2"/>
+      <c r="L493" s="32"/>
+    </row>
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
+      <c r="B494" s="31"/>
+      <c r="C494" s="2"/>
+      <c r="D494" s="2"/>
+      <c r="E494" s="2"/>
+      <c r="F494" s="2"/>
+      <c r="G494" s="2"/>
       <c r="H494" s="2"/>
       <c r="I494" s="2"/>
-    </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J494" s="2"/>
+      <c r="L494" s="32"/>
+    </row>
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
+      <c r="B495" s="31"/>
+      <c r="C495" s="2"/>
+      <c r="D495" s="2"/>
+      <c r="E495" s="2"/>
+      <c r="F495" s="2"/>
+      <c r="G495" s="2"/>
       <c r="H495" s="2"/>
       <c r="I495" s="2"/>
-    </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J495" s="2"/>
+      <c r="L495" s="32"/>
+    </row>
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
+      <c r="B496" s="31"/>
+      <c r="C496" s="2"/>
+      <c r="D496" s="2"/>
+      <c r="E496" s="2"/>
+      <c r="F496" s="2"/>
+      <c r="G496" s="2"/>
       <c r="H496" s="2"/>
       <c r="I496" s="2"/>
-    </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J496" s="2"/>
+      <c r="L496" s="32"/>
+    </row>
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
+      <c r="B497" s="31"/>
+      <c r="C497" s="2"/>
+      <c r="D497" s="2"/>
+      <c r="E497" s="2"/>
+      <c r="F497" s="2"/>
+      <c r="G497" s="2"/>
       <c r="H497" s="2"/>
       <c r="I497" s="2"/>
-    </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J497" s="2"/>
+      <c r="L497" s="32"/>
+    </row>
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
+      <c r="B498" s="31"/>
+      <c r="C498" s="2"/>
+      <c r="D498" s="2"/>
+      <c r="E498" s="2"/>
+      <c r="F498" s="2"/>
+      <c r="G498" s="2"/>
       <c r="H498" s="2"/>
       <c r="I498" s="2"/>
-    </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J498" s="2"/>
+      <c r="L498" s="32"/>
+    </row>
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
+      <c r="B499" s="31"/>
+      <c r="C499" s="2"/>
+      <c r="D499" s="2"/>
+      <c r="E499" s="2"/>
+      <c r="F499" s="2"/>
+      <c r="G499" s="2"/>
       <c r="H499" s="2"/>
       <c r="I499" s="2"/>
-    </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J499" s="2"/>
+      <c r="L499" s="32"/>
+    </row>
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
+      <c r="B500" s="31"/>
+      <c r="C500" s="2"/>
+      <c r="D500" s="2"/>
+      <c r="E500" s="2"/>
+      <c r="F500" s="2"/>
+      <c r="G500" s="2"/>
       <c r="H500" s="2"/>
       <c r="I500" s="2"/>
-    </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J500" s="2"/>
+      <c r="L500" s="32"/>
+    </row>
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I502" s="2"/>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I503" s="2"/>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I504" s="2"/>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I505" s="2"/>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I506" s="2"/>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I507" s="2"/>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I508" s="2"/>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I509" s="2"/>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I510" s="2"/>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I511" s="2"/>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I512" s="2"/>
     </row>
     <row r="513" spans="9:9" x14ac:dyDescent="0.2">
@@ -5550,7 +9601,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44629649-B987-4DD5-B0DD-B61C81ACEDE4}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$A$2:$A$18</xm:f>
@@ -5575,6 +9626,12 @@
           </x14:formula1>
           <xm:sqref>J2:J1000</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A659BD7-DA4A-0448-B0D1-5C8CAE2819D3}">
+          <x14:formula1>
+            <xm:f>'Списки ввода'!$E$2:$E$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>L2:L500</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -5583,19 +9640,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B61B38-8B1E-4FA2-A5CA-08509FE76141}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -5608,8 +9668,11 @@
       <c r="D1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -5622,8 +9685,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -5636,8 +9702,11 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -5647,8 +9716,11 @@
       <c r="D4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5658,8 +9730,11 @@
       <c r="D5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -5670,7 +9745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5678,55 +9753,55 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -5756,10 +9831,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91409B47-9852-A143-B2A1-C654B176FF6D}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5774,46 +9849,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
+      <c r="A1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -5826,310 +9901,345 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="19"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="26" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="13"/>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="17"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="14"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="12" t="s">
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+    </row>
+    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="12" t="s">
+      <c r="B17" s="18"/>
+      <c r="C17" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="14"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="13"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="12" t="s">
+      <c r="B19" s="18"/>
+      <c r="C19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="13"/>
+    </row>
+    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="17"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="13"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="12" t="s">
+      <c r="B21" s="18"/>
+      <c r="C21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="13"/>
+    </row>
+    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="13"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="13"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="13"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="14"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="B25" s="18"/>
+      <c r="C25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="13"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="13"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="18"/>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="13"/>
+    </row>
+    <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="13"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="14"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="14"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="12" t="s">
+      <c r="B29" s="18"/>
+      <c r="C29" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="14"/>
-    </row>
-    <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="14"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16"/>
+      <c r="A30" s="27"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="18"/>
+      <c r="C31" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="13"/>
+    </row>
+    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A6:H7"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C8:H8"/>
+  <mergeCells count="29">
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:H32"/>
+    <mergeCell ref="A29:B30"/>
+    <mergeCell ref="C29:H30"/>
+    <mergeCell ref="A23:B24"/>
+    <mergeCell ref="C23:H24"/>
+    <mergeCell ref="A25:B26"/>
+    <mergeCell ref="C25:H26"/>
+    <mergeCell ref="A27:B28"/>
+    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A15:B16"/>
     <mergeCell ref="C15:H16"/>
     <mergeCell ref="A8:B8"/>
@@ -6138,20 +10248,11 @@
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:H12"/>
     <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="A29:B30"/>
-    <mergeCell ref="C29:H30"/>
-    <mergeCell ref="A23:B24"/>
-    <mergeCell ref="C23:H24"/>
-    <mergeCell ref="A25:B26"/>
-    <mergeCell ref="C25:H26"/>
-    <mergeCell ref="A27:B28"/>
-    <mergeCell ref="C27:H28"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A6:H7"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/PilotTest.xlsx
+++ b/static/PilotTest.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaychenkoroman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE31716E-68A9-455C-96C2-FAAEACF300E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1769F38-F281-5F4A-B7CE-3FF96C81B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PilotTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Списки ввода" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="Списки ввода" sheetId="2" r:id="rId2"/>
     <sheet name="Инструкция" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="98">
   <si>
     <t>Вид вопроса (один вариант правильного ответа или несколько)</t>
   </si>
@@ -698,12 +698,36 @@
   <si>
     <t>Limitations</t>
   </si>
+  <si>
+    <t>АБ</t>
+  </si>
+  <si>
+    <t>ЛТХ ВС</t>
+  </si>
+  <si>
+    <t>МЕТЕО</t>
+  </si>
+  <si>
+    <t>Навигация</t>
+  </si>
+  <si>
+    <t>Полёты в ОУ</t>
+  </si>
+  <si>
+    <t>Радиообмен</t>
+  </si>
+  <si>
+    <t>Полёты в СУ</t>
+  </si>
+  <si>
+    <t>Правила Эксплуатации</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,14 +1099,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1093,20 +1120,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1132,16 +1150,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1166,8 +1190,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}" name="Таблица1" displayName="Таблица1" ref="A1:E20" totalsRowShown="0">
-  <autoFilter ref="A1:E20" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}" name="Таблица1" displayName="Таблица1" ref="A1:E27" totalsRowShown="0">
+  <autoFilter ref="A1:E27" xr:uid="{1DBEC72C-C26C-43D1-A7C0-E9B5FBC37FE2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E27">
+    <sortCondition ref="A1:A27"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{659D079B-4217-40F9-A886-E0EA6624287D}" name="Темы Вопросов"/>
     <tableColumn id="2" xr3:uid="{A7BB0D08-CCFD-4E28-BAF6-65E4D257C31B}" name="Столбец1"/>
@@ -1478,26 +1505,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F236E5-94C4-4CE9-B439-5C26C09E2983}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.46484375" customWidth="1"/>
+    <col min="2" max="2" width="38.5" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.46484375" customWidth="1"/>
-    <col min="5" max="6" width="25.796875" customWidth="1"/>
-    <col min="7" max="7" width="26.1328125" customWidth="1"/>
-    <col min="8" max="8" width="25.1328125" customWidth="1"/>
+    <col min="4" max="4" width="29.5" customWidth="1"/>
+    <col min="5" max="6" width="25.83203125" customWidth="1"/>
+    <col min="7" max="7" width="26.1640625" customWidth="1"/>
+    <col min="8" max="8" width="25.1640625" customWidth="1"/>
     <col min="9" max="10" width="24.6640625" customWidth="1"/>
     <col min="11" max="11" width="28.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.1328125" customWidth="1"/>
+    <col min="12" max="12" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1">
+    <row r="1" spans="1:12" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>43</v>
       </c>
@@ -1535,7 +1562,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="28.5">
+    <row r="2" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1565,7 +1592,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="28.5">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
@@ -1599,7 +1626,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17" customHeight="1">
+    <row r="4" spans="1:12" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1662,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="28.5">
+    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -1664,7 +1691,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="8"/>
       <c r="C6" s="2"/>
@@ -1677,7 +1704,7 @@
       <c r="J6" s="2"/>
       <c r="L6" s="9"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="8"/>
       <c r="C7" s="2"/>
@@ -1690,7 +1717,7 @@
       <c r="J7" s="2"/>
       <c r="L7" s="9"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="8"/>
       <c r="C8" s="2"/>
@@ -1703,7 +1730,7 @@
       <c r="J8" s="2"/>
       <c r="L8" s="9"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1716,7 +1743,7 @@
       <c r="J9" s="2"/>
       <c r="L9" s="9"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1729,7 +1756,7 @@
       <c r="J10" s="2"/>
       <c r="L10" s="9"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1742,7 +1769,7 @@
       <c r="J11" s="2"/>
       <c r="L11" s="9"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1755,7 +1782,7 @@
       <c r="J12" s="2"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1768,7 +1795,7 @@
       <c r="J13" s="2"/>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -1781,7 +1808,7 @@
       <c r="J14" s="2"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -1794,7 +1821,7 @@
       <c r="J15" s="2"/>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -1807,7 +1834,7 @@
       <c r="J16" s="2"/>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -1820,7 +1847,7 @@
       <c r="J17" s="2"/>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -1833,7 +1860,7 @@
       <c r="J18" s="2"/>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
@@ -1846,7 +1873,7 @@
       <c r="J19" s="2"/>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
@@ -1859,7 +1886,7 @@
       <c r="J20" s="2"/>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
@@ -1872,7 +1899,7 @@
       <c r="J21" s="2"/>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
@@ -1885,7 +1912,7 @@
       <c r="J22" s="2"/>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
@@ -1898,7 +1925,7 @@
       <c r="J23" s="2"/>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
@@ -1911,7 +1938,7 @@
       <c r="J24" s="2"/>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
@@ -1924,7 +1951,7 @@
       <c r="J25" s="2"/>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
@@ -1937,7 +1964,7 @@
       <c r="J26" s="2"/>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
@@ -1950,7 +1977,7 @@
       <c r="J27" s="2"/>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
@@ -1963,7 +1990,7 @@
       <c r="J28" s="2"/>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
@@ -1976,7 +2003,7 @@
       <c r="J29" s="2"/>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
@@ -1989,7 +2016,7 @@
       <c r="J30" s="2"/>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
@@ -2002,7 +2029,7 @@
       <c r="J31" s="2"/>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
@@ -2015,7 +2042,7 @@
       <c r="J32" s="2"/>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
@@ -2028,7 +2055,7 @@
       <c r="J33" s="2"/>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
@@ -2041,7 +2068,7 @@
       <c r="J34" s="2"/>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
@@ -2054,7 +2081,7 @@
       <c r="J35" s="2"/>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
@@ -2067,7 +2094,7 @@
       <c r="J36" s="2"/>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
@@ -2080,7 +2107,7 @@
       <c r="J37" s="2"/>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
@@ -2093,7 +2120,7 @@
       <c r="J38" s="2"/>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
@@ -2106,7 +2133,7 @@
       <c r="J39" s="2"/>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
@@ -2119,7 +2146,7 @@
       <c r="J40" s="2"/>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
@@ -2132,7 +2159,7 @@
       <c r="J41" s="2"/>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
@@ -2145,7 +2172,7 @@
       <c r="J42" s="2"/>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
@@ -2158,7 +2185,7 @@
       <c r="J43" s="2"/>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
@@ -2171,7 +2198,7 @@
       <c r="J44" s="2"/>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="8"/>
       <c r="C45" s="2"/>
@@ -2184,7 +2211,7 @@
       <c r="J45" s="2"/>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="8"/>
       <c r="C46" s="2"/>
@@ -2197,7 +2224,7 @@
       <c r="J46" s="2"/>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="8"/>
       <c r="C47" s="2"/>
@@ -2210,7 +2237,7 @@
       <c r="J47" s="2"/>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="8"/>
       <c r="C48" s="2"/>
@@ -2223,7 +2250,7 @@
       <c r="J48" s="2"/>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="8"/>
       <c r="C49" s="2"/>
@@ -2236,7 +2263,7 @@
       <c r="J49" s="2"/>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="8"/>
       <c r="C50" s="2"/>
@@ -2249,7 +2276,7 @@
       <c r="J50" s="2"/>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="8"/>
       <c r="C51" s="2"/>
@@ -2262,7 +2289,7 @@
       <c r="J51" s="2"/>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="8"/>
       <c r="C52" s="2"/>
@@ -2275,7 +2302,7 @@
       <c r="J52" s="2"/>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="8"/>
       <c r="C53" s="2"/>
@@ -2288,7 +2315,7 @@
       <c r="J53" s="2"/>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="8"/>
       <c r="C54" s="2"/>
@@ -2301,7 +2328,7 @@
       <c r="J54" s="2"/>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="8"/>
       <c r="C55" s="2"/>
@@ -2314,7 +2341,7 @@
       <c r="J55" s="2"/>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="8"/>
       <c r="C56" s="2"/>
@@ -2327,7 +2354,7 @@
       <c r="J56" s="2"/>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="8"/>
       <c r="C57" s="2"/>
@@ -2340,7 +2367,7 @@
       <c r="J57" s="2"/>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="8"/>
       <c r="C58" s="2"/>
@@ -2353,7 +2380,7 @@
       <c r="J58" s="2"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="8"/>
       <c r="C59" s="2"/>
@@ -2366,7 +2393,7 @@
       <c r="J59" s="2"/>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="8"/>
       <c r="C60" s="2"/>
@@ -2379,7 +2406,7 @@
       <c r="J60" s="2"/>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="8"/>
       <c r="C61" s="2"/>
@@ -2392,7 +2419,7 @@
       <c r="J61" s="2"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="8"/>
       <c r="C62" s="2"/>
@@ -2405,7 +2432,7 @@
       <c r="J62" s="2"/>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="8"/>
       <c r="C63" s="2"/>
@@ -2418,7 +2445,7 @@
       <c r="J63" s="2"/>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="8"/>
       <c r="C64" s="2"/>
@@ -2431,7 +2458,7 @@
       <c r="J64" s="2"/>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="8"/>
       <c r="C65" s="2"/>
@@ -2444,7 +2471,7 @@
       <c r="J65" s="2"/>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="8"/>
       <c r="C66" s="2"/>
@@ -2457,7 +2484,7 @@
       <c r="J66" s="2"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="8"/>
       <c r="C67" s="2"/>
@@ -2470,7 +2497,7 @@
       <c r="J67" s="2"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="8"/>
       <c r="C68" s="2"/>
@@ -2483,7 +2510,7 @@
       <c r="J68" s="2"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="8"/>
       <c r="C69" s="2"/>
@@ -2496,7 +2523,7 @@
       <c r="J69" s="2"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="8"/>
       <c r="C70" s="2"/>
@@ -2509,7 +2536,7 @@
       <c r="J70" s="2"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="8"/>
       <c r="C71" s="2"/>
@@ -2522,7 +2549,7 @@
       <c r="J71" s="2"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="8"/>
       <c r="C72" s="2"/>
@@ -2535,7 +2562,7 @@
       <c r="J72" s="2"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="8"/>
       <c r="C73" s="2"/>
@@ -2548,7 +2575,7 @@
       <c r="J73" s="2"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="8"/>
       <c r="C74" s="2"/>
@@ -2561,7 +2588,7 @@
       <c r="J74" s="2"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="8"/>
       <c r="C75" s="2"/>
@@ -2574,7 +2601,7 @@
       <c r="J75" s="2"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="8"/>
       <c r="C76" s="2"/>
@@ -2587,7 +2614,7 @@
       <c r="J76" s="2"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="8"/>
       <c r="C77" s="2"/>
@@ -2600,7 +2627,7 @@
       <c r="J77" s="2"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="8"/>
       <c r="C78" s="2"/>
@@ -2613,7 +2640,7 @@
       <c r="J78" s="2"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="8"/>
       <c r="C79" s="2"/>
@@ -2626,7 +2653,7 @@
       <c r="J79" s="2"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="8"/>
       <c r="C80" s="2"/>
@@ -2639,7 +2666,7 @@
       <c r="J80" s="2"/>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="8"/>
       <c r="C81" s="2"/>
@@ -2652,7 +2679,7 @@
       <c r="J81" s="2"/>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="8"/>
       <c r="C82" s="2"/>
@@ -2665,7 +2692,7 @@
       <c r="J82" s="2"/>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="8"/>
       <c r="C83" s="2"/>
@@ -2678,7 +2705,7 @@
       <c r="J83" s="2"/>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="8"/>
       <c r="C84" s="2"/>
@@ -2691,7 +2718,7 @@
       <c r="J84" s="2"/>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="8"/>
       <c r="C85" s="2"/>
@@ -2704,7 +2731,7 @@
       <c r="J85" s="2"/>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="2"/>
@@ -2717,7 +2744,7 @@
       <c r="J86" s="2"/>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="8"/>
       <c r="C87" s="2"/>
@@ -2730,7 +2757,7 @@
       <c r="J87" s="2"/>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="8"/>
       <c r="C88" s="2"/>
@@ -2743,7 +2770,7 @@
       <c r="J88" s="2"/>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="8"/>
       <c r="C89" s="2"/>
@@ -2756,7 +2783,7 @@
       <c r="J89" s="2"/>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="8"/>
       <c r="C90" s="2"/>
@@ -2769,7 +2796,7 @@
       <c r="J90" s="2"/>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="8"/>
       <c r="C91" s="2"/>
@@ -2782,7 +2809,7 @@
       <c r="J91" s="2"/>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="8"/>
       <c r="C92" s="2"/>
@@ -2795,7 +2822,7 @@
       <c r="J92" s="2"/>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="8"/>
       <c r="C93" s="2"/>
@@ -2808,7 +2835,7 @@
       <c r="J93" s="2"/>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="8"/>
       <c r="C94" s="2"/>
@@ -2821,7 +2848,7 @@
       <c r="J94" s="2"/>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="8"/>
       <c r="C95" s="2"/>
@@ -2834,7 +2861,7 @@
       <c r="J95" s="2"/>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="8"/>
       <c r="C96" s="2"/>
@@ -2847,7 +2874,7 @@
       <c r="J96" s="2"/>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="8"/>
       <c r="C97" s="2"/>
@@ -2860,7 +2887,7 @@
       <c r="J97" s="2"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="8"/>
       <c r="C98" s="2"/>
@@ -2873,7 +2900,7 @@
       <c r="J98" s="2"/>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="8"/>
       <c r="C99" s="2"/>
@@ -2886,7 +2913,7 @@
       <c r="J99" s="2"/>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="8"/>
       <c r="C100" s="2"/>
@@ -2899,7 +2926,7 @@
       <c r="J100" s="2"/>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="8"/>
       <c r="C101" s="2"/>
@@ -2912,7 +2939,7 @@
       <c r="J101" s="2"/>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
       <c r="B102" s="8"/>
       <c r="C102" s="2"/>
@@ -2925,7 +2952,7 @@
       <c r="J102" s="2"/>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="8"/>
       <c r="C103" s="2"/>
@@ -2938,7 +2965,7 @@
       <c r="J103" s="2"/>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
       <c r="B104" s="8"/>
       <c r="C104" s="2"/>
@@ -2951,7 +2978,7 @@
       <c r="J104" s="2"/>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2"/>
       <c r="B105" s="8"/>
       <c r="C105" s="2"/>
@@ -2964,7 +2991,7 @@
       <c r="J105" s="2"/>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2"/>
       <c r="B106" s="8"/>
       <c r="C106" s="2"/>
@@ -2977,7 +3004,7 @@
       <c r="J106" s="2"/>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2"/>
       <c r="B107" s="8"/>
       <c r="C107" s="2"/>
@@ -2990,7 +3017,7 @@
       <c r="J107" s="2"/>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="8"/>
       <c r="C108" s="2"/>
@@ -3003,7 +3030,7 @@
       <c r="J108" s="2"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
       <c r="B109" s="8"/>
       <c r="C109" s="2"/>
@@ -3016,7 +3043,7 @@
       <c r="J109" s="2"/>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2"/>
       <c r="B110" s="8"/>
       <c r="C110" s="2"/>
@@ -3029,7 +3056,7 @@
       <c r="J110" s="2"/>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2"/>
       <c r="B111" s="8"/>
       <c r="C111" s="2"/>
@@ -3042,7 +3069,7 @@
       <c r="J111" s="2"/>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2"/>
       <c r="B112" s="8"/>
       <c r="C112" s="2"/>
@@ -3055,7 +3082,7 @@
       <c r="J112" s="2"/>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2"/>
       <c r="B113" s="8"/>
       <c r="C113" s="2"/>
@@ -3068,7 +3095,7 @@
       <c r="J113" s="2"/>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2"/>
       <c r="B114" s="8"/>
       <c r="C114" s="2"/>
@@ -3081,7 +3108,7 @@
       <c r="J114" s="2"/>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2"/>
       <c r="B115" s="8"/>
       <c r="C115" s="2"/>
@@ -3094,7 +3121,7 @@
       <c r="J115" s="2"/>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2"/>
       <c r="B116" s="8"/>
       <c r="C116" s="2"/>
@@ -3107,7 +3134,7 @@
       <c r="J116" s="2"/>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2"/>
       <c r="B117" s="8"/>
       <c r="C117" s="2"/>
@@ -3120,7 +3147,7 @@
       <c r="J117" s="2"/>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2"/>
       <c r="B118" s="8"/>
       <c r="C118" s="2"/>
@@ -3133,7 +3160,7 @@
       <c r="J118" s="2"/>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2"/>
       <c r="B119" s="8"/>
       <c r="C119" s="2"/>
@@ -3146,7 +3173,7 @@
       <c r="J119" s="2"/>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2"/>
       <c r="B120" s="8"/>
       <c r="C120" s="2"/>
@@ -3159,7 +3186,7 @@
       <c r="J120" s="2"/>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2"/>
       <c r="B121" s="8"/>
       <c r="C121" s="2"/>
@@ -3172,7 +3199,7 @@
       <c r="J121" s="2"/>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2"/>
       <c r="B122" s="8"/>
       <c r="C122" s="2"/>
@@ -3185,7 +3212,7 @@
       <c r="J122" s="2"/>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2"/>
       <c r="B123" s="8"/>
       <c r="C123" s="2"/>
@@ -3198,7 +3225,7 @@
       <c r="J123" s="2"/>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="B124" s="8"/>
       <c r="C124" s="2"/>
@@ -3211,7 +3238,7 @@
       <c r="J124" s="2"/>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2"/>
       <c r="B125" s="8"/>
       <c r="C125" s="2"/>
@@ -3224,7 +3251,7 @@
       <c r="J125" s="2"/>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2"/>
       <c r="B126" s="8"/>
       <c r="C126" s="2"/>
@@ -3237,7 +3264,7 @@
       <c r="J126" s="2"/>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2"/>
       <c r="B127" s="8"/>
       <c r="C127" s="2"/>
@@ -3250,7 +3277,7 @@
       <c r="J127" s="2"/>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2"/>
       <c r="B128" s="8"/>
       <c r="C128" s="2"/>
@@ -3263,7 +3290,7 @@
       <c r="J128" s="2"/>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2"/>
       <c r="B129" s="8"/>
       <c r="C129" s="2"/>
@@ -3276,7 +3303,7 @@
       <c r="J129" s="2"/>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2"/>
       <c r="B130" s="8"/>
       <c r="C130" s="2"/>
@@ -3289,7 +3316,7 @@
       <c r="J130" s="2"/>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2"/>
       <c r="B131" s="8"/>
       <c r="C131" s="2"/>
@@ -3302,7 +3329,7 @@
       <c r="J131" s="2"/>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2"/>
       <c r="B132" s="8"/>
       <c r="C132" s="2"/>
@@ -3315,7 +3342,7 @@
       <c r="J132" s="2"/>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2"/>
       <c r="B133" s="8"/>
       <c r="C133" s="2"/>
@@ -3328,7 +3355,7 @@
       <c r="J133" s="2"/>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2"/>
       <c r="B134" s="8"/>
       <c r="C134" s="2"/>
@@ -3341,7 +3368,7 @@
       <c r="J134" s="2"/>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:12">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2"/>
       <c r="B135" s="8"/>
       <c r="C135" s="2"/>
@@ -3354,7 +3381,7 @@
       <c r="J135" s="2"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2"/>
       <c r="B136" s="8"/>
       <c r="C136" s="2"/>
@@ -3367,7 +3394,7 @@
       <c r="J136" s="2"/>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:12">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
       <c r="B137" s="8"/>
       <c r="C137" s="2"/>
@@ -3380,7 +3407,7 @@
       <c r="J137" s="2"/>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2"/>
       <c r="B138" s="8"/>
       <c r="C138" s="2"/>
@@ -3393,7 +3420,7 @@
       <c r="J138" s="2"/>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:12">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2"/>
       <c r="B139" s="8"/>
       <c r="C139" s="2"/>
@@ -3406,7 +3433,7 @@
       <c r="J139" s="2"/>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2"/>
       <c r="B140" s="8"/>
       <c r="C140" s="2"/>
@@ -3419,7 +3446,7 @@
       <c r="J140" s="2"/>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2"/>
       <c r="B141" s="8"/>
       <c r="C141" s="2"/>
@@ -3432,7 +3459,7 @@
       <c r="J141" s="2"/>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:12">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2"/>
       <c r="B142" s="8"/>
       <c r="C142" s="2"/>
@@ -3445,7 +3472,7 @@
       <c r="J142" s="2"/>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2"/>
       <c r="B143" s="8"/>
       <c r="C143" s="2"/>
@@ -3458,7 +3485,7 @@
       <c r="J143" s="2"/>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2"/>
       <c r="B144" s="8"/>
       <c r="C144" s="2"/>
@@ -3471,7 +3498,7 @@
       <c r="J144" s="2"/>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2"/>
       <c r="B145" s="8"/>
       <c r="C145" s="2"/>
@@ -3484,7 +3511,7 @@
       <c r="J145" s="2"/>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2"/>
       <c r="B146" s="8"/>
       <c r="C146" s="2"/>
@@ -3497,7 +3524,7 @@
       <c r="J146" s="2"/>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2"/>
       <c r="B147" s="8"/>
       <c r="C147" s="2"/>
@@ -3510,7 +3537,7 @@
       <c r="J147" s="2"/>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2"/>
       <c r="B148" s="8"/>
       <c r="C148" s="2"/>
@@ -3523,7 +3550,7 @@
       <c r="J148" s="2"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2"/>
       <c r="B149" s="8"/>
       <c r="C149" s="2"/>
@@ -3536,7 +3563,7 @@
       <c r="J149" s="2"/>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2"/>
       <c r="B150" s="8"/>
       <c r="C150" s="2"/>
@@ -3549,7 +3576,7 @@
       <c r="J150" s="2"/>
       <c r="L150" s="9"/>
     </row>
-    <row r="151" spans="1:12">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2"/>
       <c r="B151" s="8"/>
       <c r="C151" s="2"/>
@@ -3562,7 +3589,7 @@
       <c r="J151" s="2"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2"/>
       <c r="B152" s="8"/>
       <c r="C152" s="2"/>
@@ -3575,7 +3602,7 @@
       <c r="J152" s="2"/>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2"/>
       <c r="B153" s="8"/>
       <c r="C153" s="2"/>
@@ -3588,7 +3615,7 @@
       <c r="J153" s="2"/>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154" s="2"/>
       <c r="B154" s="8"/>
       <c r="C154" s="2"/>
@@ -3601,7 +3628,7 @@
       <c r="J154" s="2"/>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155" s="2"/>
       <c r="B155" s="8"/>
       <c r="C155" s="2"/>
@@ -3614,7 +3641,7 @@
       <c r="J155" s="2"/>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156" s="2"/>
       <c r="B156" s="8"/>
       <c r="C156" s="2"/>
@@ -3627,7 +3654,7 @@
       <c r="J156" s="2"/>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157" s="2"/>
       <c r="B157" s="8"/>
       <c r="C157" s="2"/>
@@ -3640,7 +3667,7 @@
       <c r="J157" s="2"/>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158" s="2"/>
       <c r="B158" s="8"/>
       <c r="C158" s="2"/>
@@ -3653,7 +3680,7 @@
       <c r="J158" s="2"/>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159" s="2"/>
       <c r="B159" s="8"/>
       <c r="C159" s="2"/>
@@ -3666,7 +3693,7 @@
       <c r="J159" s="2"/>
       <c r="L159" s="9"/>
     </row>
-    <row r="160" spans="1:12">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160" s="2"/>
       <c r="B160" s="8"/>
       <c r="C160" s="2"/>
@@ -3679,7 +3706,7 @@
       <c r="J160" s="2"/>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161" s="2"/>
       <c r="B161" s="8"/>
       <c r="C161" s="2"/>
@@ -3692,7 +3719,7 @@
       <c r="J161" s="2"/>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162" s="2"/>
       <c r="B162" s="8"/>
       <c r="C162" s="2"/>
@@ -3705,7 +3732,7 @@
       <c r="J162" s="2"/>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163" s="2"/>
       <c r="B163" s="8"/>
       <c r="C163" s="2"/>
@@ -3718,7 +3745,7 @@
       <c r="J163" s="2"/>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164" s="2"/>
       <c r="B164" s="8"/>
       <c r="C164" s="2"/>
@@ -3731,7 +3758,7 @@
       <c r="J164" s="2"/>
       <c r="L164" s="9"/>
     </row>
-    <row r="165" spans="1:12">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165" s="2"/>
       <c r="B165" s="8"/>
       <c r="C165" s="2"/>
@@ -3744,7 +3771,7 @@
       <c r="J165" s="2"/>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166" s="2"/>
       <c r="B166" s="8"/>
       <c r="C166" s="2"/>
@@ -3757,7 +3784,7 @@
       <c r="J166" s="2"/>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167" s="2"/>
       <c r="B167" s="8"/>
       <c r="C167" s="2"/>
@@ -3770,7 +3797,7 @@
       <c r="J167" s="2"/>
       <c r="L167" s="9"/>
     </row>
-    <row r="168" spans="1:12">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168" s="2"/>
       <c r="B168" s="8"/>
       <c r="C168" s="2"/>
@@ -3783,7 +3810,7 @@
       <c r="J168" s="2"/>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169" s="2"/>
       <c r="B169" s="8"/>
       <c r="C169" s="2"/>
@@ -3796,7 +3823,7 @@
       <c r="J169" s="2"/>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170" s="2"/>
       <c r="B170" s="8"/>
       <c r="C170" s="2"/>
@@ -3809,7 +3836,7 @@
       <c r="J170" s="2"/>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171" s="2"/>
       <c r="B171" s="8"/>
       <c r="C171" s="2"/>
@@ -3822,7 +3849,7 @@
       <c r="J171" s="2"/>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172" s="2"/>
       <c r="B172" s="8"/>
       <c r="C172" s="2"/>
@@ -3835,7 +3862,7 @@
       <c r="J172" s="2"/>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173" s="2"/>
       <c r="B173" s="8"/>
       <c r="C173" s="2"/>
@@ -3848,7 +3875,7 @@
       <c r="J173" s="2"/>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174" s="2"/>
       <c r="B174" s="8"/>
       <c r="C174" s="2"/>
@@ -3861,7 +3888,7 @@
       <c r="J174" s="2"/>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175" s="2"/>
       <c r="B175" s="8"/>
       <c r="C175" s="2"/>
@@ -3874,7 +3901,7 @@
       <c r="J175" s="2"/>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176" s="2"/>
       <c r="B176" s="8"/>
       <c r="C176" s="2"/>
@@ -3887,7 +3914,7 @@
       <c r="J176" s="2"/>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177" s="2"/>
       <c r="B177" s="8"/>
       <c r="C177" s="2"/>
@@ -3900,7 +3927,7 @@
       <c r="J177" s="2"/>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="1:12">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178" s="2"/>
       <c r="B178" s="8"/>
       <c r="C178" s="2"/>
@@ -3913,7 +3940,7 @@
       <c r="J178" s="2"/>
       <c r="L178" s="9"/>
     </row>
-    <row r="179" spans="1:12">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179" s="2"/>
       <c r="B179" s="8"/>
       <c r="C179" s="2"/>
@@ -3926,7 +3953,7 @@
       <c r="J179" s="2"/>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180" s="2"/>
       <c r="B180" s="8"/>
       <c r="C180" s="2"/>
@@ -3939,7 +3966,7 @@
       <c r="J180" s="2"/>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181" s="2"/>
       <c r="B181" s="8"/>
       <c r="C181" s="2"/>
@@ -3952,7 +3979,7 @@
       <c r="J181" s="2"/>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="B182" s="8"/>
       <c r="C182" s="2"/>
@@ -3965,7 +3992,7 @@
       <c r="J182" s="2"/>
       <c r="L182" s="9"/>
     </row>
-    <row r="183" spans="1:12">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183" s="2"/>
       <c r="B183" s="8"/>
       <c r="C183" s="2"/>
@@ -3978,7 +4005,7 @@
       <c r="J183" s="2"/>
       <c r="L183" s="9"/>
     </row>
-    <row r="184" spans="1:12">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184" s="2"/>
       <c r="B184" s="8"/>
       <c r="C184" s="2"/>
@@ -3991,7 +4018,7 @@
       <c r="J184" s="2"/>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="8"/>
       <c r="C185" s="2"/>
@@ -4004,7 +4031,7 @@
       <c r="J185" s="2"/>
       <c r="L185" s="9"/>
     </row>
-    <row r="186" spans="1:12">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186" s="2"/>
       <c r="B186" s="8"/>
       <c r="C186" s="2"/>
@@ -4017,7 +4044,7 @@
       <c r="J186" s="2"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187" s="2"/>
       <c r="B187" s="8"/>
       <c r="C187" s="2"/>
@@ -4030,7 +4057,7 @@
       <c r="J187" s="2"/>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188" s="2"/>
       <c r="B188" s="8"/>
       <c r="C188" s="2"/>
@@ -4043,7 +4070,7 @@
       <c r="J188" s="2"/>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189" s="2"/>
       <c r="B189" s="8"/>
       <c r="C189" s="2"/>
@@ -4056,7 +4083,7 @@
       <c r="J189" s="2"/>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190" s="2"/>
       <c r="B190" s="8"/>
       <c r="C190" s="2"/>
@@ -4069,7 +4096,7 @@
       <c r="J190" s="2"/>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191" s="2"/>
       <c r="B191" s="8"/>
       <c r="C191" s="2"/>
@@ -4082,7 +4109,7 @@
       <c r="J191" s="2"/>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192" s="2"/>
       <c r="B192" s="8"/>
       <c r="C192" s="2"/>
@@ -4095,7 +4122,7 @@
       <c r="J192" s="2"/>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193" s="2"/>
       <c r="B193" s="8"/>
       <c r="C193" s="2"/>
@@ -4108,7 +4135,7 @@
       <c r="J193" s="2"/>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194" s="2"/>
       <c r="B194" s="8"/>
       <c r="C194" s="2"/>
@@ -4121,7 +4148,7 @@
       <c r="J194" s="2"/>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195" s="2"/>
       <c r="B195" s="8"/>
       <c r="C195" s="2"/>
@@ -4134,7 +4161,7 @@
       <c r="J195" s="2"/>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196" s="2"/>
       <c r="B196" s="8"/>
       <c r="C196" s="2"/>
@@ -4147,7 +4174,7 @@
       <c r="J196" s="2"/>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2"/>
       <c r="B197" s="8"/>
       <c r="C197" s="2"/>
@@ -4160,7 +4187,7 @@
       <c r="J197" s="2"/>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="8"/>
       <c r="C198" s="2"/>
@@ -4173,7 +4200,7 @@
       <c r="J198" s="2"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="8"/>
       <c r="C199" s="2"/>
@@ -4186,7 +4213,7 @@
       <c r="J199" s="2"/>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="8"/>
       <c r="C200" s="2"/>
@@ -4199,7 +4226,7 @@
       <c r="J200" s="2"/>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="8"/>
       <c r="C201" s="2"/>
@@ -4212,7 +4239,7 @@
       <c r="J201" s="2"/>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="8"/>
       <c r="C202" s="2"/>
@@ -4225,7 +4252,7 @@
       <c r="J202" s="2"/>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:12">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="8"/>
       <c r="C203" s="2"/>
@@ -4238,7 +4265,7 @@
       <c r="J203" s="2"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="8"/>
       <c r="C204" s="2"/>
@@ -4251,7 +4278,7 @@
       <c r="J204" s="2"/>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A205" s="2"/>
       <c r="B205" s="8"/>
       <c r="C205" s="2"/>
@@ -4264,7 +4291,7 @@
       <c r="J205" s="2"/>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206" s="2"/>
       <c r="B206" s="8"/>
       <c r="C206" s="2"/>
@@ -4277,7 +4304,7 @@
       <c r="J206" s="2"/>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" s="2"/>
       <c r="B207" s="8"/>
       <c r="C207" s="2"/>
@@ -4290,7 +4317,7 @@
       <c r="J207" s="2"/>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" s="2"/>
       <c r="B208" s="8"/>
       <c r="C208" s="2"/>
@@ -4303,7 +4330,7 @@
       <c r="J208" s="2"/>
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="1:12">
+    <row r="209" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A209" s="2"/>
       <c r="B209" s="8"/>
       <c r="C209" s="2"/>
@@ -4316,7 +4343,7 @@
       <c r="J209" s="2"/>
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="1:12">
+    <row r="210" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A210" s="2"/>
       <c r="B210" s="8"/>
       <c r="C210" s="2"/>
@@ -4329,7 +4356,7 @@
       <c r="J210" s="2"/>
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="1:12">
+    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A211" s="2"/>
       <c r="B211" s="8"/>
       <c r="C211" s="2"/>
@@ -4342,7 +4369,7 @@
       <c r="J211" s="2"/>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="1:12">
+    <row r="212" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A212" s="2"/>
       <c r="B212" s="8"/>
       <c r="C212" s="2"/>
@@ -4355,7 +4382,7 @@
       <c r="J212" s="2"/>
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="1:12">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A213" s="2"/>
       <c r="B213" s="8"/>
       <c r="C213" s="2"/>
@@ -4368,7 +4395,7 @@
       <c r="J213" s="2"/>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="1:12">
+    <row r="214" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A214" s="2"/>
       <c r="B214" s="8"/>
       <c r="C214" s="2"/>
@@ -4381,7 +4408,7 @@
       <c r="J214" s="2"/>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="1:12">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A215" s="2"/>
       <c r="B215" s="8"/>
       <c r="C215" s="2"/>
@@ -4394,7 +4421,7 @@
       <c r="J215" s="2"/>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="1:12">
+    <row r="216" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A216" s="2"/>
       <c r="B216" s="8"/>
       <c r="C216" s="2"/>
@@ -4407,7 +4434,7 @@
       <c r="J216" s="2"/>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="1:12">
+    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A217" s="2"/>
       <c r="B217" s="8"/>
       <c r="C217" s="2"/>
@@ -4420,7 +4447,7 @@
       <c r="J217" s="2"/>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="1:12">
+    <row r="218" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A218" s="2"/>
       <c r="B218" s="8"/>
       <c r="C218" s="2"/>
@@ -4433,7 +4460,7 @@
       <c r="J218" s="2"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="1:12">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A219" s="2"/>
       <c r="B219" s="8"/>
       <c r="C219" s="2"/>
@@ -4446,7 +4473,7 @@
       <c r="J219" s="2"/>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="1:12">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A220" s="2"/>
       <c r="B220" s="8"/>
       <c r="C220" s="2"/>
@@ -4459,7 +4486,7 @@
       <c r="J220" s="2"/>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="1:12">
+    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A221" s="2"/>
       <c r="B221" s="8"/>
       <c r="C221" s="2"/>
@@ -4472,7 +4499,7 @@
       <c r="J221" s="2"/>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="1:12">
+    <row r="222" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A222" s="2"/>
       <c r="B222" s="8"/>
       <c r="C222" s="2"/>
@@ -4485,7 +4512,7 @@
       <c r="J222" s="2"/>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="1:12">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A223" s="2"/>
       <c r="B223" s="8"/>
       <c r="C223" s="2"/>
@@ -4498,7 +4525,7 @@
       <c r="J223" s="2"/>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="1:12">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
       <c r="B224" s="8"/>
       <c r="C224" s="2"/>
@@ -4511,7 +4538,7 @@
       <c r="J224" s="2"/>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12">
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
       <c r="B225" s="8"/>
       <c r="C225" s="2"/>
@@ -4524,7 +4551,7 @@
       <c r="J225" s="2"/>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="1:12">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
       <c r="B226" s="8"/>
       <c r="C226" s="2"/>
@@ -4537,7 +4564,7 @@
       <c r="J226" s="2"/>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="1:12">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
       <c r="B227" s="8"/>
       <c r="C227" s="2"/>
@@ -4550,7 +4577,7 @@
       <c r="J227" s="2"/>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="1:12">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
       <c r="B228" s="8"/>
       <c r="C228" s="2"/>
@@ -4563,7 +4590,7 @@
       <c r="J228" s="2"/>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="1:12">
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
       <c r="B229" s="8"/>
       <c r="C229" s="2"/>
@@ -4576,7 +4603,7 @@
       <c r="J229" s="2"/>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="1:12">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
       <c r="B230" s="8"/>
       <c r="C230" s="2"/>
@@ -4589,7 +4616,7 @@
       <c r="J230" s="2"/>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="1:12">
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
       <c r="B231" s="8"/>
       <c r="C231" s="2"/>
@@ -4602,7 +4629,7 @@
       <c r="J231" s="2"/>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="1:12">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
       <c r="B232" s="8"/>
       <c r="C232" s="2"/>
@@ -4615,7 +4642,7 @@
       <c r="J232" s="2"/>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="1:12">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
       <c r="B233" s="8"/>
       <c r="C233" s="2"/>
@@ -4628,7 +4655,7 @@
       <c r="J233" s="2"/>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="1:12">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
       <c r="B234" s="8"/>
       <c r="C234" s="2"/>
@@ -4641,7 +4668,7 @@
       <c r="J234" s="2"/>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="1:12">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
       <c r="B235" s="8"/>
       <c r="C235" s="2"/>
@@ -4654,7 +4681,7 @@
       <c r="J235" s="2"/>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="1:12">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
       <c r="B236" s="8"/>
       <c r="C236" s="2"/>
@@ -4667,7 +4694,7 @@
       <c r="J236" s="2"/>
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="1:12">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
       <c r="B237" s="8"/>
       <c r="C237" s="2"/>
@@ -4680,7 +4707,7 @@
       <c r="J237" s="2"/>
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="1:12">
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
       <c r="B238" s="8"/>
       <c r="C238" s="2"/>
@@ -4693,7 +4720,7 @@
       <c r="J238" s="2"/>
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="1:12">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
       <c r="B239" s="8"/>
       <c r="C239" s="2"/>
@@ -4706,7 +4733,7 @@
       <c r="J239" s="2"/>
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="1:12">
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="8"/>
       <c r="C240" s="2"/>
@@ -4719,7 +4746,7 @@
       <c r="J240" s="2"/>
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="1:12">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
       <c r="B241" s="8"/>
       <c r="C241" s="2"/>
@@ -4732,7 +4759,7 @@
       <c r="J241" s="2"/>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="1:12">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
       <c r="B242" s="8"/>
       <c r="C242" s="2"/>
@@ -4745,7 +4772,7 @@
       <c r="J242" s="2"/>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="1:12">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
       <c r="B243" s="8"/>
       <c r="C243" s="2"/>
@@ -4758,7 +4785,7 @@
       <c r="J243" s="2"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="1:12">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
       <c r="B244" s="8"/>
       <c r="C244" s="2"/>
@@ -4771,7 +4798,7 @@
       <c r="J244" s="2"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="1:12">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
       <c r="B245" s="8"/>
       <c r="C245" s="2"/>
@@ -4784,7 +4811,7 @@
       <c r="J245" s="2"/>
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="1:12">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
       <c r="B246" s="8"/>
       <c r="C246" s="2"/>
@@ -4797,7 +4824,7 @@
       <c r="J246" s="2"/>
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="1:12">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
       <c r="B247" s="8"/>
       <c r="C247" s="2"/>
@@ -4810,7 +4837,7 @@
       <c r="J247" s="2"/>
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="1:12">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
       <c r="B248" s="8"/>
       <c r="C248" s="2"/>
@@ -4823,7 +4850,7 @@
       <c r="J248" s="2"/>
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="1:12">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
       <c r="B249" s="8"/>
       <c r="C249" s="2"/>
@@ -4836,7 +4863,7 @@
       <c r="J249" s="2"/>
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="1:12">
+    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
       <c r="B250" s="8"/>
       <c r="C250" s="2"/>
@@ -4849,7 +4876,7 @@
       <c r="J250" s="2"/>
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="1:12">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
       <c r="B251" s="8"/>
       <c r="C251" s="2"/>
@@ -4862,7 +4889,7 @@
       <c r="J251" s="2"/>
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="1:12">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
       <c r="B252" s="8"/>
       <c r="C252" s="2"/>
@@ -4875,7 +4902,7 @@
       <c r="J252" s="2"/>
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="1:12">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
       <c r="B253" s="8"/>
       <c r="C253" s="2"/>
@@ -4888,7 +4915,7 @@
       <c r="J253" s="2"/>
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="1:12">
+    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
       <c r="B254" s="8"/>
       <c r="C254" s="2"/>
@@ -4901,7 +4928,7 @@
       <c r="J254" s="2"/>
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="1:12">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
       <c r="B255" s="8"/>
       <c r="C255" s="2"/>
@@ -4914,7 +4941,7 @@
       <c r="J255" s="2"/>
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="1:12">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
       <c r="B256" s="8"/>
       <c r="C256" s="2"/>
@@ -4927,7 +4954,7 @@
       <c r="J256" s="2"/>
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="1:12">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
       <c r="B257" s="8"/>
       <c r="C257" s="2"/>
@@ -4940,7 +4967,7 @@
       <c r="J257" s="2"/>
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="1:12">
+    <row r="258" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
       <c r="B258" s="8"/>
       <c r="C258" s="2"/>
@@ -4953,7 +4980,7 @@
       <c r="J258" s="2"/>
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="1:12">
+    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
       <c r="B259" s="8"/>
       <c r="C259" s="2"/>
@@ -4966,7 +4993,7 @@
       <c r="J259" s="2"/>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="1:12">
+    <row r="260" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
       <c r="B260" s="8"/>
       <c r="C260" s="2"/>
@@ -4979,7 +5006,7 @@
       <c r="J260" s="2"/>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="1:12">
+    <row r="261" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
       <c r="B261" s="8"/>
       <c r="C261" s="2"/>
@@ -4992,7 +5019,7 @@
       <c r="J261" s="2"/>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="1:12">
+    <row r="262" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
       <c r="B262" s="8"/>
       <c r="C262" s="2"/>
@@ -5005,7 +5032,7 @@
       <c r="J262" s="2"/>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="1:12">
+    <row r="263" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
       <c r="B263" s="8"/>
       <c r="C263" s="2"/>
@@ -5018,7 +5045,7 @@
       <c r="J263" s="2"/>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="1:12">
+    <row r="264" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
       <c r="B264" s="8"/>
       <c r="C264" s="2"/>
@@ -5031,7 +5058,7 @@
       <c r="J264" s="2"/>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="1:12">
+    <row r="265" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
       <c r="B265" s="8"/>
       <c r="C265" s="2"/>
@@ -5044,7 +5071,7 @@
       <c r="J265" s="2"/>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="1:12">
+    <row r="266" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
       <c r="B266" s="8"/>
       <c r="C266" s="2"/>
@@ -5057,7 +5084,7 @@
       <c r="J266" s="2"/>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="1:12">
+    <row r="267" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
       <c r="B267" s="8"/>
       <c r="C267" s="2"/>
@@ -5070,7 +5097,7 @@
       <c r="J267" s="2"/>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="1:12">
+    <row r="268" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
       <c r="B268" s="8"/>
       <c r="C268" s="2"/>
@@ -5083,7 +5110,7 @@
       <c r="J268" s="2"/>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="1:12">
+    <row r="269" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
       <c r="B269" s="8"/>
       <c r="C269" s="2"/>
@@ -5096,7 +5123,7 @@
       <c r="J269" s="2"/>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="1:12">
+    <row r="270" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
       <c r="B270" s="8"/>
       <c r="C270" s="2"/>
@@ -5109,7 +5136,7 @@
       <c r="J270" s="2"/>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="1:12">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
       <c r="B271" s="8"/>
       <c r="C271" s="2"/>
@@ -5122,7 +5149,7 @@
       <c r="J271" s="2"/>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="1:12">
+    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
       <c r="B272" s="8"/>
       <c r="C272" s="2"/>
@@ -5135,7 +5162,7 @@
       <c r="J272" s="2"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="1:12">
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
       <c r="B273" s="8"/>
       <c r="C273" s="2"/>
@@ -5148,7 +5175,7 @@
       <c r="J273" s="2"/>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="1:12">
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
       <c r="B274" s="8"/>
       <c r="C274" s="2"/>
@@ -5161,7 +5188,7 @@
       <c r="J274" s="2"/>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="1:12">
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
       <c r="B275" s="8"/>
       <c r="C275" s="2"/>
@@ -5174,7 +5201,7 @@
       <c r="J275" s="2"/>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="1:12">
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
       <c r="B276" s="8"/>
       <c r="C276" s="2"/>
@@ -5187,7 +5214,7 @@
       <c r="J276" s="2"/>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="1:12">
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
       <c r="B277" s="8"/>
       <c r="C277" s="2"/>
@@ -5200,7 +5227,7 @@
       <c r="J277" s="2"/>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="1:12">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
       <c r="B278" s="8"/>
       <c r="C278" s="2"/>
@@ -5213,7 +5240,7 @@
       <c r="J278" s="2"/>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="1:12">
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
       <c r="B279" s="8"/>
       <c r="C279" s="2"/>
@@ -5226,7 +5253,7 @@
       <c r="J279" s="2"/>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="1:12">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
       <c r="B280" s="8"/>
       <c r="C280" s="2"/>
@@ -5239,7 +5266,7 @@
       <c r="J280" s="2"/>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="1:12">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
       <c r="B281" s="8"/>
       <c r="C281" s="2"/>
@@ -5252,7 +5279,7 @@
       <c r="J281" s="2"/>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="1:12">
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
       <c r="B282" s="8"/>
       <c r="C282" s="2"/>
@@ -5265,7 +5292,7 @@
       <c r="J282" s="2"/>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="1:12">
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
       <c r="B283" s="8"/>
       <c r="C283" s="2"/>
@@ -5278,7 +5305,7 @@
       <c r="J283" s="2"/>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="1:12">
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
       <c r="B284" s="8"/>
       <c r="C284" s="2"/>
@@ -5291,7 +5318,7 @@
       <c r="J284" s="2"/>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="1:12">
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
       <c r="B285" s="8"/>
       <c r="C285" s="2"/>
@@ -5304,7 +5331,7 @@
       <c r="J285" s="2"/>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="1:12">
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
       <c r="B286" s="8"/>
       <c r="C286" s="2"/>
@@ -5317,7 +5344,7 @@
       <c r="J286" s="2"/>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="1:12">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
       <c r="B287" s="8"/>
       <c r="C287" s="2"/>
@@ -5330,7 +5357,7 @@
       <c r="J287" s="2"/>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="1:12">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
       <c r="B288" s="8"/>
       <c r="C288" s="2"/>
@@ -5343,7 +5370,7 @@
       <c r="J288" s="2"/>
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="1:12">
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
       <c r="B289" s="8"/>
       <c r="C289" s="2"/>
@@ -5356,7 +5383,7 @@
       <c r="J289" s="2"/>
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
       <c r="B290" s="8"/>
       <c r="C290" s="2"/>
@@ -5369,7 +5396,7 @@
       <c r="J290" s="2"/>
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="1:12">
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
       <c r="B291" s="8"/>
       <c r="C291" s="2"/>
@@ -5382,7 +5409,7 @@
       <c r="J291" s="2"/>
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="1:12">
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
       <c r="B292" s="8"/>
       <c r="C292" s="2"/>
@@ -5395,7 +5422,7 @@
       <c r="J292" s="2"/>
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="1:12">
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
       <c r="B293" s="8"/>
       <c r="C293" s="2"/>
@@ -5408,7 +5435,7 @@
       <c r="J293" s="2"/>
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="1:12">
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
       <c r="B294" s="8"/>
       <c r="C294" s="2"/>
@@ -5421,7 +5448,7 @@
       <c r="J294" s="2"/>
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="1:12">
+    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
       <c r="B295" s="8"/>
       <c r="C295" s="2"/>
@@ -5434,7 +5461,7 @@
       <c r="J295" s="2"/>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="1:12">
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
       <c r="B296" s="8"/>
       <c r="C296" s="2"/>
@@ -5447,7 +5474,7 @@
       <c r="J296" s="2"/>
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="1:12">
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
       <c r="B297" s="8"/>
       <c r="C297" s="2"/>
@@ -5460,7 +5487,7 @@
       <c r="J297" s="2"/>
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="1:12">
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
       <c r="B298" s="8"/>
       <c r="C298" s="2"/>
@@ -5473,7 +5500,7 @@
       <c r="J298" s="2"/>
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="1:12">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
       <c r="B299" s="8"/>
       <c r="C299" s="2"/>
@@ -5486,7 +5513,7 @@
       <c r="J299" s="2"/>
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="1:12">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
       <c r="B300" s="8"/>
       <c r="C300" s="2"/>
@@ -5499,7 +5526,7 @@
       <c r="J300" s="2"/>
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="1:12">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
       <c r="B301" s="8"/>
       <c r="C301" s="2"/>
@@ -5512,7 +5539,7 @@
       <c r="J301" s="2"/>
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="1:12">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
       <c r="B302" s="8"/>
       <c r="C302" s="2"/>
@@ -5525,7 +5552,7 @@
       <c r="J302" s="2"/>
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="1:12">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
       <c r="B303" s="8"/>
       <c r="C303" s="2"/>
@@ -5538,7 +5565,7 @@
       <c r="J303" s="2"/>
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="1:12">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
       <c r="B304" s="8"/>
       <c r="C304" s="2"/>
@@ -5551,7 +5578,7 @@
       <c r="J304" s="2"/>
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="1:12">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
       <c r="B305" s="8"/>
       <c r="C305" s="2"/>
@@ -5564,7 +5591,7 @@
       <c r="J305" s="2"/>
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="1:12">
+    <row r="306" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
       <c r="B306" s="8"/>
       <c r="C306" s="2"/>
@@ -5577,7 +5604,7 @@
       <c r="J306" s="2"/>
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="1:12">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
       <c r="B307" s="8"/>
       <c r="C307" s="2"/>
@@ -5590,7 +5617,7 @@
       <c r="J307" s="2"/>
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="1:12">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
       <c r="B308" s="8"/>
       <c r="C308" s="2"/>
@@ -5603,7 +5630,7 @@
       <c r="J308" s="2"/>
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="1:12">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
       <c r="B309" s="8"/>
       <c r="C309" s="2"/>
@@ -5616,7 +5643,7 @@
       <c r="J309" s="2"/>
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="1:12">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
       <c r="B310" s="8"/>
       <c r="C310" s="2"/>
@@ -5629,7 +5656,7 @@
       <c r="J310" s="2"/>
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="1:12">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
       <c r="B311" s="8"/>
       <c r="C311" s="2"/>
@@ -5642,7 +5669,7 @@
       <c r="J311" s="2"/>
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="1:12">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
       <c r="B312" s="8"/>
       <c r="C312" s="2"/>
@@ -5655,7 +5682,7 @@
       <c r="J312" s="2"/>
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="1:12">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
       <c r="B313" s="8"/>
       <c r="C313" s="2"/>
@@ -5668,7 +5695,7 @@
       <c r="J313" s="2"/>
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="1:12">
+    <row r="314" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
       <c r="B314" s="8"/>
       <c r="C314" s="2"/>
@@ -5681,7 +5708,7 @@
       <c r="J314" s="2"/>
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="1:12">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
       <c r="B315" s="8"/>
       <c r="C315" s="2"/>
@@ -5694,7 +5721,7 @@
       <c r="J315" s="2"/>
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="1:12">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
       <c r="B316" s="8"/>
       <c r="C316" s="2"/>
@@ -5707,7 +5734,7 @@
       <c r="J316" s="2"/>
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="1:12">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
       <c r="B317" s="8"/>
       <c r="C317" s="2"/>
@@ -5720,7 +5747,7 @@
       <c r="J317" s="2"/>
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="1:12">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
       <c r="B318" s="8"/>
       <c r="C318" s="2"/>
@@ -5733,7 +5760,7 @@
       <c r="J318" s="2"/>
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="1:12">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
       <c r="B319" s="8"/>
       <c r="C319" s="2"/>
@@ -5746,7 +5773,7 @@
       <c r="J319" s="2"/>
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="1:12">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
       <c r="B320" s="8"/>
       <c r="C320" s="2"/>
@@ -5759,7 +5786,7 @@
       <c r="J320" s="2"/>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:12">
+    <row r="321" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
       <c r="B321" s="8"/>
       <c r="C321" s="2"/>
@@ -5772,7 +5799,7 @@
       <c r="J321" s="2"/>
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="1:12">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
       <c r="B322" s="8"/>
       <c r="C322" s="2"/>
@@ -5785,7 +5812,7 @@
       <c r="J322" s="2"/>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:12">
+    <row r="323" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
       <c r="B323" s="8"/>
       <c r="C323" s="2"/>
@@ -5798,7 +5825,7 @@
       <c r="J323" s="2"/>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:12">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
       <c r="B324" s="8"/>
       <c r="C324" s="2"/>
@@ -5811,7 +5838,7 @@
       <c r="J324" s="2"/>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:12">
+    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
       <c r="B325" s="8"/>
       <c r="C325" s="2"/>
@@ -5824,7 +5851,7 @@
       <c r="J325" s="2"/>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:12">
+    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
       <c r="B326" s="8"/>
       <c r="C326" s="2"/>
@@ -5837,7 +5864,7 @@
       <c r="J326" s="2"/>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:12">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
       <c r="B327" s="8"/>
       <c r="C327" s="2"/>
@@ -5850,7 +5877,7 @@
       <c r="J327" s="2"/>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:12">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
       <c r="B328" s="8"/>
       <c r="C328" s="2"/>
@@ -5863,7 +5890,7 @@
       <c r="J328" s="2"/>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:12">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
       <c r="B329" s="8"/>
       <c r="C329" s="2"/>
@@ -5876,7 +5903,7 @@
       <c r="J329" s="2"/>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:12">
+    <row r="330" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
       <c r="B330" s="8"/>
       <c r="C330" s="2"/>
@@ -5889,7 +5916,7 @@
       <c r="J330" s="2"/>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:12">
+    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
       <c r="B331" s="8"/>
       <c r="C331" s="2"/>
@@ -5902,7 +5929,7 @@
       <c r="J331" s="2"/>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:12">
+    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
       <c r="B332" s="8"/>
       <c r="C332" s="2"/>
@@ -5915,7 +5942,7 @@
       <c r="J332" s="2"/>
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="1:12">
+    <row r="333" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
       <c r="B333" s="8"/>
       <c r="C333" s="2"/>
@@ -5928,7 +5955,7 @@
       <c r="J333" s="2"/>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:12">
+    <row r="334" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
       <c r="B334" s="8"/>
       <c r="C334" s="2"/>
@@ -5941,7 +5968,7 @@
       <c r="J334" s="2"/>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:12">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
       <c r="B335" s="8"/>
       <c r="C335" s="2"/>
@@ -5954,7 +5981,7 @@
       <c r="J335" s="2"/>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:12">
+    <row r="336" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
       <c r="B336" s="8"/>
       <c r="C336" s="2"/>
@@ -5967,7 +5994,7 @@
       <c r="J336" s="2"/>
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="1:12">
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
       <c r="B337" s="8"/>
       <c r="C337" s="2"/>
@@ -5980,7 +6007,7 @@
       <c r="J337" s="2"/>
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="1:12">
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
       <c r="B338" s="8"/>
       <c r="C338" s="2"/>
@@ -5993,7 +6020,7 @@
       <c r="J338" s="2"/>
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="1:12">
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
       <c r="B339" s="8"/>
       <c r="C339" s="2"/>
@@ -6006,7 +6033,7 @@
       <c r="J339" s="2"/>
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="1:12">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
       <c r="B340" s="8"/>
       <c r="C340" s="2"/>
@@ -6019,7 +6046,7 @@
       <c r="J340" s="2"/>
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="1:12">
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
       <c r="B341" s="8"/>
       <c r="C341" s="2"/>
@@ -6032,7 +6059,7 @@
       <c r="J341" s="2"/>
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="1:12">
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
       <c r="B342" s="8"/>
       <c r="C342" s="2"/>
@@ -6045,7 +6072,7 @@
       <c r="J342" s="2"/>
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
       <c r="B343" s="8"/>
       <c r="C343" s="2"/>
@@ -6058,7 +6085,7 @@
       <c r="J343" s="2"/>
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="1:12">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
       <c r="B344" s="8"/>
       <c r="C344" s="2"/>
@@ -6071,7 +6098,7 @@
       <c r="J344" s="2"/>
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="1:12">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
       <c r="B345" s="8"/>
       <c r="C345" s="2"/>
@@ -6084,7 +6111,7 @@
       <c r="J345" s="2"/>
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="1:12">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
       <c r="B346" s="8"/>
       <c r="C346" s="2"/>
@@ -6097,7 +6124,7 @@
       <c r="J346" s="2"/>
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="1:12">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
       <c r="B347" s="8"/>
       <c r="C347" s="2"/>
@@ -6110,7 +6137,7 @@
       <c r="J347" s="2"/>
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="1:12">
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
       <c r="B348" s="8"/>
       <c r="C348" s="2"/>
@@ -6123,7 +6150,7 @@
       <c r="J348" s="2"/>
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="1:12">
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
       <c r="B349" s="8"/>
       <c r="C349" s="2"/>
@@ -6136,7 +6163,7 @@
       <c r="J349" s="2"/>
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="1:12">
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
       <c r="B350" s="8"/>
       <c r="C350" s="2"/>
@@ -6149,7 +6176,7 @@
       <c r="J350" s="2"/>
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
       <c r="B351" s="8"/>
       <c r="C351" s="2"/>
@@ -6162,7 +6189,7 @@
       <c r="J351" s="2"/>
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="1:12">
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
       <c r="B352" s="8"/>
       <c r="C352" s="2"/>
@@ -6175,7 +6202,7 @@
       <c r="J352" s="2"/>
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="1:12">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
       <c r="B353" s="8"/>
       <c r="C353" s="2"/>
@@ -6188,7 +6215,7 @@
       <c r="J353" s="2"/>
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="1:12">
+    <row r="354" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
       <c r="B354" s="8"/>
       <c r="C354" s="2"/>
@@ -6201,7 +6228,7 @@
       <c r="J354" s="2"/>
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
       <c r="B355" s="8"/>
       <c r="C355" s="2"/>
@@ -6214,7 +6241,7 @@
       <c r="J355" s="2"/>
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="1:12">
+    <row r="356" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
       <c r="B356" s="8"/>
       <c r="C356" s="2"/>
@@ -6227,7 +6254,7 @@
       <c r="J356" s="2"/>
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="1:12">
+    <row r="357" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
       <c r="B357" s="8"/>
       <c r="C357" s="2"/>
@@ -6240,7 +6267,7 @@
       <c r="J357" s="2"/>
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="1:12">
+    <row r="358" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
       <c r="B358" s="8"/>
       <c r="C358" s="2"/>
@@ -6253,7 +6280,7 @@
       <c r="J358" s="2"/>
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="1:12">
+    <row r="359" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
       <c r="B359" s="8"/>
       <c r="C359" s="2"/>
@@ -6266,7 +6293,7 @@
       <c r="J359" s="2"/>
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="1:12">
+    <row r="360" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
       <c r="B360" s="8"/>
       <c r="C360" s="2"/>
@@ -6279,7 +6306,7 @@
       <c r="J360" s="2"/>
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="1:12">
+    <row r="361" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
       <c r="B361" s="8"/>
       <c r="C361" s="2"/>
@@ -6292,7 +6319,7 @@
       <c r="J361" s="2"/>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:12">
+    <row r="362" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
       <c r="B362" s="8"/>
       <c r="C362" s="2"/>
@@ -6305,7 +6332,7 @@
       <c r="J362" s="2"/>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:12">
+    <row r="363" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
       <c r="B363" s="8"/>
       <c r="C363" s="2"/>
@@ -6318,7 +6345,7 @@
       <c r="J363" s="2"/>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:12">
+    <row r="364" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
       <c r="B364" s="8"/>
       <c r="C364" s="2"/>
@@ -6331,7 +6358,7 @@
       <c r="J364" s="2"/>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:12">
+    <row r="365" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
       <c r="B365" s="8"/>
       <c r="C365" s="2"/>
@@ -6344,7 +6371,7 @@
       <c r="J365" s="2"/>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:12">
+    <row r="366" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
       <c r="B366" s="8"/>
       <c r="C366" s="2"/>
@@ -6357,7 +6384,7 @@
       <c r="J366" s="2"/>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:12">
+    <row r="367" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
       <c r="B367" s="8"/>
       <c r="C367" s="2"/>
@@ -6370,7 +6397,7 @@
       <c r="J367" s="2"/>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:12">
+    <row r="368" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
       <c r="B368" s="8"/>
       <c r="C368" s="2"/>
@@ -6383,7 +6410,7 @@
       <c r="J368" s="2"/>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
       <c r="B369" s="8"/>
       <c r="C369" s="2"/>
@@ -6396,7 +6423,7 @@
       <c r="J369" s="2"/>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12">
+    <row r="370" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
       <c r="B370" s="8"/>
       <c r="C370" s="2"/>
@@ -6409,7 +6436,7 @@
       <c r="J370" s="2"/>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12">
+    <row r="371" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
       <c r="B371" s="8"/>
       <c r="C371" s="2"/>
@@ -6422,7 +6449,7 @@
       <c r="J371" s="2"/>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12">
+    <row r="372" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
       <c r="B372" s="8"/>
       <c r="C372" s="2"/>
@@ -6435,7 +6462,7 @@
       <c r="J372" s="2"/>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12">
+    <row r="373" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
       <c r="B373" s="8"/>
       <c r="C373" s="2"/>
@@ -6448,7 +6475,7 @@
       <c r="J373" s="2"/>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12">
+    <row r="374" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
       <c r="B374" s="8"/>
       <c r="C374" s="2"/>
@@ -6461,7 +6488,7 @@
       <c r="J374" s="2"/>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12">
+    <row r="375" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
       <c r="B375" s="8"/>
       <c r="C375" s="2"/>
@@ -6474,7 +6501,7 @@
       <c r="J375" s="2"/>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12">
+    <row r="376" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
       <c r="B376" s="8"/>
       <c r="C376" s="2"/>
@@ -6487,7 +6514,7 @@
       <c r="J376" s="2"/>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12">
+    <row r="377" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
       <c r="B377" s="8"/>
       <c r="C377" s="2"/>
@@ -6500,7 +6527,7 @@
       <c r="J377" s="2"/>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12">
+    <row r="378" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
       <c r="B378" s="8"/>
       <c r="C378" s="2"/>
@@ -6513,7 +6540,7 @@
       <c r="J378" s="2"/>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12">
+    <row r="379" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
       <c r="B379" s="8"/>
       <c r="C379" s="2"/>
@@ -6526,7 +6553,7 @@
       <c r="J379" s="2"/>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12">
+    <row r="380" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
       <c r="B380" s="8"/>
       <c r="C380" s="2"/>
@@ -6539,7 +6566,7 @@
       <c r="J380" s="2"/>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12">
+    <row r="381" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
       <c r="B381" s="8"/>
       <c r="C381" s="2"/>
@@ -6552,7 +6579,7 @@
       <c r="J381" s="2"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12">
+    <row r="382" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
       <c r="B382" s="8"/>
       <c r="C382" s="2"/>
@@ -6565,7 +6592,7 @@
       <c r="J382" s="2"/>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12">
+    <row r="383" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
       <c r="B383" s="8"/>
       <c r="C383" s="2"/>
@@ -6578,7 +6605,7 @@
       <c r="J383" s="2"/>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12">
+    <row r="384" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
       <c r="B384" s="8"/>
       <c r="C384" s="2"/>
@@ -6591,7 +6618,7 @@
       <c r="J384" s="2"/>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12">
+    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
       <c r="B385" s="8"/>
       <c r="C385" s="2"/>
@@ -6604,7 +6631,7 @@
       <c r="J385" s="2"/>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12">
+    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
       <c r="B386" s="8"/>
       <c r="C386" s="2"/>
@@ -6617,7 +6644,7 @@
       <c r="J386" s="2"/>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12">
+    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
       <c r="B387" s="8"/>
       <c r="C387" s="2"/>
@@ -6630,7 +6657,7 @@
       <c r="J387" s="2"/>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12">
+    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
       <c r="B388" s="8"/>
       <c r="C388" s="2"/>
@@ -6643,7 +6670,7 @@
       <c r="J388" s="2"/>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12">
+    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
       <c r="B389" s="8"/>
       <c r="C389" s="2"/>
@@ -6656,7 +6683,7 @@
       <c r="J389" s="2"/>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12">
+    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
       <c r="B390" s="8"/>
       <c r="C390" s="2"/>
@@ -6669,7 +6696,7 @@
       <c r="J390" s="2"/>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12">
+    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
       <c r="B391" s="8"/>
       <c r="C391" s="2"/>
@@ -6682,7 +6709,7 @@
       <c r="J391" s="2"/>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12">
+    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
       <c r="B392" s="8"/>
       <c r="C392" s="2"/>
@@ -6695,7 +6722,7 @@
       <c r="J392" s="2"/>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12">
+    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
       <c r="B393" s="8"/>
       <c r="C393" s="2"/>
@@ -6708,7 +6735,7 @@
       <c r="J393" s="2"/>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12">
+    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
       <c r="B394" s="8"/>
       <c r="C394" s="2"/>
@@ -6721,7 +6748,7 @@
       <c r="J394" s="2"/>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12">
+    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
       <c r="B395" s="8"/>
       <c r="C395" s="2"/>
@@ -6734,7 +6761,7 @@
       <c r="J395" s="2"/>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12">
+    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
       <c r="B396" s="8"/>
       <c r="C396" s="2"/>
@@ -6747,7 +6774,7 @@
       <c r="J396" s="2"/>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12">
+    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
       <c r="B397" s="8"/>
       <c r="C397" s="2"/>
@@ -6760,7 +6787,7 @@
       <c r="J397" s="2"/>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12">
+    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
       <c r="B398" s="8"/>
       <c r="C398" s="2"/>
@@ -6773,7 +6800,7 @@
       <c r="J398" s="2"/>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12">
+    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
       <c r="B399" s="8"/>
       <c r="C399" s="2"/>
@@ -6786,7 +6813,7 @@
       <c r="J399" s="2"/>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12">
+    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
       <c r="B400" s="8"/>
       <c r="C400" s="2"/>
@@ -6799,7 +6826,7 @@
       <c r="J400" s="2"/>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12">
+    <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
       <c r="B401" s="8"/>
       <c r="C401" s="2"/>
@@ -6812,7 +6839,7 @@
       <c r="J401" s="2"/>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12">
+    <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
       <c r="B402" s="8"/>
       <c r="C402" s="2"/>
@@ -6825,7 +6852,7 @@
       <c r="J402" s="2"/>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12">
+    <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
       <c r="B403" s="8"/>
       <c r="C403" s="2"/>
@@ -6838,7 +6865,7 @@
       <c r="J403" s="2"/>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12">
+    <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
       <c r="B404" s="8"/>
       <c r="C404" s="2"/>
@@ -6851,7 +6878,7 @@
       <c r="J404" s="2"/>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12">
+    <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
       <c r="B405" s="8"/>
       <c r="C405" s="2"/>
@@ -6864,7 +6891,7 @@
       <c r="J405" s="2"/>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12">
+    <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
       <c r="B406" s="8"/>
       <c r="C406" s="2"/>
@@ -6877,7 +6904,7 @@
       <c r="J406" s="2"/>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12">
+    <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
       <c r="B407" s="8"/>
       <c r="C407" s="2"/>
@@ -6890,7 +6917,7 @@
       <c r="J407" s="2"/>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12">
+    <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
       <c r="B408" s="8"/>
       <c r="C408" s="2"/>
@@ -6903,7 +6930,7 @@
       <c r="J408" s="2"/>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12">
+    <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
       <c r="B409" s="8"/>
       <c r="C409" s="2"/>
@@ -6916,7 +6943,7 @@
       <c r="J409" s="2"/>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12">
+    <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
       <c r="B410" s="8"/>
       <c r="C410" s="2"/>
@@ -6929,7 +6956,7 @@
       <c r="J410" s="2"/>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12">
+    <row r="411" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
       <c r="B411" s="8"/>
       <c r="C411" s="2"/>
@@ -6942,7 +6969,7 @@
       <c r="J411" s="2"/>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12">
+    <row r="412" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
       <c r="B412" s="8"/>
       <c r="C412" s="2"/>
@@ -6955,7 +6982,7 @@
       <c r="J412" s="2"/>
       <c r="L412" s="9"/>
     </row>
-    <row r="413" spans="1:12">
+    <row r="413" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
       <c r="B413" s="8"/>
       <c r="C413" s="2"/>
@@ -6968,7 +6995,7 @@
       <c r="J413" s="2"/>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12">
+    <row r="414" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
       <c r="B414" s="8"/>
       <c r="C414" s="2"/>
@@ -6981,7 +7008,7 @@
       <c r="J414" s="2"/>
       <c r="L414" s="9"/>
     </row>
-    <row r="415" spans="1:12">
+    <row r="415" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
       <c r="B415" s="8"/>
       <c r="C415" s="2"/>
@@ -6994,7 +7021,7 @@
       <c r="J415" s="2"/>
       <c r="L415" s="9"/>
     </row>
-    <row r="416" spans="1:12">
+    <row r="416" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
       <c r="B416" s="8"/>
       <c r="C416" s="2"/>
@@ -7007,7 +7034,7 @@
       <c r="J416" s="2"/>
       <c r="L416" s="9"/>
     </row>
-    <row r="417" spans="1:12">
+    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
       <c r="B417" s="8"/>
       <c r="C417" s="2"/>
@@ -7020,7 +7047,7 @@
       <c r="J417" s="2"/>
       <c r="L417" s="9"/>
     </row>
-    <row r="418" spans="1:12">
+    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
       <c r="B418" s="8"/>
       <c r="C418" s="2"/>
@@ -7033,7 +7060,7 @@
       <c r="J418" s="2"/>
       <c r="L418" s="9"/>
     </row>
-    <row r="419" spans="1:12">
+    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
       <c r="B419" s="8"/>
       <c r="C419" s="2"/>
@@ -7046,7 +7073,7 @@
       <c r="J419" s="2"/>
       <c r="L419" s="9"/>
     </row>
-    <row r="420" spans="1:12">
+    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
       <c r="B420" s="8"/>
       <c r="C420" s="2"/>
@@ -7059,7 +7086,7 @@
       <c r="J420" s="2"/>
       <c r="L420" s="9"/>
     </row>
-    <row r="421" spans="1:12">
+    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
       <c r="B421" s="8"/>
       <c r="C421" s="2"/>
@@ -7072,7 +7099,7 @@
       <c r="J421" s="2"/>
       <c r="L421" s="9"/>
     </row>
-    <row r="422" spans="1:12">
+    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
       <c r="B422" s="8"/>
       <c r="C422" s="2"/>
@@ -7085,7 +7112,7 @@
       <c r="J422" s="2"/>
       <c r="L422" s="9"/>
     </row>
-    <row r="423" spans="1:12">
+    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
       <c r="B423" s="8"/>
       <c r="C423" s="2"/>
@@ -7098,7 +7125,7 @@
       <c r="J423" s="2"/>
       <c r="L423" s="9"/>
     </row>
-    <row r="424" spans="1:12">
+    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
       <c r="B424" s="8"/>
       <c r="C424" s="2"/>
@@ -7111,7 +7138,7 @@
       <c r="J424" s="2"/>
       <c r="L424" s="9"/>
     </row>
-    <row r="425" spans="1:12">
+    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
       <c r="B425" s="8"/>
       <c r="C425" s="2"/>
@@ -7124,7 +7151,7 @@
       <c r="J425" s="2"/>
       <c r="L425" s="9"/>
     </row>
-    <row r="426" spans="1:12">
+    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
       <c r="B426" s="8"/>
       <c r="C426" s="2"/>
@@ -7137,7 +7164,7 @@
       <c r="J426" s="2"/>
       <c r="L426" s="9"/>
     </row>
-    <row r="427" spans="1:12">
+    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
       <c r="B427" s="8"/>
       <c r="C427" s="2"/>
@@ -7150,7 +7177,7 @@
       <c r="J427" s="2"/>
       <c r="L427" s="9"/>
     </row>
-    <row r="428" spans="1:12">
+    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
       <c r="B428" s="8"/>
       <c r="C428" s="2"/>
@@ -7163,7 +7190,7 @@
       <c r="J428" s="2"/>
       <c r="L428" s="9"/>
     </row>
-    <row r="429" spans="1:12">
+    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
       <c r="B429" s="8"/>
       <c r="C429" s="2"/>
@@ -7176,7 +7203,7 @@
       <c r="J429" s="2"/>
       <c r="L429" s="9"/>
     </row>
-    <row r="430" spans="1:12">
+    <row r="430" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
       <c r="B430" s="8"/>
       <c r="C430" s="2"/>
@@ -7189,7 +7216,7 @@
       <c r="J430" s="2"/>
       <c r="L430" s="9"/>
     </row>
-    <row r="431" spans="1:12">
+    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
       <c r="B431" s="8"/>
       <c r="C431" s="2"/>
@@ -7202,7 +7229,7 @@
       <c r="J431" s="2"/>
       <c r="L431" s="9"/>
     </row>
-    <row r="432" spans="1:12">
+    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
       <c r="B432" s="8"/>
       <c r="C432" s="2"/>
@@ -7215,7 +7242,7 @@
       <c r="J432" s="2"/>
       <c r="L432" s="9"/>
     </row>
-    <row r="433" spans="1:12">
+    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
       <c r="B433" s="8"/>
       <c r="C433" s="2"/>
@@ -7228,7 +7255,7 @@
       <c r="J433" s="2"/>
       <c r="L433" s="9"/>
     </row>
-    <row r="434" spans="1:12">
+    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
       <c r="B434" s="8"/>
       <c r="C434" s="2"/>
@@ -7241,7 +7268,7 @@
       <c r="J434" s="2"/>
       <c r="L434" s="9"/>
     </row>
-    <row r="435" spans="1:12">
+    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
       <c r="B435" s="8"/>
       <c r="C435" s="2"/>
@@ -7254,7 +7281,7 @@
       <c r="J435" s="2"/>
       <c r="L435" s="9"/>
     </row>
-    <row r="436" spans="1:12">
+    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
       <c r="B436" s="8"/>
       <c r="C436" s="2"/>
@@ -7267,7 +7294,7 @@
       <c r="J436" s="2"/>
       <c r="L436" s="9"/>
     </row>
-    <row r="437" spans="1:12">
+    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
       <c r="B437" s="8"/>
       <c r="C437" s="2"/>
@@ -7280,7 +7307,7 @@
       <c r="J437" s="2"/>
       <c r="L437" s="9"/>
     </row>
-    <row r="438" spans="1:12">
+    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
       <c r="B438" s="8"/>
       <c r="C438" s="2"/>
@@ -7293,7 +7320,7 @@
       <c r="J438" s="2"/>
       <c r="L438" s="9"/>
     </row>
-    <row r="439" spans="1:12">
+    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
       <c r="B439" s="8"/>
       <c r="C439" s="2"/>
@@ -7306,7 +7333,7 @@
       <c r="J439" s="2"/>
       <c r="L439" s="9"/>
     </row>
-    <row r="440" spans="1:12">
+    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
       <c r="B440" s="8"/>
       <c r="C440" s="2"/>
@@ -7319,7 +7346,7 @@
       <c r="J440" s="2"/>
       <c r="L440" s="9"/>
     </row>
-    <row r="441" spans="1:12">
+    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
       <c r="B441" s="8"/>
       <c r="C441" s="2"/>
@@ -7332,7 +7359,7 @@
       <c r="J441" s="2"/>
       <c r="L441" s="9"/>
     </row>
-    <row r="442" spans="1:12">
+    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
       <c r="B442" s="8"/>
       <c r="C442" s="2"/>
@@ -7345,7 +7372,7 @@
       <c r="J442" s="2"/>
       <c r="L442" s="9"/>
     </row>
-    <row r="443" spans="1:12">
+    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
       <c r="B443" s="8"/>
       <c r="C443" s="2"/>
@@ -7358,7 +7385,7 @@
       <c r="J443" s="2"/>
       <c r="L443" s="9"/>
     </row>
-    <row r="444" spans="1:12">
+    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
       <c r="B444" s="8"/>
       <c r="C444" s="2"/>
@@ -7371,7 +7398,7 @@
       <c r="J444" s="2"/>
       <c r="L444" s="9"/>
     </row>
-    <row r="445" spans="1:12">
+    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
       <c r="B445" s="8"/>
       <c r="C445" s="2"/>
@@ -7384,7 +7411,7 @@
       <c r="J445" s="2"/>
       <c r="L445" s="9"/>
     </row>
-    <row r="446" spans="1:12">
+    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
       <c r="B446" s="8"/>
       <c r="C446" s="2"/>
@@ -7397,7 +7424,7 @@
       <c r="J446" s="2"/>
       <c r="L446" s="9"/>
     </row>
-    <row r="447" spans="1:12">
+    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
       <c r="B447" s="8"/>
       <c r="C447" s="2"/>
@@ -7410,7 +7437,7 @@
       <c r="J447" s="2"/>
       <c r="L447" s="9"/>
     </row>
-    <row r="448" spans="1:12">
+    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
       <c r="B448" s="8"/>
       <c r="C448" s="2"/>
@@ -7423,7 +7450,7 @@
       <c r="J448" s="2"/>
       <c r="L448" s="9"/>
     </row>
-    <row r="449" spans="1:12">
+    <row r="449" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
       <c r="B449" s="8"/>
       <c r="C449" s="2"/>
@@ -7436,7 +7463,7 @@
       <c r="J449" s="2"/>
       <c r="L449" s="9"/>
     </row>
-    <row r="450" spans="1:12">
+    <row r="450" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
       <c r="B450" s="8"/>
       <c r="C450" s="2"/>
@@ -7449,7 +7476,7 @@
       <c r="J450" s="2"/>
       <c r="L450" s="9"/>
     </row>
-    <row r="451" spans="1:12">
+    <row r="451" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
       <c r="B451" s="8"/>
       <c r="C451" s="2"/>
@@ -7462,7 +7489,7 @@
       <c r="J451" s="2"/>
       <c r="L451" s="9"/>
     </row>
-    <row r="452" spans="1:12">
+    <row r="452" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
       <c r="B452" s="8"/>
       <c r="C452" s="2"/>
@@ -7475,7 +7502,7 @@
       <c r="J452" s="2"/>
       <c r="L452" s="9"/>
     </row>
-    <row r="453" spans="1:12">
+    <row r="453" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
       <c r="B453" s="8"/>
       <c r="C453" s="2"/>
@@ -7488,7 +7515,7 @@
       <c r="J453" s="2"/>
       <c r="L453" s="9"/>
     </row>
-    <row r="454" spans="1:12">
+    <row r="454" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
       <c r="B454" s="8"/>
       <c r="C454" s="2"/>
@@ -7501,7 +7528,7 @@
       <c r="J454" s="2"/>
       <c r="L454" s="9"/>
     </row>
-    <row r="455" spans="1:12">
+    <row r="455" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
       <c r="B455" s="8"/>
       <c r="C455" s="2"/>
@@ -7514,7 +7541,7 @@
       <c r="J455" s="2"/>
       <c r="L455" s="9"/>
     </row>
-    <row r="456" spans="1:12">
+    <row r="456" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
       <c r="B456" s="8"/>
       <c r="C456" s="2"/>
@@ -7527,7 +7554,7 @@
       <c r="J456" s="2"/>
       <c r="L456" s="9"/>
     </row>
-    <row r="457" spans="1:12">
+    <row r="457" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
       <c r="B457" s="8"/>
       <c r="C457" s="2"/>
@@ -7540,7 +7567,7 @@
       <c r="J457" s="2"/>
       <c r="L457" s="9"/>
     </row>
-    <row r="458" spans="1:12">
+    <row r="458" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
       <c r="B458" s="8"/>
       <c r="C458" s="2"/>
@@ -7553,7 +7580,7 @@
       <c r="J458" s="2"/>
       <c r="L458" s="9"/>
     </row>
-    <row r="459" spans="1:12">
+    <row r="459" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
       <c r="B459" s="8"/>
       <c r="C459" s="2"/>
@@ -7566,7 +7593,7 @@
       <c r="J459" s="2"/>
       <c r="L459" s="9"/>
     </row>
-    <row r="460" spans="1:12">
+    <row r="460" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
       <c r="B460" s="8"/>
       <c r="C460" s="2"/>
@@ -7579,7 +7606,7 @@
       <c r="J460" s="2"/>
       <c r="L460" s="9"/>
     </row>
-    <row r="461" spans="1:12">
+    <row r="461" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
       <c r="B461" s="8"/>
       <c r="C461" s="2"/>
@@ -7592,7 +7619,7 @@
       <c r="J461" s="2"/>
       <c r="L461" s="9"/>
     </row>
-    <row r="462" spans="1:12">
+    <row r="462" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
       <c r="B462" s="8"/>
       <c r="C462" s="2"/>
@@ -7605,7 +7632,7 @@
       <c r="J462" s="2"/>
       <c r="L462" s="9"/>
     </row>
-    <row r="463" spans="1:12">
+    <row r="463" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
       <c r="B463" s="8"/>
       <c r="C463" s="2"/>
@@ -7618,7 +7645,7 @@
       <c r="J463" s="2"/>
       <c r="L463" s="9"/>
     </row>
-    <row r="464" spans="1:12">
+    <row r="464" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
       <c r="B464" s="8"/>
       <c r="C464" s="2"/>
@@ -7631,7 +7658,7 @@
       <c r="J464" s="2"/>
       <c r="L464" s="9"/>
     </row>
-    <row r="465" spans="1:12">
+    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
       <c r="B465" s="8"/>
       <c r="C465" s="2"/>
@@ -7644,7 +7671,7 @@
       <c r="J465" s="2"/>
       <c r="L465" s="9"/>
     </row>
-    <row r="466" spans="1:12">
+    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
       <c r="B466" s="8"/>
       <c r="C466" s="2"/>
@@ -7657,7 +7684,7 @@
       <c r="J466" s="2"/>
       <c r="L466" s="9"/>
     </row>
-    <row r="467" spans="1:12">
+    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
       <c r="B467" s="8"/>
       <c r="C467" s="2"/>
@@ -7670,7 +7697,7 @@
       <c r="J467" s="2"/>
       <c r="L467" s="9"/>
     </row>
-    <row r="468" spans="1:12">
+    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
       <c r="B468" s="8"/>
       <c r="C468" s="2"/>
@@ -7683,7 +7710,7 @@
       <c r="J468" s="2"/>
       <c r="L468" s="9"/>
     </row>
-    <row r="469" spans="1:12">
+    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
       <c r="B469" s="8"/>
       <c r="C469" s="2"/>
@@ -7696,7 +7723,7 @@
       <c r="J469" s="2"/>
       <c r="L469" s="9"/>
     </row>
-    <row r="470" spans="1:12">
+    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
       <c r="B470" s="8"/>
       <c r="C470" s="2"/>
@@ -7709,7 +7736,7 @@
       <c r="J470" s="2"/>
       <c r="L470" s="9"/>
     </row>
-    <row r="471" spans="1:12">
+    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
       <c r="B471" s="8"/>
       <c r="C471" s="2"/>
@@ -7722,7 +7749,7 @@
       <c r="J471" s="2"/>
       <c r="L471" s="9"/>
     </row>
-    <row r="472" spans="1:12">
+    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
       <c r="B472" s="8"/>
       <c r="C472" s="2"/>
@@ -7735,7 +7762,7 @@
       <c r="J472" s="2"/>
       <c r="L472" s="9"/>
     </row>
-    <row r="473" spans="1:12">
+    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
       <c r="B473" s="8"/>
       <c r="C473" s="2"/>
@@ -7748,7 +7775,7 @@
       <c r="J473" s="2"/>
       <c r="L473" s="9"/>
     </row>
-    <row r="474" spans="1:12">
+    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
       <c r="B474" s="8"/>
       <c r="C474" s="2"/>
@@ -7761,7 +7788,7 @@
       <c r="J474" s="2"/>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="1:12">
+    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
       <c r="B475" s="8"/>
       <c r="C475" s="2"/>
@@ -7774,7 +7801,7 @@
       <c r="J475" s="2"/>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="1:12">
+    <row r="476" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
       <c r="B476" s="8"/>
       <c r="C476" s="2"/>
@@ -7787,7 +7814,7 @@
       <c r="J476" s="2"/>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="1:12">
+    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
       <c r="B477" s="8"/>
       <c r="C477" s="2"/>
@@ -7800,7 +7827,7 @@
       <c r="J477" s="2"/>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="1:12">
+    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
       <c r="B478" s="8"/>
       <c r="C478" s="2"/>
@@ -7813,7 +7840,7 @@
       <c r="J478" s="2"/>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="1:12">
+    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
       <c r="B479" s="8"/>
       <c r="C479" s="2"/>
@@ -7826,7 +7853,7 @@
       <c r="J479" s="2"/>
       <c r="L479" s="9"/>
     </row>
-    <row r="480" spans="1:12">
+    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
       <c r="B480" s="8"/>
       <c r="C480" s="2"/>
@@ -7839,7 +7866,7 @@
       <c r="J480" s="2"/>
       <c r="L480" s="9"/>
     </row>
-    <row r="481" spans="1:12">
+    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
       <c r="B481" s="8"/>
       <c r="C481" s="2"/>
@@ -7852,7 +7879,7 @@
       <c r="J481" s="2"/>
       <c r="L481" s="9"/>
     </row>
-    <row r="482" spans="1:12">
+    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
       <c r="B482" s="8"/>
       <c r="C482" s="2"/>
@@ -7865,7 +7892,7 @@
       <c r="J482" s="2"/>
       <c r="L482" s="9"/>
     </row>
-    <row r="483" spans="1:12">
+    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
       <c r="B483" s="8"/>
       <c r="C483" s="2"/>
@@ -7878,7 +7905,7 @@
       <c r="J483" s="2"/>
       <c r="L483" s="9"/>
     </row>
-    <row r="484" spans="1:12">
+    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
       <c r="B484" s="8"/>
       <c r="C484" s="2"/>
@@ -7891,7 +7918,7 @@
       <c r="J484" s="2"/>
       <c r="L484" s="9"/>
     </row>
-    <row r="485" spans="1:12">
+    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
       <c r="B485" s="8"/>
       <c r="C485" s="2"/>
@@ -7904,7 +7931,7 @@
       <c r="J485" s="2"/>
       <c r="L485" s="9"/>
     </row>
-    <row r="486" spans="1:12">
+    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
       <c r="B486" s="8"/>
       <c r="C486" s="2"/>
@@ -7917,7 +7944,7 @@
       <c r="J486" s="2"/>
       <c r="L486" s="9"/>
     </row>
-    <row r="487" spans="1:12">
+    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
       <c r="B487" s="8"/>
       <c r="C487" s="2"/>
@@ -7930,7 +7957,7 @@
       <c r="J487" s="2"/>
       <c r="L487" s="9"/>
     </row>
-    <row r="488" spans="1:12">
+    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
       <c r="B488" s="8"/>
       <c r="C488" s="2"/>
@@ -7943,7 +7970,7 @@
       <c r="J488" s="2"/>
       <c r="L488" s="9"/>
     </row>
-    <row r="489" spans="1:12">
+    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
       <c r="B489" s="8"/>
       <c r="C489" s="2"/>
@@ -7956,7 +7983,7 @@
       <c r="J489" s="2"/>
       <c r="L489" s="9"/>
     </row>
-    <row r="490" spans="1:12">
+    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
       <c r="B490" s="8"/>
       <c r="C490" s="2"/>
@@ -7969,7 +7996,7 @@
       <c r="J490" s="2"/>
       <c r="L490" s="9"/>
     </row>
-    <row r="491" spans="1:12">
+    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
       <c r="B491" s="8"/>
       <c r="C491" s="2"/>
@@ -7982,7 +8009,7 @@
       <c r="J491" s="2"/>
       <c r="L491" s="9"/>
     </row>
-    <row r="492" spans="1:12">
+    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
       <c r="B492" s="8"/>
       <c r="C492" s="2"/>
@@ -7995,7 +8022,7 @@
       <c r="J492" s="2"/>
       <c r="L492" s="9"/>
     </row>
-    <row r="493" spans="1:12">
+    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
       <c r="B493" s="8"/>
       <c r="C493" s="2"/>
@@ -8008,7 +8035,7 @@
       <c r="J493" s="2"/>
       <c r="L493" s="9"/>
     </row>
-    <row r="494" spans="1:12">
+    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
       <c r="B494" s="8"/>
       <c r="C494" s="2"/>
@@ -8021,7 +8048,7 @@
       <c r="J494" s="2"/>
       <c r="L494" s="9"/>
     </row>
-    <row r="495" spans="1:12">
+    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
       <c r="B495" s="8"/>
       <c r="C495" s="2"/>
@@ -8034,7 +8061,7 @@
       <c r="J495" s="2"/>
       <c r="L495" s="9"/>
     </row>
-    <row r="496" spans="1:12">
+    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
       <c r="B496" s="8"/>
       <c r="C496" s="2"/>
@@ -8047,7 +8074,7 @@
       <c r="J496" s="2"/>
       <c r="L496" s="9"/>
     </row>
-    <row r="497" spans="1:12">
+    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
       <c r="B497" s="8"/>
       <c r="C497" s="2"/>
@@ -8060,7 +8087,7 @@
       <c r="J497" s="2"/>
       <c r="L497" s="9"/>
     </row>
-    <row r="498" spans="1:12">
+    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
       <c r="B498" s="8"/>
       <c r="C498" s="2"/>
@@ -8073,7 +8100,7 @@
       <c r="J498" s="2"/>
       <c r="L498" s="9"/>
     </row>
-    <row r="499" spans="1:12">
+    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
       <c r="B499" s="8"/>
       <c r="C499" s="2"/>
@@ -8086,7 +8113,7 @@
       <c r="J499" s="2"/>
       <c r="L499" s="9"/>
     </row>
-    <row r="500" spans="1:12">
+    <row r="500" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
       <c r="B500" s="8"/>
       <c r="C500" s="2"/>
@@ -8099,1504 +8126,1504 @@
       <c r="J500" s="2"/>
       <c r="L500" s="9"/>
     </row>
-    <row r="501" spans="1:12">
+    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I501" s="2"/>
     </row>
-    <row r="502" spans="1:12">
+    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I502" s="2"/>
     </row>
-    <row r="503" spans="1:12">
+    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I503" s="2"/>
     </row>
-    <row r="504" spans="1:12">
+    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I504" s="2"/>
     </row>
-    <row r="505" spans="1:12">
+    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I505" s="2"/>
     </row>
-    <row r="506" spans="1:12">
+    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I506" s="2"/>
     </row>
-    <row r="507" spans="1:12">
+    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I507" s="2"/>
     </row>
-    <row r="508" spans="1:12">
+    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I508" s="2"/>
     </row>
-    <row r="509" spans="1:12">
+    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I509" s="2"/>
     </row>
-    <row r="510" spans="1:12">
+    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I510" s="2"/>
     </row>
-    <row r="511" spans="1:12">
+    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I511" s="2"/>
     </row>
-    <row r="512" spans="1:12">
+    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
       <c r="I512" s="2"/>
     </row>
-    <row r="513" spans="9:9">
+    <row r="513" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I513" s="2"/>
     </row>
-    <row r="514" spans="9:9">
+    <row r="514" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I514" s="2"/>
     </row>
-    <row r="515" spans="9:9">
+    <row r="515" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I515" s="2"/>
     </row>
-    <row r="516" spans="9:9">
+    <row r="516" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I516" s="2"/>
     </row>
-    <row r="517" spans="9:9">
+    <row r="517" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I517" s="2"/>
     </row>
-    <row r="518" spans="9:9">
+    <row r="518" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I518" s="2"/>
     </row>
-    <row r="519" spans="9:9">
+    <row r="519" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I519" s="2"/>
     </row>
-    <row r="520" spans="9:9">
+    <row r="520" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I520" s="2"/>
     </row>
-    <row r="521" spans="9:9">
+    <row r="521" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I521" s="2"/>
     </row>
-    <row r="522" spans="9:9">
+    <row r="522" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I522" s="2"/>
     </row>
-    <row r="523" spans="9:9">
+    <row r="523" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I523" s="2"/>
     </row>
-    <row r="524" spans="9:9">
+    <row r="524" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I524" s="2"/>
     </row>
-    <row r="525" spans="9:9">
+    <row r="525" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I525" s="2"/>
     </row>
-    <row r="526" spans="9:9">
+    <row r="526" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I526" s="2"/>
     </row>
-    <row r="527" spans="9:9">
+    <row r="527" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I527" s="2"/>
     </row>
-    <row r="528" spans="9:9">
+    <row r="528" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I528" s="2"/>
     </row>
-    <row r="529" spans="9:9">
+    <row r="529" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I529" s="2"/>
     </row>
-    <row r="530" spans="9:9">
+    <row r="530" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I530" s="2"/>
     </row>
-    <row r="531" spans="9:9">
+    <row r="531" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I531" s="2"/>
     </row>
-    <row r="532" spans="9:9">
+    <row r="532" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I532" s="2"/>
     </row>
-    <row r="533" spans="9:9">
+    <row r="533" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I533" s="2"/>
     </row>
-    <row r="534" spans="9:9">
+    <row r="534" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I534" s="2"/>
     </row>
-    <row r="535" spans="9:9">
+    <row r="535" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I535" s="2"/>
     </row>
-    <row r="536" spans="9:9">
+    <row r="536" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I536" s="2"/>
     </row>
-    <row r="537" spans="9:9">
+    <row r="537" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I537" s="2"/>
     </row>
-    <row r="538" spans="9:9">
+    <row r="538" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I538" s="2"/>
     </row>
-    <row r="539" spans="9:9">
+    <row r="539" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I539" s="2"/>
     </row>
-    <row r="540" spans="9:9">
+    <row r="540" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I540" s="2"/>
     </row>
-    <row r="541" spans="9:9">
+    <row r="541" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I541" s="2"/>
     </row>
-    <row r="542" spans="9:9">
+    <row r="542" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I542" s="2"/>
     </row>
-    <row r="543" spans="9:9">
+    <row r="543" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I543" s="2"/>
     </row>
-    <row r="544" spans="9:9">
+    <row r="544" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I544" s="2"/>
     </row>
-    <row r="545" spans="9:9">
+    <row r="545" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I545" s="2"/>
     </row>
-    <row r="546" spans="9:9">
+    <row r="546" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I546" s="2"/>
     </row>
-    <row r="547" spans="9:9">
+    <row r="547" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I547" s="2"/>
     </row>
-    <row r="548" spans="9:9">
+    <row r="548" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I548" s="2"/>
     </row>
-    <row r="549" spans="9:9">
+    <row r="549" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I549" s="2"/>
     </row>
-    <row r="550" spans="9:9">
+    <row r="550" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I550" s="2"/>
     </row>
-    <row r="551" spans="9:9">
+    <row r="551" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I551" s="2"/>
     </row>
-    <row r="552" spans="9:9">
+    <row r="552" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I552" s="2"/>
     </row>
-    <row r="553" spans="9:9">
+    <row r="553" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I553" s="2"/>
     </row>
-    <row r="554" spans="9:9">
+    <row r="554" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I554" s="2"/>
     </row>
-    <row r="555" spans="9:9">
+    <row r="555" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I555" s="2"/>
     </row>
-    <row r="556" spans="9:9">
+    <row r="556" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I556" s="2"/>
     </row>
-    <row r="557" spans="9:9">
+    <row r="557" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I557" s="2"/>
     </row>
-    <row r="558" spans="9:9">
+    <row r="558" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I558" s="2"/>
     </row>
-    <row r="559" spans="9:9">
+    <row r="559" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I559" s="2"/>
     </row>
-    <row r="560" spans="9:9">
+    <row r="560" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I560" s="2"/>
     </row>
-    <row r="561" spans="9:9">
+    <row r="561" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I561" s="2"/>
     </row>
-    <row r="562" spans="9:9">
+    <row r="562" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I562" s="2"/>
     </row>
-    <row r="563" spans="9:9">
+    <row r="563" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I563" s="2"/>
     </row>
-    <row r="564" spans="9:9">
+    <row r="564" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I564" s="2"/>
     </row>
-    <row r="565" spans="9:9">
+    <row r="565" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I565" s="2"/>
     </row>
-    <row r="566" spans="9:9">
+    <row r="566" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I566" s="2"/>
     </row>
-    <row r="567" spans="9:9">
+    <row r="567" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I567" s="2"/>
     </row>
-    <row r="568" spans="9:9">
+    <row r="568" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I568" s="2"/>
     </row>
-    <row r="569" spans="9:9">
+    <row r="569" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I569" s="2"/>
     </row>
-    <row r="570" spans="9:9">
+    <row r="570" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I570" s="2"/>
     </row>
-    <row r="571" spans="9:9">
+    <row r="571" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I571" s="2"/>
     </row>
-    <row r="572" spans="9:9">
+    <row r="572" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I572" s="2"/>
     </row>
-    <row r="573" spans="9:9">
+    <row r="573" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I573" s="2"/>
     </row>
-    <row r="574" spans="9:9">
+    <row r="574" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I574" s="2"/>
     </row>
-    <row r="575" spans="9:9">
+    <row r="575" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I575" s="2"/>
     </row>
-    <row r="576" spans="9:9">
+    <row r="576" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I576" s="2"/>
     </row>
-    <row r="577" spans="9:9">
+    <row r="577" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I577" s="2"/>
     </row>
-    <row r="578" spans="9:9">
+    <row r="578" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I578" s="2"/>
     </row>
-    <row r="579" spans="9:9">
+    <row r="579" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I579" s="2"/>
     </row>
-    <row r="580" spans="9:9">
+    <row r="580" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I580" s="2"/>
     </row>
-    <row r="581" spans="9:9">
+    <row r="581" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I581" s="2"/>
     </row>
-    <row r="582" spans="9:9">
+    <row r="582" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I582" s="2"/>
     </row>
-    <row r="583" spans="9:9">
+    <row r="583" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I583" s="2"/>
     </row>
-    <row r="584" spans="9:9">
+    <row r="584" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I584" s="2"/>
     </row>
-    <row r="585" spans="9:9">
+    <row r="585" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I585" s="2"/>
     </row>
-    <row r="586" spans="9:9">
+    <row r="586" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I586" s="2"/>
     </row>
-    <row r="587" spans="9:9">
+    <row r="587" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I587" s="2"/>
     </row>
-    <row r="588" spans="9:9">
+    <row r="588" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I588" s="2"/>
     </row>
-    <row r="589" spans="9:9">
+    <row r="589" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I589" s="2"/>
     </row>
-    <row r="590" spans="9:9">
+    <row r="590" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I590" s="2"/>
     </row>
-    <row r="591" spans="9:9">
+    <row r="591" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I591" s="2"/>
     </row>
-    <row r="592" spans="9:9">
+    <row r="592" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I592" s="2"/>
     </row>
-    <row r="593" spans="9:9">
+    <row r="593" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I593" s="2"/>
     </row>
-    <row r="594" spans="9:9">
+    <row r="594" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I594" s="2"/>
     </row>
-    <row r="595" spans="9:9">
+    <row r="595" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I595" s="2"/>
     </row>
-    <row r="596" spans="9:9">
+    <row r="596" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I596" s="2"/>
     </row>
-    <row r="597" spans="9:9">
+    <row r="597" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I597" s="2"/>
     </row>
-    <row r="598" spans="9:9">
+    <row r="598" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I598" s="2"/>
     </row>
-    <row r="599" spans="9:9">
+    <row r="599" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I599" s="2"/>
     </row>
-    <row r="600" spans="9:9">
+    <row r="600" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I600" s="2"/>
     </row>
-    <row r="601" spans="9:9">
+    <row r="601" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I601" s="2"/>
     </row>
-    <row r="602" spans="9:9">
+    <row r="602" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I602" s="2"/>
     </row>
-    <row r="603" spans="9:9">
+    <row r="603" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I603" s="2"/>
     </row>
-    <row r="604" spans="9:9">
+    <row r="604" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I604" s="2"/>
     </row>
-    <row r="605" spans="9:9">
+    <row r="605" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I605" s="2"/>
     </row>
-    <row r="606" spans="9:9">
+    <row r="606" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I606" s="2"/>
     </row>
-    <row r="607" spans="9:9">
+    <row r="607" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I607" s="2"/>
     </row>
-    <row r="608" spans="9:9">
+    <row r="608" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I608" s="2"/>
     </row>
-    <row r="609" spans="9:9">
+    <row r="609" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I609" s="2"/>
     </row>
-    <row r="610" spans="9:9">
+    <row r="610" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I610" s="2"/>
     </row>
-    <row r="611" spans="9:9">
+    <row r="611" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I611" s="2"/>
     </row>
-    <row r="612" spans="9:9">
+    <row r="612" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I612" s="2"/>
     </row>
-    <row r="613" spans="9:9">
+    <row r="613" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I613" s="2"/>
     </row>
-    <row r="614" spans="9:9">
+    <row r="614" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I614" s="2"/>
     </row>
-    <row r="615" spans="9:9">
+    <row r="615" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I615" s="2"/>
     </row>
-    <row r="616" spans="9:9">
+    <row r="616" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I616" s="2"/>
     </row>
-    <row r="617" spans="9:9">
+    <row r="617" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I617" s="2"/>
     </row>
-    <row r="618" spans="9:9">
+    <row r="618" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I618" s="2"/>
     </row>
-    <row r="619" spans="9:9">
+    <row r="619" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I619" s="2"/>
     </row>
-    <row r="620" spans="9:9">
+    <row r="620" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I620" s="2"/>
     </row>
-    <row r="621" spans="9:9">
+    <row r="621" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I621" s="2"/>
     </row>
-    <row r="622" spans="9:9">
+    <row r="622" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I622" s="2"/>
     </row>
-    <row r="623" spans="9:9">
+    <row r="623" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I623" s="2"/>
     </row>
-    <row r="624" spans="9:9">
+    <row r="624" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I624" s="2"/>
     </row>
-    <row r="625" spans="9:9">
+    <row r="625" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I625" s="2"/>
     </row>
-    <row r="626" spans="9:9">
+    <row r="626" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I626" s="2"/>
     </row>
-    <row r="627" spans="9:9">
+    <row r="627" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I627" s="2"/>
     </row>
-    <row r="628" spans="9:9">
+    <row r="628" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I628" s="2"/>
     </row>
-    <row r="629" spans="9:9">
+    <row r="629" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I629" s="2"/>
     </row>
-    <row r="630" spans="9:9">
+    <row r="630" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I630" s="2"/>
     </row>
-    <row r="631" spans="9:9">
+    <row r="631" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I631" s="2"/>
     </row>
-    <row r="632" spans="9:9">
+    <row r="632" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I632" s="2"/>
     </row>
-    <row r="633" spans="9:9">
+    <row r="633" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I633" s="2"/>
     </row>
-    <row r="634" spans="9:9">
+    <row r="634" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I634" s="2"/>
     </row>
-    <row r="635" spans="9:9">
+    <row r="635" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I635" s="2"/>
     </row>
-    <row r="636" spans="9:9">
+    <row r="636" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I636" s="2"/>
     </row>
-    <row r="637" spans="9:9">
+    <row r="637" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I637" s="2"/>
     </row>
-    <row r="638" spans="9:9">
+    <row r="638" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I638" s="2"/>
     </row>
-    <row r="639" spans="9:9">
+    <row r="639" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I639" s="2"/>
     </row>
-    <row r="640" spans="9:9">
+    <row r="640" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I640" s="2"/>
     </row>
-    <row r="641" spans="9:9">
+    <row r="641" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I641" s="2"/>
     </row>
-    <row r="642" spans="9:9">
+    <row r="642" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I642" s="2"/>
     </row>
-    <row r="643" spans="9:9">
+    <row r="643" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I643" s="2"/>
     </row>
-    <row r="644" spans="9:9">
+    <row r="644" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I644" s="2"/>
     </row>
-    <row r="645" spans="9:9">
+    <row r="645" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I645" s="2"/>
     </row>
-    <row r="646" spans="9:9">
+    <row r="646" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I646" s="2"/>
     </row>
-    <row r="647" spans="9:9">
+    <row r="647" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I647" s="2"/>
     </row>
-    <row r="648" spans="9:9">
+    <row r="648" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I648" s="2"/>
     </row>
-    <row r="649" spans="9:9">
+    <row r="649" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I649" s="2"/>
     </row>
-    <row r="650" spans="9:9">
+    <row r="650" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I650" s="2"/>
     </row>
-    <row r="651" spans="9:9">
+    <row r="651" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I651" s="2"/>
     </row>
-    <row r="652" spans="9:9">
+    <row r="652" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I652" s="2"/>
     </row>
-    <row r="653" spans="9:9">
+    <row r="653" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I653" s="2"/>
     </row>
-    <row r="654" spans="9:9">
+    <row r="654" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I654" s="2"/>
     </row>
-    <row r="655" spans="9:9">
+    <row r="655" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I655" s="2"/>
     </row>
-    <row r="656" spans="9:9">
+    <row r="656" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I656" s="2"/>
     </row>
-    <row r="657" spans="9:9">
+    <row r="657" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I657" s="2"/>
     </row>
-    <row r="658" spans="9:9">
+    <row r="658" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I658" s="2"/>
     </row>
-    <row r="659" spans="9:9">
+    <row r="659" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I659" s="2"/>
     </row>
-    <row r="660" spans="9:9">
+    <row r="660" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I660" s="2"/>
     </row>
-    <row r="661" spans="9:9">
+    <row r="661" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I661" s="2"/>
     </row>
-    <row r="662" spans="9:9">
+    <row r="662" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I662" s="2"/>
     </row>
-    <row r="663" spans="9:9">
+    <row r="663" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I663" s="2"/>
     </row>
-    <row r="664" spans="9:9">
+    <row r="664" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I664" s="2"/>
     </row>
-    <row r="665" spans="9:9">
+    <row r="665" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I665" s="2"/>
     </row>
-    <row r="666" spans="9:9">
+    <row r="666" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I666" s="2"/>
     </row>
-    <row r="667" spans="9:9">
+    <row r="667" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I667" s="2"/>
     </row>
-    <row r="668" spans="9:9">
+    <row r="668" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I668" s="2"/>
     </row>
-    <row r="669" spans="9:9">
+    <row r="669" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I669" s="2"/>
     </row>
-    <row r="670" spans="9:9">
+    <row r="670" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I670" s="2"/>
     </row>
-    <row r="671" spans="9:9">
+    <row r="671" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I671" s="2"/>
     </row>
-    <row r="672" spans="9:9">
+    <row r="672" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I672" s="2"/>
     </row>
-    <row r="673" spans="9:9">
+    <row r="673" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I673" s="2"/>
     </row>
-    <row r="674" spans="9:9">
+    <row r="674" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I674" s="2"/>
     </row>
-    <row r="675" spans="9:9">
+    <row r="675" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I675" s="2"/>
     </row>
-    <row r="676" spans="9:9">
+    <row r="676" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I676" s="2"/>
     </row>
-    <row r="677" spans="9:9">
+    <row r="677" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I677" s="2"/>
     </row>
-    <row r="678" spans="9:9">
+    <row r="678" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I678" s="2"/>
     </row>
-    <row r="679" spans="9:9">
+    <row r="679" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I679" s="2"/>
     </row>
-    <row r="680" spans="9:9">
+    <row r="680" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I680" s="2"/>
     </row>
-    <row r="681" spans="9:9">
+    <row r="681" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I681" s="2"/>
     </row>
-    <row r="682" spans="9:9">
+    <row r="682" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I682" s="2"/>
     </row>
-    <row r="683" spans="9:9">
+    <row r="683" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I683" s="2"/>
     </row>
-    <row r="684" spans="9:9">
+    <row r="684" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I684" s="2"/>
     </row>
-    <row r="685" spans="9:9">
+    <row r="685" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I685" s="2"/>
     </row>
-    <row r="686" spans="9:9">
+    <row r="686" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I686" s="2"/>
     </row>
-    <row r="687" spans="9:9">
+    <row r="687" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I687" s="2"/>
     </row>
-    <row r="688" spans="9:9">
+    <row r="688" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I688" s="2"/>
     </row>
-    <row r="689" spans="9:9">
+    <row r="689" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I689" s="2"/>
     </row>
-    <row r="690" spans="9:9">
+    <row r="690" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I690" s="2"/>
     </row>
-    <row r="691" spans="9:9">
+    <row r="691" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I691" s="2"/>
     </row>
-    <row r="692" spans="9:9">
+    <row r="692" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I692" s="2"/>
     </row>
-    <row r="693" spans="9:9">
+    <row r="693" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I693" s="2"/>
     </row>
-    <row r="694" spans="9:9">
+    <row r="694" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I694" s="2"/>
     </row>
-    <row r="695" spans="9:9">
+    <row r="695" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I695" s="2"/>
     </row>
-    <row r="696" spans="9:9">
+    <row r="696" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I696" s="2"/>
     </row>
-    <row r="697" spans="9:9">
+    <row r="697" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I697" s="2"/>
     </row>
-    <row r="698" spans="9:9">
+    <row r="698" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I698" s="2"/>
     </row>
-    <row r="699" spans="9:9">
+    <row r="699" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I699" s="2"/>
     </row>
-    <row r="700" spans="9:9">
+    <row r="700" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I700" s="2"/>
     </row>
-    <row r="701" spans="9:9">
+    <row r="701" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I701" s="2"/>
     </row>
-    <row r="702" spans="9:9">
+    <row r="702" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I702" s="2"/>
     </row>
-    <row r="703" spans="9:9">
+    <row r="703" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I703" s="2"/>
     </row>
-    <row r="704" spans="9:9">
+    <row r="704" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I704" s="2"/>
     </row>
-    <row r="705" spans="9:9">
+    <row r="705" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I705" s="2"/>
     </row>
-    <row r="706" spans="9:9">
+    <row r="706" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I706" s="2"/>
     </row>
-    <row r="707" spans="9:9">
+    <row r="707" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I707" s="2"/>
     </row>
-    <row r="708" spans="9:9">
+    <row r="708" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I708" s="2"/>
     </row>
-    <row r="709" spans="9:9">
+    <row r="709" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I709" s="2"/>
     </row>
-    <row r="710" spans="9:9">
+    <row r="710" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I710" s="2"/>
     </row>
-    <row r="711" spans="9:9">
+    <row r="711" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I711" s="2"/>
     </row>
-    <row r="712" spans="9:9">
+    <row r="712" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I712" s="2"/>
     </row>
-    <row r="713" spans="9:9">
+    <row r="713" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I713" s="2"/>
     </row>
-    <row r="714" spans="9:9">
+    <row r="714" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I714" s="2"/>
     </row>
-    <row r="715" spans="9:9">
+    <row r="715" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I715" s="2"/>
     </row>
-    <row r="716" spans="9:9">
+    <row r="716" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I716" s="2"/>
     </row>
-    <row r="717" spans="9:9">
+    <row r="717" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I717" s="2"/>
     </row>
-    <row r="718" spans="9:9">
+    <row r="718" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I718" s="2"/>
     </row>
-    <row r="719" spans="9:9">
+    <row r="719" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I719" s="2"/>
     </row>
-    <row r="720" spans="9:9">
+    <row r="720" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I720" s="2"/>
     </row>
-    <row r="721" spans="9:9">
+    <row r="721" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I721" s="2"/>
     </row>
-    <row r="722" spans="9:9">
+    <row r="722" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I722" s="2"/>
     </row>
-    <row r="723" spans="9:9">
+    <row r="723" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I723" s="2"/>
     </row>
-    <row r="724" spans="9:9">
+    <row r="724" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I724" s="2"/>
     </row>
-    <row r="725" spans="9:9">
+    <row r="725" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I725" s="2"/>
     </row>
-    <row r="726" spans="9:9">
+    <row r="726" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I726" s="2"/>
     </row>
-    <row r="727" spans="9:9">
+    <row r="727" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I727" s="2"/>
     </row>
-    <row r="728" spans="9:9">
+    <row r="728" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I728" s="2"/>
     </row>
-    <row r="729" spans="9:9">
+    <row r="729" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I729" s="2"/>
     </row>
-    <row r="730" spans="9:9">
+    <row r="730" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I730" s="2"/>
     </row>
-    <row r="731" spans="9:9">
+    <row r="731" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I731" s="2"/>
     </row>
-    <row r="732" spans="9:9">
+    <row r="732" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I732" s="2"/>
     </row>
-    <row r="733" spans="9:9">
+    <row r="733" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I733" s="2"/>
     </row>
-    <row r="734" spans="9:9">
+    <row r="734" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I734" s="2"/>
     </row>
-    <row r="735" spans="9:9">
+    <row r="735" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I735" s="2"/>
     </row>
-    <row r="736" spans="9:9">
+    <row r="736" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I736" s="2"/>
     </row>
-    <row r="737" spans="9:9">
+    <row r="737" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I737" s="2"/>
     </row>
-    <row r="738" spans="9:9">
+    <row r="738" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I738" s="2"/>
     </row>
-    <row r="739" spans="9:9">
+    <row r="739" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I739" s="2"/>
     </row>
-    <row r="740" spans="9:9">
+    <row r="740" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I740" s="2"/>
     </row>
-    <row r="741" spans="9:9">
+    <row r="741" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I741" s="2"/>
     </row>
-    <row r="742" spans="9:9">
+    <row r="742" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I742" s="2"/>
     </row>
-    <row r="743" spans="9:9">
+    <row r="743" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I743" s="2"/>
     </row>
-    <row r="744" spans="9:9">
+    <row r="744" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I744" s="2"/>
     </row>
-    <row r="745" spans="9:9">
+    <row r="745" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I745" s="2"/>
     </row>
-    <row r="746" spans="9:9">
+    <row r="746" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I746" s="2"/>
     </row>
-    <row r="747" spans="9:9">
+    <row r="747" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I747" s="2"/>
     </row>
-    <row r="748" spans="9:9">
+    <row r="748" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I748" s="2"/>
     </row>
-    <row r="749" spans="9:9">
+    <row r="749" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I749" s="2"/>
     </row>
-    <row r="750" spans="9:9">
+    <row r="750" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I750" s="2"/>
     </row>
-    <row r="751" spans="9:9">
+    <row r="751" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I751" s="2"/>
     </row>
-    <row r="752" spans="9:9">
+    <row r="752" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I752" s="2"/>
     </row>
-    <row r="753" spans="9:9">
+    <row r="753" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I753" s="2"/>
     </row>
-    <row r="754" spans="9:9">
+    <row r="754" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I754" s="2"/>
     </row>
-    <row r="755" spans="9:9">
+    <row r="755" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I755" s="2"/>
     </row>
-    <row r="756" spans="9:9">
+    <row r="756" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I756" s="2"/>
     </row>
-    <row r="757" spans="9:9">
+    <row r="757" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I757" s="2"/>
     </row>
-    <row r="758" spans="9:9">
+    <row r="758" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I758" s="2"/>
     </row>
-    <row r="759" spans="9:9">
+    <row r="759" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I759" s="2"/>
     </row>
-    <row r="760" spans="9:9">
+    <row r="760" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I760" s="2"/>
     </row>
-    <row r="761" spans="9:9">
+    <row r="761" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I761" s="2"/>
     </row>
-    <row r="762" spans="9:9">
+    <row r="762" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I762" s="2"/>
     </row>
-    <row r="763" spans="9:9">
+    <row r="763" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I763" s="2"/>
     </row>
-    <row r="764" spans="9:9">
+    <row r="764" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I764" s="2"/>
     </row>
-    <row r="765" spans="9:9">
+    <row r="765" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I765" s="2"/>
     </row>
-    <row r="766" spans="9:9">
+    <row r="766" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I766" s="2"/>
     </row>
-    <row r="767" spans="9:9">
+    <row r="767" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I767" s="2"/>
     </row>
-    <row r="768" spans="9:9">
+    <row r="768" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I768" s="2"/>
     </row>
-    <row r="769" spans="9:9">
+    <row r="769" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I769" s="2"/>
     </row>
-    <row r="770" spans="9:9">
+    <row r="770" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I770" s="2"/>
     </row>
-    <row r="771" spans="9:9">
+    <row r="771" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I771" s="2"/>
     </row>
-    <row r="772" spans="9:9">
+    <row r="772" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I772" s="2"/>
     </row>
-    <row r="773" spans="9:9">
+    <row r="773" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I773" s="2"/>
     </row>
-    <row r="774" spans="9:9">
+    <row r="774" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I774" s="2"/>
     </row>
-    <row r="775" spans="9:9">
+    <row r="775" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I775" s="2"/>
     </row>
-    <row r="776" spans="9:9">
+    <row r="776" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I776" s="2"/>
     </row>
-    <row r="777" spans="9:9">
+    <row r="777" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I777" s="2"/>
     </row>
-    <row r="778" spans="9:9">
+    <row r="778" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I778" s="2"/>
     </row>
-    <row r="779" spans="9:9">
+    <row r="779" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I779" s="2"/>
     </row>
-    <row r="780" spans="9:9">
+    <row r="780" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I780" s="2"/>
     </row>
-    <row r="781" spans="9:9">
+    <row r="781" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I781" s="2"/>
     </row>
-    <row r="782" spans="9:9">
+    <row r="782" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I782" s="2"/>
     </row>
-    <row r="783" spans="9:9">
+    <row r="783" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I783" s="2"/>
     </row>
-    <row r="784" spans="9:9">
+    <row r="784" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I784" s="2"/>
     </row>
-    <row r="785" spans="9:9">
+    <row r="785" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I785" s="2"/>
     </row>
-    <row r="786" spans="9:9">
+    <row r="786" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I786" s="2"/>
     </row>
-    <row r="787" spans="9:9">
+    <row r="787" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I787" s="2"/>
     </row>
-    <row r="788" spans="9:9">
+    <row r="788" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I788" s="2"/>
     </row>
-    <row r="789" spans="9:9">
+    <row r="789" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I789" s="2"/>
     </row>
-    <row r="790" spans="9:9">
+    <row r="790" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I790" s="2"/>
     </row>
-    <row r="791" spans="9:9">
+    <row r="791" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I791" s="2"/>
     </row>
-    <row r="792" spans="9:9">
+    <row r="792" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I792" s="2"/>
     </row>
-    <row r="793" spans="9:9">
+    <row r="793" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I793" s="2"/>
     </row>
-    <row r="794" spans="9:9">
+    <row r="794" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I794" s="2"/>
     </row>
-    <row r="795" spans="9:9">
+    <row r="795" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I795" s="2"/>
     </row>
-    <row r="796" spans="9:9">
+    <row r="796" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I796" s="2"/>
     </row>
-    <row r="797" spans="9:9">
+    <row r="797" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I797" s="2"/>
     </row>
-    <row r="798" spans="9:9">
+    <row r="798" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I798" s="2"/>
     </row>
-    <row r="799" spans="9:9">
+    <row r="799" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I799" s="2"/>
     </row>
-    <row r="800" spans="9:9">
+    <row r="800" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I800" s="2"/>
     </row>
-    <row r="801" spans="9:9">
+    <row r="801" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I801" s="2"/>
     </row>
-    <row r="802" spans="9:9">
+    <row r="802" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I802" s="2"/>
     </row>
-    <row r="803" spans="9:9">
+    <row r="803" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I803" s="2"/>
     </row>
-    <row r="804" spans="9:9">
+    <row r="804" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I804" s="2"/>
     </row>
-    <row r="805" spans="9:9">
+    <row r="805" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I805" s="2"/>
     </row>
-    <row r="806" spans="9:9">
+    <row r="806" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I806" s="2"/>
     </row>
-    <row r="807" spans="9:9">
+    <row r="807" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I807" s="2"/>
     </row>
-    <row r="808" spans="9:9">
+    <row r="808" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I808" s="2"/>
     </row>
-    <row r="809" spans="9:9">
+    <row r="809" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I809" s="2"/>
     </row>
-    <row r="810" spans="9:9">
+    <row r="810" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I810" s="2"/>
     </row>
-    <row r="811" spans="9:9">
+    <row r="811" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I811" s="2"/>
     </row>
-    <row r="812" spans="9:9">
+    <row r="812" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I812" s="2"/>
     </row>
-    <row r="813" spans="9:9">
+    <row r="813" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I813" s="2"/>
     </row>
-    <row r="814" spans="9:9">
+    <row r="814" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I814" s="2"/>
     </row>
-    <row r="815" spans="9:9">
+    <row r="815" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I815" s="2"/>
     </row>
-    <row r="816" spans="9:9">
+    <row r="816" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I816" s="2"/>
     </row>
-    <row r="817" spans="9:9">
+    <row r="817" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I817" s="2"/>
     </row>
-    <row r="818" spans="9:9">
+    <row r="818" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I818" s="2"/>
     </row>
-    <row r="819" spans="9:9">
+    <row r="819" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I819" s="2"/>
     </row>
-    <row r="820" spans="9:9">
+    <row r="820" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I820" s="2"/>
     </row>
-    <row r="821" spans="9:9">
+    <row r="821" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I821" s="2"/>
     </row>
-    <row r="822" spans="9:9">
+    <row r="822" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I822" s="2"/>
     </row>
-    <row r="823" spans="9:9">
+    <row r="823" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I823" s="2"/>
     </row>
-    <row r="824" spans="9:9">
+    <row r="824" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I824" s="2"/>
     </row>
-    <row r="825" spans="9:9">
+    <row r="825" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I825" s="2"/>
     </row>
-    <row r="826" spans="9:9">
+    <row r="826" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I826" s="2"/>
     </row>
-    <row r="827" spans="9:9">
+    <row r="827" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I827" s="2"/>
     </row>
-    <row r="828" spans="9:9">
+    <row r="828" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I828" s="2"/>
     </row>
-    <row r="829" spans="9:9">
+    <row r="829" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I829" s="2"/>
     </row>
-    <row r="830" spans="9:9">
+    <row r="830" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I830" s="2"/>
     </row>
-    <row r="831" spans="9:9">
+    <row r="831" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I831" s="2"/>
     </row>
-    <row r="832" spans="9:9">
+    <row r="832" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I832" s="2"/>
     </row>
-    <row r="833" spans="9:9">
+    <row r="833" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I833" s="2"/>
     </row>
-    <row r="834" spans="9:9">
+    <row r="834" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I834" s="2"/>
     </row>
-    <row r="835" spans="9:9">
+    <row r="835" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I835" s="2"/>
     </row>
-    <row r="836" spans="9:9">
+    <row r="836" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I836" s="2"/>
     </row>
-    <row r="837" spans="9:9">
+    <row r="837" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I837" s="2"/>
     </row>
-    <row r="838" spans="9:9">
+    <row r="838" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I838" s="2"/>
     </row>
-    <row r="839" spans="9:9">
+    <row r="839" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I839" s="2"/>
     </row>
-    <row r="840" spans="9:9">
+    <row r="840" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I840" s="2"/>
     </row>
-    <row r="841" spans="9:9">
+    <row r="841" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I841" s="2"/>
     </row>
-    <row r="842" spans="9:9">
+    <row r="842" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I842" s="2"/>
     </row>
-    <row r="843" spans="9:9">
+    <row r="843" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I843" s="2"/>
     </row>
-    <row r="844" spans="9:9">
+    <row r="844" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I844" s="2"/>
     </row>
-    <row r="845" spans="9:9">
+    <row r="845" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I845" s="2"/>
     </row>
-    <row r="846" spans="9:9">
+    <row r="846" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I846" s="2"/>
     </row>
-    <row r="847" spans="9:9">
+    <row r="847" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I847" s="2"/>
     </row>
-    <row r="848" spans="9:9">
+    <row r="848" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I848" s="2"/>
     </row>
-    <row r="849" spans="9:9">
+    <row r="849" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I849" s="2"/>
     </row>
-    <row r="850" spans="9:9">
+    <row r="850" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I850" s="2"/>
     </row>
-    <row r="851" spans="9:9">
+    <row r="851" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I851" s="2"/>
     </row>
-    <row r="852" spans="9:9">
+    <row r="852" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I852" s="2"/>
     </row>
-    <row r="853" spans="9:9">
+    <row r="853" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I853" s="2"/>
     </row>
-    <row r="854" spans="9:9">
+    <row r="854" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I854" s="2"/>
     </row>
-    <row r="855" spans="9:9">
+    <row r="855" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I855" s="2"/>
     </row>
-    <row r="856" spans="9:9">
+    <row r="856" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I856" s="2"/>
     </row>
-    <row r="857" spans="9:9">
+    <row r="857" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I857" s="2"/>
     </row>
-    <row r="858" spans="9:9">
+    <row r="858" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I858" s="2"/>
     </row>
-    <row r="859" spans="9:9">
+    <row r="859" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I859" s="2"/>
     </row>
-    <row r="860" spans="9:9">
+    <row r="860" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I860" s="2"/>
     </row>
-    <row r="861" spans="9:9">
+    <row r="861" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I861" s="2"/>
     </row>
-    <row r="862" spans="9:9">
+    <row r="862" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I862" s="2"/>
     </row>
-    <row r="863" spans="9:9">
+    <row r="863" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I863" s="2"/>
     </row>
-    <row r="864" spans="9:9">
+    <row r="864" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I864" s="2"/>
     </row>
-    <row r="865" spans="9:9">
+    <row r="865" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I865" s="2"/>
     </row>
-    <row r="866" spans="9:9">
+    <row r="866" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I866" s="2"/>
     </row>
-    <row r="867" spans="9:9">
+    <row r="867" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I867" s="2"/>
     </row>
-    <row r="868" spans="9:9">
+    <row r="868" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I868" s="2"/>
     </row>
-    <row r="869" spans="9:9">
+    <row r="869" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I869" s="2"/>
     </row>
-    <row r="870" spans="9:9">
+    <row r="870" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I870" s="2"/>
     </row>
-    <row r="871" spans="9:9">
+    <row r="871" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I871" s="2"/>
     </row>
-    <row r="872" spans="9:9">
+    <row r="872" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I872" s="2"/>
     </row>
-    <row r="873" spans="9:9">
+    <row r="873" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I873" s="2"/>
     </row>
-    <row r="874" spans="9:9">
+    <row r="874" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I874" s="2"/>
     </row>
-    <row r="875" spans="9:9">
+    <row r="875" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I875" s="2"/>
     </row>
-    <row r="876" spans="9:9">
+    <row r="876" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I876" s="2"/>
     </row>
-    <row r="877" spans="9:9">
+    <row r="877" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I877" s="2"/>
     </row>
-    <row r="878" spans="9:9">
+    <row r="878" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I878" s="2"/>
     </row>
-    <row r="879" spans="9:9">
+    <row r="879" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I879" s="2"/>
     </row>
-    <row r="880" spans="9:9">
+    <row r="880" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I880" s="2"/>
     </row>
-    <row r="881" spans="9:9">
+    <row r="881" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I881" s="2"/>
     </row>
-    <row r="882" spans="9:9">
+    <row r="882" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I882" s="2"/>
     </row>
-    <row r="883" spans="9:9">
+    <row r="883" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I883" s="2"/>
     </row>
-    <row r="884" spans="9:9">
+    <row r="884" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I884" s="2"/>
     </row>
-    <row r="885" spans="9:9">
+    <row r="885" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I885" s="2"/>
     </row>
-    <row r="886" spans="9:9">
+    <row r="886" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I886" s="2"/>
     </row>
-    <row r="887" spans="9:9">
+    <row r="887" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I887" s="2"/>
     </row>
-    <row r="888" spans="9:9">
+    <row r="888" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I888" s="2"/>
     </row>
-    <row r="889" spans="9:9">
+    <row r="889" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I889" s="2"/>
     </row>
-    <row r="890" spans="9:9">
+    <row r="890" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I890" s="2"/>
     </row>
-    <row r="891" spans="9:9">
+    <row r="891" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I891" s="2"/>
     </row>
-    <row r="892" spans="9:9">
+    <row r="892" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I892" s="2"/>
     </row>
-    <row r="893" spans="9:9">
+    <row r="893" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I893" s="2"/>
     </row>
-    <row r="894" spans="9:9">
+    <row r="894" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I894" s="2"/>
     </row>
-    <row r="895" spans="9:9">
+    <row r="895" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I895" s="2"/>
     </row>
-    <row r="896" spans="9:9">
+    <row r="896" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I896" s="2"/>
     </row>
-    <row r="897" spans="9:9">
+    <row r="897" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I897" s="2"/>
     </row>
-    <row r="898" spans="9:9">
+    <row r="898" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I898" s="2"/>
     </row>
-    <row r="899" spans="9:9">
+    <row r="899" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I899" s="2"/>
     </row>
-    <row r="900" spans="9:9">
+    <row r="900" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I900" s="2"/>
     </row>
-    <row r="901" spans="9:9">
+    <row r="901" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I901" s="2"/>
     </row>
-    <row r="902" spans="9:9">
+    <row r="902" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I902" s="2"/>
     </row>
-    <row r="903" spans="9:9">
+    <row r="903" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I903" s="2"/>
     </row>
-    <row r="904" spans="9:9">
+    <row r="904" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I904" s="2"/>
     </row>
-    <row r="905" spans="9:9">
+    <row r="905" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I905" s="2"/>
     </row>
-    <row r="906" spans="9:9">
+    <row r="906" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I906" s="2"/>
     </row>
-    <row r="907" spans="9:9">
+    <row r="907" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I907" s="2"/>
     </row>
-    <row r="908" spans="9:9">
+    <row r="908" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I908" s="2"/>
     </row>
-    <row r="909" spans="9:9">
+    <row r="909" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I909" s="2"/>
     </row>
-    <row r="910" spans="9:9">
+    <row r="910" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I910" s="2"/>
     </row>
-    <row r="911" spans="9:9">
+    <row r="911" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I911" s="2"/>
     </row>
-    <row r="912" spans="9:9">
+    <row r="912" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I912" s="2"/>
     </row>
-    <row r="913" spans="9:9">
+    <row r="913" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I913" s="2"/>
     </row>
-    <row r="914" spans="9:9">
+    <row r="914" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I914" s="2"/>
     </row>
-    <row r="915" spans="9:9">
+    <row r="915" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I915" s="2"/>
     </row>
-    <row r="916" spans="9:9">
+    <row r="916" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I916" s="2"/>
     </row>
-    <row r="917" spans="9:9">
+    <row r="917" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I917" s="2"/>
     </row>
-    <row r="918" spans="9:9">
+    <row r="918" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I918" s="2"/>
     </row>
-    <row r="919" spans="9:9">
+    <row r="919" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I919" s="2"/>
     </row>
-    <row r="920" spans="9:9">
+    <row r="920" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I920" s="2"/>
     </row>
-    <row r="921" spans="9:9">
+    <row r="921" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I921" s="2"/>
     </row>
-    <row r="922" spans="9:9">
+    <row r="922" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I922" s="2"/>
     </row>
-    <row r="923" spans="9:9">
+    <row r="923" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I923" s="2"/>
     </row>
-    <row r="924" spans="9:9">
+    <row r="924" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I924" s="2"/>
     </row>
-    <row r="925" spans="9:9">
+    <row r="925" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I925" s="2"/>
     </row>
-    <row r="926" spans="9:9">
+    <row r="926" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I926" s="2"/>
     </row>
-    <row r="927" spans="9:9">
+    <row r="927" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I927" s="2"/>
     </row>
-    <row r="928" spans="9:9">
+    <row r="928" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I928" s="2"/>
     </row>
-    <row r="929" spans="9:9">
+    <row r="929" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I929" s="2"/>
     </row>
-    <row r="930" spans="9:9">
+    <row r="930" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I930" s="2"/>
     </row>
-    <row r="931" spans="9:9">
+    <row r="931" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I931" s="2"/>
     </row>
-    <row r="932" spans="9:9">
+    <row r="932" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I932" s="2"/>
     </row>
-    <row r="933" spans="9:9">
+    <row r="933" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I933" s="2"/>
     </row>
-    <row r="934" spans="9:9">
+    <row r="934" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I934" s="2"/>
     </row>
-    <row r="935" spans="9:9">
+    <row r="935" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I935" s="2"/>
     </row>
-    <row r="936" spans="9:9">
+    <row r="936" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I936" s="2"/>
     </row>
-    <row r="937" spans="9:9">
+    <row r="937" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I937" s="2"/>
     </row>
-    <row r="938" spans="9:9">
+    <row r="938" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I938" s="2"/>
     </row>
-    <row r="939" spans="9:9">
+    <row r="939" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I939" s="2"/>
     </row>
-    <row r="940" spans="9:9">
+    <row r="940" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I940" s="2"/>
     </row>
-    <row r="941" spans="9:9">
+    <row r="941" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I941" s="2"/>
     </row>
-    <row r="942" spans="9:9">
+    <row r="942" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I942" s="2"/>
     </row>
-    <row r="943" spans="9:9">
+    <row r="943" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I943" s="2"/>
     </row>
-    <row r="944" spans="9:9">
+    <row r="944" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I944" s="2"/>
     </row>
-    <row r="945" spans="9:9">
+    <row r="945" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I945" s="2"/>
     </row>
-    <row r="946" spans="9:9">
+    <row r="946" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I946" s="2"/>
     </row>
-    <row r="947" spans="9:9">
+    <row r="947" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I947" s="2"/>
     </row>
-    <row r="948" spans="9:9">
+    <row r="948" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I948" s="2"/>
     </row>
-    <row r="949" spans="9:9">
+    <row r="949" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I949" s="2"/>
     </row>
-    <row r="950" spans="9:9">
+    <row r="950" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I950" s="2"/>
     </row>
-    <row r="951" spans="9:9">
+    <row r="951" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I951" s="2"/>
     </row>
-    <row r="952" spans="9:9">
+    <row r="952" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I952" s="2"/>
     </row>
-    <row r="953" spans="9:9">
+    <row r="953" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I953" s="2"/>
     </row>
-    <row r="954" spans="9:9">
+    <row r="954" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I954" s="2"/>
     </row>
-    <row r="955" spans="9:9">
+    <row r="955" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I955" s="2"/>
     </row>
-    <row r="956" spans="9:9">
+    <row r="956" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I956" s="2"/>
     </row>
-    <row r="957" spans="9:9">
+    <row r="957" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I957" s="2"/>
     </row>
-    <row r="958" spans="9:9">
+    <row r="958" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I958" s="2"/>
     </row>
-    <row r="959" spans="9:9">
+    <row r="959" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I959" s="2"/>
     </row>
-    <row r="960" spans="9:9">
+    <row r="960" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I960" s="2"/>
     </row>
-    <row r="961" spans="9:9">
+    <row r="961" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I961" s="2"/>
     </row>
-    <row r="962" spans="9:9">
+    <row r="962" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I962" s="2"/>
     </row>
-    <row r="963" spans="9:9">
+    <row r="963" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I963" s="2"/>
     </row>
-    <row r="964" spans="9:9">
+    <row r="964" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I964" s="2"/>
     </row>
-    <row r="965" spans="9:9">
+    <row r="965" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I965" s="2"/>
     </row>
-    <row r="966" spans="9:9">
+    <row r="966" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I966" s="2"/>
     </row>
-    <row r="967" spans="9:9">
+    <row r="967" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I967" s="2"/>
     </row>
-    <row r="968" spans="9:9">
+    <row r="968" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I968" s="2"/>
     </row>
-    <row r="969" spans="9:9">
+    <row r="969" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I969" s="2"/>
     </row>
-    <row r="970" spans="9:9">
+    <row r="970" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I970" s="2"/>
     </row>
-    <row r="971" spans="9:9">
+    <row r="971" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I971" s="2"/>
     </row>
-    <row r="972" spans="9:9">
+    <row r="972" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I972" s="2"/>
     </row>
-    <row r="973" spans="9:9">
+    <row r="973" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I973" s="2"/>
     </row>
-    <row r="974" spans="9:9">
+    <row r="974" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I974" s="2"/>
     </row>
-    <row r="975" spans="9:9">
+    <row r="975" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I975" s="2"/>
     </row>
-    <row r="976" spans="9:9">
+    <row r="976" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I976" s="2"/>
     </row>
-    <row r="977" spans="9:9">
+    <row r="977" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I977" s="2"/>
     </row>
-    <row r="978" spans="9:9">
+    <row r="978" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I978" s="2"/>
     </row>
-    <row r="979" spans="9:9">
+    <row r="979" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I979" s="2"/>
     </row>
-    <row r="980" spans="9:9">
+    <row r="980" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I980" s="2"/>
     </row>
-    <row r="981" spans="9:9">
+    <row r="981" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I981" s="2"/>
     </row>
-    <row r="982" spans="9:9">
+    <row r="982" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I982" s="2"/>
     </row>
-    <row r="983" spans="9:9">
+    <row r="983" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I983" s="2"/>
     </row>
-    <row r="984" spans="9:9">
+    <row r="984" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I984" s="2"/>
     </row>
-    <row r="985" spans="9:9">
+    <row r="985" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I985" s="2"/>
     </row>
-    <row r="986" spans="9:9">
+    <row r="986" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I986" s="2"/>
     </row>
-    <row r="987" spans="9:9">
+    <row r="987" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I987" s="2"/>
     </row>
-    <row r="988" spans="9:9">
+    <row r="988" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I988" s="2"/>
     </row>
-    <row r="989" spans="9:9">
+    <row r="989" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I989" s="2"/>
     </row>
-    <row r="990" spans="9:9">
+    <row r="990" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I990" s="2"/>
     </row>
-    <row r="991" spans="9:9">
+    <row r="991" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I991" s="2"/>
     </row>
-    <row r="992" spans="9:9">
+    <row r="992" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I992" s="2"/>
     </row>
-    <row r="993" spans="9:9">
+    <row r="993" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I993" s="2"/>
     </row>
-    <row r="994" spans="9:9">
+    <row r="994" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I994" s="2"/>
     </row>
-    <row r="995" spans="9:9">
+    <row r="995" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I995" s="2"/>
     </row>
-    <row r="996" spans="9:9">
+    <row r="996" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I996" s="2"/>
     </row>
-    <row r="997" spans="9:9">
+    <row r="997" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I997" s="2"/>
     </row>
-    <row r="998" spans="9:9">
+    <row r="998" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I998" s="2"/>
     </row>
-    <row r="999" spans="9:9">
+    <row r="999" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I999" s="2"/>
     </row>
-    <row r="1000" spans="9:9">
+    <row r="1000" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I1000" s="2"/>
     </row>
   </sheetData>
@@ -9607,7 +9634,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44629649-B987-4DD5-B0DD-B61C81ACEDE4}">
           <x14:formula1>
-            <xm:f>'Списки ввода'!$A$2:$A$19</xm:f>
+            <xm:f>'Списки ввода'!$A$2:$A$26</xm:f>
           </x14:formula1>
           <xm:sqref>A2:A4 A501:A1000</xm:sqref>
         </x14:dataValidation>
@@ -9616,6 +9643,12 @@
             <xm:f>'Списки ввода'!$B$2:$B$3</xm:f>
           </x14:formula1>
           <xm:sqref>H2:H1000</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17CAC63D-4026-4E45-B57C-63A4D06AF7A8}">
+          <x14:formula1>
+            <xm:f>'Списки ввода'!$A$2:$A$27</xm:f>
+          </x14:formula1>
+          <xm:sqref>A5:A500</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40512366-5312-46CC-93E5-6AC133CF5D59}">
           <x14:formula1>
@@ -9635,12 +9668,6 @@
           </x14:formula1>
           <xm:sqref>L2:L500</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17CAC63D-4026-4E45-B57C-63A4D06AF7A8}">
-          <x14:formula1>
-            <xm:f>'Списки ввода'!$A$2:$A$20</xm:f>
-          </x14:formula1>
-          <xm:sqref>A5:A500</xm:sqref>
-        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>
@@ -9649,22 +9676,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B61B38-8B1E-4FA2-A5CA-08509FE76141}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1328125" customWidth="1"/>
+    <col min="1" max="1" width="36.1640625" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>21</v>
       </c>
@@ -9681,71 +9708,71 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="E5" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
@@ -9754,88 +9781,130 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="C20" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9851,64 +9920,64 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91409B47-9852-A143-B2A1-C654B176FF6D}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="27.46484375" customWidth="1"/>
-    <col min="4" max="4" width="24.796875" customWidth="1"/>
-    <col min="5" max="5" width="25.1328125" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.5" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="60.796875" customWidth="1"/>
+    <col min="8" max="8" width="60.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-    </row>
-    <row r="5" spans="1:8" ht="25.5">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+    </row>
+    <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -9918,330 +9987,349 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.65" thickBot="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8" spans="1:8" ht="25.9" thickBot="1">
-      <c r="A8" s="21" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="29"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+    </row>
+    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="29"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+    </row>
+    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="16" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1">
-      <c r="A9" s="23" t="s">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="32"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="27" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="23"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13" t="s">
+      <c r="B11" s="11"/>
+      <c r="C11" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="15"/>
-    </row>
-    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="13" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="37.049999999999997" customHeight="1">
-      <c r="A14" s="19"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="15"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="15"/>
-    </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="15"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1">
-      <c r="A17" s="19" t="s">
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="15"/>
-    </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="15"/>
-    </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1">
-      <c r="A19" s="19" t="s">
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="15"/>
-    </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="15"/>
-    </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1">
-      <c r="A21" s="19" t="s">
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="13" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="15"/>
-    </row>
-    <row r="22" spans="1:8" ht="26" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="15"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="19" t="s">
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="13" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="15"/>
-    </row>
-    <row r="24" spans="1:8" ht="39" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="15"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="19" t="s">
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="20"/>
-      <c r="C25" s="13" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="15"/>
-    </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1">
-      <c r="A26" s="19"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="15"/>
-    </row>
-    <row r="27" spans="1:8" ht="15" customHeight="1">
-      <c r="A27" s="19" t="s">
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="13" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="15"/>
-    </row>
-    <row r="28" spans="1:8" ht="44" customHeight="1">
-      <c r="A28" s="19"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="15"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="19" t="s">
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16"/>
+    </row>
+    <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="13" t="s">
+      <c r="B29" s="11"/>
+      <c r="C29" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="15"/>
-    </row>
-    <row r="30" spans="1:8" ht="44" customHeight="1" thickBot="1">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="19" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
+    </row>
+    <row r="30" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="18"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="11"/>
+      <c r="C31" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+    </row>
+    <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A6:H7"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:H32"/>
     <mergeCell ref="A29:B30"/>
@@ -10252,25 +10340,6 @@
     <mergeCell ref="C25:H26"/>
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="C27:H28"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="C21:H22"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A6:H7"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/PilotTest.xlsx
+++ b/static/PilotTest.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaychenkoroman/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1769F38-F281-5F4A-B7CE-3FF96C81B317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C729BAF-A6AC-BD44-8F42-6D681AEEA390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="32000" windowHeight="18000" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16480" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PilotTest" sheetId="1" r:id="rId1"/>
-    <sheet name="Списки ввода" sheetId="2" r:id="rId2"/>
+    <sheet name="Списки ввода" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Инструкция" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -1099,17 +1099,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1120,11 +1117,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1150,22 +1156,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1505,7 +1505,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F236E5-94C4-4CE9-B439-5C26C09E2983}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K9" sqref="K9"/>
     </sheetView>
@@ -9920,7 +9920,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91409B47-9852-A143-B2A1-C654B176FF6D}">
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
@@ -9936,46 +9936,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
     </row>
     <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
@@ -9988,348 +9988,329 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="29"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="A6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
     </row>
     <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="30" t="s">
+      <c r="B8" s="22"/>
+      <c r="C8" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="32"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="18"/>
     </row>
     <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="25" t="s">
+      <c r="B9" s="24"/>
+      <c r="C9" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
-      <c r="B10" s="24"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="16"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="16"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="16"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="16"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14" t="s">
+      <c r="B19" s="20"/>
+      <c r="C19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="16"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="16"/>
+      <c r="A20" s="19"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="20"/>
+      <c r="C23" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="16"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="16"/>
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="16"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="16"/>
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="14" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="16"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="16"/>
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="11"/>
-      <c r="C29" s="14" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="16"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="11"/>
-      <c r="C31" s="14" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A3:H4"/>
-    <mergeCell ref="A6:H7"/>
-    <mergeCell ref="C13:H14"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="A15:B16"/>
-    <mergeCell ref="C15:H16"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B10"/>
-    <mergeCell ref="C9:H10"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:H12"/>
-    <mergeCell ref="A13:B14"/>
-    <mergeCell ref="A17:B18"/>
-    <mergeCell ref="A19:B20"/>
-    <mergeCell ref="A21:B22"/>
-    <mergeCell ref="C17:H18"/>
-    <mergeCell ref="C19:H20"/>
-    <mergeCell ref="C21:H22"/>
     <mergeCell ref="A31:B32"/>
     <mergeCell ref="C31:H32"/>
     <mergeCell ref="A29:B30"/>
@@ -10340,6 +10321,25 @@
     <mergeCell ref="C25:H26"/>
     <mergeCell ref="A27:B28"/>
     <mergeCell ref="C27:H28"/>
+    <mergeCell ref="A17:B18"/>
+    <mergeCell ref="A19:B20"/>
+    <mergeCell ref="A21:B22"/>
+    <mergeCell ref="C17:H18"/>
+    <mergeCell ref="C19:H20"/>
+    <mergeCell ref="C21:H22"/>
+    <mergeCell ref="A15:B16"/>
+    <mergeCell ref="C15:H16"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B10"/>
+    <mergeCell ref="C9:H10"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:H12"/>
+    <mergeCell ref="A13:B14"/>
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A3:H4"/>
+    <mergeCell ref="A6:H7"/>
+    <mergeCell ref="C13:H14"/>
+    <mergeCell ref="C8:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/static/PilotTest.xlsx
+++ b/static/PilotTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zaychenkoroman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C935A895-34C6-5646-858A-1EA215BFFF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C89104C1-5E69-4C7B-B510-6FF0B983120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32000" windowHeight="16400" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{7A3F4898-4E9A-4EDD-8C8D-3966BEA169A1}"/>
   </bookViews>
   <sheets>
     <sheet name="PilotTest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>Вид вопроса (один вариант правильного ответа или несколько)</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Ответы (Если множественные ответы: 1,2,3,4,…..)</t>
-  </si>
-  <si>
-    <t>РПП</t>
   </si>
   <si>
     <t>Airplane General</t>
@@ -130,39 +127,6 @@
   </si>
   <si>
     <t>Столбец3</t>
-  </si>
-  <si>
-    <t>Можно ли продолжать заход, если получена информация о сильном сдвиге ветра?</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>Нет</t>
-  </si>
-  <si>
-    <t>На усмотрение КВС</t>
-  </si>
-  <si>
-    <t>Сколько топливных баков у семейства сомолётов Boeing 737NG?</t>
-  </si>
-  <si>
-    <t>Brakes</t>
-  </si>
-  <si>
-    <t>Ground Spoilers</t>
-  </si>
-  <si>
-    <t>Reverse #2</t>
-  </si>
-  <si>
-    <t>Gear Tranfer Unit</t>
-  </si>
-  <si>
-    <t>Autoslats</t>
-  </si>
-  <si>
-    <t>1,3,4,5</t>
   </si>
   <si>
     <t>Тема вопроса (обязательное поле)</t>
@@ -669,9 +633,6 @@
     </r>
   </si>
   <si>
-    <t>От какой гидравлической системы работают Flight Spoilers?</t>
-  </si>
-  <si>
     <t>B737</t>
   </si>
   <si>
@@ -682,18 +643,6 @@
   </si>
   <si>
     <t>A33X</t>
-  </si>
-  <si>
-    <t>System B</t>
-  </si>
-  <si>
-    <t>System A</t>
-  </si>
-  <si>
-    <t>StandBy  System</t>
-  </si>
-  <si>
-    <t>Что из перечисленного питает Sys B?</t>
   </si>
   <si>
     <t>Limitations</t>
@@ -757,7 +706,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1536,69 +1485,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F236E5-94C4-4CE9-B439-5C26C09E2983}">
-  <dimension ref="A1:Q1000"/>
+  <dimension ref="A1:Q995"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="N1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N497" sqref="N497"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="21.6640625" customWidth="1"/>
-    <col min="2" max="2" width="38.5" customWidth="1"/>
+    <col min="2" max="2" width="38.46484375" customWidth="1"/>
     <col min="3" max="3" width="29.33203125" customWidth="1"/>
-    <col min="4" max="4" width="29.5" customWidth="1"/>
-    <col min="5" max="6" width="25.83203125" customWidth="1"/>
-    <col min="7" max="12" width="26.1640625" customWidth="1"/>
-    <col min="13" max="13" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="29.46484375" customWidth="1"/>
+    <col min="5" max="6" width="25.796875" customWidth="1"/>
+    <col min="7" max="12" width="26.1328125" customWidth="1"/>
+    <col min="13" max="13" width="25.1328125" customWidth="1"/>
     <col min="14" max="15" width="24.6640625" customWidth="1"/>
     <col min="16" max="16" width="28.6640625" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="17" max="17" width="15.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="7" customFormat="1" ht="63" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>101</v>
+        <v>84</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="N1" s="5" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>1</v>
@@ -1607,25 +1556,15 @@
         <v>2</v>
       </c>
       <c r="Q1" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
-      </c>
+    <row r="2" spans="1:17">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -1633,136 +1572,70 @@
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
-      <c r="M2" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="M2" s="8"/>
       <c r="N2" s="8"/>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="8">
-        <v>4</v>
-      </c>
-      <c r="D3" s="8">
-        <v>5</v>
-      </c>
-      <c r="E3" s="8">
-        <v>3</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
+      <c r="O2" s="8"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="8"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="8"/>
       <c r="L3" s="8"/>
-      <c r="M3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="8">
-        <v>3</v>
-      </c>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>41</v>
-      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
       <c r="J4" s="8"/>
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>28</v>
-      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
       <c r="O4" s="8"/>
-      <c r="P4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="O5" s="8">
-        <v>2</v>
-      </c>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
       <c r="P5" s="10"/>
-      <c r="Q5" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="8"/>
@@ -1781,7 +1654,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="8"/>
@@ -1800,7 +1673,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="8"/>
@@ -1819,7 +1692,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="8"/>
@@ -1838,7 +1711,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="8"/>
@@ -1857,7 +1730,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="8"/>
@@ -1876,7 +1749,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="8"/>
@@ -1895,7 +1768,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="8"/>
@@ -1914,7 +1787,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="8"/>
@@ -1933,7 +1806,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="8"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="8"/>
@@ -1952,7 +1825,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="8"/>
@@ -1971,7 +1844,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="8"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="8"/>
@@ -1990,7 +1863,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="8"/>
@@ -2009,7 +1882,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="8"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="8"/>
@@ -2028,7 +1901,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="8"/>
@@ -2047,7 +1920,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="8"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="8"/>
@@ -2066,7 +1939,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="8"/>
@@ -2085,7 +1958,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="8"/>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="8"/>
@@ -2104,7 +1977,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="8"/>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="8"/>
@@ -2123,7 +1996,7 @@
       <c r="P24" s="10"/>
       <c r="Q24" s="8"/>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="8"/>
@@ -2142,7 +2015,7 @@
       <c r="P25" s="10"/>
       <c r="Q25" s="8"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="8"/>
@@ -2161,7 +2034,7 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="8"/>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="8"/>
@@ -2180,7 +2053,7 @@
       <c r="P27" s="10"/>
       <c r="Q27" s="8"/>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="8"/>
@@ -2199,7 +2072,7 @@
       <c r="P28" s="10"/>
       <c r="Q28" s="8"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="8"/>
@@ -2218,7 +2091,7 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="8"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="8"/>
@@ -2237,7 +2110,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="8"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="8"/>
@@ -2256,7 +2129,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="8"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="8"/>
@@ -2275,7 +2148,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="8"/>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:17">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="8"/>
@@ -2294,7 +2167,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="8"/>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:17">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="8"/>
@@ -2313,7 +2186,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="8"/>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:17">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="8"/>
@@ -2332,7 +2205,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="8"/>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:17">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="8"/>
@@ -2351,7 +2224,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="8"/>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="8"/>
@@ -2370,7 +2243,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="8"/>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17">
       <c r="A38" s="8"/>
       <c r="B38" s="9"/>
       <c r="C38" s="8"/>
@@ -2389,7 +2262,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="8"/>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17">
       <c r="A39" s="8"/>
       <c r="B39" s="9"/>
       <c r="C39" s="8"/>
@@ -2408,7 +2281,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="8"/>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:17">
       <c r="A40" s="8"/>
       <c r="B40" s="9"/>
       <c r="C40" s="8"/>
@@ -2427,7 +2300,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="8"/>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:17">
       <c r="A41" s="8"/>
       <c r="B41" s="9"/>
       <c r="C41" s="8"/>
@@ -2446,7 +2319,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="8"/>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:17">
       <c r="A42" s="8"/>
       <c r="B42" s="9"/>
       <c r="C42" s="8"/>
@@ -2465,7 +2338,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="8"/>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:17">
       <c r="A43" s="8"/>
       <c r="B43" s="9"/>
       <c r="C43" s="8"/>
@@ -2484,7 +2357,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="8"/>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:17">
       <c r="A44" s="8"/>
       <c r="B44" s="9"/>
       <c r="C44" s="8"/>
@@ -2503,7 +2376,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="8"/>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:17">
       <c r="A45" s="8"/>
       <c r="B45" s="9"/>
       <c r="C45" s="8"/>
@@ -2522,7 +2395,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="8"/>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:17">
       <c r="A46" s="8"/>
       <c r="B46" s="9"/>
       <c r="C46" s="8"/>
@@ -2541,7 +2414,7 @@
       <c r="P46" s="10"/>
       <c r="Q46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:17">
       <c r="A47" s="8"/>
       <c r="B47" s="9"/>
       <c r="C47" s="8"/>
@@ -2560,7 +2433,7 @@
       <c r="P47" s="10"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:17">
       <c r="A48" s="8"/>
       <c r="B48" s="9"/>
       <c r="C48" s="8"/>
@@ -2579,7 +2452,7 @@
       <c r="P48" s="10"/>
       <c r="Q48" s="8"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17">
       <c r="A49" s="8"/>
       <c r="B49" s="9"/>
       <c r="C49" s="8"/>
@@ -2598,7 +2471,7 @@
       <c r="P49" s="10"/>
       <c r="Q49" s="8"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17">
       <c r="A50" s="8"/>
       <c r="B50" s="9"/>
       <c r="C50" s="8"/>
@@ -2617,7 +2490,7 @@
       <c r="P50" s="10"/>
       <c r="Q50" s="8"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17">
       <c r="A51" s="8"/>
       <c r="B51" s="9"/>
       <c r="C51" s="8"/>
@@ -2636,7 +2509,7 @@
       <c r="P51" s="10"/>
       <c r="Q51" s="8"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17">
       <c r="A52" s="8"/>
       <c r="B52" s="9"/>
       <c r="C52" s="8"/>
@@ -2655,7 +2528,7 @@
       <c r="P52" s="10"/>
       <c r="Q52" s="8"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:17">
       <c r="A53" s="8"/>
       <c r="B53" s="9"/>
       <c r="C53" s="8"/>
@@ -2674,7 +2547,7 @@
       <c r="P53" s="10"/>
       <c r="Q53" s="8"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17">
       <c r="A54" s="8"/>
       <c r="B54" s="9"/>
       <c r="C54" s="8"/>
@@ -2693,7 +2566,7 @@
       <c r="P54" s="10"/>
       <c r="Q54" s="8"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:17">
       <c r="A55" s="8"/>
       <c r="B55" s="9"/>
       <c r="C55" s="8"/>
@@ -2712,7 +2585,7 @@
       <c r="P55" s="10"/>
       <c r="Q55" s="8"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17">
       <c r="A56" s="8"/>
       <c r="B56" s="9"/>
       <c r="C56" s="8"/>
@@ -2731,7 +2604,7 @@
       <c r="P56" s="10"/>
       <c r="Q56" s="8"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17">
       <c r="A57" s="8"/>
       <c r="B57" s="9"/>
       <c r="C57" s="8"/>
@@ -2750,7 +2623,7 @@
       <c r="P57" s="10"/>
       <c r="Q57" s="8"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17">
       <c r="A58" s="8"/>
       <c r="B58" s="9"/>
       <c r="C58" s="8"/>
@@ -2769,7 +2642,7 @@
       <c r="P58" s="10"/>
       <c r="Q58" s="8"/>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17">
       <c r="A59" s="8"/>
       <c r="B59" s="9"/>
       <c r="C59" s="8"/>
@@ -2788,7 +2661,7 @@
       <c r="P59" s="10"/>
       <c r="Q59" s="8"/>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17">
       <c r="A60" s="8"/>
       <c r="B60" s="9"/>
       <c r="C60" s="8"/>
@@ -2807,7 +2680,7 @@
       <c r="P60" s="10"/>
       <c r="Q60" s="8"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17">
       <c r="A61" s="8"/>
       <c r="B61" s="9"/>
       <c r="C61" s="8"/>
@@ -2826,7 +2699,7 @@
       <c r="P61" s="10"/>
       <c r="Q61" s="8"/>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17">
       <c r="A62" s="8"/>
       <c r="B62" s="9"/>
       <c r="C62" s="8"/>
@@ -2845,7 +2718,7 @@
       <c r="P62" s="10"/>
       <c r="Q62" s="8"/>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17">
       <c r="A63" s="8"/>
       <c r="B63" s="9"/>
       <c r="C63" s="8"/>
@@ -2864,7 +2737,7 @@
       <c r="P63" s="10"/>
       <c r="Q63" s="8"/>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17">
       <c r="A64" s="8"/>
       <c r="B64" s="9"/>
       <c r="C64" s="8"/>
@@ -2883,7 +2756,7 @@
       <c r="P64" s="10"/>
       <c r="Q64" s="8"/>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17">
       <c r="A65" s="8"/>
       <c r="B65" s="9"/>
       <c r="C65" s="8"/>
@@ -2902,7 +2775,7 @@
       <c r="P65" s="10"/>
       <c r="Q65" s="8"/>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17">
       <c r="A66" s="8"/>
       <c r="B66" s="9"/>
       <c r="C66" s="8"/>
@@ -2921,7 +2794,7 @@
       <c r="P66" s="10"/>
       <c r="Q66" s="8"/>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17">
       <c r="A67" s="8"/>
       <c r="B67" s="9"/>
       <c r="C67" s="8"/>
@@ -2940,7 +2813,7 @@
       <c r="P67" s="10"/>
       <c r="Q67" s="8"/>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17">
       <c r="A68" s="8"/>
       <c r="B68" s="9"/>
       <c r="C68" s="8"/>
@@ -2959,7 +2832,7 @@
       <c r="P68" s="10"/>
       <c r="Q68" s="8"/>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17">
       <c r="A69" s="8"/>
       <c r="B69" s="9"/>
       <c r="C69" s="8"/>
@@ -2978,7 +2851,7 @@
       <c r="P69" s="10"/>
       <c r="Q69" s="8"/>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17">
       <c r="A70" s="8"/>
       <c r="B70" s="9"/>
       <c r="C70" s="8"/>
@@ -2997,7 +2870,7 @@
       <c r="P70" s="10"/>
       <c r="Q70" s="8"/>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17">
       <c r="A71" s="8"/>
       <c r="B71" s="9"/>
       <c r="C71" s="8"/>
@@ -3016,7 +2889,7 @@
       <c r="P71" s="10"/>
       <c r="Q71" s="8"/>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17">
       <c r="A72" s="8"/>
       <c r="B72" s="9"/>
       <c r="C72" s="8"/>
@@ -3035,7 +2908,7 @@
       <c r="P72" s="10"/>
       <c r="Q72" s="8"/>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17">
       <c r="A73" s="8"/>
       <c r="B73" s="9"/>
       <c r="C73" s="8"/>
@@ -3054,7 +2927,7 @@
       <c r="P73" s="10"/>
       <c r="Q73" s="8"/>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17">
       <c r="A74" s="8"/>
       <c r="B74" s="9"/>
       <c r="C74" s="8"/>
@@ -3073,7 +2946,7 @@
       <c r="P74" s="10"/>
       <c r="Q74" s="8"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17">
       <c r="A75" s="8"/>
       <c r="B75" s="9"/>
       <c r="C75" s="8"/>
@@ -3092,7 +2965,7 @@
       <c r="P75" s="10"/>
       <c r="Q75" s="8"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17">
       <c r="A76" s="8"/>
       <c r="B76" s="9"/>
       <c r="C76" s="8"/>
@@ -3111,7 +2984,7 @@
       <c r="P76" s="10"/>
       <c r="Q76" s="8"/>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17">
       <c r="A77" s="8"/>
       <c r="B77" s="9"/>
       <c r="C77" s="8"/>
@@ -3130,7 +3003,7 @@
       <c r="P77" s="10"/>
       <c r="Q77" s="8"/>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17">
       <c r="A78" s="8"/>
       <c r="B78" s="9"/>
       <c r="C78" s="8"/>
@@ -3149,7 +3022,7 @@
       <c r="P78" s="10"/>
       <c r="Q78" s="8"/>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17">
       <c r="A79" s="8"/>
       <c r="B79" s="9"/>
       <c r="C79" s="8"/>
@@ -3168,7 +3041,7 @@
       <c r="P79" s="10"/>
       <c r="Q79" s="8"/>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17">
       <c r="A80" s="8"/>
       <c r="B80" s="9"/>
       <c r="C80" s="8"/>
@@ -3187,7 +3060,7 @@
       <c r="P80" s="10"/>
       <c r="Q80" s="8"/>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17">
       <c r="A81" s="8"/>
       <c r="B81" s="9"/>
       <c r="C81" s="8"/>
@@ -3206,7 +3079,7 @@
       <c r="P81" s="10"/>
       <c r="Q81" s="8"/>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17">
       <c r="A82" s="8"/>
       <c r="B82" s="9"/>
       <c r="C82" s="8"/>
@@ -3225,7 +3098,7 @@
       <c r="P82" s="10"/>
       <c r="Q82" s="8"/>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:17">
       <c r="A83" s="8"/>
       <c r="B83" s="9"/>
       <c r="C83" s="8"/>
@@ -3244,7 +3117,7 @@
       <c r="P83" s="10"/>
       <c r="Q83" s="8"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:17">
       <c r="A84" s="8"/>
       <c r="B84" s="9"/>
       <c r="C84" s="8"/>
@@ -3263,7 +3136,7 @@
       <c r="P84" s="10"/>
       <c r="Q84" s="8"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:17">
       <c r="A85" s="8"/>
       <c r="B85" s="9"/>
       <c r="C85" s="8"/>
@@ -3282,7 +3155,7 @@
       <c r="P85" s="10"/>
       <c r="Q85" s="8"/>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:17">
       <c r="A86" s="8"/>
       <c r="B86" s="9"/>
       <c r="C86" s="8"/>
@@ -3301,7 +3174,7 @@
       <c r="P86" s="10"/>
       <c r="Q86" s="8"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:17">
       <c r="A87" s="8"/>
       <c r="B87" s="9"/>
       <c r="C87" s="8"/>
@@ -3320,7 +3193,7 @@
       <c r="P87" s="10"/>
       <c r="Q87" s="8"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:17">
       <c r="A88" s="8"/>
       <c r="B88" s="9"/>
       <c r="C88" s="8"/>
@@ -3339,7 +3212,7 @@
       <c r="P88" s="10"/>
       <c r="Q88" s="8"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:17">
       <c r="A89" s="8"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
@@ -3358,7 +3231,7 @@
       <c r="P89" s="10"/>
       <c r="Q89" s="8"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:17">
       <c r="A90" s="8"/>
       <c r="B90" s="9"/>
       <c r="C90" s="8"/>
@@ -3377,7 +3250,7 @@
       <c r="P90" s="10"/>
       <c r="Q90" s="8"/>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17">
       <c r="A91" s="8"/>
       <c r="B91" s="9"/>
       <c r="C91" s="8"/>
@@ -3396,7 +3269,7 @@
       <c r="P91" s="10"/>
       <c r="Q91" s="8"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17">
       <c r="A92" s="8"/>
       <c r="B92" s="9"/>
       <c r="C92" s="8"/>
@@ -3415,7 +3288,7 @@
       <c r="P92" s="10"/>
       <c r="Q92" s="8"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17">
       <c r="A93" s="8"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
@@ -3434,7 +3307,7 @@
       <c r="P93" s="10"/>
       <c r="Q93" s="8"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17">
       <c r="A94" s="8"/>
       <c r="B94" s="9"/>
       <c r="C94" s="8"/>
@@ -3453,7 +3326,7 @@
       <c r="P94" s="10"/>
       <c r="Q94" s="8"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17">
       <c r="A95" s="8"/>
       <c r="B95" s="9"/>
       <c r="C95" s="8"/>
@@ -3472,7 +3345,7 @@
       <c r="P95" s="10"/>
       <c r="Q95" s="8"/>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17">
       <c r="A96" s="8"/>
       <c r="B96" s="9"/>
       <c r="C96" s="8"/>
@@ -3491,7 +3364,7 @@
       <c r="P96" s="10"/>
       <c r="Q96" s="8"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17">
       <c r="A97" s="8"/>
       <c r="B97" s="9"/>
       <c r="C97" s="8"/>
@@ -3510,7 +3383,7 @@
       <c r="P97" s="10"/>
       <c r="Q97" s="8"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17">
       <c r="A98" s="8"/>
       <c r="B98" s="9"/>
       <c r="C98" s="8"/>
@@ -3529,7 +3402,7 @@
       <c r="P98" s="10"/>
       <c r="Q98" s="8"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:17">
       <c r="A99" s="8"/>
       <c r="B99" s="9"/>
       <c r="C99" s="8"/>
@@ -3548,7 +3421,7 @@
       <c r="P99" s="10"/>
       <c r="Q99" s="8"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17">
       <c r="A100" s="8"/>
       <c r="B100" s="9"/>
       <c r="C100" s="8"/>
@@ -3567,7 +3440,7 @@
       <c r="P100" s="10"/>
       <c r="Q100" s="8"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17">
       <c r="A101" s="8"/>
       <c r="B101" s="9"/>
       <c r="C101" s="8"/>
@@ -3586,7 +3459,7 @@
       <c r="P101" s="10"/>
       <c r="Q101" s="8"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17">
       <c r="A102" s="8"/>
       <c r="B102" s="9"/>
       <c r="C102" s="8"/>
@@ -3605,7 +3478,7 @@
       <c r="P102" s="10"/>
       <c r="Q102" s="8"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17">
       <c r="A103" s="8"/>
       <c r="B103" s="9"/>
       <c r="C103" s="8"/>
@@ -3624,7 +3497,7 @@
       <c r="P103" s="10"/>
       <c r="Q103" s="8"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17">
       <c r="A104" s="8"/>
       <c r="B104" s="9"/>
       <c r="C104" s="8"/>
@@ -3643,7 +3516,7 @@
       <c r="P104" s="10"/>
       <c r="Q104" s="8"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17">
       <c r="A105" s="8"/>
       <c r="B105" s="9"/>
       <c r="C105" s="8"/>
@@ -3662,7 +3535,7 @@
       <c r="P105" s="10"/>
       <c r="Q105" s="8"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17">
       <c r="A106" s="8"/>
       <c r="B106" s="9"/>
       <c r="C106" s="8"/>
@@ -3681,7 +3554,7 @@
       <c r="P106" s="10"/>
       <c r="Q106" s="8"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17">
       <c r="A107" s="8"/>
       <c r="B107" s="9"/>
       <c r="C107" s="8"/>
@@ -3700,7 +3573,7 @@
       <c r="P107" s="10"/>
       <c r="Q107" s="8"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="8"/>
@@ -3719,7 +3592,7 @@
       <c r="P108" s="10"/>
       <c r="Q108" s="8"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17">
       <c r="A109" s="8"/>
       <c r="B109" s="9"/>
       <c r="C109" s="8"/>
@@ -3738,7 +3611,7 @@
       <c r="P109" s="10"/>
       <c r="Q109" s="8"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17">
       <c r="A110" s="8"/>
       <c r="B110" s="9"/>
       <c r="C110" s="8"/>
@@ -3757,7 +3630,7 @@
       <c r="P110" s="10"/>
       <c r="Q110" s="8"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17">
       <c r="A111" s="8"/>
       <c r="B111" s="9"/>
       <c r="C111" s="8"/>
@@ -3776,7 +3649,7 @@
       <c r="P111" s="10"/>
       <c r="Q111" s="8"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17">
       <c r="A112" s="8"/>
       <c r="B112" s="9"/>
       <c r="C112" s="8"/>
@@ -3795,7 +3668,7 @@
       <c r="P112" s="10"/>
       <c r="Q112" s="8"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17">
       <c r="A113" s="8"/>
       <c r="B113" s="9"/>
       <c r="C113" s="8"/>
@@ -3814,7 +3687,7 @@
       <c r="P113" s="10"/>
       <c r="Q113" s="8"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17">
       <c r="A114" s="8"/>
       <c r="B114" s="9"/>
       <c r="C114" s="8"/>
@@ -3833,7 +3706,7 @@
       <c r="P114" s="10"/>
       <c r="Q114" s="8"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17">
       <c r="A115" s="8"/>
       <c r="B115" s="9"/>
       <c r="C115" s="8"/>
@@ -3852,7 +3725,7 @@
       <c r="P115" s="10"/>
       <c r="Q115" s="8"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17">
       <c r="A116" s="8"/>
       <c r="B116" s="9"/>
       <c r="C116" s="8"/>
@@ -3871,7 +3744,7 @@
       <c r="P116" s="10"/>
       <c r="Q116" s="8"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17">
       <c r="A117" s="8"/>
       <c r="B117" s="9"/>
       <c r="C117" s="8"/>
@@ -3890,7 +3763,7 @@
       <c r="P117" s="10"/>
       <c r="Q117" s="8"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17">
       <c r="A118" s="8"/>
       <c r="B118" s="9"/>
       <c r="C118" s="8"/>
@@ -3909,7 +3782,7 @@
       <c r="P118" s="10"/>
       <c r="Q118" s="8"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17">
       <c r="A119" s="8"/>
       <c r="B119" s="9"/>
       <c r="C119" s="8"/>
@@ -3928,7 +3801,7 @@
       <c r="P119" s="10"/>
       <c r="Q119" s="8"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:17">
       <c r="A120" s="8"/>
       <c r="B120" s="9"/>
       <c r="C120" s="8"/>
@@ -3947,7 +3820,7 @@
       <c r="P120" s="10"/>
       <c r="Q120" s="8"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17">
       <c r="A121" s="8"/>
       <c r="B121" s="9"/>
       <c r="C121" s="8"/>
@@ -3966,7 +3839,7 @@
       <c r="P121" s="10"/>
       <c r="Q121" s="8"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17">
       <c r="A122" s="8"/>
       <c r="B122" s="9"/>
       <c r="C122" s="8"/>
@@ -3985,7 +3858,7 @@
       <c r="P122" s="10"/>
       <c r="Q122" s="8"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17">
       <c r="A123" s="8"/>
       <c r="B123" s="9"/>
       <c r="C123" s="8"/>
@@ -4004,7 +3877,7 @@
       <c r="P123" s="10"/>
       <c r="Q123" s="8"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17">
       <c r="A124" s="8"/>
       <c r="B124" s="9"/>
       <c r="C124" s="8"/>
@@ -4023,7 +3896,7 @@
       <c r="P124" s="10"/>
       <c r="Q124" s="8"/>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:17">
       <c r="A125" s="8"/>
       <c r="B125" s="9"/>
       <c r="C125" s="8"/>
@@ -4042,7 +3915,7 @@
       <c r="P125" s="10"/>
       <c r="Q125" s="8"/>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17">
       <c r="A126" s="8"/>
       <c r="B126" s="9"/>
       <c r="C126" s="8"/>
@@ -4061,7 +3934,7 @@
       <c r="P126" s="10"/>
       <c r="Q126" s="8"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:17">
       <c r="A127" s="8"/>
       <c r="B127" s="9"/>
       <c r="C127" s="8"/>
@@ -4080,7 +3953,7 @@
       <c r="P127" s="10"/>
       <c r="Q127" s="8"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17">
       <c r="A128" s="8"/>
       <c r="B128" s="9"/>
       <c r="C128" s="8"/>
@@ -4099,7 +3972,7 @@
       <c r="P128" s="10"/>
       <c r="Q128" s="8"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:17">
       <c r="A129" s="8"/>
       <c r="B129" s="9"/>
       <c r="C129" s="8"/>
@@ -4118,7 +3991,7 @@
       <c r="P129" s="10"/>
       <c r="Q129" s="8"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:17">
       <c r="A130" s="8"/>
       <c r="B130" s="9"/>
       <c r="C130" s="8"/>
@@ -4137,7 +4010,7 @@
       <c r="P130" s="10"/>
       <c r="Q130" s="8"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:17">
       <c r="A131" s="8"/>
       <c r="B131" s="9"/>
       <c r="C131" s="8"/>
@@ -4156,7 +4029,7 @@
       <c r="P131" s="10"/>
       <c r="Q131" s="8"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:17">
       <c r="A132" s="8"/>
       <c r="B132" s="9"/>
       <c r="C132" s="8"/>
@@ -4175,7 +4048,7 @@
       <c r="P132" s="10"/>
       <c r="Q132" s="8"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:17">
       <c r="A133" s="8"/>
       <c r="B133" s="9"/>
       <c r="C133" s="8"/>
@@ -4194,7 +4067,7 @@
       <c r="P133" s="10"/>
       <c r="Q133" s="8"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:17">
       <c r="A134" s="8"/>
       <c r="B134" s="9"/>
       <c r="C134" s="8"/>
@@ -4213,7 +4086,7 @@
       <c r="P134" s="10"/>
       <c r="Q134" s="8"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:17">
       <c r="A135" s="8"/>
       <c r="B135" s="9"/>
       <c r="C135" s="8"/>
@@ -4232,7 +4105,7 @@
       <c r="P135" s="10"/>
       <c r="Q135" s="8"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:17">
       <c r="A136" s="8"/>
       <c r="B136" s="9"/>
       <c r="C136" s="8"/>
@@ -4251,7 +4124,7 @@
       <c r="P136" s="10"/>
       <c r="Q136" s="8"/>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:17">
       <c r="A137" s="8"/>
       <c r="B137" s="9"/>
       <c r="C137" s="8"/>
@@ -4270,7 +4143,7 @@
       <c r="P137" s="10"/>
       <c r="Q137" s="8"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:17">
       <c r="A138" s="8"/>
       <c r="B138" s="9"/>
       <c r="C138" s="8"/>
@@ -4289,7 +4162,7 @@
       <c r="P138" s="10"/>
       <c r="Q138" s="8"/>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:17">
       <c r="A139" s="8"/>
       <c r="B139" s="9"/>
       <c r="C139" s="8"/>
@@ -4308,7 +4181,7 @@
       <c r="P139" s="10"/>
       <c r="Q139" s="8"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:17">
       <c r="A140" s="8"/>
       <c r="B140" s="9"/>
       <c r="C140" s="8"/>
@@ -4327,7 +4200,7 @@
       <c r="P140" s="10"/>
       <c r="Q140" s="8"/>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:17">
       <c r="A141" s="8"/>
       <c r="B141" s="9"/>
       <c r="C141" s="8"/>
@@ -4346,7 +4219,7 @@
       <c r="P141" s="10"/>
       <c r="Q141" s="8"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:17">
       <c r="A142" s="8"/>
       <c r="B142" s="9"/>
       <c r="C142" s="8"/>
@@ -4365,7 +4238,7 @@
       <c r="P142" s="10"/>
       <c r="Q142" s="8"/>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:17">
       <c r="A143" s="8"/>
       <c r="B143" s="9"/>
       <c r="C143" s="8"/>
@@ -4384,7 +4257,7 @@
       <c r="P143" s="10"/>
       <c r="Q143" s="8"/>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:17">
       <c r="A144" s="8"/>
       <c r="B144" s="9"/>
       <c r="C144" s="8"/>
@@ -4403,7 +4276,7 @@
       <c r="P144" s="10"/>
       <c r="Q144" s="8"/>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:17">
       <c r="A145" s="8"/>
       <c r="B145" s="9"/>
       <c r="C145" s="8"/>
@@ -4422,7 +4295,7 @@
       <c r="P145" s="10"/>
       <c r="Q145" s="8"/>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:17">
       <c r="A146" s="8"/>
       <c r="B146" s="9"/>
       <c r="C146" s="8"/>
@@ -4441,7 +4314,7 @@
       <c r="P146" s="10"/>
       <c r="Q146" s="8"/>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:17">
       <c r="A147" s="8"/>
       <c r="B147" s="9"/>
       <c r="C147" s="8"/>
@@ -4460,7 +4333,7 @@
       <c r="P147" s="10"/>
       <c r="Q147" s="8"/>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:17">
       <c r="A148" s="8"/>
       <c r="B148" s="9"/>
       <c r="C148" s="8"/>
@@ -4479,7 +4352,7 @@
       <c r="P148" s="10"/>
       <c r="Q148" s="8"/>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:17">
       <c r="A149" s="8"/>
       <c r="B149" s="9"/>
       <c r="C149" s="8"/>
@@ -4498,7 +4371,7 @@
       <c r="P149" s="10"/>
       <c r="Q149" s="8"/>
     </row>
-    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:17">
       <c r="A150" s="8"/>
       <c r="B150" s="9"/>
       <c r="C150" s="8"/>
@@ -4517,7 +4390,7 @@
       <c r="P150" s="10"/>
       <c r="Q150" s="8"/>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:17">
       <c r="A151" s="8"/>
       <c r="B151" s="9"/>
       <c r="C151" s="8"/>
@@ -4536,7 +4409,7 @@
       <c r="P151" s="10"/>
       <c r="Q151" s="8"/>
     </row>
-    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:17">
       <c r="A152" s="8"/>
       <c r="B152" s="9"/>
       <c r="C152" s="8"/>
@@ -4555,7 +4428,7 @@
       <c r="P152" s="10"/>
       <c r="Q152" s="8"/>
     </row>
-    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:17">
       <c r="A153" s="8"/>
       <c r="B153" s="9"/>
       <c r="C153" s="8"/>
@@ -4574,7 +4447,7 @@
       <c r="P153" s="10"/>
       <c r="Q153" s="8"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:17">
       <c r="A154" s="8"/>
       <c r="B154" s="9"/>
       <c r="C154" s="8"/>
@@ -4593,7 +4466,7 @@
       <c r="P154" s="10"/>
       <c r="Q154" s="8"/>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:17">
       <c r="A155" s="8"/>
       <c r="B155" s="9"/>
       <c r="C155" s="8"/>
@@ -4612,7 +4485,7 @@
       <c r="P155" s="10"/>
       <c r="Q155" s="8"/>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:17">
       <c r="A156" s="8"/>
       <c r="B156" s="9"/>
       <c r="C156" s="8"/>
@@ -4631,7 +4504,7 @@
       <c r="P156" s="10"/>
       <c r="Q156" s="8"/>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:17">
       <c r="A157" s="8"/>
       <c r="B157" s="9"/>
       <c r="C157" s="8"/>
@@ -4650,7 +4523,7 @@
       <c r="P157" s="10"/>
       <c r="Q157" s="8"/>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:17">
       <c r="A158" s="8"/>
       <c r="B158" s="9"/>
       <c r="C158" s="8"/>
@@ -4669,7 +4542,7 @@
       <c r="P158" s="10"/>
       <c r="Q158" s="8"/>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:17">
       <c r="A159" s="8"/>
       <c r="B159" s="9"/>
       <c r="C159" s="8"/>
@@ -4688,7 +4561,7 @@
       <c r="P159" s="10"/>
       <c r="Q159" s="8"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:17">
       <c r="A160" s="8"/>
       <c r="B160" s="9"/>
       <c r="C160" s="8"/>
@@ -4707,7 +4580,7 @@
       <c r="P160" s="10"/>
       <c r="Q160" s="8"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:17">
       <c r="A161" s="8"/>
       <c r="B161" s="9"/>
       <c r="C161" s="8"/>
@@ -4726,7 +4599,7 @@
       <c r="P161" s="10"/>
       <c r="Q161" s="8"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:17">
       <c r="A162" s="8"/>
       <c r="B162" s="9"/>
       <c r="C162" s="8"/>
@@ -4745,7 +4618,7 @@
       <c r="P162" s="10"/>
       <c r="Q162" s="8"/>
     </row>
-    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:17">
       <c r="A163" s="8"/>
       <c r="B163" s="9"/>
       <c r="C163" s="8"/>
@@ -4764,7 +4637,7 @@
       <c r="P163" s="10"/>
       <c r="Q163" s="8"/>
     </row>
-    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:17">
       <c r="A164" s="8"/>
       <c r="B164" s="9"/>
       <c r="C164" s="8"/>
@@ -4783,7 +4656,7 @@
       <c r="P164" s="10"/>
       <c r="Q164" s="8"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:17">
       <c r="A165" s="8"/>
       <c r="B165" s="9"/>
       <c r="C165" s="8"/>
@@ -4802,7 +4675,7 @@
       <c r="P165" s="10"/>
       <c r="Q165" s="8"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17">
       <c r="A166" s="8"/>
       <c r="B166" s="9"/>
       <c r="C166" s="8"/>
@@ -4821,7 +4694,7 @@
       <c r="P166" s="10"/>
       <c r="Q166" s="8"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:17">
       <c r="A167" s="8"/>
       <c r="B167" s="9"/>
       <c r="C167" s="8"/>
@@ -4840,7 +4713,7 @@
       <c r="P167" s="10"/>
       <c r="Q167" s="8"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:17">
       <c r="A168" s="8"/>
       <c r="B168" s="9"/>
       <c r="C168" s="8"/>
@@ -4859,7 +4732,7 @@
       <c r="P168" s="10"/>
       <c r="Q168" s="8"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:17">
       <c r="A169" s="8"/>
       <c r="B169" s="9"/>
       <c r="C169" s="8"/>
@@ -4878,7 +4751,7 @@
       <c r="P169" s="10"/>
       <c r="Q169" s="8"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17">
       <c r="A170" s="8"/>
       <c r="B170" s="9"/>
       <c r="C170" s="8"/>
@@ -4897,7 +4770,7 @@
       <c r="P170" s="10"/>
       <c r="Q170" s="8"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:17">
       <c r="A171" s="8"/>
       <c r="B171" s="9"/>
       <c r="C171" s="8"/>
@@ -4916,7 +4789,7 @@
       <c r="P171" s="10"/>
       <c r="Q171" s="8"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17">
       <c r="A172" s="8"/>
       <c r="B172" s="9"/>
       <c r="C172" s="8"/>
@@ -4935,7 +4808,7 @@
       <c r="P172" s="10"/>
       <c r="Q172" s="8"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:17">
       <c r="A173" s="8"/>
       <c r="B173" s="9"/>
       <c r="C173" s="8"/>
@@ -4954,7 +4827,7 @@
       <c r="P173" s="10"/>
       <c r="Q173" s="8"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:17">
       <c r="A174" s="8"/>
       <c r="B174" s="9"/>
       <c r="C174" s="8"/>
@@ -4973,7 +4846,7 @@
       <c r="P174" s="10"/>
       <c r="Q174" s="8"/>
     </row>
-    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:17">
       <c r="A175" s="8"/>
       <c r="B175" s="9"/>
       <c r="C175" s="8"/>
@@ -4992,7 +4865,7 @@
       <c r="P175" s="10"/>
       <c r="Q175" s="8"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17">
       <c r="A176" s="8"/>
       <c r="B176" s="9"/>
       <c r="C176" s="8"/>
@@ -5011,7 +4884,7 @@
       <c r="P176" s="10"/>
       <c r="Q176" s="8"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17">
       <c r="A177" s="8"/>
       <c r="B177" s="9"/>
       <c r="C177" s="8"/>
@@ -5030,7 +4903,7 @@
       <c r="P177" s="10"/>
       <c r="Q177" s="8"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17">
       <c r="A178" s="8"/>
       <c r="B178" s="9"/>
       <c r="C178" s="8"/>
@@ -5049,7 +4922,7 @@
       <c r="P178" s="10"/>
       <c r="Q178" s="8"/>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17">
       <c r="A179" s="8"/>
       <c r="B179" s="9"/>
       <c r="C179" s="8"/>
@@ -5068,7 +4941,7 @@
       <c r="P179" s="10"/>
       <c r="Q179" s="8"/>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:17">
       <c r="A180" s="8"/>
       <c r="B180" s="9"/>
       <c r="C180" s="8"/>
@@ -5087,7 +4960,7 @@
       <c r="P180" s="10"/>
       <c r="Q180" s="8"/>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:17">
       <c r="A181" s="8"/>
       <c r="B181" s="9"/>
       <c r="C181" s="8"/>
@@ -5106,7 +4979,7 @@
       <c r="P181" s="10"/>
       <c r="Q181" s="8"/>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17">
       <c r="A182" s="8"/>
       <c r="B182" s="9"/>
       <c r="C182" s="8"/>
@@ -5125,7 +4998,7 @@
       <c r="P182" s="10"/>
       <c r="Q182" s="8"/>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:17">
       <c r="A183" s="8"/>
       <c r="B183" s="9"/>
       <c r="C183" s="8"/>
@@ -5144,7 +5017,7 @@
       <c r="P183" s="10"/>
       <c r="Q183" s="8"/>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:17">
       <c r="A184" s="8"/>
       <c r="B184" s="9"/>
       <c r="C184" s="8"/>
@@ -5163,7 +5036,7 @@
       <c r="P184" s="10"/>
       <c r="Q184" s="8"/>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17">
       <c r="A185" s="8"/>
       <c r="B185" s="9"/>
       <c r="C185" s="8"/>
@@ -5182,7 +5055,7 @@
       <c r="P185" s="10"/>
       <c r="Q185" s="8"/>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:17">
       <c r="A186" s="8"/>
       <c r="B186" s="9"/>
       <c r="C186" s="8"/>
@@ -5201,7 +5074,7 @@
       <c r="P186" s="10"/>
       <c r="Q186" s="8"/>
     </row>
-    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:17">
       <c r="A187" s="8"/>
       <c r="B187" s="9"/>
       <c r="C187" s="8"/>
@@ -5220,7 +5093,7 @@
       <c r="P187" s="10"/>
       <c r="Q187" s="8"/>
     </row>
-    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:17">
       <c r="A188" s="8"/>
       <c r="B188" s="9"/>
       <c r="C188" s="8"/>
@@ -5239,7 +5112,7 @@
       <c r="P188" s="10"/>
       <c r="Q188" s="8"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:17">
       <c r="A189" s="8"/>
       <c r="B189" s="9"/>
       <c r="C189" s="8"/>
@@ -5258,7 +5131,7 @@
       <c r="P189" s="10"/>
       <c r="Q189" s="8"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:17">
       <c r="A190" s="8"/>
       <c r="B190" s="9"/>
       <c r="C190" s="8"/>
@@ -5277,7 +5150,7 @@
       <c r="P190" s="10"/>
       <c r="Q190" s="8"/>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:17">
       <c r="A191" s="8"/>
       <c r="B191" s="9"/>
       <c r="C191" s="8"/>
@@ -5296,7 +5169,7 @@
       <c r="P191" s="10"/>
       <c r="Q191" s="8"/>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:17">
       <c r="A192" s="8"/>
       <c r="B192" s="9"/>
       <c r="C192" s="8"/>
@@ -5315,7 +5188,7 @@
       <c r="P192" s="10"/>
       <c r="Q192" s="8"/>
     </row>
-    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:17">
       <c r="A193" s="8"/>
       <c r="B193" s="9"/>
       <c r="C193" s="8"/>
@@ -5334,7 +5207,7 @@
       <c r="P193" s="10"/>
       <c r="Q193" s="8"/>
     </row>
-    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:17">
       <c r="A194" s="8"/>
       <c r="B194" s="9"/>
       <c r="C194" s="8"/>
@@ -5353,7 +5226,7 @@
       <c r="P194" s="10"/>
       <c r="Q194" s="8"/>
     </row>
-    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:17">
       <c r="A195" s="8"/>
       <c r="B195" s="9"/>
       <c r="C195" s="8"/>
@@ -5372,7 +5245,7 @@
       <c r="P195" s="10"/>
       <c r="Q195" s="8"/>
     </row>
-    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:17">
       <c r="A196" s="8"/>
       <c r="B196" s="9"/>
       <c r="C196" s="8"/>
@@ -5391,7 +5264,7 @@
       <c r="P196" s="10"/>
       <c r="Q196" s="8"/>
     </row>
-    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:17">
       <c r="A197" s="8"/>
       <c r="B197" s="9"/>
       <c r="C197" s="8"/>
@@ -5410,7 +5283,7 @@
       <c r="P197" s="10"/>
       <c r="Q197" s="8"/>
     </row>
-    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:17">
       <c r="A198" s="8"/>
       <c r="B198" s="9"/>
       <c r="C198" s="8"/>
@@ -5429,7 +5302,7 @@
       <c r="P198" s="10"/>
       <c r="Q198" s="8"/>
     </row>
-    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:17">
       <c r="A199" s="8"/>
       <c r="B199" s="9"/>
       <c r="C199" s="8"/>
@@ -5448,7 +5321,7 @@
       <c r="P199" s="10"/>
       <c r="Q199" s="8"/>
     </row>
-    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:17">
       <c r="A200" s="8"/>
       <c r="B200" s="9"/>
       <c r="C200" s="8"/>
@@ -5467,7 +5340,7 @@
       <c r="P200" s="10"/>
       <c r="Q200" s="8"/>
     </row>
-    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:17">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="8"/>
@@ -5486,7 +5359,7 @@
       <c r="P201" s="10"/>
       <c r="Q201" s="8"/>
     </row>
-    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:17">
       <c r="A202" s="8"/>
       <c r="B202" s="9"/>
       <c r="C202" s="8"/>
@@ -5505,7 +5378,7 @@
       <c r="P202" s="10"/>
       <c r="Q202" s="8"/>
     </row>
-    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:17">
       <c r="A203" s="8"/>
       <c r="B203" s="9"/>
       <c r="C203" s="8"/>
@@ -5524,7 +5397,7 @@
       <c r="P203" s="10"/>
       <c r="Q203" s="8"/>
     </row>
-    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:17">
       <c r="A204" s="8"/>
       <c r="B204" s="9"/>
       <c r="C204" s="8"/>
@@ -5543,7 +5416,7 @@
       <c r="P204" s="10"/>
       <c r="Q204" s="8"/>
     </row>
-    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:17">
       <c r="A205" s="8"/>
       <c r="B205" s="9"/>
       <c r="C205" s="8"/>
@@ -5562,7 +5435,7 @@
       <c r="P205" s="10"/>
       <c r="Q205" s="8"/>
     </row>
-    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:17">
       <c r="A206" s="8"/>
       <c r="B206" s="9"/>
       <c r="C206" s="8"/>
@@ -5581,7 +5454,7 @@
       <c r="P206" s="10"/>
       <c r="Q206" s="8"/>
     </row>
-    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:17">
       <c r="A207" s="8"/>
       <c r="B207" s="9"/>
       <c r="C207" s="8"/>
@@ -5600,7 +5473,7 @@
       <c r="P207" s="10"/>
       <c r="Q207" s="8"/>
     </row>
-    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:17">
       <c r="A208" s="8"/>
       <c r="B208" s="9"/>
       <c r="C208" s="8"/>
@@ -5619,7 +5492,7 @@
       <c r="P208" s="10"/>
       <c r="Q208" s="8"/>
     </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:17">
       <c r="A209" s="8"/>
       <c r="B209" s="9"/>
       <c r="C209" s="8"/>
@@ -5638,7 +5511,7 @@
       <c r="P209" s="10"/>
       <c r="Q209" s="8"/>
     </row>
-    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:17">
       <c r="A210" s="8"/>
       <c r="B210" s="9"/>
       <c r="C210" s="8"/>
@@ -5657,7 +5530,7 @@
       <c r="P210" s="10"/>
       <c r="Q210" s="8"/>
     </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:17">
       <c r="A211" s="8"/>
       <c r="B211" s="9"/>
       <c r="C211" s="8"/>
@@ -5676,7 +5549,7 @@
       <c r="P211" s="10"/>
       <c r="Q211" s="8"/>
     </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:17">
       <c r="A212" s="8"/>
       <c r="B212" s="9"/>
       <c r="C212" s="8"/>
@@ -5695,7 +5568,7 @@
       <c r="P212" s="10"/>
       <c r="Q212" s="8"/>
     </row>
-    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:17">
       <c r="A213" s="8"/>
       <c r="B213" s="9"/>
       <c r="C213" s="8"/>
@@ -5714,7 +5587,7 @@
       <c r="P213" s="10"/>
       <c r="Q213" s="8"/>
     </row>
-    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:17">
       <c r="A214" s="8"/>
       <c r="B214" s="9"/>
       <c r="C214" s="8"/>
@@ -5733,7 +5606,7 @@
       <c r="P214" s="10"/>
       <c r="Q214" s="8"/>
     </row>
-    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:17">
       <c r="A215" s="8"/>
       <c r="B215" s="9"/>
       <c r="C215" s="8"/>
@@ -5752,7 +5625,7 @@
       <c r="P215" s="10"/>
       <c r="Q215" s="8"/>
     </row>
-    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:17">
       <c r="A216" s="8"/>
       <c r="B216" s="9"/>
       <c r="C216" s="8"/>
@@ -5771,7 +5644,7 @@
       <c r="P216" s="10"/>
       <c r="Q216" s="8"/>
     </row>
-    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:17">
       <c r="A217" s="8"/>
       <c r="B217" s="9"/>
       <c r="C217" s="8"/>
@@ -5790,7 +5663,7 @@
       <c r="P217" s="10"/>
       <c r="Q217" s="8"/>
     </row>
-    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:17">
       <c r="A218" s="8"/>
       <c r="B218" s="9"/>
       <c r="C218" s="8"/>
@@ -5809,7 +5682,7 @@
       <c r="P218" s="10"/>
       <c r="Q218" s="8"/>
     </row>
-    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:17">
       <c r="A219" s="8"/>
       <c r="B219" s="9"/>
       <c r="C219" s="8"/>
@@ -5828,7 +5701,7 @@
       <c r="P219" s="10"/>
       <c r="Q219" s="8"/>
     </row>
-    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:17">
       <c r="A220" s="8"/>
       <c r="B220" s="9"/>
       <c r="C220" s="8"/>
@@ -5847,7 +5720,7 @@
       <c r="P220" s="10"/>
       <c r="Q220" s="8"/>
     </row>
-    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:17">
       <c r="A221" s="8"/>
       <c r="B221" s="9"/>
       <c r="C221" s="8"/>
@@ -5866,7 +5739,7 @@
       <c r="P221" s="10"/>
       <c r="Q221" s="8"/>
     </row>
-    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:17">
       <c r="A222" s="8"/>
       <c r="B222" s="9"/>
       <c r="C222" s="8"/>
@@ -5885,7 +5758,7 @@
       <c r="P222" s="10"/>
       <c r="Q222" s="8"/>
     </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:17">
       <c r="A223" s="8"/>
       <c r="B223" s="9"/>
       <c r="C223" s="8"/>
@@ -5904,7 +5777,7 @@
       <c r="P223" s="10"/>
       <c r="Q223" s="8"/>
     </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:17">
       <c r="A224" s="8"/>
       <c r="B224" s="9"/>
       <c r="C224" s="8"/>
@@ -5923,7 +5796,7 @@
       <c r="P224" s="10"/>
       <c r="Q224" s="8"/>
     </row>
-    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:17">
       <c r="A225" s="8"/>
       <c r="B225" s="9"/>
       <c r="C225" s="8"/>
@@ -5942,7 +5815,7 @@
       <c r="P225" s="10"/>
       <c r="Q225" s="8"/>
     </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:17">
       <c r="A226" s="8"/>
       <c r="B226" s="9"/>
       <c r="C226" s="8"/>
@@ -5961,7 +5834,7 @@
       <c r="P226" s="10"/>
       <c r="Q226" s="8"/>
     </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:17">
       <c r="A227" s="8"/>
       <c r="B227" s="9"/>
       <c r="C227" s="8"/>
@@ -5980,7 +5853,7 @@
       <c r="P227" s="10"/>
       <c r="Q227" s="8"/>
     </row>
-    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:17">
       <c r="A228" s="8"/>
       <c r="B228" s="9"/>
       <c r="C228" s="8"/>
@@ -5999,7 +5872,7 @@
       <c r="P228" s="10"/>
       <c r="Q228" s="8"/>
     </row>
-    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:17">
       <c r="A229" s="8"/>
       <c r="B229" s="9"/>
       <c r="C229" s="8"/>
@@ -6018,7 +5891,7 @@
       <c r="P229" s="10"/>
       <c r="Q229" s="8"/>
     </row>
-    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:17">
       <c r="A230" s="8"/>
       <c r="B230" s="9"/>
       <c r="C230" s="8"/>
@@ -6037,7 +5910,7 @@
       <c r="P230" s="10"/>
       <c r="Q230" s="8"/>
     </row>
-    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:17">
       <c r="A231" s="8"/>
       <c r="B231" s="9"/>
       <c r="C231" s="8"/>
@@ -6056,7 +5929,7 @@
       <c r="P231" s="10"/>
       <c r="Q231" s="8"/>
     </row>
-    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:17">
       <c r="A232" s="8"/>
       <c r="B232" s="9"/>
       <c r="C232" s="8"/>
@@ -6075,7 +5948,7 @@
       <c r="P232" s="10"/>
       <c r="Q232" s="8"/>
     </row>
-    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:17">
       <c r="A233" s="8"/>
       <c r="B233" s="9"/>
       <c r="C233" s="8"/>
@@ -6094,7 +5967,7 @@
       <c r="P233" s="10"/>
       <c r="Q233" s="8"/>
     </row>
-    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:17">
       <c r="A234" s="8"/>
       <c r="B234" s="9"/>
       <c r="C234" s="8"/>
@@ -6113,7 +5986,7 @@
       <c r="P234" s="10"/>
       <c r="Q234" s="8"/>
     </row>
-    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:17">
       <c r="A235" s="8"/>
       <c r="B235" s="9"/>
       <c r="C235" s="8"/>
@@ -6132,7 +6005,7 @@
       <c r="P235" s="10"/>
       <c r="Q235" s="8"/>
     </row>
-    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:17">
       <c r="A236" s="8"/>
       <c r="B236" s="9"/>
       <c r="C236" s="8"/>
@@ -6151,7 +6024,7 @@
       <c r="P236" s="10"/>
       <c r="Q236" s="8"/>
     </row>
-    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:17">
       <c r="A237" s="8"/>
       <c r="B237" s="9"/>
       <c r="C237" s="8"/>
@@ -6170,7 +6043,7 @@
       <c r="P237" s="10"/>
       <c r="Q237" s="8"/>
     </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:17">
       <c r="A238" s="8"/>
       <c r="B238" s="9"/>
       <c r="C238" s="8"/>
@@ -6189,7 +6062,7 @@
       <c r="P238" s="10"/>
       <c r="Q238" s="8"/>
     </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:17">
       <c r="A239" s="8"/>
       <c r="B239" s="9"/>
       <c r="C239" s="8"/>
@@ -6208,7 +6081,7 @@
       <c r="P239" s="10"/>
       <c r="Q239" s="8"/>
     </row>
-    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:17">
       <c r="A240" s="8"/>
       <c r="B240" s="9"/>
       <c r="C240" s="8"/>
@@ -6227,7 +6100,7 @@
       <c r="P240" s="10"/>
       <c r="Q240" s="8"/>
     </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:17">
       <c r="A241" s="8"/>
       <c r="B241" s="9"/>
       <c r="C241" s="8"/>
@@ -6246,7 +6119,7 @@
       <c r="P241" s="10"/>
       <c r="Q241" s="8"/>
     </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:17">
       <c r="A242" s="8"/>
       <c r="B242" s="9"/>
       <c r="C242" s="8"/>
@@ -6265,7 +6138,7 @@
       <c r="P242" s="10"/>
       <c r="Q242" s="8"/>
     </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:17">
       <c r="A243" s="8"/>
       <c r="B243" s="9"/>
       <c r="C243" s="8"/>
@@ -6284,7 +6157,7 @@
       <c r="P243" s="10"/>
       <c r="Q243" s="8"/>
     </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:17">
       <c r="A244" s="8"/>
       <c r="B244" s="9"/>
       <c r="C244" s="8"/>
@@ -6303,7 +6176,7 @@
       <c r="P244" s="10"/>
       <c r="Q244" s="8"/>
     </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:17">
       <c r="A245" s="8"/>
       <c r="B245" s="9"/>
       <c r="C245" s="8"/>
@@ -6322,7 +6195,7 @@
       <c r="P245" s="10"/>
       <c r="Q245" s="8"/>
     </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:17">
       <c r="A246" s="8"/>
       <c r="B246" s="9"/>
       <c r="C246" s="8"/>
@@ -6341,7 +6214,7 @@
       <c r="P246" s="10"/>
       <c r="Q246" s="8"/>
     </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:17">
       <c r="A247" s="8"/>
       <c r="B247" s="9"/>
       <c r="C247" s="8"/>
@@ -6360,7 +6233,7 @@
       <c r="P247" s="10"/>
       <c r="Q247" s="8"/>
     </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:17">
       <c r="A248" s="8"/>
       <c r="B248" s="9"/>
       <c r="C248" s="8"/>
@@ -6379,7 +6252,7 @@
       <c r="P248" s="10"/>
       <c r="Q248" s="8"/>
     </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:17">
       <c r="A249" s="8"/>
       <c r="B249" s="9"/>
       <c r="C249" s="8"/>
@@ -6398,7 +6271,7 @@
       <c r="P249" s="10"/>
       <c r="Q249" s="8"/>
     </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:17">
       <c r="A250" s="8"/>
       <c r="B250" s="9"/>
       <c r="C250" s="8"/>
@@ -6417,7 +6290,7 @@
       <c r="P250" s="10"/>
       <c r="Q250" s="8"/>
     </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:17">
       <c r="A251" s="8"/>
       <c r="B251" s="9"/>
       <c r="C251" s="8"/>
@@ -6436,7 +6309,7 @@
       <c r="P251" s="10"/>
       <c r="Q251" s="8"/>
     </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:17">
       <c r="A252" s="8"/>
       <c r="B252" s="9"/>
       <c r="C252" s="8"/>
@@ -6455,7 +6328,7 @@
       <c r="P252" s="10"/>
       <c r="Q252" s="8"/>
     </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:17">
       <c r="A253" s="8"/>
       <c r="B253" s="9"/>
       <c r="C253" s="8"/>
@@ -6474,7 +6347,7 @@
       <c r="P253" s="10"/>
       <c r="Q253" s="8"/>
     </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:17">
       <c r="A254" s="8"/>
       <c r="B254" s="9"/>
       <c r="C254" s="8"/>
@@ -6493,7 +6366,7 @@
       <c r="P254" s="10"/>
       <c r="Q254" s="8"/>
     </row>
-    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:17">
       <c r="A255" s="8"/>
       <c r="B255" s="9"/>
       <c r="C255" s="8"/>
@@ -6512,7 +6385,7 @@
       <c r="P255" s="10"/>
       <c r="Q255" s="8"/>
     </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:17">
       <c r="A256" s="8"/>
       <c r="B256" s="9"/>
       <c r="C256" s="8"/>
@@ -6531,7 +6404,7 @@
       <c r="P256" s="10"/>
       <c r="Q256" s="8"/>
     </row>
-    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:17">
       <c r="A257" s="8"/>
       <c r="B257" s="9"/>
       <c r="C257" s="8"/>
@@ -6550,7 +6423,7 @@
       <c r="P257" s="10"/>
       <c r="Q257" s="8"/>
     </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:17">
       <c r="A258" s="8"/>
       <c r="B258" s="9"/>
       <c r="C258" s="8"/>
@@ -6569,7 +6442,7 @@
       <c r="P258" s="10"/>
       <c r="Q258" s="8"/>
     </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:17">
       <c r="A259" s="8"/>
       <c r="B259" s="9"/>
       <c r="C259" s="8"/>
@@ -6588,7 +6461,7 @@
       <c r="P259" s="10"/>
       <c r="Q259" s="8"/>
     </row>
-    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:17">
       <c r="A260" s="8"/>
       <c r="B260" s="9"/>
       <c r="C260" s="8"/>
@@ -6607,7 +6480,7 @@
       <c r="P260" s="10"/>
       <c r="Q260" s="8"/>
     </row>
-    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:17">
       <c r="A261" s="8"/>
       <c r="B261" s="9"/>
       <c r="C261" s="8"/>
@@ -6626,7 +6499,7 @@
       <c r="P261" s="10"/>
       <c r="Q261" s="8"/>
     </row>
-    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:17">
       <c r="A262" s="8"/>
       <c r="B262" s="9"/>
       <c r="C262" s="8"/>
@@ -6645,7 +6518,7 @@
       <c r="P262" s="10"/>
       <c r="Q262" s="8"/>
     </row>
-    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:17">
       <c r="A263" s="8"/>
       <c r="B263" s="9"/>
       <c r="C263" s="8"/>
@@ -6664,7 +6537,7 @@
       <c r="P263" s="10"/>
       <c r="Q263" s="8"/>
     </row>
-    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:17">
       <c r="A264" s="8"/>
       <c r="B264" s="9"/>
       <c r="C264" s="8"/>
@@ -6683,7 +6556,7 @@
       <c r="P264" s="10"/>
       <c r="Q264" s="8"/>
     </row>
-    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:17">
       <c r="A265" s="8"/>
       <c r="B265" s="9"/>
       <c r="C265" s="8"/>
@@ -6702,7 +6575,7 @@
       <c r="P265" s="10"/>
       <c r="Q265" s="8"/>
     </row>
-    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:17">
       <c r="A266" s="8"/>
       <c r="B266" s="9"/>
       <c r="C266" s="8"/>
@@ -6721,7 +6594,7 @@
       <c r="P266" s="10"/>
       <c r="Q266" s="8"/>
     </row>
-    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:17">
       <c r="A267" s="8"/>
       <c r="B267" s="9"/>
       <c r="C267" s="8"/>
@@ -6740,7 +6613,7 @@
       <c r="P267" s="10"/>
       <c r="Q267" s="8"/>
     </row>
-    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:17">
       <c r="A268" s="8"/>
       <c r="B268" s="9"/>
       <c r="C268" s="8"/>
@@ -6759,7 +6632,7 @@
       <c r="P268" s="10"/>
       <c r="Q268" s="8"/>
     </row>
-    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:17">
       <c r="A269" s="8"/>
       <c r="B269" s="9"/>
       <c r="C269" s="8"/>
@@ -6778,7 +6651,7 @@
       <c r="P269" s="10"/>
       <c r="Q269" s="8"/>
     </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:17">
       <c r="A270" s="8"/>
       <c r="B270" s="9"/>
       <c r="C270" s="8"/>
@@ -6797,7 +6670,7 @@
       <c r="P270" s="10"/>
       <c r="Q270" s="8"/>
     </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:17">
       <c r="A271" s="8"/>
       <c r="B271" s="9"/>
       <c r="C271" s="8"/>
@@ -6816,7 +6689,7 @@
       <c r="P271" s="10"/>
       <c r="Q271" s="8"/>
     </row>
-    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:17">
       <c r="A272" s="8"/>
       <c r="B272" s="9"/>
       <c r="C272" s="8"/>
@@ -6835,7 +6708,7 @@
       <c r="P272" s="10"/>
       <c r="Q272" s="8"/>
     </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:17">
       <c r="A273" s="8"/>
       <c r="B273" s="9"/>
       <c r="C273" s="8"/>
@@ -6854,7 +6727,7 @@
       <c r="P273" s="10"/>
       <c r="Q273" s="8"/>
     </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:17">
       <c r="A274" s="8"/>
       <c r="B274" s="9"/>
       <c r="C274" s="8"/>
@@ -6873,7 +6746,7 @@
       <c r="P274" s="10"/>
       <c r="Q274" s="8"/>
     </row>
-    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:17">
       <c r="A275" s="8"/>
       <c r="B275" s="9"/>
       <c r="C275" s="8"/>
@@ -6892,7 +6765,7 @@
       <c r="P275" s="10"/>
       <c r="Q275" s="8"/>
     </row>
-    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:17">
       <c r="A276" s="8"/>
       <c r="B276" s="9"/>
       <c r="C276" s="8"/>
@@ -6911,7 +6784,7 @@
       <c r="P276" s="10"/>
       <c r="Q276" s="8"/>
     </row>
-    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:17">
       <c r="A277" s="8"/>
       <c r="B277" s="9"/>
       <c r="C277" s="8"/>
@@ -6930,7 +6803,7 @@
       <c r="P277" s="10"/>
       <c r="Q277" s="8"/>
     </row>
-    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:17">
       <c r="A278" s="8"/>
       <c r="B278" s="9"/>
       <c r="C278" s="8"/>
@@ -6949,7 +6822,7 @@
       <c r="P278" s="10"/>
       <c r="Q278" s="8"/>
     </row>
-    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:17">
       <c r="A279" s="8"/>
       <c r="B279" s="9"/>
       <c r="C279" s="8"/>
@@ -6968,7 +6841,7 @@
       <c r="P279" s="10"/>
       <c r="Q279" s="8"/>
     </row>
-    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:17">
       <c r="A280" s="8"/>
       <c r="B280" s="9"/>
       <c r="C280" s="8"/>
@@ -6987,7 +6860,7 @@
       <c r="P280" s="10"/>
       <c r="Q280" s="8"/>
     </row>
-    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:17">
       <c r="A281" s="8"/>
       <c r="B281" s="9"/>
       <c r="C281" s="8"/>
@@ -7006,7 +6879,7 @@
       <c r="P281" s="10"/>
       <c r="Q281" s="8"/>
     </row>
-    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:17">
       <c r="A282" s="8"/>
       <c r="B282" s="9"/>
       <c r="C282" s="8"/>
@@ -7025,7 +6898,7 @@
       <c r="P282" s="10"/>
       <c r="Q282" s="8"/>
     </row>
-    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:17">
       <c r="A283" s="8"/>
       <c r="B283" s="9"/>
       <c r="C283" s="8"/>
@@ -7044,7 +6917,7 @@
       <c r="P283" s="10"/>
       <c r="Q283" s="8"/>
     </row>
-    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:17">
       <c r="A284" s="8"/>
       <c r="B284" s="9"/>
       <c r="C284" s="8"/>
@@ -7063,7 +6936,7 @@
       <c r="P284" s="10"/>
       <c r="Q284" s="8"/>
     </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:17">
       <c r="A285" s="8"/>
       <c r="B285" s="9"/>
       <c r="C285" s="8"/>
@@ -7082,7 +6955,7 @@
       <c r="P285" s="10"/>
       <c r="Q285" s="8"/>
     </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:17">
       <c r="A286" s="8"/>
       <c r="B286" s="9"/>
       <c r="C286" s="8"/>
@@ -7101,7 +6974,7 @@
       <c r="P286" s="10"/>
       <c r="Q286" s="8"/>
     </row>
-    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:17">
       <c r="A287" s="8"/>
       <c r="B287" s="9"/>
       <c r="C287" s="8"/>
@@ -7120,7 +6993,7 @@
       <c r="P287" s="10"/>
       <c r="Q287" s="8"/>
     </row>
-    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:17">
       <c r="A288" s="8"/>
       <c r="B288" s="9"/>
       <c r="C288" s="8"/>
@@ -7139,7 +7012,7 @@
       <c r="P288" s="10"/>
       <c r="Q288" s="8"/>
     </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:17">
       <c r="A289" s="8"/>
       <c r="B289" s="9"/>
       <c r="C289" s="8"/>
@@ -7158,7 +7031,7 @@
       <c r="P289" s="10"/>
       <c r="Q289" s="8"/>
     </row>
-    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:17">
       <c r="A290" s="8"/>
       <c r="B290" s="9"/>
       <c r="C290" s="8"/>
@@ -7177,7 +7050,7 @@
       <c r="P290" s="10"/>
       <c r="Q290" s="8"/>
     </row>
-    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:17">
       <c r="A291" s="8"/>
       <c r="B291" s="9"/>
       <c r="C291" s="8"/>
@@ -7196,7 +7069,7 @@
       <c r="P291" s="10"/>
       <c r="Q291" s="8"/>
     </row>
-    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:17">
       <c r="A292" s="8"/>
       <c r="B292" s="9"/>
       <c r="C292" s="8"/>
@@ -7215,7 +7088,7 @@
       <c r="P292" s="10"/>
       <c r="Q292" s="8"/>
     </row>
-    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:17">
       <c r="A293" s="8"/>
       <c r="B293" s="9"/>
       <c r="C293" s="8"/>
@@ -7234,7 +7107,7 @@
       <c r="P293" s="10"/>
       <c r="Q293" s="8"/>
     </row>
-    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:17">
       <c r="A294" s="8"/>
       <c r="B294" s="9"/>
       <c r="C294" s="8"/>
@@ -7253,7 +7126,7 @@
       <c r="P294" s="10"/>
       <c r="Q294" s="8"/>
     </row>
-    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:17">
       <c r="A295" s="8"/>
       <c r="B295" s="9"/>
       <c r="C295" s="8"/>
@@ -7272,7 +7145,7 @@
       <c r="P295" s="10"/>
       <c r="Q295" s="8"/>
     </row>
-    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:17">
       <c r="A296" s="8"/>
       <c r="B296" s="9"/>
       <c r="C296" s="8"/>
@@ -7291,7 +7164,7 @@
       <c r="P296" s="10"/>
       <c r="Q296" s="8"/>
     </row>
-    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:17">
       <c r="A297" s="8"/>
       <c r="B297" s="9"/>
       <c r="C297" s="8"/>
@@ -7310,7 +7183,7 @@
       <c r="P297" s="10"/>
       <c r="Q297" s="8"/>
     </row>
-    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:17">
       <c r="A298" s="8"/>
       <c r="B298" s="9"/>
       <c r="C298" s="8"/>
@@ -7329,7 +7202,7 @@
       <c r="P298" s="10"/>
       <c r="Q298" s="8"/>
     </row>
-    <row r="299" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:17">
       <c r="A299" s="8"/>
       <c r="B299" s="9"/>
       <c r="C299" s="8"/>
@@ -7348,7 +7221,7 @@
       <c r="P299" s="10"/>
       <c r="Q299" s="8"/>
     </row>
-    <row r="300" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:17">
       <c r="A300" s="8"/>
       <c r="B300" s="9"/>
       <c r="C300" s="8"/>
@@ -7367,7 +7240,7 @@
       <c r="P300" s="10"/>
       <c r="Q300" s="8"/>
     </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:17">
       <c r="A301" s="8"/>
       <c r="B301" s="9"/>
       <c r="C301" s="8"/>
@@ -7386,7 +7259,7 @@
       <c r="P301" s="10"/>
       <c r="Q301" s="8"/>
     </row>
-    <row r="302" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:17">
       <c r="A302" s="8"/>
       <c r="B302" s="9"/>
       <c r="C302" s="8"/>
@@ -7405,7 +7278,7 @@
       <c r="P302" s="10"/>
       <c r="Q302" s="8"/>
     </row>
-    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:17">
       <c r="A303" s="8"/>
       <c r="B303" s="9"/>
       <c r="C303" s="8"/>
@@ -7424,7 +7297,7 @@
       <c r="P303" s="10"/>
       <c r="Q303" s="8"/>
     </row>
-    <row r="304" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:17">
       <c r="A304" s="8"/>
       <c r="B304" s="9"/>
       <c r="C304" s="8"/>
@@ -7443,7 +7316,7 @@
       <c r="P304" s="10"/>
       <c r="Q304" s="8"/>
     </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:17">
       <c r="A305" s="8"/>
       <c r="B305" s="9"/>
       <c r="C305" s="8"/>
@@ -7462,7 +7335,7 @@
       <c r="P305" s="10"/>
       <c r="Q305" s="8"/>
     </row>
-    <row r="306" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:17">
       <c r="A306" s="8"/>
       <c r="B306" s="9"/>
       <c r="C306" s="8"/>
@@ -7481,7 +7354,7 @@
       <c r="P306" s="10"/>
       <c r="Q306" s="8"/>
     </row>
-    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:17">
       <c r="A307" s="8"/>
       <c r="B307" s="9"/>
       <c r="C307" s="8"/>
@@ -7500,7 +7373,7 @@
       <c r="P307" s="10"/>
       <c r="Q307" s="8"/>
     </row>
-    <row r="308" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:17">
       <c r="A308" s="8"/>
       <c r="B308" s="9"/>
       <c r="C308" s="8"/>
@@ -7519,7 +7392,7 @@
       <c r="P308" s="10"/>
       <c r="Q308" s="8"/>
     </row>
-    <row r="309" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:17">
       <c r="A309" s="8"/>
       <c r="B309" s="9"/>
       <c r="C309" s="8"/>
@@ -7538,7 +7411,7 @@
       <c r="P309" s="10"/>
       <c r="Q309" s="8"/>
     </row>
-    <row r="310" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:17">
       <c r="A310" s="8"/>
       <c r="B310" s="9"/>
       <c r="C310" s="8"/>
@@ -7557,7 +7430,7 @@
       <c r="P310" s="10"/>
       <c r="Q310" s="8"/>
     </row>
-    <row r="311" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:17">
       <c r="A311" s="8"/>
       <c r="B311" s="9"/>
       <c r="C311" s="8"/>
@@ -7576,7 +7449,7 @@
       <c r="P311" s="10"/>
       <c r="Q311" s="8"/>
     </row>
-    <row r="312" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:17">
       <c r="A312" s="8"/>
       <c r="B312" s="9"/>
       <c r="C312" s="8"/>
@@ -7595,7 +7468,7 @@
       <c r="P312" s="10"/>
       <c r="Q312" s="8"/>
     </row>
-    <row r="313" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:17">
       <c r="A313" s="8"/>
       <c r="B313" s="9"/>
       <c r="C313" s="8"/>
@@ -7614,7 +7487,7 @@
       <c r="P313" s="10"/>
       <c r="Q313" s="8"/>
     </row>
-    <row r="314" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:17">
       <c r="A314" s="8"/>
       <c r="B314" s="9"/>
       <c r="C314" s="8"/>
@@ -7633,7 +7506,7 @@
       <c r="P314" s="10"/>
       <c r="Q314" s="8"/>
     </row>
-    <row r="315" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:17">
       <c r="A315" s="8"/>
       <c r="B315" s="9"/>
       <c r="C315" s="8"/>
@@ -7652,7 +7525,7 @@
       <c r="P315" s="10"/>
       <c r="Q315" s="8"/>
     </row>
-    <row r="316" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:17">
       <c r="A316" s="8"/>
       <c r="B316" s="9"/>
       <c r="C316" s="8"/>
@@ -7671,7 +7544,7 @@
       <c r="P316" s="10"/>
       <c r="Q316" s="8"/>
     </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:17">
       <c r="A317" s="8"/>
       <c r="B317" s="9"/>
       <c r="C317" s="8"/>
@@ -7690,7 +7563,7 @@
       <c r="P317" s="10"/>
       <c r="Q317" s="8"/>
     </row>
-    <row r="318" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:17">
       <c r="A318" s="8"/>
       <c r="B318" s="9"/>
       <c r="C318" s="8"/>
@@ -7709,7 +7582,7 @@
       <c r="P318" s="10"/>
       <c r="Q318" s="8"/>
     </row>
-    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:17">
       <c r="A319" s="8"/>
       <c r="B319" s="9"/>
       <c r="C319" s="8"/>
@@ -7728,7 +7601,7 @@
       <c r="P319" s="10"/>
       <c r="Q319" s="8"/>
     </row>
-    <row r="320" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:17">
       <c r="A320" s="8"/>
       <c r="B320" s="9"/>
       <c r="C320" s="8"/>
@@ -7747,7 +7620,7 @@
       <c r="P320" s="10"/>
       <c r="Q320" s="8"/>
     </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:17">
       <c r="A321" s="8"/>
       <c r="B321" s="9"/>
       <c r="C321" s="8"/>
@@ -7766,7 +7639,7 @@
       <c r="P321" s="10"/>
       <c r="Q321" s="8"/>
     </row>
-    <row r="322" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:17">
       <c r="A322" s="8"/>
       <c r="B322" s="9"/>
       <c r="C322" s="8"/>
@@ -7785,7 +7658,7 @@
       <c r="P322" s="10"/>
       <c r="Q322" s="8"/>
     </row>
-    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:17">
       <c r="A323" s="8"/>
       <c r="B323" s="9"/>
       <c r="C323" s="8"/>
@@ -7804,7 +7677,7 @@
       <c r="P323" s="10"/>
       <c r="Q323" s="8"/>
     </row>
-    <row r="324" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:17">
       <c r="A324" s="8"/>
       <c r="B324" s="9"/>
       <c r="C324" s="8"/>
@@ -7823,7 +7696,7 @@
       <c r="P324" s="10"/>
       <c r="Q324" s="8"/>
     </row>
-    <row r="325" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:17">
       <c r="A325" s="8"/>
       <c r="B325" s="9"/>
       <c r="C325" s="8"/>
@@ -7842,7 +7715,7 @@
       <c r="P325" s="10"/>
       <c r="Q325" s="8"/>
     </row>
-    <row r="326" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:17">
       <c r="A326" s="8"/>
       <c r="B326" s="9"/>
       <c r="C326" s="8"/>
@@ -7861,7 +7734,7 @@
       <c r="P326" s="10"/>
       <c r="Q326" s="8"/>
     </row>
-    <row r="327" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:17">
       <c r="A327" s="8"/>
       <c r="B327" s="9"/>
       <c r="C327" s="8"/>
@@ -7880,7 +7753,7 @@
       <c r="P327" s="10"/>
       <c r="Q327" s="8"/>
     </row>
-    <row r="328" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:17">
       <c r="A328" s="8"/>
       <c r="B328" s="9"/>
       <c r="C328" s="8"/>
@@ -7899,7 +7772,7 @@
       <c r="P328" s="10"/>
       <c r="Q328" s="8"/>
     </row>
-    <row r="329" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:17">
       <c r="A329" s="8"/>
       <c r="B329" s="9"/>
       <c r="C329" s="8"/>
@@ -7918,7 +7791,7 @@
       <c r="P329" s="10"/>
       <c r="Q329" s="8"/>
     </row>
-    <row r="330" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:17">
       <c r="A330" s="8"/>
       <c r="B330" s="9"/>
       <c r="C330" s="8"/>
@@ -7937,7 +7810,7 @@
       <c r="P330" s="10"/>
       <c r="Q330" s="8"/>
     </row>
-    <row r="331" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:17">
       <c r="A331" s="8"/>
       <c r="B331" s="9"/>
       <c r="C331" s="8"/>
@@ -7956,7 +7829,7 @@
       <c r="P331" s="10"/>
       <c r="Q331" s="8"/>
     </row>
-    <row r="332" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:17">
       <c r="A332" s="8"/>
       <c r="B332" s="9"/>
       <c r="C332" s="8"/>
@@ -7975,7 +7848,7 @@
       <c r="P332" s="10"/>
       <c r="Q332" s="8"/>
     </row>
-    <row r="333" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:17">
       <c r="A333" s="8"/>
       <c r="B333" s="9"/>
       <c r="C333" s="8"/>
@@ -7994,7 +7867,7 @@
       <c r="P333" s="10"/>
       <c r="Q333" s="8"/>
     </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:17">
       <c r="A334" s="8"/>
       <c r="B334" s="9"/>
       <c r="C334" s="8"/>
@@ -8013,7 +7886,7 @@
       <c r="P334" s="10"/>
       <c r="Q334" s="8"/>
     </row>
-    <row r="335" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:17">
       <c r="A335" s="8"/>
       <c r="B335" s="9"/>
       <c r="C335" s="8"/>
@@ -8032,7 +7905,7 @@
       <c r="P335" s="10"/>
       <c r="Q335" s="8"/>
     </row>
-    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:17">
       <c r="A336" s="8"/>
       <c r="B336" s="9"/>
       <c r="C336" s="8"/>
@@ -8051,7 +7924,7 @@
       <c r="P336" s="10"/>
       <c r="Q336" s="8"/>
     </row>
-    <row r="337" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:17">
       <c r="A337" s="8"/>
       <c r="B337" s="9"/>
       <c r="C337" s="8"/>
@@ -8070,7 +7943,7 @@
       <c r="P337" s="10"/>
       <c r="Q337" s="8"/>
     </row>
-    <row r="338" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:17">
       <c r="A338" s="8"/>
       <c r="B338" s="9"/>
       <c r="C338" s="8"/>
@@ -8089,7 +7962,7 @@
       <c r="P338" s="10"/>
       <c r="Q338" s="8"/>
     </row>
-    <row r="339" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:17">
       <c r="A339" s="8"/>
       <c r="B339" s="9"/>
       <c r="C339" s="8"/>
@@ -8108,7 +7981,7 @@
       <c r="P339" s="10"/>
       <c r="Q339" s="8"/>
     </row>
-    <row r="340" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:17">
       <c r="A340" s="8"/>
       <c r="B340" s="9"/>
       <c r="C340" s="8"/>
@@ -8127,7 +8000,7 @@
       <c r="P340" s="10"/>
       <c r="Q340" s="8"/>
     </row>
-    <row r="341" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:17">
       <c r="A341" s="8"/>
       <c r="B341" s="9"/>
       <c r="C341" s="8"/>
@@ -8146,7 +8019,7 @@
       <c r="P341" s="10"/>
       <c r="Q341" s="8"/>
     </row>
-    <row r="342" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:17">
       <c r="A342" s="8"/>
       <c r="B342" s="9"/>
       <c r="C342" s="8"/>
@@ -8165,7 +8038,7 @@
       <c r="P342" s="10"/>
       <c r="Q342" s="8"/>
     </row>
-    <row r="343" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:17">
       <c r="A343" s="8"/>
       <c r="B343" s="9"/>
       <c r="C343" s="8"/>
@@ -8184,7 +8057,7 @@
       <c r="P343" s="10"/>
       <c r="Q343" s="8"/>
     </row>
-    <row r="344" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:17">
       <c r="A344" s="8"/>
       <c r="B344" s="9"/>
       <c r="C344" s="8"/>
@@ -8203,7 +8076,7 @@
       <c r="P344" s="10"/>
       <c r="Q344" s="8"/>
     </row>
-    <row r="345" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:17">
       <c r="A345" s="8"/>
       <c r="B345" s="9"/>
       <c r="C345" s="8"/>
@@ -8222,7 +8095,7 @@
       <c r="P345" s="10"/>
       <c r="Q345" s="8"/>
     </row>
-    <row r="346" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:17">
       <c r="A346" s="8"/>
       <c r="B346" s="9"/>
       <c r="C346" s="8"/>
@@ -8241,7 +8114,7 @@
       <c r="P346" s="10"/>
       <c r="Q346" s="8"/>
     </row>
-    <row r="347" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:17">
       <c r="A347" s="8"/>
       <c r="B347" s="9"/>
       <c r="C347" s="8"/>
@@ -8260,7 +8133,7 @@
       <c r="P347" s="10"/>
       <c r="Q347" s="8"/>
     </row>
-    <row r="348" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:17">
       <c r="A348" s="8"/>
       <c r="B348" s="9"/>
       <c r="C348" s="8"/>
@@ -8279,7 +8152,7 @@
       <c r="P348" s="10"/>
       <c r="Q348" s="8"/>
     </row>
-    <row r="349" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:17">
       <c r="A349" s="8"/>
       <c r="B349" s="9"/>
       <c r="C349" s="8"/>
@@ -8298,7 +8171,7 @@
       <c r="P349" s="10"/>
       <c r="Q349" s="8"/>
     </row>
-    <row r="350" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:17">
       <c r="A350" s="8"/>
       <c r="B350" s="9"/>
       <c r="C350" s="8"/>
@@ -8317,7 +8190,7 @@
       <c r="P350" s="10"/>
       <c r="Q350" s="8"/>
     </row>
-    <row r="351" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:17">
       <c r="A351" s="8"/>
       <c r="B351" s="9"/>
       <c r="C351" s="8"/>
@@ -8336,7 +8209,7 @@
       <c r="P351" s="10"/>
       <c r="Q351" s="8"/>
     </row>
-    <row r="352" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:17">
       <c r="A352" s="8"/>
       <c r="B352" s="9"/>
       <c r="C352" s="8"/>
@@ -8355,7 +8228,7 @@
       <c r="P352" s="10"/>
       <c r="Q352" s="8"/>
     </row>
-    <row r="353" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:17">
       <c r="A353" s="8"/>
       <c r="B353" s="9"/>
       <c r="C353" s="8"/>
@@ -8374,7 +8247,7 @@
       <c r="P353" s="10"/>
       <c r="Q353" s="8"/>
     </row>
-    <row r="354" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:17">
       <c r="A354" s="8"/>
       <c r="B354" s="9"/>
       <c r="C354" s="8"/>
@@ -8393,7 +8266,7 @@
       <c r="P354" s="10"/>
       <c r="Q354" s="8"/>
     </row>
-    <row r="355" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:17">
       <c r="A355" s="8"/>
       <c r="B355" s="9"/>
       <c r="C355" s="8"/>
@@ -8412,7 +8285,7 @@
       <c r="P355" s="10"/>
       <c r="Q355" s="8"/>
     </row>
-    <row r="356" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:17">
       <c r="A356" s="8"/>
       <c r="B356" s="9"/>
       <c r="C356" s="8"/>
@@ -8431,7 +8304,7 @@
       <c r="P356" s="10"/>
       <c r="Q356" s="8"/>
     </row>
-    <row r="357" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:17">
       <c r="A357" s="8"/>
       <c r="B357" s="9"/>
       <c r="C357" s="8"/>
@@ -8450,7 +8323,7 @@
       <c r="P357" s="10"/>
       <c r="Q357" s="8"/>
     </row>
-    <row r="358" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:17">
       <c r="A358" s="8"/>
       <c r="B358" s="9"/>
       <c r="C358" s="8"/>
@@ -8469,7 +8342,7 @@
       <c r="P358" s="10"/>
       <c r="Q358" s="8"/>
     </row>
-    <row r="359" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:17">
       <c r="A359" s="8"/>
       <c r="B359" s="9"/>
       <c r="C359" s="8"/>
@@ -8488,7 +8361,7 @@
       <c r="P359" s="10"/>
       <c r="Q359" s="8"/>
     </row>
-    <row r="360" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:17">
       <c r="A360" s="8"/>
       <c r="B360" s="9"/>
       <c r="C360" s="8"/>
@@ -8507,7 +8380,7 @@
       <c r="P360" s="10"/>
       <c r="Q360" s="8"/>
     </row>
-    <row r="361" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:17">
       <c r="A361" s="8"/>
       <c r="B361" s="9"/>
       <c r="C361" s="8"/>
@@ -8526,7 +8399,7 @@
       <c r="P361" s="10"/>
       <c r="Q361" s="8"/>
     </row>
-    <row r="362" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:17">
       <c r="A362" s="8"/>
       <c r="B362" s="9"/>
       <c r="C362" s="8"/>
@@ -8545,7 +8418,7 @@
       <c r="P362" s="10"/>
       <c r="Q362" s="8"/>
     </row>
-    <row r="363" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:17">
       <c r="A363" s="8"/>
       <c r="B363" s="9"/>
       <c r="C363" s="8"/>
@@ -8564,7 +8437,7 @@
       <c r="P363" s="10"/>
       <c r="Q363" s="8"/>
     </row>
-    <row r="364" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:17">
       <c r="A364" s="8"/>
       <c r="B364" s="9"/>
       <c r="C364" s="8"/>
@@ -8583,7 +8456,7 @@
       <c r="P364" s="10"/>
       <c r="Q364" s="8"/>
     </row>
-    <row r="365" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:17">
       <c r="A365" s="8"/>
       <c r="B365" s="9"/>
       <c r="C365" s="8"/>
@@ -8602,7 +8475,7 @@
       <c r="P365" s="10"/>
       <c r="Q365" s="8"/>
     </row>
-    <row r="366" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:17">
       <c r="A366" s="8"/>
       <c r="B366" s="9"/>
       <c r="C366" s="8"/>
@@ -8621,7 +8494,7 @@
       <c r="P366" s="10"/>
       <c r="Q366" s="8"/>
     </row>
-    <row r="367" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:17">
       <c r="A367" s="8"/>
       <c r="B367" s="9"/>
       <c r="C367" s="8"/>
@@ -8640,7 +8513,7 @@
       <c r="P367" s="10"/>
       <c r="Q367" s="8"/>
     </row>
-    <row r="368" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:17">
       <c r="A368" s="8"/>
       <c r="B368" s="9"/>
       <c r="C368" s="8"/>
@@ -8659,7 +8532,7 @@
       <c r="P368" s="10"/>
       <c r="Q368" s="8"/>
     </row>
-    <row r="369" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:17">
       <c r="A369" s="8"/>
       <c r="B369" s="9"/>
       <c r="C369" s="8"/>
@@ -8678,7 +8551,7 @@
       <c r="P369" s="10"/>
       <c r="Q369" s="8"/>
     </row>
-    <row r="370" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:17">
       <c r="A370" s="8"/>
       <c r="B370" s="9"/>
       <c r="C370" s="8"/>
@@ -8697,7 +8570,7 @@
       <c r="P370" s="10"/>
       <c r="Q370" s="8"/>
     </row>
-    <row r="371" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:17">
       <c r="A371" s="8"/>
       <c r="B371" s="9"/>
       <c r="C371" s="8"/>
@@ -8716,7 +8589,7 @@
       <c r="P371" s="10"/>
       <c r="Q371" s="8"/>
     </row>
-    <row r="372" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:17">
       <c r="A372" s="8"/>
       <c r="B372" s="9"/>
       <c r="C372" s="8"/>
@@ -8735,7 +8608,7 @@
       <c r="P372" s="10"/>
       <c r="Q372" s="8"/>
     </row>
-    <row r="373" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:17">
       <c r="A373" s="8"/>
       <c r="B373" s="9"/>
       <c r="C373" s="8"/>
@@ -8754,7 +8627,7 @@
       <c r="P373" s="10"/>
       <c r="Q373" s="8"/>
     </row>
-    <row r="374" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:17">
       <c r="A374" s="8"/>
       <c r="B374" s="9"/>
       <c r="C374" s="8"/>
@@ -8773,7 +8646,7 @@
       <c r="P374" s="10"/>
       <c r="Q374" s="8"/>
     </row>
-    <row r="375" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:17">
       <c r="A375" s="8"/>
       <c r="B375" s="9"/>
       <c r="C375" s="8"/>
@@ -8792,7 +8665,7 @@
       <c r="P375" s="10"/>
       <c r="Q375" s="8"/>
     </row>
-    <row r="376" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:17">
       <c r="A376" s="8"/>
       <c r="B376" s="9"/>
       <c r="C376" s="8"/>
@@ -8811,7 +8684,7 @@
       <c r="P376" s="10"/>
       <c r="Q376" s="8"/>
     </row>
-    <row r="377" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:17">
       <c r="A377" s="8"/>
       <c r="B377" s="9"/>
       <c r="C377" s="8"/>
@@ -8830,7 +8703,7 @@
       <c r="P377" s="10"/>
       <c r="Q377" s="8"/>
     </row>
-    <row r="378" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:17">
       <c r="A378" s="8"/>
       <c r="B378" s="9"/>
       <c r="C378" s="8"/>
@@ -8849,7 +8722,7 @@
       <c r="P378" s="10"/>
       <c r="Q378" s="8"/>
     </row>
-    <row r="379" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:17">
       <c r="A379" s="8"/>
       <c r="B379" s="9"/>
       <c r="C379" s="8"/>
@@ -8868,7 +8741,7 @@
       <c r="P379" s="10"/>
       <c r="Q379" s="8"/>
     </row>
-    <row r="380" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:17">
       <c r="A380" s="8"/>
       <c r="B380" s="9"/>
       <c r="C380" s="8"/>
@@ -8887,7 +8760,7 @@
       <c r="P380" s="10"/>
       <c r="Q380" s="8"/>
     </row>
-    <row r="381" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:17">
       <c r="A381" s="8"/>
       <c r="B381" s="9"/>
       <c r="C381" s="8"/>
@@ -8906,7 +8779,7 @@
       <c r="P381" s="10"/>
       <c r="Q381" s="8"/>
     </row>
-    <row r="382" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:17">
       <c r="A382" s="8"/>
       <c r="B382" s="9"/>
       <c r="C382" s="8"/>
@@ -8925,7 +8798,7 @@
       <c r="P382" s="10"/>
       <c r="Q382" s="8"/>
     </row>
-    <row r="383" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:17">
       <c r="A383" s="8"/>
       <c r="B383" s="9"/>
       <c r="C383" s="8"/>
@@ -8944,7 +8817,7 @@
       <c r="P383" s="10"/>
       <c r="Q383" s="8"/>
     </row>
-    <row r="384" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:17">
       <c r="A384" s="8"/>
       <c r="B384" s="9"/>
       <c r="C384" s="8"/>
@@ -8963,7 +8836,7 @@
       <c r="P384" s="10"/>
       <c r="Q384" s="8"/>
     </row>
-    <row r="385" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:17">
       <c r="A385" s="8"/>
       <c r="B385" s="9"/>
       <c r="C385" s="8"/>
@@ -8982,7 +8855,7 @@
       <c r="P385" s="10"/>
       <c r="Q385" s="8"/>
     </row>
-    <row r="386" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:17">
       <c r="A386" s="8"/>
       <c r="B386" s="9"/>
       <c r="C386" s="8"/>
@@ -9001,7 +8874,7 @@
       <c r="P386" s="10"/>
       <c r="Q386" s="8"/>
     </row>
-    <row r="387" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:17">
       <c r="A387" s="8"/>
       <c r="B387" s="9"/>
       <c r="C387" s="8"/>
@@ -9020,7 +8893,7 @@
       <c r="P387" s="10"/>
       <c r="Q387" s="8"/>
     </row>
-    <row r="388" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:17">
       <c r="A388" s="8"/>
       <c r="B388" s="9"/>
       <c r="C388" s="8"/>
@@ -9039,7 +8912,7 @@
       <c r="P388" s="10"/>
       <c r="Q388" s="8"/>
     </row>
-    <row r="389" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:17">
       <c r="A389" s="8"/>
       <c r="B389" s="9"/>
       <c r="C389" s="8"/>
@@ -9058,7 +8931,7 @@
       <c r="P389" s="10"/>
       <c r="Q389" s="8"/>
     </row>
-    <row r="390" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:17">
       <c r="A390" s="8"/>
       <c r="B390" s="9"/>
       <c r="C390" s="8"/>
@@ -9077,7 +8950,7 @@
       <c r="P390" s="10"/>
       <c r="Q390" s="8"/>
     </row>
-    <row r="391" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:17">
       <c r="A391" s="8"/>
       <c r="B391" s="9"/>
       <c r="C391" s="8"/>
@@ -9096,7 +8969,7 @@
       <c r="P391" s="10"/>
       <c r="Q391" s="8"/>
     </row>
-    <row r="392" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:17">
       <c r="A392" s="8"/>
       <c r="B392" s="9"/>
       <c r="C392" s="8"/>
@@ -9115,7 +8988,7 @@
       <c r="P392" s="10"/>
       <c r="Q392" s="8"/>
     </row>
-    <row r="393" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:17">
       <c r="A393" s="8"/>
       <c r="B393" s="9"/>
       <c r="C393" s="8"/>
@@ -9134,7 +9007,7 @@
       <c r="P393" s="10"/>
       <c r="Q393" s="8"/>
     </row>
-    <row r="394" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:17">
       <c r="A394" s="8"/>
       <c r="B394" s="9"/>
       <c r="C394" s="8"/>
@@ -9153,7 +9026,7 @@
       <c r="P394" s="10"/>
       <c r="Q394" s="8"/>
     </row>
-    <row r="395" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:17">
       <c r="A395" s="8"/>
       <c r="B395" s="9"/>
       <c r="C395" s="8"/>
@@ -9172,7 +9045,7 @@
       <c r="P395" s="10"/>
       <c r="Q395" s="8"/>
     </row>
-    <row r="396" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:17">
       <c r="A396" s="8"/>
       <c r="B396" s="9"/>
       <c r="C396" s="8"/>
@@ -9191,7 +9064,7 @@
       <c r="P396" s="10"/>
       <c r="Q396" s="8"/>
     </row>
-    <row r="397" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:17">
       <c r="A397" s="8"/>
       <c r="B397" s="9"/>
       <c r="C397" s="8"/>
@@ -9210,7 +9083,7 @@
       <c r="P397" s="10"/>
       <c r="Q397" s="8"/>
     </row>
-    <row r="398" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:17">
       <c r="A398" s="8"/>
       <c r="B398" s="9"/>
       <c r="C398" s="8"/>
@@ -9229,7 +9102,7 @@
       <c r="P398" s="10"/>
       <c r="Q398" s="8"/>
     </row>
-    <row r="399" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:17">
       <c r="A399" s="8"/>
       <c r="B399" s="9"/>
       <c r="C399" s="8"/>
@@ -9248,7 +9121,7 @@
       <c r="P399" s="10"/>
       <c r="Q399" s="8"/>
     </row>
-    <row r="400" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:17">
       <c r="A400" s="8"/>
       <c r="B400" s="9"/>
       <c r="C400" s="8"/>
@@ -9267,7 +9140,7 @@
       <c r="P400" s="10"/>
       <c r="Q400" s="8"/>
     </row>
-    <row r="401" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:17">
       <c r="A401" s="8"/>
       <c r="B401" s="9"/>
       <c r="C401" s="8"/>
@@ -9286,7 +9159,7 @@
       <c r="P401" s="10"/>
       <c r="Q401" s="8"/>
     </row>
-    <row r="402" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:17">
       <c r="A402" s="8"/>
       <c r="B402" s="9"/>
       <c r="C402" s="8"/>
@@ -9305,7 +9178,7 @@
       <c r="P402" s="10"/>
       <c r="Q402" s="8"/>
     </row>
-    <row r="403" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:17">
       <c r="A403" s="8"/>
       <c r="B403" s="9"/>
       <c r="C403" s="8"/>
@@ -9324,7 +9197,7 @@
       <c r="P403" s="10"/>
       <c r="Q403" s="8"/>
     </row>
-    <row r="404" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:17">
       <c r="A404" s="8"/>
       <c r="B404" s="9"/>
       <c r="C404" s="8"/>
@@ -9343,7 +9216,7 @@
       <c r="P404" s="10"/>
       <c r="Q404" s="8"/>
     </row>
-    <row r="405" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:17">
       <c r="A405" s="8"/>
       <c r="B405" s="9"/>
       <c r="C405" s="8"/>
@@ -9362,7 +9235,7 @@
       <c r="P405" s="10"/>
       <c r="Q405" s="8"/>
     </row>
-    <row r="406" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:17">
       <c r="A406" s="8"/>
       <c r="B406" s="9"/>
       <c r="C406" s="8"/>
@@ -9381,7 +9254,7 @@
       <c r="P406" s="10"/>
       <c r="Q406" s="8"/>
     </row>
-    <row r="407" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:17">
       <c r="A407" s="8"/>
       <c r="B407" s="9"/>
       <c r="C407" s="8"/>
@@ -9400,7 +9273,7 @@
       <c r="P407" s="10"/>
       <c r="Q407" s="8"/>
     </row>
-    <row r="408" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:17">
       <c r="A408" s="8"/>
       <c r="B408" s="9"/>
       <c r="C408" s="8"/>
@@ -9419,7 +9292,7 @@
       <c r="P408" s="10"/>
       <c r="Q408" s="8"/>
     </row>
-    <row r="409" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:17">
       <c r="A409" s="8"/>
       <c r="B409" s="9"/>
       <c r="C409" s="8"/>
@@ -9438,7 +9311,7 @@
       <c r="P409" s="10"/>
       <c r="Q409" s="8"/>
     </row>
-    <row r="410" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:17">
       <c r="A410" s="8"/>
       <c r="B410" s="9"/>
       <c r="C410" s="8"/>
@@ -9457,7 +9330,7 @@
       <c r="P410" s="10"/>
       <c r="Q410" s="8"/>
     </row>
-    <row r="411" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:17">
       <c r="A411" s="8"/>
       <c r="B411" s="9"/>
       <c r="C411" s="8"/>
@@ -9476,7 +9349,7 @@
       <c r="P411" s="10"/>
       <c r="Q411" s="8"/>
     </row>
-    <row r="412" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:17">
       <c r="A412" s="8"/>
       <c r="B412" s="9"/>
       <c r="C412" s="8"/>
@@ -9495,7 +9368,7 @@
       <c r="P412" s="10"/>
       <c r="Q412" s="8"/>
     </row>
-    <row r="413" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:17">
       <c r="A413" s="8"/>
       <c r="B413" s="9"/>
       <c r="C413" s="8"/>
@@ -9514,7 +9387,7 @@
       <c r="P413" s="10"/>
       <c r="Q413" s="8"/>
     </row>
-    <row r="414" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:17">
       <c r="A414" s="8"/>
       <c r="B414" s="9"/>
       <c r="C414" s="8"/>
@@ -9533,7 +9406,7 @@
       <c r="P414" s="10"/>
       <c r="Q414" s="8"/>
     </row>
-    <row r="415" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:17">
       <c r="A415" s="8"/>
       <c r="B415" s="9"/>
       <c r="C415" s="8"/>
@@ -9552,7 +9425,7 @@
       <c r="P415" s="10"/>
       <c r="Q415" s="8"/>
     </row>
-    <row r="416" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:17">
       <c r="A416" s="8"/>
       <c r="B416" s="9"/>
       <c r="C416" s="8"/>
@@ -9571,7 +9444,7 @@
       <c r="P416" s="10"/>
       <c r="Q416" s="8"/>
     </row>
-    <row r="417" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:17">
       <c r="A417" s="8"/>
       <c r="B417" s="9"/>
       <c r="C417" s="8"/>
@@ -9590,7 +9463,7 @@
       <c r="P417" s="10"/>
       <c r="Q417" s="8"/>
     </row>
-    <row r="418" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:17">
       <c r="A418" s="8"/>
       <c r="B418" s="9"/>
       <c r="C418" s="8"/>
@@ -9609,7 +9482,7 @@
       <c r="P418" s="10"/>
       <c r="Q418" s="8"/>
     </row>
-    <row r="419" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:17">
       <c r="A419" s="8"/>
       <c r="B419" s="9"/>
       <c r="C419" s="8"/>
@@ -9628,7 +9501,7 @@
       <c r="P419" s="10"/>
       <c r="Q419" s="8"/>
     </row>
-    <row r="420" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:17">
       <c r="A420" s="8"/>
       <c r="B420" s="9"/>
       <c r="C420" s="8"/>
@@ -9647,7 +9520,7 @@
       <c r="P420" s="10"/>
       <c r="Q420" s="8"/>
     </row>
-    <row r="421" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:17">
       <c r="A421" s="8"/>
       <c r="B421" s="9"/>
       <c r="C421" s="8"/>
@@ -9666,7 +9539,7 @@
       <c r="P421" s="10"/>
       <c r="Q421" s="8"/>
     </row>
-    <row r="422" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:17">
       <c r="A422" s="8"/>
       <c r="B422" s="9"/>
       <c r="C422" s="8"/>
@@ -9685,7 +9558,7 @@
       <c r="P422" s="10"/>
       <c r="Q422" s="8"/>
     </row>
-    <row r="423" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:17">
       <c r="A423" s="8"/>
       <c r="B423" s="9"/>
       <c r="C423" s="8"/>
@@ -9704,7 +9577,7 @@
       <c r="P423" s="10"/>
       <c r="Q423" s="8"/>
     </row>
-    <row r="424" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:17">
       <c r="A424" s="8"/>
       <c r="B424" s="9"/>
       <c r="C424" s="8"/>
@@ -9723,7 +9596,7 @@
       <c r="P424" s="10"/>
       <c r="Q424" s="8"/>
     </row>
-    <row r="425" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:17">
       <c r="A425" s="8"/>
       <c r="B425" s="9"/>
       <c r="C425" s="8"/>
@@ -9742,7 +9615,7 @@
       <c r="P425" s="10"/>
       <c r="Q425" s="8"/>
     </row>
-    <row r="426" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:17">
       <c r="A426" s="8"/>
       <c r="B426" s="9"/>
       <c r="C426" s="8"/>
@@ -9761,7 +9634,7 @@
       <c r="P426" s="10"/>
       <c r="Q426" s="8"/>
     </row>
-    <row r="427" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:17">
       <c r="A427" s="8"/>
       <c r="B427" s="9"/>
       <c r="C427" s="8"/>
@@ -9780,7 +9653,7 @@
       <c r="P427" s="10"/>
       <c r="Q427" s="8"/>
     </row>
-    <row r="428" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:17">
       <c r="A428" s="8"/>
       <c r="B428" s="9"/>
       <c r="C428" s="8"/>
@@ -9799,7 +9672,7 @@
       <c r="P428" s="10"/>
       <c r="Q428" s="8"/>
     </row>
-    <row r="429" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:17">
       <c r="A429" s="8"/>
       <c r="B429" s="9"/>
       <c r="C429" s="8"/>
@@ -9818,7 +9691,7 @@
       <c r="P429" s="10"/>
       <c r="Q429" s="8"/>
     </row>
-    <row r="430" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:17">
       <c r="A430" s="8"/>
       <c r="B430" s="9"/>
       <c r="C430" s="8"/>
@@ -9837,7 +9710,7 @@
       <c r="P430" s="10"/>
       <c r="Q430" s="8"/>
     </row>
-    <row r="431" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:17">
       <c r="A431" s="8"/>
       <c r="B431" s="9"/>
       <c r="C431" s="8"/>
@@ -9856,7 +9729,7 @@
       <c r="P431" s="10"/>
       <c r="Q431" s="8"/>
     </row>
-    <row r="432" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:17">
       <c r="A432" s="8"/>
       <c r="B432" s="9"/>
       <c r="C432" s="8"/>
@@ -9875,7 +9748,7 @@
       <c r="P432" s="10"/>
       <c r="Q432" s="8"/>
     </row>
-    <row r="433" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:17">
       <c r="A433" s="8"/>
       <c r="B433" s="9"/>
       <c r="C433" s="8"/>
@@ -9894,7 +9767,7 @@
       <c r="P433" s="10"/>
       <c r="Q433" s="8"/>
     </row>
-    <row r="434" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:17">
       <c r="A434" s="8"/>
       <c r="B434" s="9"/>
       <c r="C434" s="8"/>
@@ -9913,7 +9786,7 @@
       <c r="P434" s="10"/>
       <c r="Q434" s="8"/>
     </row>
-    <row r="435" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:17">
       <c r="A435" s="8"/>
       <c r="B435" s="9"/>
       <c r="C435" s="8"/>
@@ -9932,7 +9805,7 @@
       <c r="P435" s="10"/>
       <c r="Q435" s="8"/>
     </row>
-    <row r="436" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:17">
       <c r="A436" s="8"/>
       <c r="B436" s="9"/>
       <c r="C436" s="8"/>
@@ -9951,7 +9824,7 @@
       <c r="P436" s="10"/>
       <c r="Q436" s="8"/>
     </row>
-    <row r="437" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:17">
       <c r="A437" s="8"/>
       <c r="B437" s="9"/>
       <c r="C437" s="8"/>
@@ -9970,7 +9843,7 @@
       <c r="P437" s="10"/>
       <c r="Q437" s="8"/>
     </row>
-    <row r="438" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:17">
       <c r="A438" s="8"/>
       <c r="B438" s="9"/>
       <c r="C438" s="8"/>
@@ -9989,7 +9862,7 @@
       <c r="P438" s="10"/>
       <c r="Q438" s="8"/>
     </row>
-    <row r="439" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:17">
       <c r="A439" s="8"/>
       <c r="B439" s="9"/>
       <c r="C439" s="8"/>
@@ -10008,7 +9881,7 @@
       <c r="P439" s="10"/>
       <c r="Q439" s="8"/>
     </row>
-    <row r="440" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:17">
       <c r="A440" s="8"/>
       <c r="B440" s="9"/>
       <c r="C440" s="8"/>
@@ -10027,7 +9900,7 @@
       <c r="P440" s="10"/>
       <c r="Q440" s="8"/>
     </row>
-    <row r="441" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:17">
       <c r="A441" s="8"/>
       <c r="B441" s="9"/>
       <c r="C441" s="8"/>
@@ -10046,7 +9919,7 @@
       <c r="P441" s="10"/>
       <c r="Q441" s="8"/>
     </row>
-    <row r="442" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:17">
       <c r="A442" s="8"/>
       <c r="B442" s="9"/>
       <c r="C442" s="8"/>
@@ -10065,7 +9938,7 @@
       <c r="P442" s="10"/>
       <c r="Q442" s="8"/>
     </row>
-    <row r="443" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:17">
       <c r="A443" s="8"/>
       <c r="B443" s="9"/>
       <c r="C443" s="8"/>
@@ -10084,7 +9957,7 @@
       <c r="P443" s="10"/>
       <c r="Q443" s="8"/>
     </row>
-    <row r="444" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:17">
       <c r="A444" s="8"/>
       <c r="B444" s="9"/>
       <c r="C444" s="8"/>
@@ -10103,7 +9976,7 @@
       <c r="P444" s="10"/>
       <c r="Q444" s="8"/>
     </row>
-    <row r="445" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:17">
       <c r="A445" s="8"/>
       <c r="B445" s="9"/>
       <c r="C445" s="8"/>
@@ -10122,7 +9995,7 @@
       <c r="P445" s="10"/>
       <c r="Q445" s="8"/>
     </row>
-    <row r="446" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:17">
       <c r="A446" s="8"/>
       <c r="B446" s="9"/>
       <c r="C446" s="8"/>
@@ -10141,7 +10014,7 @@
       <c r="P446" s="10"/>
       <c r="Q446" s="8"/>
     </row>
-    <row r="447" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:17">
       <c r="A447" s="8"/>
       <c r="B447" s="9"/>
       <c r="C447" s="8"/>
@@ -10160,7 +10033,7 @@
       <c r="P447" s="10"/>
       <c r="Q447" s="8"/>
     </row>
-    <row r="448" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:17">
       <c r="A448" s="8"/>
       <c r="B448" s="9"/>
       <c r="C448" s="8"/>
@@ -10179,7 +10052,7 @@
       <c r="P448" s="10"/>
       <c r="Q448" s="8"/>
     </row>
-    <row r="449" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:17">
       <c r="A449" s="8"/>
       <c r="B449" s="9"/>
       <c r="C449" s="8"/>
@@ -10198,7 +10071,7 @@
       <c r="P449" s="10"/>
       <c r="Q449" s="8"/>
     </row>
-    <row r="450" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:17">
       <c r="A450" s="8"/>
       <c r="B450" s="9"/>
       <c r="C450" s="8"/>
@@ -10217,7 +10090,7 @@
       <c r="P450" s="10"/>
       <c r="Q450" s="8"/>
     </row>
-    <row r="451" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:17">
       <c r="A451" s="8"/>
       <c r="B451" s="9"/>
       <c r="C451" s="8"/>
@@ -10236,7 +10109,7 @@
       <c r="P451" s="10"/>
       <c r="Q451" s="8"/>
     </row>
-    <row r="452" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:17">
       <c r="A452" s="8"/>
       <c r="B452" s="9"/>
       <c r="C452" s="8"/>
@@ -10255,7 +10128,7 @@
       <c r="P452" s="10"/>
       <c r="Q452" s="8"/>
     </row>
-    <row r="453" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:17">
       <c r="A453" s="8"/>
       <c r="B453" s="9"/>
       <c r="C453" s="8"/>
@@ -10274,7 +10147,7 @@
       <c r="P453" s="10"/>
       <c r="Q453" s="8"/>
     </row>
-    <row r="454" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:17">
       <c r="A454" s="8"/>
       <c r="B454" s="9"/>
       <c r="C454" s="8"/>
@@ -10293,7 +10166,7 @@
       <c r="P454" s="10"/>
       <c r="Q454" s="8"/>
     </row>
-    <row r="455" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:17">
       <c r="A455" s="8"/>
       <c r="B455" s="9"/>
       <c r="C455" s="8"/>
@@ -10312,7 +10185,7 @@
       <c r="P455" s="10"/>
       <c r="Q455" s="8"/>
     </row>
-    <row r="456" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:17">
       <c r="A456" s="8"/>
       <c r="B456" s="9"/>
       <c r="C456" s="8"/>
@@ -10331,7 +10204,7 @@
       <c r="P456" s="10"/>
       <c r="Q456" s="8"/>
     </row>
-    <row r="457" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:17">
       <c r="A457" s="8"/>
       <c r="B457" s="9"/>
       <c r="C457" s="8"/>
@@ -10350,7 +10223,7 @@
       <c r="P457" s="10"/>
       <c r="Q457" s="8"/>
     </row>
-    <row r="458" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:17">
       <c r="A458" s="8"/>
       <c r="B458" s="9"/>
       <c r="C458" s="8"/>
@@ -10369,7 +10242,7 @@
       <c r="P458" s="10"/>
       <c r="Q458" s="8"/>
     </row>
-    <row r="459" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:17">
       <c r="A459" s="8"/>
       <c r="B459" s="9"/>
       <c r="C459" s="8"/>
@@ -10388,7 +10261,7 @@
       <c r="P459" s="10"/>
       <c r="Q459" s="8"/>
     </row>
-    <row r="460" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:17">
       <c r="A460" s="8"/>
       <c r="B460" s="9"/>
       <c r="C460" s="8"/>
@@ -10407,7 +10280,7 @@
       <c r="P460" s="10"/>
       <c r="Q460" s="8"/>
     </row>
-    <row r="461" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:17">
       <c r="A461" s="8"/>
       <c r="B461" s="9"/>
       <c r="C461" s="8"/>
@@ -10426,7 +10299,7 @@
       <c r="P461" s="10"/>
       <c r="Q461" s="8"/>
     </row>
-    <row r="462" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:17">
       <c r="A462" s="8"/>
       <c r="B462" s="9"/>
       <c r="C462" s="8"/>
@@ -10445,7 +10318,7 @@
       <c r="P462" s="10"/>
       <c r="Q462" s="8"/>
     </row>
-    <row r="463" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:17">
       <c r="A463" s="8"/>
       <c r="B463" s="9"/>
       <c r="C463" s="8"/>
@@ -10464,7 +10337,7 @@
       <c r="P463" s="10"/>
       <c r="Q463" s="8"/>
     </row>
-    <row r="464" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:17">
       <c r="A464" s="8"/>
       <c r="B464" s="9"/>
       <c r="C464" s="8"/>
@@ -10483,7 +10356,7 @@
       <c r="P464" s="10"/>
       <c r="Q464" s="8"/>
     </row>
-    <row r="465" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:17">
       <c r="A465" s="8"/>
       <c r="B465" s="9"/>
       <c r="C465" s="8"/>
@@ -10502,7 +10375,7 @@
       <c r="P465" s="10"/>
       <c r="Q465" s="8"/>
     </row>
-    <row r="466" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:17">
       <c r="A466" s="8"/>
       <c r="B466" s="9"/>
       <c r="C466" s="8"/>
@@ -10521,7 +10394,7 @@
       <c r="P466" s="10"/>
       <c r="Q466" s="8"/>
     </row>
-    <row r="467" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:17">
       <c r="A467" s="8"/>
       <c r="B467" s="9"/>
       <c r="C467" s="8"/>
@@ -10540,7 +10413,7 @@
       <c r="P467" s="10"/>
       <c r="Q467" s="8"/>
     </row>
-    <row r="468" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:17">
       <c r="A468" s="8"/>
       <c r="B468" s="9"/>
       <c r="C468" s="8"/>
@@ -10559,7 +10432,7 @@
       <c r="P468" s="10"/>
       <c r="Q468" s="8"/>
     </row>
-    <row r="469" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:17">
       <c r="A469" s="8"/>
       <c r="B469" s="9"/>
       <c r="C469" s="8"/>
@@ -10578,7 +10451,7 @@
       <c r="P469" s="10"/>
       <c r="Q469" s="8"/>
     </row>
-    <row r="470" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:17">
       <c r="A470" s="8"/>
       <c r="B470" s="9"/>
       <c r="C470" s="8"/>
@@ -10597,7 +10470,7 @@
       <c r="P470" s="10"/>
       <c r="Q470" s="8"/>
     </row>
-    <row r="471" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:17">
       <c r="A471" s="8"/>
       <c r="B471" s="9"/>
       <c r="C471" s="8"/>
@@ -10616,7 +10489,7 @@
       <c r="P471" s="10"/>
       <c r="Q471" s="8"/>
     </row>
-    <row r="472" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:17">
       <c r="A472" s="8"/>
       <c r="B472" s="9"/>
       <c r="C472" s="8"/>
@@ -10635,7 +10508,7 @@
       <c r="P472" s="10"/>
       <c r="Q472" s="8"/>
     </row>
-    <row r="473" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:17">
       <c r="A473" s="8"/>
       <c r="B473" s="9"/>
       <c r="C473" s="8"/>
@@ -10654,7 +10527,7 @@
       <c r="P473" s="10"/>
       <c r="Q473" s="8"/>
     </row>
-    <row r="474" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:17">
       <c r="A474" s="8"/>
       <c r="B474" s="9"/>
       <c r="C474" s="8"/>
@@ -10673,7 +10546,7 @@
       <c r="P474" s="10"/>
       <c r="Q474" s="8"/>
     </row>
-    <row r="475" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:17">
       <c r="A475" s="8"/>
       <c r="B475" s="9"/>
       <c r="C475" s="8"/>
@@ -10692,7 +10565,7 @@
       <c r="P475" s="10"/>
       <c r="Q475" s="8"/>
     </row>
-    <row r="476" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:17">
       <c r="A476" s="8"/>
       <c r="B476" s="9"/>
       <c r="C476" s="8"/>
@@ -10711,7 +10584,7 @@
       <c r="P476" s="10"/>
       <c r="Q476" s="8"/>
     </row>
-    <row r="477" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:17">
       <c r="A477" s="8"/>
       <c r="B477" s="9"/>
       <c r="C477" s="8"/>
@@ -10730,7 +10603,7 @@
       <c r="P477" s="10"/>
       <c r="Q477" s="8"/>
     </row>
-    <row r="478" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:17">
       <c r="A478" s="8"/>
       <c r="B478" s="9"/>
       <c r="C478" s="8"/>
@@ -10749,7 +10622,7 @@
       <c r="P478" s="10"/>
       <c r="Q478" s="8"/>
     </row>
-    <row r="479" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:17">
       <c r="A479" s="8"/>
       <c r="B479" s="9"/>
       <c r="C479" s="8"/>
@@ -10768,7 +10641,7 @@
       <c r="P479" s="10"/>
       <c r="Q479" s="8"/>
     </row>
-    <row r="480" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:17">
       <c r="A480" s="8"/>
       <c r="B480" s="9"/>
       <c r="C480" s="8"/>
@@ -10787,7 +10660,7 @@
       <c r="P480" s="10"/>
       <c r="Q480" s="8"/>
     </row>
-    <row r="481" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:17">
       <c r="A481" s="8"/>
       <c r="B481" s="9"/>
       <c r="C481" s="8"/>
@@ -10806,7 +10679,7 @@
       <c r="P481" s="10"/>
       <c r="Q481" s="8"/>
     </row>
-    <row r="482" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:17">
       <c r="A482" s="8"/>
       <c r="B482" s="9"/>
       <c r="C482" s="8"/>
@@ -10825,7 +10698,7 @@
       <c r="P482" s="10"/>
       <c r="Q482" s="8"/>
     </row>
-    <row r="483" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:17">
       <c r="A483" s="8"/>
       <c r="B483" s="9"/>
       <c r="C483" s="8"/>
@@ -10844,7 +10717,7 @@
       <c r="P483" s="10"/>
       <c r="Q483" s="8"/>
     </row>
-    <row r="484" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:17">
       <c r="A484" s="8"/>
       <c r="B484" s="9"/>
       <c r="C484" s="8"/>
@@ -10863,7 +10736,7 @@
       <c r="P484" s="10"/>
       <c r="Q484" s="8"/>
     </row>
-    <row r="485" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:17">
       <c r="A485" s="8"/>
       <c r="B485" s="9"/>
       <c r="C485" s="8"/>
@@ -10882,7 +10755,7 @@
       <c r="P485" s="10"/>
       <c r="Q485" s="8"/>
     </row>
-    <row r="486" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:17">
       <c r="A486" s="8"/>
       <c r="B486" s="9"/>
       <c r="C486" s="8"/>
@@ -10901,7 +10774,7 @@
       <c r="P486" s="10"/>
       <c r="Q486" s="8"/>
     </row>
-    <row r="487" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:17">
       <c r="A487" s="8"/>
       <c r="B487" s="9"/>
       <c r="C487" s="8"/>
@@ -10920,7 +10793,7 @@
       <c r="P487" s="10"/>
       <c r="Q487" s="8"/>
     </row>
-    <row r="488" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:17">
       <c r="A488" s="8"/>
       <c r="B488" s="9"/>
       <c r="C488" s="8"/>
@@ -10939,7 +10812,7 @@
       <c r="P488" s="10"/>
       <c r="Q488" s="8"/>
     </row>
-    <row r="489" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:17">
       <c r="A489" s="8"/>
       <c r="B489" s="9"/>
       <c r="C489" s="8"/>
@@ -10958,7 +10831,7 @@
       <c r="P489" s="10"/>
       <c r="Q489" s="8"/>
     </row>
-    <row r="490" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:17">
       <c r="A490" s="8"/>
       <c r="B490" s="9"/>
       <c r="C490" s="8"/>
@@ -10977,7 +10850,7 @@
       <c r="P490" s="10"/>
       <c r="Q490" s="8"/>
     </row>
-    <row r="491" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:17">
       <c r="A491" s="8"/>
       <c r="B491" s="9"/>
       <c r="C491" s="8"/>
@@ -10996,7 +10869,7 @@
       <c r="P491" s="10"/>
       <c r="Q491" s="8"/>
     </row>
-    <row r="492" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:17">
       <c r="A492" s="8"/>
       <c r="B492" s="9"/>
       <c r="C492" s="8"/>
@@ -11015,7 +10888,7 @@
       <c r="P492" s="10"/>
       <c r="Q492" s="8"/>
     </row>
-    <row r="493" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:17">
       <c r="A493" s="8"/>
       <c r="B493" s="9"/>
       <c r="C493" s="8"/>
@@ -11034,7 +10907,7 @@
       <c r="P493" s="10"/>
       <c r="Q493" s="8"/>
     </row>
-    <row r="494" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:17">
       <c r="A494" s="8"/>
       <c r="B494" s="9"/>
       <c r="C494" s="8"/>
@@ -11053,7 +10926,7 @@
       <c r="P494" s="10"/>
       <c r="Q494" s="8"/>
     </row>
-    <row r="495" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:17">
       <c r="A495" s="8"/>
       <c r="B495" s="9"/>
       <c r="C495" s="8"/>
@@ -11072,1642 +10945,1558 @@
       <c r="P495" s="10"/>
       <c r="Q495" s="8"/>
     </row>
-    <row r="496" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A496" s="8"/>
-      <c r="B496" s="9"/>
-      <c r="C496" s="8"/>
-      <c r="D496" s="8"/>
-      <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
-      <c r="G496" s="8"/>
-      <c r="H496" s="8"/>
-      <c r="I496" s="8"/>
-      <c r="J496" s="8"/>
-      <c r="K496" s="8"/>
-      <c r="L496" s="8"/>
-      <c r="M496" s="8"/>
-      <c r="N496" s="8"/>
+    <row r="496" spans="1:17">
+      <c r="N496" s="2"/>
       <c r="O496" s="8"/>
-      <c r="P496" s="10"/>
-      <c r="Q496" s="8"/>
-    </row>
-    <row r="497" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A497" s="8"/>
-      <c r="B497" s="9"/>
-      <c r="C497" s="8"/>
-      <c r="D497" s="8"/>
-      <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
-      <c r="G497" s="8"/>
-      <c r="H497" s="8"/>
-      <c r="I497" s="8"/>
-      <c r="J497" s="8"/>
-      <c r="K497" s="8"/>
-      <c r="L497" s="8"/>
-      <c r="M497" s="8"/>
-      <c r="N497" s="8"/>
+    </row>
+    <row r="497" spans="14:15">
+      <c r="N497" s="2"/>
       <c r="O497" s="8"/>
-      <c r="P497" s="10"/>
-      <c r="Q497" s="8"/>
-    </row>
-    <row r="498" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A498" s="8"/>
-      <c r="B498" s="9"/>
-      <c r="C498" s="8"/>
-      <c r="D498" s="8"/>
-      <c r="E498" s="8"/>
-      <c r="F498" s="8"/>
-      <c r="G498" s="8"/>
-      <c r="H498" s="8"/>
-      <c r="I498" s="8"/>
-      <c r="J498" s="8"/>
-      <c r="K498" s="8"/>
-      <c r="L498" s="8"/>
-      <c r="M498" s="8"/>
-      <c r="N498" s="8"/>
+    </row>
+    <row r="498" spans="14:15">
+      <c r="N498" s="2"/>
       <c r="O498" s="8"/>
-      <c r="P498" s="10"/>
-      <c r="Q498" s="8"/>
-    </row>
-    <row r="499" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A499" s="8"/>
-      <c r="B499" s="9"/>
-      <c r="C499" s="8"/>
-      <c r="D499" s="8"/>
-      <c r="E499" s="8"/>
-      <c r="F499" s="8"/>
-      <c r="G499" s="8"/>
-      <c r="H499" s="8"/>
-      <c r="I499" s="8"/>
-      <c r="J499" s="8"/>
-      <c r="K499" s="8"/>
-      <c r="L499" s="8"/>
-      <c r="M499" s="8"/>
-      <c r="N499" s="8"/>
+    </row>
+    <row r="499" spans="14:15">
+      <c r="N499" s="2"/>
       <c r="O499" s="8"/>
-      <c r="P499" s="10"/>
-      <c r="Q499" s="8"/>
-    </row>
-    <row r="500" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A500" s="8"/>
-      <c r="B500" s="9"/>
-      <c r="C500" s="8"/>
-      <c r="D500" s="8"/>
-      <c r="E500" s="8"/>
-      <c r="F500" s="8"/>
-      <c r="G500" s="8"/>
-      <c r="H500" s="8"/>
-      <c r="I500" s="8"/>
-      <c r="J500" s="8"/>
-      <c r="K500" s="8"/>
-      <c r="L500" s="8"/>
-      <c r="M500" s="8"/>
-      <c r="N500" s="8"/>
+    </row>
+    <row r="500" spans="14:15">
+      <c r="N500" s="2"/>
       <c r="O500" s="8"/>
-      <c r="P500" s="10"/>
-      <c r="Q500" s="8"/>
-    </row>
-    <row r="501" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="501" spans="14:15">
       <c r="N501" s="2"/>
     </row>
-    <row r="502" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="502" spans="14:15">
       <c r="N502" s="2"/>
     </row>
-    <row r="503" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="503" spans="14:15">
       <c r="N503" s="2"/>
     </row>
-    <row r="504" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="504" spans="14:15">
       <c r="N504" s="2"/>
     </row>
-    <row r="505" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="505" spans="14:15">
       <c r="N505" s="2"/>
     </row>
-    <row r="506" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="506" spans="14:15">
       <c r="N506" s="2"/>
     </row>
-    <row r="507" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="507" spans="14:15">
       <c r="N507" s="2"/>
     </row>
-    <row r="508" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="508" spans="14:15">
       <c r="N508" s="2"/>
     </row>
-    <row r="509" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="509" spans="14:15">
       <c r="N509" s="2"/>
     </row>
-    <row r="510" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="510" spans="14:15">
       <c r="N510" s="2"/>
     </row>
-    <row r="511" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="511" spans="14:15">
       <c r="N511" s="2"/>
     </row>
-    <row r="512" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="512" spans="14:15">
       <c r="N512" s="2"/>
     </row>
-    <row r="513" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="513" spans="14:14">
       <c r="N513" s="2"/>
     </row>
-    <row r="514" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="514" spans="14:14">
       <c r="N514" s="2"/>
     </row>
-    <row r="515" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="515" spans="14:14">
       <c r="N515" s="2"/>
     </row>
-    <row r="516" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="516" spans="14:14">
       <c r="N516" s="2"/>
     </row>
-    <row r="517" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="517" spans="14:14">
       <c r="N517" s="2"/>
     </row>
-    <row r="518" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="518" spans="14:14">
       <c r="N518" s="2"/>
     </row>
-    <row r="519" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="519" spans="14:14">
       <c r="N519" s="2"/>
     </row>
-    <row r="520" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="520" spans="14:14">
       <c r="N520" s="2"/>
     </row>
-    <row r="521" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="521" spans="14:14">
       <c r="N521" s="2"/>
     </row>
-    <row r="522" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="522" spans="14:14">
       <c r="N522" s="2"/>
     </row>
-    <row r="523" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="523" spans="14:14">
       <c r="N523" s="2"/>
     </row>
-    <row r="524" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="524" spans="14:14">
       <c r="N524" s="2"/>
     </row>
-    <row r="525" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="525" spans="14:14">
       <c r="N525" s="2"/>
     </row>
-    <row r="526" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="526" spans="14:14">
       <c r="N526" s="2"/>
     </row>
-    <row r="527" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="527" spans="14:14">
       <c r="N527" s="2"/>
     </row>
-    <row r="528" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="528" spans="14:14">
       <c r="N528" s="2"/>
     </row>
-    <row r="529" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="529" spans="14:14">
       <c r="N529" s="2"/>
     </row>
-    <row r="530" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="530" spans="14:14">
       <c r="N530" s="2"/>
     </row>
-    <row r="531" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="531" spans="14:14">
       <c r="N531" s="2"/>
     </row>
-    <row r="532" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="532" spans="14:14">
       <c r="N532" s="2"/>
     </row>
-    <row r="533" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="533" spans="14:14">
       <c r="N533" s="2"/>
     </row>
-    <row r="534" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="534" spans="14:14">
       <c r="N534" s="2"/>
     </row>
-    <row r="535" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="535" spans="14:14">
       <c r="N535" s="2"/>
     </row>
-    <row r="536" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="536" spans="14:14">
       <c r="N536" s="2"/>
     </row>
-    <row r="537" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="537" spans="14:14">
       <c r="N537" s="2"/>
     </row>
-    <row r="538" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="538" spans="14:14">
       <c r="N538" s="2"/>
     </row>
-    <row r="539" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="539" spans="14:14">
       <c r="N539" s="2"/>
     </row>
-    <row r="540" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="540" spans="14:14">
       <c r="N540" s="2"/>
     </row>
-    <row r="541" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="541" spans="14:14">
       <c r="N541" s="2"/>
     </row>
-    <row r="542" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="542" spans="14:14">
       <c r="N542" s="2"/>
     </row>
-    <row r="543" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="543" spans="14:14">
       <c r="N543" s="2"/>
     </row>
-    <row r="544" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="544" spans="14:14">
       <c r="N544" s="2"/>
     </row>
-    <row r="545" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="545" spans="14:14">
       <c r="N545" s="2"/>
     </row>
-    <row r="546" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="546" spans="14:14">
       <c r="N546" s="2"/>
     </row>
-    <row r="547" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="547" spans="14:14">
       <c r="N547" s="2"/>
     </row>
-    <row r="548" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="548" spans="14:14">
       <c r="N548" s="2"/>
     </row>
-    <row r="549" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="549" spans="14:14">
       <c r="N549" s="2"/>
     </row>
-    <row r="550" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="550" spans="14:14">
       <c r="N550" s="2"/>
     </row>
-    <row r="551" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="551" spans="14:14">
       <c r="N551" s="2"/>
     </row>
-    <row r="552" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="552" spans="14:14">
       <c r="N552" s="2"/>
     </row>
-    <row r="553" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="553" spans="14:14">
       <c r="N553" s="2"/>
     </row>
-    <row r="554" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="554" spans="14:14">
       <c r="N554" s="2"/>
     </row>
-    <row r="555" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="555" spans="14:14">
       <c r="N555" s="2"/>
     </row>
-    <row r="556" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="556" spans="14:14">
       <c r="N556" s="2"/>
     </row>
-    <row r="557" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="557" spans="14:14">
       <c r="N557" s="2"/>
     </row>
-    <row r="558" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="558" spans="14:14">
       <c r="N558" s="2"/>
     </row>
-    <row r="559" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="559" spans="14:14">
       <c r="N559" s="2"/>
     </row>
-    <row r="560" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="560" spans="14:14">
       <c r="N560" s="2"/>
     </row>
-    <row r="561" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="561" spans="14:14">
       <c r="N561" s="2"/>
     </row>
-    <row r="562" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="562" spans="14:14">
       <c r="N562" s="2"/>
     </row>
-    <row r="563" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="563" spans="14:14">
       <c r="N563" s="2"/>
     </row>
-    <row r="564" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="564" spans="14:14">
       <c r="N564" s="2"/>
     </row>
-    <row r="565" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="565" spans="14:14">
       <c r="N565" s="2"/>
     </row>
-    <row r="566" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="566" spans="14:14">
       <c r="N566" s="2"/>
     </row>
-    <row r="567" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="567" spans="14:14">
       <c r="N567" s="2"/>
     </row>
-    <row r="568" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="568" spans="14:14">
       <c r="N568" s="2"/>
     </row>
-    <row r="569" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="569" spans="14:14">
       <c r="N569" s="2"/>
     </row>
-    <row r="570" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="570" spans="14:14">
       <c r="N570" s="2"/>
     </row>
-    <row r="571" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="571" spans="14:14">
       <c r="N571" s="2"/>
     </row>
-    <row r="572" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="572" spans="14:14">
       <c r="N572" s="2"/>
     </row>
-    <row r="573" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="573" spans="14:14">
       <c r="N573" s="2"/>
     </row>
-    <row r="574" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="574" spans="14:14">
       <c r="N574" s="2"/>
     </row>
-    <row r="575" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="575" spans="14:14">
       <c r="N575" s="2"/>
     </row>
-    <row r="576" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="576" spans="14:14">
       <c r="N576" s="2"/>
     </row>
-    <row r="577" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="577" spans="14:14">
       <c r="N577" s="2"/>
     </row>
-    <row r="578" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="578" spans="14:14">
       <c r="N578" s="2"/>
     </row>
-    <row r="579" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="579" spans="14:14">
       <c r="N579" s="2"/>
     </row>
-    <row r="580" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="580" spans="14:14">
       <c r="N580" s="2"/>
     </row>
-    <row r="581" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="581" spans="14:14">
       <c r="N581" s="2"/>
     </row>
-    <row r="582" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="582" spans="14:14">
       <c r="N582" s="2"/>
     </row>
-    <row r="583" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="583" spans="14:14">
       <c r="N583" s="2"/>
     </row>
-    <row r="584" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="584" spans="14:14">
       <c r="N584" s="2"/>
     </row>
-    <row r="585" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="585" spans="14:14">
       <c r="N585" s="2"/>
     </row>
-    <row r="586" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="586" spans="14:14">
       <c r="N586" s="2"/>
     </row>
-    <row r="587" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="587" spans="14:14">
       <c r="N587" s="2"/>
     </row>
-    <row r="588" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="588" spans="14:14">
       <c r="N588" s="2"/>
     </row>
-    <row r="589" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="589" spans="14:14">
       <c r="N589" s="2"/>
     </row>
-    <row r="590" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="590" spans="14:14">
       <c r="N590" s="2"/>
     </row>
-    <row r="591" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="591" spans="14:14">
       <c r="N591" s="2"/>
     </row>
-    <row r="592" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="592" spans="14:14">
       <c r="N592" s="2"/>
     </row>
-    <row r="593" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="593" spans="14:14">
       <c r="N593" s="2"/>
     </row>
-    <row r="594" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="594" spans="14:14">
       <c r="N594" s="2"/>
     </row>
-    <row r="595" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="595" spans="14:14">
       <c r="N595" s="2"/>
     </row>
-    <row r="596" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="596" spans="14:14">
       <c r="N596" s="2"/>
     </row>
-    <row r="597" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="597" spans="14:14">
       <c r="N597" s="2"/>
     </row>
-    <row r="598" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="598" spans="14:14">
       <c r="N598" s="2"/>
     </row>
-    <row r="599" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="599" spans="14:14">
       <c r="N599" s="2"/>
     </row>
-    <row r="600" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="600" spans="14:14">
       <c r="N600" s="2"/>
     </row>
-    <row r="601" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="601" spans="14:14">
       <c r="N601" s="2"/>
     </row>
-    <row r="602" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="602" spans="14:14">
       <c r="N602" s="2"/>
     </row>
-    <row r="603" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="603" spans="14:14">
       <c r="N603" s="2"/>
     </row>
-    <row r="604" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="604" spans="14:14">
       <c r="N604" s="2"/>
     </row>
-    <row r="605" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="605" spans="14:14">
       <c r="N605" s="2"/>
     </row>
-    <row r="606" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="606" spans="14:14">
       <c r="N606" s="2"/>
     </row>
-    <row r="607" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="607" spans="14:14">
       <c r="N607" s="2"/>
     </row>
-    <row r="608" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="608" spans="14:14">
       <c r="N608" s="2"/>
     </row>
-    <row r="609" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="609" spans="14:14">
       <c r="N609" s="2"/>
     </row>
-    <row r="610" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="610" spans="14:14">
       <c r="N610" s="2"/>
     </row>
-    <row r="611" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="611" spans="14:14">
       <c r="N611" s="2"/>
     </row>
-    <row r="612" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="612" spans="14:14">
       <c r="N612" s="2"/>
     </row>
-    <row r="613" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="613" spans="14:14">
       <c r="N613" s="2"/>
     </row>
-    <row r="614" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="614" spans="14:14">
       <c r="N614" s="2"/>
     </row>
-    <row r="615" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="615" spans="14:14">
       <c r="N615" s="2"/>
     </row>
-    <row r="616" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="616" spans="14:14">
       <c r="N616" s="2"/>
     </row>
-    <row r="617" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="617" spans="14:14">
       <c r="N617" s="2"/>
     </row>
-    <row r="618" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="618" spans="14:14">
       <c r="N618" s="2"/>
     </row>
-    <row r="619" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="619" spans="14:14">
       <c r="N619" s="2"/>
     </row>
-    <row r="620" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="620" spans="14:14">
       <c r="N620" s="2"/>
     </row>
-    <row r="621" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="621" spans="14:14">
       <c r="N621" s="2"/>
     </row>
-    <row r="622" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="622" spans="14:14">
       <c r="N622" s="2"/>
     </row>
-    <row r="623" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="623" spans="14:14">
       <c r="N623" s="2"/>
     </row>
-    <row r="624" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="624" spans="14:14">
       <c r="N624" s="2"/>
     </row>
-    <row r="625" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="625" spans="14:14">
       <c r="N625" s="2"/>
     </row>
-    <row r="626" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="626" spans="14:14">
       <c r="N626" s="2"/>
     </row>
-    <row r="627" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="627" spans="14:14">
       <c r="N627" s="2"/>
     </row>
-    <row r="628" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="628" spans="14:14">
       <c r="N628" s="2"/>
     </row>
-    <row r="629" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="629" spans="14:14">
       <c r="N629" s="2"/>
     </row>
-    <row r="630" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="630" spans="14:14">
       <c r="N630" s="2"/>
     </row>
-    <row r="631" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="631" spans="14:14">
       <c r="N631" s="2"/>
     </row>
-    <row r="632" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="632" spans="14:14">
       <c r="N632" s="2"/>
     </row>
-    <row r="633" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="633" spans="14:14">
       <c r="N633" s="2"/>
     </row>
-    <row r="634" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="634" spans="14:14">
       <c r="N634" s="2"/>
     </row>
-    <row r="635" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="635" spans="14:14">
       <c r="N635" s="2"/>
     </row>
-    <row r="636" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="636" spans="14:14">
       <c r="N636" s="2"/>
     </row>
-    <row r="637" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="637" spans="14:14">
       <c r="N637" s="2"/>
     </row>
-    <row r="638" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="638" spans="14:14">
       <c r="N638" s="2"/>
     </row>
-    <row r="639" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="639" spans="14:14">
       <c r="N639" s="2"/>
     </row>
-    <row r="640" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="640" spans="14:14">
       <c r="N640" s="2"/>
     </row>
-    <row r="641" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="641" spans="14:14">
       <c r="N641" s="2"/>
     </row>
-    <row r="642" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="642" spans="14:14">
       <c r="N642" s="2"/>
     </row>
-    <row r="643" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="643" spans="14:14">
       <c r="N643" s="2"/>
     </row>
-    <row r="644" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="644" spans="14:14">
       <c r="N644" s="2"/>
     </row>
-    <row r="645" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="645" spans="14:14">
       <c r="N645" s="2"/>
     </row>
-    <row r="646" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="646" spans="14:14">
       <c r="N646" s="2"/>
     </row>
-    <row r="647" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="647" spans="14:14">
       <c r="N647" s="2"/>
     </row>
-    <row r="648" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="648" spans="14:14">
       <c r="N648" s="2"/>
     </row>
-    <row r="649" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="649" spans="14:14">
       <c r="N649" s="2"/>
     </row>
-    <row r="650" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="650" spans="14:14">
       <c r="N650" s="2"/>
     </row>
-    <row r="651" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="651" spans="14:14">
       <c r="N651" s="2"/>
     </row>
-    <row r="652" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="652" spans="14:14">
       <c r="N652" s="2"/>
     </row>
-    <row r="653" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="653" spans="14:14">
       <c r="N653" s="2"/>
     </row>
-    <row r="654" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="654" spans="14:14">
       <c r="N654" s="2"/>
     </row>
-    <row r="655" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="655" spans="14:14">
       <c r="N655" s="2"/>
     </row>
-    <row r="656" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="656" spans="14:14">
       <c r="N656" s="2"/>
     </row>
-    <row r="657" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="657" spans="14:14">
       <c r="N657" s="2"/>
     </row>
-    <row r="658" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="658" spans="14:14">
       <c r="N658" s="2"/>
     </row>
-    <row r="659" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="659" spans="14:14">
       <c r="N659" s="2"/>
     </row>
-    <row r="660" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="660" spans="14:14">
       <c r="N660" s="2"/>
     </row>
-    <row r="661" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="661" spans="14:14">
       <c r="N661" s="2"/>
     </row>
-    <row r="662" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="662" spans="14:14">
       <c r="N662" s="2"/>
     </row>
-    <row r="663" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="663" spans="14:14">
       <c r="N663" s="2"/>
     </row>
-    <row r="664" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="664" spans="14:14">
       <c r="N664" s="2"/>
     </row>
-    <row r="665" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="665" spans="14:14">
       <c r="N665" s="2"/>
     </row>
-    <row r="666" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="666" spans="14:14">
       <c r="N666" s="2"/>
     </row>
-    <row r="667" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="667" spans="14:14">
       <c r="N667" s="2"/>
     </row>
-    <row r="668" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="668" spans="14:14">
       <c r="N668" s="2"/>
     </row>
-    <row r="669" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="669" spans="14:14">
       <c r="N669" s="2"/>
     </row>
-    <row r="670" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="670" spans="14:14">
       <c r="N670" s="2"/>
     </row>
-    <row r="671" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="671" spans="14:14">
       <c r="N671" s="2"/>
     </row>
-    <row r="672" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="672" spans="14:14">
       <c r="N672" s="2"/>
     </row>
-    <row r="673" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="673" spans="14:14">
       <c r="N673" s="2"/>
     </row>
-    <row r="674" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="674" spans="14:14">
       <c r="N674" s="2"/>
     </row>
-    <row r="675" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="675" spans="14:14">
       <c r="N675" s="2"/>
     </row>
-    <row r="676" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="676" spans="14:14">
       <c r="N676" s="2"/>
     </row>
-    <row r="677" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="677" spans="14:14">
       <c r="N677" s="2"/>
     </row>
-    <row r="678" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="678" spans="14:14">
       <c r="N678" s="2"/>
     </row>
-    <row r="679" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="679" spans="14:14">
       <c r="N679" s="2"/>
     </row>
-    <row r="680" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="680" spans="14:14">
       <c r="N680" s="2"/>
     </row>
-    <row r="681" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="681" spans="14:14">
       <c r="N681" s="2"/>
     </row>
-    <row r="682" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="682" spans="14:14">
       <c r="N682" s="2"/>
     </row>
-    <row r="683" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="683" spans="14:14">
       <c r="N683" s="2"/>
     </row>
-    <row r="684" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="684" spans="14:14">
       <c r="N684" s="2"/>
     </row>
-    <row r="685" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="685" spans="14:14">
       <c r="N685" s="2"/>
     </row>
-    <row r="686" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="686" spans="14:14">
       <c r="N686" s="2"/>
     </row>
-    <row r="687" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="687" spans="14:14">
       <c r="N687" s="2"/>
     </row>
-    <row r="688" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="688" spans="14:14">
       <c r="N688" s="2"/>
     </row>
-    <row r="689" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="689" spans="14:14">
       <c r="N689" s="2"/>
     </row>
-    <row r="690" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="690" spans="14:14">
       <c r="N690" s="2"/>
     </row>
-    <row r="691" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="691" spans="14:14">
       <c r="N691" s="2"/>
     </row>
-    <row r="692" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="692" spans="14:14">
       <c r="N692" s="2"/>
     </row>
-    <row r="693" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="693" spans="14:14">
       <c r="N693" s="2"/>
     </row>
-    <row r="694" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="694" spans="14:14">
       <c r="N694" s="2"/>
     </row>
-    <row r="695" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="695" spans="14:14">
       <c r="N695" s="2"/>
     </row>
-    <row r="696" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="696" spans="14:14">
       <c r="N696" s="2"/>
     </row>
-    <row r="697" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="697" spans="14:14">
       <c r="N697" s="2"/>
     </row>
-    <row r="698" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="698" spans="14:14">
       <c r="N698" s="2"/>
     </row>
-    <row r="699" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="699" spans="14:14">
       <c r="N699" s="2"/>
     </row>
-    <row r="700" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="700" spans="14:14">
       <c r="N700" s="2"/>
     </row>
-    <row r="701" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="701" spans="14:14">
       <c r="N701" s="2"/>
     </row>
-    <row r="702" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="702" spans="14:14">
       <c r="N702" s="2"/>
     </row>
-    <row r="703" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="703" spans="14:14">
       <c r="N703" s="2"/>
     </row>
-    <row r="704" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="704" spans="14:14">
       <c r="N704" s="2"/>
     </row>
-    <row r="705" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="705" spans="14:14">
       <c r="N705" s="2"/>
     </row>
-    <row r="706" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="706" spans="14:14">
       <c r="N706" s="2"/>
     </row>
-    <row r="707" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="707" spans="14:14">
       <c r="N707" s="2"/>
     </row>
-    <row r="708" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="708" spans="14:14">
       <c r="N708" s="2"/>
     </row>
-    <row r="709" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="709" spans="14:14">
       <c r="N709" s="2"/>
     </row>
-    <row r="710" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="710" spans="14:14">
       <c r="N710" s="2"/>
     </row>
-    <row r="711" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="711" spans="14:14">
       <c r="N711" s="2"/>
     </row>
-    <row r="712" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="712" spans="14:14">
       <c r="N712" s="2"/>
     </row>
-    <row r="713" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="713" spans="14:14">
       <c r="N713" s="2"/>
     </row>
-    <row r="714" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="714" spans="14:14">
       <c r="N714" s="2"/>
     </row>
-    <row r="715" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="715" spans="14:14">
       <c r="N715" s="2"/>
     </row>
-    <row r="716" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="716" spans="14:14">
       <c r="N716" s="2"/>
     </row>
-    <row r="717" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="717" spans="14:14">
       <c r="N717" s="2"/>
     </row>
-    <row r="718" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="718" spans="14:14">
       <c r="N718" s="2"/>
     </row>
-    <row r="719" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="719" spans="14:14">
       <c r="N719" s="2"/>
     </row>
-    <row r="720" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="720" spans="14:14">
       <c r="N720" s="2"/>
     </row>
-    <row r="721" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="721" spans="14:14">
       <c r="N721" s="2"/>
     </row>
-    <row r="722" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="722" spans="14:14">
       <c r="N722" s="2"/>
     </row>
-    <row r="723" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="723" spans="14:14">
       <c r="N723" s="2"/>
     </row>
-    <row r="724" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="724" spans="14:14">
       <c r="N724" s="2"/>
     </row>
-    <row r="725" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="725" spans="14:14">
       <c r="N725" s="2"/>
     </row>
-    <row r="726" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="726" spans="14:14">
       <c r="N726" s="2"/>
     </row>
-    <row r="727" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="727" spans="14:14">
       <c r="N727" s="2"/>
     </row>
-    <row r="728" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="728" spans="14:14">
       <c r="N728" s="2"/>
     </row>
-    <row r="729" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="729" spans="14:14">
       <c r="N729" s="2"/>
     </row>
-    <row r="730" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="730" spans="14:14">
       <c r="N730" s="2"/>
     </row>
-    <row r="731" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="731" spans="14:14">
       <c r="N731" s="2"/>
     </row>
-    <row r="732" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="732" spans="14:14">
       <c r="N732" s="2"/>
     </row>
-    <row r="733" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="733" spans="14:14">
       <c r="N733" s="2"/>
     </row>
-    <row r="734" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="734" spans="14:14">
       <c r="N734" s="2"/>
     </row>
-    <row r="735" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="735" spans="14:14">
       <c r="N735" s="2"/>
     </row>
-    <row r="736" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="736" spans="14:14">
       <c r="N736" s="2"/>
     </row>
-    <row r="737" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="737" spans="14:14">
       <c r="N737" s="2"/>
     </row>
-    <row r="738" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="738" spans="14:14">
       <c r="N738" s="2"/>
     </row>
-    <row r="739" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="739" spans="14:14">
       <c r="N739" s="2"/>
     </row>
-    <row r="740" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="740" spans="14:14">
       <c r="N740" s="2"/>
     </row>
-    <row r="741" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="741" spans="14:14">
       <c r="N741" s="2"/>
     </row>
-    <row r="742" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="742" spans="14:14">
       <c r="N742" s="2"/>
     </row>
-    <row r="743" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="743" spans="14:14">
       <c r="N743" s="2"/>
     </row>
-    <row r="744" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="744" spans="14:14">
       <c r="N744" s="2"/>
     </row>
-    <row r="745" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="745" spans="14:14">
       <c r="N745" s="2"/>
     </row>
-    <row r="746" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="746" spans="14:14">
       <c r="N746" s="2"/>
     </row>
-    <row r="747" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="747" spans="14:14">
       <c r="N747" s="2"/>
     </row>
-    <row r="748" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="748" spans="14:14">
       <c r="N748" s="2"/>
     </row>
-    <row r="749" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="749" spans="14:14">
       <c r="N749" s="2"/>
     </row>
-    <row r="750" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="750" spans="14:14">
       <c r="N750" s="2"/>
     </row>
-    <row r="751" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="751" spans="14:14">
       <c r="N751" s="2"/>
     </row>
-    <row r="752" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="752" spans="14:14">
       <c r="N752" s="2"/>
     </row>
-    <row r="753" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="753" spans="14:14">
       <c r="N753" s="2"/>
     </row>
-    <row r="754" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="754" spans="14:14">
       <c r="N754" s="2"/>
     </row>
-    <row r="755" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="755" spans="14:14">
       <c r="N755" s="2"/>
     </row>
-    <row r="756" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="756" spans="14:14">
       <c r="N756" s="2"/>
     </row>
-    <row r="757" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="757" spans="14:14">
       <c r="N757" s="2"/>
     </row>
-    <row r="758" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="758" spans="14:14">
       <c r="N758" s="2"/>
     </row>
-    <row r="759" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="759" spans="14:14">
       <c r="N759" s="2"/>
     </row>
-    <row r="760" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="760" spans="14:14">
       <c r="N760" s="2"/>
     </row>
-    <row r="761" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="761" spans="14:14">
       <c r="N761" s="2"/>
     </row>
-    <row r="762" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="762" spans="14:14">
       <c r="N762" s="2"/>
     </row>
-    <row r="763" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="763" spans="14:14">
       <c r="N763" s="2"/>
     </row>
-    <row r="764" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="764" spans="14:14">
       <c r="N764" s="2"/>
     </row>
-    <row r="765" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="765" spans="14:14">
       <c r="N765" s="2"/>
     </row>
-    <row r="766" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="766" spans="14:14">
       <c r="N766" s="2"/>
     </row>
-    <row r="767" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="767" spans="14:14">
       <c r="N767" s="2"/>
     </row>
-    <row r="768" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="768" spans="14:14">
       <c r="N768" s="2"/>
     </row>
-    <row r="769" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="769" spans="14:14">
       <c r="N769" s="2"/>
     </row>
-    <row r="770" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="770" spans="14:14">
       <c r="N770" s="2"/>
     </row>
-    <row r="771" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="771" spans="14:14">
       <c r="N771" s="2"/>
     </row>
-    <row r="772" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="772" spans="14:14">
       <c r="N772" s="2"/>
     </row>
-    <row r="773" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="773" spans="14:14">
       <c r="N773" s="2"/>
     </row>
-    <row r="774" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="774" spans="14:14">
       <c r="N774" s="2"/>
     </row>
-    <row r="775" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="775" spans="14:14">
       <c r="N775" s="2"/>
     </row>
-    <row r="776" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="776" spans="14:14">
       <c r="N776" s="2"/>
     </row>
-    <row r="777" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="777" spans="14:14">
       <c r="N777" s="2"/>
     </row>
-    <row r="778" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="778" spans="14:14">
       <c r="N778" s="2"/>
     </row>
-    <row r="779" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="779" spans="14:14">
       <c r="N779" s="2"/>
     </row>
-    <row r="780" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="780" spans="14:14">
       <c r="N780" s="2"/>
     </row>
-    <row r="781" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="781" spans="14:14">
       <c r="N781" s="2"/>
     </row>
-    <row r="782" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="782" spans="14:14">
       <c r="N782" s="2"/>
     </row>
-    <row r="783" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="783" spans="14:14">
       <c r="N783" s="2"/>
     </row>
-    <row r="784" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="784" spans="14:14">
       <c r="N784" s="2"/>
     </row>
-    <row r="785" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="785" spans="14:14">
       <c r="N785" s="2"/>
     </row>
-    <row r="786" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="786" spans="14:14">
       <c r="N786" s="2"/>
     </row>
-    <row r="787" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="787" spans="14:14">
       <c r="N787" s="2"/>
     </row>
-    <row r="788" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="788" spans="14:14">
       <c r="N788" s="2"/>
     </row>
-    <row r="789" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="789" spans="14:14">
       <c r="N789" s="2"/>
     </row>
-    <row r="790" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="790" spans="14:14">
       <c r="N790" s="2"/>
     </row>
-    <row r="791" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="791" spans="14:14">
       <c r="N791" s="2"/>
     </row>
-    <row r="792" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="792" spans="14:14">
       <c r="N792" s="2"/>
     </row>
-    <row r="793" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="793" spans="14:14">
       <c r="N793" s="2"/>
     </row>
-    <row r="794" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="794" spans="14:14">
       <c r="N794" s="2"/>
     </row>
-    <row r="795" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="795" spans="14:14">
       <c r="N795" s="2"/>
     </row>
-    <row r="796" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="796" spans="14:14">
       <c r="N796" s="2"/>
     </row>
-    <row r="797" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="797" spans="14:14">
       <c r="N797" s="2"/>
     </row>
-    <row r="798" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="798" spans="14:14">
       <c r="N798" s="2"/>
     </row>
-    <row r="799" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="799" spans="14:14">
       <c r="N799" s="2"/>
     </row>
-    <row r="800" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="800" spans="14:14">
       <c r="N800" s="2"/>
     </row>
-    <row r="801" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="801" spans="14:14">
       <c r="N801" s="2"/>
     </row>
-    <row r="802" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="802" spans="14:14">
       <c r="N802" s="2"/>
     </row>
-    <row r="803" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="803" spans="14:14">
       <c r="N803" s="2"/>
     </row>
-    <row r="804" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="804" spans="14:14">
       <c r="N804" s="2"/>
     </row>
-    <row r="805" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="805" spans="14:14">
       <c r="N805" s="2"/>
     </row>
-    <row r="806" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="806" spans="14:14">
       <c r="N806" s="2"/>
     </row>
-    <row r="807" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="807" spans="14:14">
       <c r="N807" s="2"/>
     </row>
-    <row r="808" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="808" spans="14:14">
       <c r="N808" s="2"/>
     </row>
-    <row r="809" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="809" spans="14:14">
       <c r="N809" s="2"/>
     </row>
-    <row r="810" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="810" spans="14:14">
       <c r="N810" s="2"/>
     </row>
-    <row r="811" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="811" spans="14:14">
       <c r="N811" s="2"/>
     </row>
-    <row r="812" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="812" spans="14:14">
       <c r="N812" s="2"/>
     </row>
-    <row r="813" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="813" spans="14:14">
       <c r="N813" s="2"/>
     </row>
-    <row r="814" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="814" spans="14:14">
       <c r="N814" s="2"/>
     </row>
-    <row r="815" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="815" spans="14:14">
       <c r="N815" s="2"/>
     </row>
-    <row r="816" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="816" spans="14:14">
       <c r="N816" s="2"/>
     </row>
-    <row r="817" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="817" spans="14:14">
       <c r="N817" s="2"/>
     </row>
-    <row r="818" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="818" spans="14:14">
       <c r="N818" s="2"/>
     </row>
-    <row r="819" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="819" spans="14:14">
       <c r="N819" s="2"/>
     </row>
-    <row r="820" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="820" spans="14:14">
       <c r="N820" s="2"/>
     </row>
-    <row r="821" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="821" spans="14:14">
       <c r="N821" s="2"/>
     </row>
-    <row r="822" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="822" spans="14:14">
       <c r="N822" s="2"/>
     </row>
-    <row r="823" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="823" spans="14:14">
       <c r="N823" s="2"/>
     </row>
-    <row r="824" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="824" spans="14:14">
       <c r="N824" s="2"/>
     </row>
-    <row r="825" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="825" spans="14:14">
       <c r="N825" s="2"/>
     </row>
-    <row r="826" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="826" spans="14:14">
       <c r="N826" s="2"/>
     </row>
-    <row r="827" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="827" spans="14:14">
       <c r="N827" s="2"/>
     </row>
-    <row r="828" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="828" spans="14:14">
       <c r="N828" s="2"/>
     </row>
-    <row r="829" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="829" spans="14:14">
       <c r="N829" s="2"/>
     </row>
-    <row r="830" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="830" spans="14:14">
       <c r="N830" s="2"/>
     </row>
-    <row r="831" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="831" spans="14:14">
       <c r="N831" s="2"/>
     </row>
-    <row r="832" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="832" spans="14:14">
       <c r="N832" s="2"/>
     </row>
-    <row r="833" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="833" spans="14:14">
       <c r="N833" s="2"/>
     </row>
-    <row r="834" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="834" spans="14:14">
       <c r="N834" s="2"/>
     </row>
-    <row r="835" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="835" spans="14:14">
       <c r="N835" s="2"/>
     </row>
-    <row r="836" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="836" spans="14:14">
       <c r="N836" s="2"/>
     </row>
-    <row r="837" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="837" spans="14:14">
       <c r="N837" s="2"/>
     </row>
-    <row r="838" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="838" spans="14:14">
       <c r="N838" s="2"/>
     </row>
-    <row r="839" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="839" spans="14:14">
       <c r="N839" s="2"/>
     </row>
-    <row r="840" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="840" spans="14:14">
       <c r="N840" s="2"/>
     </row>
-    <row r="841" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="841" spans="14:14">
       <c r="N841" s="2"/>
     </row>
-    <row r="842" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="842" spans="14:14">
       <c r="N842" s="2"/>
     </row>
-    <row r="843" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="843" spans="14:14">
       <c r="N843" s="2"/>
     </row>
-    <row r="844" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="844" spans="14:14">
       <c r="N844" s="2"/>
     </row>
-    <row r="845" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="845" spans="14:14">
       <c r="N845" s="2"/>
     </row>
-    <row r="846" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="846" spans="14:14">
       <c r="N846" s="2"/>
     </row>
-    <row r="847" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="847" spans="14:14">
       <c r="N847" s="2"/>
     </row>
-    <row r="848" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="848" spans="14:14">
       <c r="N848" s="2"/>
     </row>
-    <row r="849" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="849" spans="14:14">
       <c r="N849" s="2"/>
     </row>
-    <row r="850" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="850" spans="14:14">
       <c r="N850" s="2"/>
     </row>
-    <row r="851" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="851" spans="14:14">
       <c r="N851" s="2"/>
     </row>
-    <row r="852" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="852" spans="14:14">
       <c r="N852" s="2"/>
     </row>
-    <row r="853" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="853" spans="14:14">
       <c r="N853" s="2"/>
     </row>
-    <row r="854" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="854" spans="14:14">
       <c r="N854" s="2"/>
     </row>
-    <row r="855" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="855" spans="14:14">
       <c r="N855" s="2"/>
     </row>
-    <row r="856" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="856" spans="14:14">
       <c r="N856" s="2"/>
     </row>
-    <row r="857" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="857" spans="14:14">
       <c r="N857" s="2"/>
     </row>
-    <row r="858" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="858" spans="14:14">
       <c r="N858" s="2"/>
     </row>
-    <row r="859" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="859" spans="14:14">
       <c r="N859" s="2"/>
     </row>
-    <row r="860" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="860" spans="14:14">
       <c r="N860" s="2"/>
     </row>
-    <row r="861" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="861" spans="14:14">
       <c r="N861" s="2"/>
     </row>
-    <row r="862" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="862" spans="14:14">
       <c r="N862" s="2"/>
     </row>
-    <row r="863" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="863" spans="14:14">
       <c r="N863" s="2"/>
     </row>
-    <row r="864" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="864" spans="14:14">
       <c r="N864" s="2"/>
     </row>
-    <row r="865" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="865" spans="14:14">
       <c r="N865" s="2"/>
     </row>
-    <row r="866" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="866" spans="14:14">
       <c r="N866" s="2"/>
     </row>
-    <row r="867" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="867" spans="14:14">
       <c r="N867" s="2"/>
     </row>
-    <row r="868" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="868" spans="14:14">
       <c r="N868" s="2"/>
     </row>
-    <row r="869" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="869" spans="14:14">
       <c r="N869" s="2"/>
     </row>
-    <row r="870" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="870" spans="14:14">
       <c r="N870" s="2"/>
     </row>
-    <row r="871" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="871" spans="14:14">
       <c r="N871" s="2"/>
     </row>
-    <row r="872" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="872" spans="14:14">
       <c r="N872" s="2"/>
     </row>
-    <row r="873" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="873" spans="14:14">
       <c r="N873" s="2"/>
     </row>
-    <row r="874" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="874" spans="14:14">
       <c r="N874" s="2"/>
     </row>
-    <row r="875" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="875" spans="14:14">
       <c r="N875" s="2"/>
     </row>
-    <row r="876" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="876" spans="14:14">
       <c r="N876" s="2"/>
     </row>
-    <row r="877" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="877" spans="14:14">
       <c r="N877" s="2"/>
     </row>
-    <row r="878" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="878" spans="14:14">
       <c r="N878" s="2"/>
     </row>
-    <row r="879" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="879" spans="14:14">
       <c r="N879" s="2"/>
     </row>
-    <row r="880" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="880" spans="14:14">
       <c r="N880" s="2"/>
     </row>
-    <row r="881" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="881" spans="14:14">
       <c r="N881" s="2"/>
     </row>
-    <row r="882" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="882" spans="14:14">
       <c r="N882" s="2"/>
     </row>
-    <row r="883" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="883" spans="14:14">
       <c r="N883" s="2"/>
     </row>
-    <row r="884" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="884" spans="14:14">
       <c r="N884" s="2"/>
     </row>
-    <row r="885" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="885" spans="14:14">
       <c r="N885" s="2"/>
     </row>
-    <row r="886" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="886" spans="14:14">
       <c r="N886" s="2"/>
     </row>
-    <row r="887" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="887" spans="14:14">
       <c r="N887" s="2"/>
     </row>
-    <row r="888" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="888" spans="14:14">
       <c r="N888" s="2"/>
     </row>
-    <row r="889" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="889" spans="14:14">
       <c r="N889" s="2"/>
     </row>
-    <row r="890" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="890" spans="14:14">
       <c r="N890" s="2"/>
     </row>
-    <row r="891" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="891" spans="14:14">
       <c r="N891" s="2"/>
     </row>
-    <row r="892" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="892" spans="14:14">
       <c r="N892" s="2"/>
     </row>
-    <row r="893" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="893" spans="14:14">
       <c r="N893" s="2"/>
     </row>
-    <row r="894" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="894" spans="14:14">
       <c r="N894" s="2"/>
     </row>
-    <row r="895" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="895" spans="14:14">
       <c r="N895" s="2"/>
     </row>
-    <row r="896" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="896" spans="14:14">
       <c r="N896" s="2"/>
     </row>
-    <row r="897" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="897" spans="14:14">
       <c r="N897" s="2"/>
     </row>
-    <row r="898" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="898" spans="14:14">
       <c r="N898" s="2"/>
     </row>
-    <row r="899" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="899" spans="14:14">
       <c r="N899" s="2"/>
     </row>
-    <row r="900" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="900" spans="14:14">
       <c r="N900" s="2"/>
     </row>
-    <row r="901" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="901" spans="14:14">
       <c r="N901" s="2"/>
     </row>
-    <row r="902" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="902" spans="14:14">
       <c r="N902" s="2"/>
     </row>
-    <row r="903" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="903" spans="14:14">
       <c r="N903" s="2"/>
     </row>
-    <row r="904" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="904" spans="14:14">
       <c r="N904" s="2"/>
     </row>
-    <row r="905" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="905" spans="14:14">
       <c r="N905" s="2"/>
     </row>
-    <row r="906" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="906" spans="14:14">
       <c r="N906" s="2"/>
     </row>
-    <row r="907" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="907" spans="14:14">
       <c r="N907" s="2"/>
     </row>
-    <row r="908" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="908" spans="14:14">
       <c r="N908" s="2"/>
     </row>
-    <row r="909" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="909" spans="14:14">
       <c r="N909" s="2"/>
     </row>
-    <row r="910" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="910" spans="14:14">
       <c r="N910" s="2"/>
     </row>
-    <row r="911" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="911" spans="14:14">
       <c r="N911" s="2"/>
     </row>
-    <row r="912" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="912" spans="14:14">
       <c r="N912" s="2"/>
     </row>
-    <row r="913" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="913" spans="14:14">
       <c r="N913" s="2"/>
     </row>
-    <row r="914" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="914" spans="14:14">
       <c r="N914" s="2"/>
     </row>
-    <row r="915" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="915" spans="14:14">
       <c r="N915" s="2"/>
     </row>
-    <row r="916" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="916" spans="14:14">
       <c r="N916" s="2"/>
     </row>
-    <row r="917" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="917" spans="14:14">
       <c r="N917" s="2"/>
     </row>
-    <row r="918" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="918" spans="14:14">
       <c r="N918" s="2"/>
     </row>
-    <row r="919" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="919" spans="14:14">
       <c r="N919" s="2"/>
     </row>
-    <row r="920" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="920" spans="14:14">
       <c r="N920" s="2"/>
     </row>
-    <row r="921" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="921" spans="14:14">
       <c r="N921" s="2"/>
     </row>
-    <row r="922" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="922" spans="14:14">
       <c r="N922" s="2"/>
     </row>
-    <row r="923" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="923" spans="14:14">
       <c r="N923" s="2"/>
     </row>
-    <row r="924" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="924" spans="14:14">
       <c r="N924" s="2"/>
     </row>
-    <row r="925" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="925" spans="14:14">
       <c r="N925" s="2"/>
     </row>
-    <row r="926" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="926" spans="14:14">
       <c r="N926" s="2"/>
     </row>
-    <row r="927" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="927" spans="14:14">
       <c r="N927" s="2"/>
     </row>
-    <row r="928" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="928" spans="14:14">
       <c r="N928" s="2"/>
     </row>
-    <row r="929" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="929" spans="14:14">
       <c r="N929" s="2"/>
     </row>
-    <row r="930" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="930" spans="14:14">
       <c r="N930" s="2"/>
     </row>
-    <row r="931" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="931" spans="14:14">
       <c r="N931" s="2"/>
     </row>
-    <row r="932" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="932" spans="14:14">
       <c r="N932" s="2"/>
     </row>
-    <row r="933" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="933" spans="14:14">
       <c r="N933" s="2"/>
     </row>
-    <row r="934" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="934" spans="14:14">
       <c r="N934" s="2"/>
     </row>
-    <row r="935" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="935" spans="14:14">
       <c r="N935" s="2"/>
     </row>
-    <row r="936" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="936" spans="14:14">
       <c r="N936" s="2"/>
     </row>
-    <row r="937" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="937" spans="14:14">
       <c r="N937" s="2"/>
     </row>
-    <row r="938" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="938" spans="14:14">
       <c r="N938" s="2"/>
     </row>
-    <row r="939" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="939" spans="14:14">
       <c r="N939" s="2"/>
     </row>
-    <row r="940" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="940" spans="14:14">
       <c r="N940" s="2"/>
     </row>
-    <row r="941" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="941" spans="14:14">
       <c r="N941" s="2"/>
     </row>
-    <row r="942" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="942" spans="14:14">
       <c r="N942" s="2"/>
     </row>
-    <row r="943" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="943" spans="14:14">
       <c r="N943" s="2"/>
     </row>
-    <row r="944" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="944" spans="14:14">
       <c r="N944" s="2"/>
     </row>
-    <row r="945" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="945" spans="14:14">
       <c r="N945" s="2"/>
     </row>
-    <row r="946" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="946" spans="14:14">
       <c r="N946" s="2"/>
     </row>
-    <row r="947" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="947" spans="14:14">
       <c r="N947" s="2"/>
     </row>
-    <row r="948" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="948" spans="14:14">
       <c r="N948" s="2"/>
     </row>
-    <row r="949" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="949" spans="14:14">
       <c r="N949" s="2"/>
     </row>
-    <row r="950" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="950" spans="14:14">
       <c r="N950" s="2"/>
     </row>
-    <row r="951" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="951" spans="14:14">
       <c r="N951" s="2"/>
     </row>
-    <row r="952" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="952" spans="14:14">
       <c r="N952" s="2"/>
     </row>
-    <row r="953" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="953" spans="14:14">
       <c r="N953" s="2"/>
     </row>
-    <row r="954" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="954" spans="14:14">
       <c r="N954" s="2"/>
     </row>
-    <row r="955" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="955" spans="14:14">
       <c r="N955" s="2"/>
     </row>
-    <row r="956" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="956" spans="14:14">
       <c r="N956" s="2"/>
     </row>
-    <row r="957" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="957" spans="14:14">
       <c r="N957" s="2"/>
     </row>
-    <row r="958" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="958" spans="14:14">
       <c r="N958" s="2"/>
     </row>
-    <row r="959" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="959" spans="14:14">
       <c r="N959" s="2"/>
     </row>
-    <row r="960" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="960" spans="14:14">
       <c r="N960" s="2"/>
     </row>
-    <row r="961" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="961" spans="14:14">
       <c r="N961" s="2"/>
     </row>
-    <row r="962" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="962" spans="14:14">
       <c r="N962" s="2"/>
     </row>
-    <row r="963" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="963" spans="14:14">
       <c r="N963" s="2"/>
     </row>
-    <row r="964" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="964" spans="14:14">
       <c r="N964" s="2"/>
     </row>
-    <row r="965" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="965" spans="14:14">
       <c r="N965" s="2"/>
     </row>
-    <row r="966" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="966" spans="14:14">
       <c r="N966" s="2"/>
     </row>
-    <row r="967" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="967" spans="14:14">
       <c r="N967" s="2"/>
     </row>
-    <row r="968" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="968" spans="14:14">
       <c r="N968" s="2"/>
     </row>
-    <row r="969" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="969" spans="14:14">
       <c r="N969" s="2"/>
     </row>
-    <row r="970" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="970" spans="14:14">
       <c r="N970" s="2"/>
     </row>
-    <row r="971" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="971" spans="14:14">
       <c r="N971" s="2"/>
     </row>
-    <row r="972" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="972" spans="14:14">
       <c r="N972" s="2"/>
     </row>
-    <row r="973" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="973" spans="14:14">
       <c r="N973" s="2"/>
     </row>
-    <row r="974" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="974" spans="14:14">
       <c r="N974" s="2"/>
     </row>
-    <row r="975" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="975" spans="14:14">
       <c r="N975" s="2"/>
     </row>
-    <row r="976" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="976" spans="14:14">
       <c r="N976" s="2"/>
     </row>
-    <row r="977" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="977" spans="14:14">
       <c r="N977" s="2"/>
     </row>
-    <row r="978" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="978" spans="14:14">
       <c r="N978" s="2"/>
     </row>
-    <row r="979" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="979" spans="14:14">
       <c r="N979" s="2"/>
     </row>
-    <row r="980" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="980" spans="14:14">
       <c r="N980" s="2"/>
     </row>
-    <row r="981" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="981" spans="14:14">
       <c r="N981" s="2"/>
     </row>
-    <row r="982" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="982" spans="14:14">
       <c r="N982" s="2"/>
     </row>
-    <row r="983" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="983" spans="14:14">
       <c r="N983" s="2"/>
     </row>
-    <row r="984" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="984" spans="14:14">
       <c r="N984" s="2"/>
     </row>
-    <row r="985" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="985" spans="14:14">
       <c r="N985" s="2"/>
     </row>
-    <row r="986" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="986" spans="14:14">
       <c r="N986" s="2"/>
     </row>
-    <row r="987" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="987" spans="14:14">
       <c r="N987" s="2"/>
     </row>
-    <row r="988" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="988" spans="14:14">
       <c r="N988" s="2"/>
     </row>
-    <row r="989" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="989" spans="14:14">
       <c r="N989" s="2"/>
     </row>
-    <row r="990" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="990" spans="14:14">
       <c r="N990" s="2"/>
     </row>
-    <row r="991" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="991" spans="14:14">
       <c r="N991" s="2"/>
     </row>
-    <row r="992" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="992" spans="14:14">
       <c r="N992" s="2"/>
     </row>
-    <row r="993" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="993" spans="14:14">
       <c r="N993" s="2"/>
     </row>
-    <row r="994" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="994" spans="14:14">
       <c r="N994" s="2"/>
     </row>
-    <row r="995" spans="14:14" x14ac:dyDescent="0.2">
+    <row r="995" spans="14:14">
       <c r="N995" s="2"/>
-    </row>
-    <row r="996" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N996" s="2"/>
-    </row>
-    <row r="997" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N997" s="2"/>
-    </row>
-    <row r="998" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N998" s="2"/>
-    </row>
-    <row r="999" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N999" s="2"/>
-    </row>
-    <row r="1000" spans="14:14" x14ac:dyDescent="0.2">
-      <c r="N1000" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{44629649-B987-4DD5-B0DD-B61C81ACEDE4}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$A$2:$A$26</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A4 A501:A1000</xm:sqref>
+          <xm:sqref>A496:A995</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{12B9D938-FE5E-4AF3-9A1B-94D7C4FF4296}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>M2:M1000</xm:sqref>
+          <xm:sqref>M2:M995</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{17CAC63D-4026-4E45-B57C-63A4D06AF7A8}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$A$2:$A$27</xm:f>
           </x14:formula1>
-          <xm:sqref>A5:A500</xm:sqref>
+          <xm:sqref>A2:A495</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40512366-5312-46CC-93E5-6AC133CF5D59}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N1000</xm:sqref>
+          <xm:sqref>N2:N995</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{37743563-406A-4133-B9A3-A13367BE28A7}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$D$2:$D$6</xm:f>
           </x14:formula1>
-          <xm:sqref>O2:O1000</xm:sqref>
+          <xm:sqref>O501:O995</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7A659BD7-DA4A-0448-B0D1-5C8CAE2819D3}">
           <x14:formula1>
             <xm:f>'Списки ввода'!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q500</xm:sqref>
+          <xm:sqref>Q2:Q495</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E6A945E-989D-43E8-867A-BA72CF325D17}">
+          <x14:formula1>
+            <xm:f>'Списки ввода'!$D$2:$D$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>O2:O500</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12720,246 +12509,246 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.1328125" customWidth="1"/>
     <col min="2" max="2" width="27.33203125" customWidth="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
     <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>84</v>
+      <c r="E5" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
         <v>14</v>
       </c>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="C27" s="1"/>
     </row>
   </sheetData>
@@ -12976,24 +12765,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91409B47-9852-A143-B2A1-C654B176FF6D}">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I33" sqref="A33:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33:H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="24.83203125" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" customWidth="1"/>
+    <col min="3" max="3" width="27.46484375" customWidth="1"/>
+    <col min="4" max="4" width="24.796875" customWidth="1"/>
+    <col min="5" max="5" width="25.1328125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="60.83203125" customWidth="1"/>
+    <col min="8" max="8" width="60.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -13003,7 +12792,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="69" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -13013,7 +12802,7 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="17"/>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
@@ -13023,7 +12812,7 @@
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -13033,7 +12822,7 @@
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="25.5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -13043,7 +12832,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="18"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
@@ -13053,7 +12842,7 @@
       <c r="G6" s="18"/>
       <c r="H6" s="18"/>
     </row>
-    <row r="7" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14.65" thickBot="1">
       <c r="A7" s="18"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
@@ -13063,13 +12852,13 @@
       <c r="G7" s="18"/>
       <c r="H7" s="18"/>
     </row>
-    <row r="8" spans="1:8" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="25.9" thickBot="1">
       <c r="A8" s="22" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B8" s="23"/>
       <c r="C8" s="19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -13077,13 +12866,13 @@
       <c r="G8" s="20"/>
       <c r="H8" s="21"/>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="28" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -13091,7 +12880,7 @@
       <c r="G9" s="28"/>
       <c r="H9" s="29"/>
     </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="45" customHeight="1">
       <c r="A10" s="26"/>
       <c r="B10" s="27"/>
       <c r="C10" s="14"/>
@@ -13101,13 +12890,13 @@
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1">
       <c r="A11" s="11" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="13" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -13115,7 +12904,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="14"/>
@@ -13125,13 +12914,13 @@
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="15" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="13" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
@@ -13139,7 +12928,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="37.049999999999997" customHeight="1">
       <c r="A14" s="11"/>
       <c r="B14" s="12"/>
       <c r="C14" s="14"/>
@@ -13149,13 +12938,13 @@
       <c r="G14" s="14"/>
       <c r="H14" s="15"/>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="15" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="13" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -13163,7 +12952,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="15"/>
     </row>
-    <row r="16" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="24" customHeight="1">
       <c r="A16" s="11"/>
       <c r="B16" s="12"/>
       <c r="C16" s="14"/>
@@ -13173,13 +12962,13 @@
       <c r="G16" s="14"/>
       <c r="H16" s="15"/>
     </row>
-    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="13" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -13187,7 +12976,7 @@
       <c r="G17" s="14"/>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="24" customHeight="1">
       <c r="A18" s="11"/>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -13197,13 +12986,13 @@
       <c r="G18" s="14"/>
       <c r="H18" s="15"/>
     </row>
-    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="14"/>
@@ -13211,7 +13000,7 @@
       <c r="G19" s="14"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="23" customHeight="1">
       <c r="A20" s="11"/>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
@@ -13221,13 +13010,13 @@
       <c r="G20" s="14"/>
       <c r="H20" s="15"/>
     </row>
-    <row r="21" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D21" s="14"/>
       <c r="E21" s="14"/>
@@ -13235,7 +13024,7 @@
       <c r="G21" s="14"/>
       <c r="H21" s="15"/>
     </row>
-    <row r="22" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="26" customHeight="1">
       <c r="A22" s="11"/>
       <c r="B22" s="12"/>
       <c r="C22" s="14"/>
@@ -13245,13 +13034,13 @@
       <c r="G22" s="14"/>
       <c r="H22" s="15"/>
     </row>
-    <row r="23" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="26" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="B23" s="12"/>
       <c r="C23" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="14"/>
@@ -13259,7 +13048,7 @@
       <c r="G23" s="14"/>
       <c r="H23" s="15"/>
     </row>
-    <row r="24" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="26" customHeight="1">
       <c r="A24" s="11"/>
       <c r="B24" s="12"/>
       <c r="C24" s="14"/>
@@ -13269,13 +13058,13 @@
       <c r="G24" s="14"/>
       <c r="H24" s="15"/>
     </row>
-    <row r="25" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="26" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="14"/>
@@ -13283,7 +13072,7 @@
       <c r="G25" s="14"/>
       <c r="H25" s="15"/>
     </row>
-    <row r="26" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="26" customHeight="1">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
       <c r="C26" s="14"/>
@@ -13293,13 +13082,13 @@
       <c r="G26" s="14"/>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="26" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D27" s="14"/>
       <c r="E27" s="14"/>
@@ -13307,7 +13096,7 @@
       <c r="G27" s="14"/>
       <c r="H27" s="15"/>
     </row>
-    <row r="28" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="26" customHeight="1">
       <c r="A28" s="11"/>
       <c r="B28" s="12"/>
       <c r="C28" s="14"/>
@@ -13317,13 +13106,13 @@
       <c r="G28" s="14"/>
       <c r="H28" s="15"/>
     </row>
-    <row r="29" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="26" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B29" s="12"/>
       <c r="C29" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D29" s="14"/>
       <c r="E29" s="14"/>
@@ -13331,7 +13120,7 @@
       <c r="G29" s="14"/>
       <c r="H29" s="15"/>
     </row>
-    <row r="30" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="26" customHeight="1">
       <c r="A30" s="11"/>
       <c r="B30" s="12"/>
       <c r="C30" s="14"/>
@@ -13341,13 +13130,13 @@
       <c r="G30" s="14"/>
       <c r="H30" s="15"/>
     </row>
-    <row r="31" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="26" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B31" s="12"/>
       <c r="C31" s="13" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="D31" s="14"/>
       <c r="E31" s="14"/>
@@ -13355,7 +13144,7 @@
       <c r="G31" s="14"/>
       <c r="H31" s="15"/>
     </row>
-    <row r="32" spans="1:8" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="26" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="14"/>
@@ -13365,13 +13154,13 @@
       <c r="G32" s="14"/>
       <c r="H32" s="15"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B33" s="12"/>
       <c r="C33" s="13" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
@@ -13379,7 +13168,7 @@
       <c r="G33" s="14"/>
       <c r="H33" s="15"/>
     </row>
-    <row r="34" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="63.75" customHeight="1">
       <c r="A34" s="11"/>
       <c r="B34" s="12"/>
       <c r="C34" s="14"/>
@@ -13389,13 +13178,13 @@
       <c r="G34" s="14"/>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8">
       <c r="A35" s="11" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B35" s="12"/>
       <c r="C35" s="13" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D35" s="14"/>
       <c r="E35" s="14"/>
@@ -13403,7 +13192,7 @@
       <c r="G35" s="14"/>
       <c r="H35" s="15"/>
     </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="20" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="12"/>
       <c r="C36" s="14"/>
@@ -13413,13 +13202,13 @@
       <c r="G36" s="14"/>
       <c r="H36" s="15"/>
     </row>
-    <row r="37" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="15" customHeight="1">
       <c r="A37" s="11" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="B37" s="12"/>
       <c r="C37" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="D37" s="14"/>
       <c r="E37" s="14"/>
@@ -13427,7 +13216,7 @@
       <c r="G37" s="14"/>
       <c r="H37" s="15"/>
     </row>
-    <row r="38" spans="1:8" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="44" customHeight="1">
       <c r="A38" s="11"/>
       <c r="B38" s="12"/>
       <c r="C38" s="14"/>
@@ -13437,13 +13226,13 @@
       <c r="G38" s="14"/>
       <c r="H38" s="15"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="41.25" customHeight="1">
       <c r="A39" s="11" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B39" s="12"/>
       <c r="C39" s="13" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D39" s="14"/>
       <c r="E39" s="14"/>
@@ -13451,7 +13240,7 @@
       <c r="G39" s="14"/>
       <c r="H39" s="15"/>
     </row>
-    <row r="40" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="44" customHeight="1" thickBot="1">
       <c r="A40" s="30"/>
       <c r="B40" s="31"/>
       <c r="C40" s="32"/>
@@ -13461,13 +13250,13 @@
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8">
       <c r="A41" s="11" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="13" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D41" s="14"/>
       <c r="E41" s="14"/>
@@ -13475,7 +13264,7 @@
       <c r="G41" s="14"/>
       <c r="H41" s="15"/>
     </row>
-    <row r="42" spans="1:8" ht="44" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="44" customHeight="1" thickBot="1">
       <c r="A42" s="30"/>
       <c r="B42" s="31"/>
       <c r="C42" s="32"/>
